--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -373,7 +373,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kayla 252, Jessica 278, Isabella 427, Madison 204, Madison 324, Alexis 370, Abigail 269, Alyssa 4, Lauren 8, Lauren 60, Abigail 490, Olivia 137, Jessica 46, Lauren 96, Emily 144, Brianna 197, Jessica 425, Isabella 485, Brianna 47, Emily 505, Brianna 148, Kayla 497, Grace 320, Alexis 443, Emily 405, Grace 280, Emily 135</t>
+          <t>Alyssa 4, Lauren 8, Kayla 5, Madison 14</t>
         </is>
       </c>
     </row>
@@ -385,7 +385,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Olivia 259, Isabella 426, Emily 229, Taylor 222, Alyssa 435, Ashley 50, Elizabeth 449, Alyssa 306, Elizabeth 476, Lauren 12, Jessica 423, Sarah 210, Ashley 453, Emily 91, Olivia 234, Taylor 215, Abigail 255, Jessica 44, Samantha 150, Grace 351, Samantha 327, Jessica 32, Abigail 125, Lauren 494, Emily 439, Hannah 314, Olivia 53</t>
+          <t>Lauren 12, Lauren 11</t>
         </is>
       </c>
     </row>
@@ -397,7 +397,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jessica 278, Lauren 8, Jessica 46, Brianna 197, Samantha 150, Emily 135, Alyssa 4</t>
+          <t>Lauren 8, Alyssa 4</t>
         </is>
       </c>
     </row>
@@ -409,7 +409,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Emma 118, Lauren 363, Elizabeth 516, Alexis 365, Alexis 104, Madison 204, Jessica 206, Lauren 367, Madison 352, Isabella 244, Elizabeth 472, Emily 144, Jessica 23, Elizabeth 486, Jessica 374, Taylor 158, Abigail 406, Elizabeth 262, Ashley 195, Ashley 458, Olivia 451, Elizabeth 364, Abigail 291, Brianna 513, Madison 149, Ashley 283, Alexis 261, Jessica 293, Elizabeth 10, Alyssa 421</t>
+          <t>Elizabeth 10, Emma 9</t>
         </is>
       </c>
     </row>
@@ -421,7 +421,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Emma 118, Lauren 363, Elizabeth 516, Alexis 365, Alexis 104, Madison 204, Jessica 206, Lauren 367, Madison 352, Isabella 244, Elizabeth 472, Emily 144, Jessica 23, Elizabeth 486, Jessica 374, Taylor 158, Abigail 406, Elizabeth 262, Ashley 195, Ashley 458, Olivia 451, Elizabeth 364, Abigail 291, Brianna 513, Madison 149, Ashley 283, Alexis 261, Jessica 293, Elizabeth 10, Alyssa 421</t>
+          <t>Elizabeth 10, Emma 9</t>
         </is>
       </c>
     </row>
@@ -433,7 +433,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Emma 118, Lauren 363, Elizabeth 516, Alexis 365, Alexis 104, Madison 204, Jessica 206, Lauren 367, Madison 352, Isabella 244, Elizabeth 472, Emily 144, Jessica 23, Elizabeth 486, Jessica 374, Taylor 158, Abigail 406, Elizabeth 262, Ashley 195, Ashley 458, Olivia 451, Elizabeth 364, Abigail 291, Brianna 513, Madison 149, Ashley 283, Alexis 261, Jessica 293, Elizabeth 10, Alyssa 421</t>
+          <t>Elizabeth 10, Emma 9</t>
         </is>
       </c>
     </row>
@@ -443,11 +443,7 @@
           <t>Planimeetria alused</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Alyssa 493, Abigail 212, Jessica 383, Olivia 274, Madison 352, Isabella 244, Alyssa 233, Taylor 288, Sarah 501, Hannah 165, Elizabeth 284, Madison 162, Elizabeth 399, Ashley 195, Alyssa 304, Grace 263, Madison 243, Taylor 215, Brianna 513, Grace 159, Grace 321, Abigail 71, Alexis 470, Grace 120, Emma 185, Lauren 494, Hannah 314, Brianna 362, Alexis 468, Lauren 56</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -455,11 +451,7 @@
           <t>3D-modelleerimine 3. periood</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Elizabeth 174, Hannah 218, Abigail 109, Olivia 53, Ashley 140, Lauren 346, Isabella 63, Grace 253, Olivia 451</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -467,11 +459,7 @@
           <t>3D-modelleerimine 5. periood</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Grace 253, Grace 122, Elizabeth 157, Jessica 147, Abigail 105, Abigail 71, Samantha 27, Madison 519, Samantha 20, Grace 463, Taylor 176</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -481,7 +469,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alyssa 493, Emma 98, Kayla 252, Abigail 108, Alyssa 508, Ashley 123, Taylor 151, Alyssa 4, Lauren 60, Emma 238, Alyssa 19, Emma 216, Alexis 343, Brianna 197, Madison 444, Emily 152, Ashley 326, Lauren 249, Emma 350, Alexis 294, Grace 280, Lauren 170, Elizabeth 328, Jessica 44</t>
+          <t>Alyssa 4, Kayla 5, Madison 14</t>
         </is>
       </c>
     </row>
@@ -493,7 +481,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Isabella 183, Kayla 188, Hannah 218, Elizabeth 227, Emily 91, Alexis 340, Hannah 266, Olivia 124, Samantha 20, Brianna 47, Grace 320, Alexis 294, Madison 196, Samantha 18, Grace 213, Emily 507, Brianna 492, Taylor 145, Alyssa 128, Kayla 268, Alyssa 421, Sarah 86, Brianna 251, Jessica 303</t>
+          <t>Samantha 18</t>
         </is>
       </c>
     </row>
@@ -505,7 +493,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Emma 28, Isabella 426, Ashley 348, Alexis 365, Lauren 90, Madison 324, Alyssa 435, Olivia 1, Madison 173, Taylor 254, Olivia 416, Alexis 381, Olivia 137, Sarah 74, Alyssa 19, Emma 216, Ashley 286, Sarah 501, Jessica 425, Alyssa 432, Ashley 246, Alyssa 339, Ashley 481, Grace 292</t>
+          <t>Olivia 1</t>
         </is>
       </c>
     </row>
@@ -517,7 +505,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Emma 28, Madison 368, Lauren 232, Jessica 206, Abigail 131, Ashley 50, Alexis 335, Isabella 244, Ashley 193, Samantha 211, Isabella 160, Emma 208, Alexis 498, Kayla 188</t>
+          <t>Kayla 5, Isabella 3, Madison 14, Taylor 17, Alyssa 4, Samantha 18</t>
         </is>
       </c>
     </row>
@@ -529,7 +517,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Madison 368, Elizabeth 67</t>
+          <t>Sarah 2, Kayla 15, Lauren 12</t>
         </is>
       </c>
     </row>
@@ -541,7 +529,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Madison 368, Isabella 426, Kayla 139, Taylor 192, Madison 324, Alyssa 4, Isabella 241, Taylor 288, Emma 238, Lauren 85, Sarah 74, Elizabeth 422, Emily 228, Alexis 343, Ashley 140, Ashley 481</t>
+          <t>Alyssa 4</t>
         </is>
       </c>
     </row>
@@ -553,7 +541,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kayla 252, Alyssa 508, Abigail 212, Grace 465, Ashley 198, Alexis 335, Emily 146, Samantha 211, Isabella 160, Madison 24, Lauren 8, Brianna 88, Ashley 478, Alyssa 308, Jessica 46, Hannah 202, Brianna 361, Elizabeth 262, Lauren 207, Emma 454, Ashley 326, Samantha 73, Samantha 20, Olivia 134, Taylor 26, Olivia 234, Samantha 276, Lauren 372, Elizabeth 328, Brianna 388, Brianna 492, Grace 159, Hannah 182, Grace 411, Isabella 353, Grace 463</t>
+          <t>Lauren 8, Kayla 15</t>
         </is>
       </c>
     </row>
@@ -565,7 +553,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alexis 365, Grace 465, Taylor 115, Brianna 433, Ashley 50, Elizabeth 449, Emma 208, Isabella 241, Grace 285, Taylor 106, Olivia 237, Alyssa 133, Kayla 469, Grace 48, Lauren 136, Olivia 496, Lauren 356, Lauren 372, Isabella 3, Alyssa 421</t>
+          <t>Isabella 3</t>
         </is>
       </c>
     </row>
@@ -577,7 +565,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Grace 99, Emily 146, Isabella 354, Samantha 211, Lauren 8, Olivia 416, Abigail 408, Taylor 509, Samantha 429, Hannah 397, Hannah 467, Brianna 47, Sarah 114, Emily 403, Madison 196, Brianna 388, Kayla 268, Isabella 329, Samantha 483, Olivia 169</t>
+          <t>Lauren 8, Lauren 11</t>
         </is>
       </c>
     </row>
@@ -587,11 +575,7 @@
           <t>Labortöid füüsikas 10. ja 11. klassile</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Kayla 252, Emma 28, Kayla 139, Lauren 232, Brianna 433, Grace 99, Lauren 33, Abigail 131, Hannah 59, Olivia 274, Taylor 121, Madison 24</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -601,7 +585,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Madison 368, Isabella 342, Elizabeth 67, Elizabeth 174, Alyssa 359, Madison 126, Kayla 13, Samantha 429, Hannah 218, Alyssa 432, Taylor 130, Ashley 246, Hannah 266, Taylor 523, Emma 454, Samantha 73, Samantha 20, Grace 253, Alexis 69, Olivia 451, Olivia 234, Lauren 459, Elizabeth 157, Jessica 293, Jessica 44, Ashley 389, Sarah 86, Brianna 251, Brianna 419, Olivia 21, Samantha 178, Jessica 147, Ashley 392, Sarah 512, Grace 247, Taylor 110, Olivia 167, Kayla 5, Olivia 376, Grace 428, Grace 256, Taylor 176, Lauren 236, Abigail 109, Madison 464</t>
+          <t>Kayla 13</t>
         </is>
       </c>
     </row>
@@ -611,11 +595,7 @@
           <t>Joonestamine 4. periood</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Elizabeth 174, Emma 142, Grace 99, Alyssa 132, Alyssa 366, Isabella 63, Elizabeth 472, Emma 216, Samantha 27, Emma 58, Jessica 425, Olivia 237, Ashley 140, Brianna 438, Lauren 430, Ashley 326, Hannah 467, Grace 122, Alyssa 304, Olivia 496, Lauren 170, Kayla 7, Jessica 189, Brianna 388, Emma 77, Kayla 272, Samantha 178, Abigail 71, Alexis 470, Sarah 424, Grace 463, Isabella 375, Jessica 147, Lauren 346, Emily 439, Alyssa 491, Olivia 53, Emma 387, Samantha 462, Grace 431, Madison 519, Abigail 105, Alexis 104, Ashley 198, Brianna 88</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -625,7 +605,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Emma 28, Abigail 212, Emma 142, Brianna 433, Alyssa 435, Isabella 183, Alexis 335, Isabella 241, Alexis 171, Samantha 402, Hannah 218, Elizabeth 422, Taylor 106, Lauren 457, Samantha 27, Ashley 412, Jessica 219, Isabella 295, Grace 253, Taylor 215, Grace 282, Olivia 376, Isabella 275, Isabella 375</t>
+          <t>Hannah 16</t>
         </is>
       </c>
     </row>
@@ -637,7 +617,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Olivia 259, Jessica 278, Brianna 153, Lauren 33, Abigail 131, Emily 146, Elizabeth 476, Samantha 487, Alyssa 233, Hannah 194, Samantha 271, Sarah 74, Brianna 197, Olivia 237, Taylor 130, Hannah 266, Kayla 235, Olivia 40, Emma 72, Lauren 249, Brianna 148, Lauren 489, Hannah 287, Alexis 261</t>
+          <t>Kayla 7, Kayla 13</t>
         </is>
       </c>
     </row>
@@ -649,7 +629,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kayla 252, Elizabeth 67, Samantha 302, Jessica 191, Emma 142, Jessica 383, Ashley 198, Samantha 211, Emily 37, Lauren 360, Alexis 381, Lauren 49, Jessica 506, Kayla 15, Alexis 316, Emily 390, Jessica 521, Alexis 45, Olivia 237, Isabella 485, Hannah 266, Ashley 81, Grace 292, Grace 267, Samantha 20</t>
+          <t>Kayla 15</t>
         </is>
       </c>
     </row>
@@ -661,7 +641,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Isabella 426, Isabella 342, Isabella 427, Jessica 191, Elizabeth 436, Ashley 50, Emily 37, Samantha 143, Alexis 381, Ashley 453, Olivia 237, Ashley 246, Isabella 485, Alyssa 133, Brianna 456, Emma 290, Olivia 234, Brianna 148, Elizabeth 157, Abigail 255, Hannah 287, Emily 507</t>
+          <t>Kayla 7</t>
         </is>
       </c>
     </row>
@@ -673,7 +653,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Alyssa 493, Elizabeth 516, Ashley 123, Ashley 50, Olivia 103, Brianna 221, Taylor 121, Emma 208, Alyssa 233, Isabella 241, Olivia 102, Emily 390, Ashley 286, Lauren 207, Grace 263, Olivia 451, Kayla 379, Elizabeth 157, Sarah 114, Lauren 356, Ashley 389, Abigail 517, Grace 351, Olivia 318, Abigail 296, Samantha 386, Grace 321, Elizabeth 307, Samantha 250</t>
+          <t>Emma 9</t>
         </is>
       </c>
     </row>
@@ -685,7 +665,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sarah 518, Emma 118, Jessica 437, Elizabeth 436, Madison 324, Jessica 206, Alexis 370, Isabella 244, Taylor 288, Alexis 471, Alexis 62, Brianna 203, Grace 199, Emma 401, Kayla 15, Alexis 316, Olivia 345, Taylor 158, Elizabeth 262, Elizabeth 289, Emma 454, Elizabeth 284, Ashley 481, Brianna 47, Grace 320, Brianna 513, Emily 403, Elizabeth 328, Jessica 189, Emma 77, Samantha 327, Lauren 258, Isabella 329, Samantha 483, Ashley 220, Olivia 214, Olivia 376, Alexis 470, Samantha 250, Brianna 418, Abigail 125, Hannah 314, Emma 300, Olivia 53, Hannah 281, Olivia 477, Madison 415, Abigail 341, Brianna 179, Abigail 177</t>
+          <t>Kayla 15, Kayla 5</t>
         </is>
       </c>
     </row>
@@ -697,7 +677,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Alexis 104, Elizabeth 436, Alexis 378, Lauren 367, Lauren 475, Isabella 354, Elizabeth 391, Taylor 254, Alyssa 306, Samantha 487, Emily 445, Abigail 408, Alyssa 39, Kayla 15, Samantha 27, Emily 336, Elizabeth 227, Taylor 158, Abigail 406, Abigail 279, Madison 444, Madison 155, Lauren 207, Emily 152, Sarah 434</t>
+          <t>Kayla 15, Taylor 17</t>
         </is>
       </c>
     </row>
@@ -709,7 +689,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Emma 28, Abigail 108, Jessica 191, Abigail 413, Lauren 248, Isabella 183, Kayla 407, Taylor 6, Jessica 423, Lauren 457, Olivia 345, Jessica 374, Ashley 117, Emily 91, Alexis 340, Grace 267, Taylor 26, Brianna 492, Elizabeth 10, Lauren 358, Hannah 317, Abigail 296, Elizabeth 79, Grace 83, Sarah 424, Taylor 394, Isabella 375, Emma 404</t>
+          <t>Taylor 6, Elizabeth 10</t>
         </is>
       </c>
     </row>
@@ -721,7 +701,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Madison 204, Taylor 115, Ashley 50, Ashley 193, Taylor 121, Alyssa 359, Emily 37, Grace 100, Alexis 381, Ashley 453, Olivia 41, Abigail 279, Isabella 485, Madison 155, Grace 267, Olivia 124, Grace 48, Brianna 299, Samantha 68, Hannah 181, Taylor 26, Alyssa 304, Lauren 372, Samantha 150, Emily 97, Olivia 169, Samantha 386, Samantha 178, Sarah 424, Isabella 375, Jessica 311, Hannah 332, Alyssa 491, Ashley 84, Jessica 70, Grace 431, Olivia 127, Elizabeth 116, Samantha 398, Grace 465, Lauren 337, Abigail 406, Olivia 21, Brianna 201, Samantha 302, Taylor 110, Lauren 170, Emily 333, Ashley 392, Grace 22</t>
+          <t>Hannah 16, Isabella 3</t>
         </is>
       </c>
     </row>
@@ -731,11 +711,7 @@
           <t>Astronoomia</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Jessica 461, Sarah 331, Alyssa 493, Abigail 108, Elizabeth 67, Taylor 151, Brianna 172, Lauren 60, Ashley 240, Lauren 85, Hannah 194, Alexis 381, Abigail 408, Lauren 96, Emma 216, Alyssa 273, Samantha 429, Brianna 197, Ashley 412, Lauren 207, Alyssa 339, Lauren 310, Kayla 469, Madison 162, Grace 253, Brianna 47, Brianna 180, Lauren 459, Kayla 379, Alexis 294</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -743,11 +719,7 @@
           <t>Astrofüüsika 2. periood</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Emma 25, Olivia 259, Brianna 153, Emily 334, Grace 99, Lauren 33, Madison 54, Ashley 123, Samantha 211, Abigail 338, Emily 37, Emma 238, Alexis 471, Hannah 194, Brianna 201, Samantha 402, Olivia 102, Emma 401, Alyssa 273, Hannah 202, Elizabeth 385, Ashley 453, Emily 479, Brianna 456, Ashley 81, Emma 290, Jessica 219, Alexis 355, Kayla 466, Elizabeth 328, Grace 213, Olivia 138, Brianna 388, Sarah 442, Abigail 231</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -757,7 +729,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Alexis 35, Abigail 108, Taylor 192, Alexis 104, Lauren 248, Alyssa 132, Kayla 407, Elizabeth 476, Lauren 360, Lauren 49, Hannah 397, Taylor 130, Hannah 266, Alyssa 304, Emma 72, Lauren 29, Taylor 215, Grace 320, Alexis 294, Madison 149, Hannah 287, Grace 22, Abigail 503, Sarah 86, Abigail 296, Samantha 483, Ashley 220, Elizabeth 43, Sarah 424, Isabella 95, Brianna 373, Kayla 5, Lauren 236, Samantha 484, Abigail 341</t>
+          <t>Kayla 5, Emma 9</t>
         </is>
       </c>
     </row>
@@ -769,7 +741,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Elizabeth 67, Jessica 278, Jessica 191, Madison 204, Elizabeth 436, Emma 142, Brianna 153, Jessica 206, Isabella 183, Alexis 370, Olivia 103, Taylor 151, Taylor 121, Alyssa 4, Alyssa 359, Elizabeth 449, Alyssa 233, Grace 199, Abigail 408, Sarah 210</t>
+          <t>Alyssa 4, Lauren 11</t>
         </is>
       </c>
     </row>
@@ -779,11 +751,7 @@
           <t>Loogika 2. periood</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Emma 98, Emily 229, Ashley 78, Jessica 206, Ashley 198, Alexis 335, Brianna 221, Isabella 63, Ashley 240, Lauren 360, Sarah 210, Taylor 509, Hannah 323, Hannah 397, Samantha 480, Olivia 40, Jessica 265, Kayla 379, Olivia 239, Abigail 517, Samantha 327, Kayla 268, Olivia 214, Brianna 92, Brianna 200, Abigail 450, Hannah 129, Jessica 230, Emily 349, Olivia 264, Ashley 168</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -793,7 +761,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sarah 331, Madison 204, Brianna 153, Lauren 33, Alexis 378, Lauren 475, Abigail 490, Jessica 423, Hannah 194, Sarah 2, Samantha 402, Elizabeth 262, Ashley 246, Alyssa 133, Alexis 355, Ashley 441, Lauren 459, Alyssa 440, Alexis 261, Abigail 344, Ashley 414, Grace 120, Emma 404, Emma 55, Elizabeth 141, Hannah 314, Lauren 337, Alexis 80, Isabella 187, Taylor 192, Brianna 513</t>
+          <t>Sarah 2</t>
         </is>
       </c>
     </row>
@@ -803,11 +771,7 @@
           <t>Programmeerimine keeles Java 1</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Hannah 314, Emily 405, Emily 135, Brianna 47, Isabella 485</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -825,7 +789,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lauren 52, Alexis 365, Olivia 504, Isabella 244, Brianna 172, Olivia 416, Brianna 203, Sarah 74, Lauren 96, Elizabeth 422, Taylor 106, Jessica 23, Lauren 457, Grace 396, Brianna 361, Kayla 469, Olivia 134, Emily 505, Emily 405, Abigail 255, Samantha 327, Grace 282, Olivia 214, Jessica 32, Ashley 510, Elizabeth 473, Abigail 109, Madison 301, Lauren 494, Sarah 277</t>
+          <t>Kayla 5</t>
         </is>
       </c>
     </row>
@@ -837,7 +801,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Madison 368, Abigail 108, Alexis 365, Isabella 427, Emma 142, Hannah 59, Olivia 103, Taylor 151, Elizabeth 391, Alyssa 366, Isabella 63, Emma 238, Brianna 88, Alexis 171, Lauren 49, Olivia 102, Alyssa 19, Alyssa 39, Lauren 457, Madison 225, Kayla 51, Emily 390, Jessica 425, Ashley 246, Lauren 430, Ashley 195, Olivia 502, Brianna 180, Taylor 215, Abigail 291, Kayla 369, Alexis 443, Emma 350, Alexis 294, Isabella 474, Grace 428, Elizabeth 307, Sarah 420, Ashley 510, Emma 305, Elizabeth 473, Emma 185, Olivia 186, Sarah 512, Olivia 270, Alexis 80, Kayla 75, Madison 322, Brianna 438, Sarah 156</t>
+          <t>Elizabeth 10, Alyssa 4</t>
         </is>
       </c>
     </row>
@@ -849,7 +813,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Elizabeth 67, Alyssa 508, Alyssa 435, Isabella 183, Emily 87, Isabella 160, Abigail 338, Madison 173, Samantha 143, Lauren 12, Alyssa 308, Madison 126, Lauren 452, Elizabeth 472, Samantha 429, Hannah 218, Elizabeth 385, Grace 396, Alexis 343, Ashley 286, Alyssa 432, Alexis 340, Alyssa 339, Hannah 467, Samantha 480, Ashley 458, Madison 243, Lauren 459, Emily 405, Ashley 283, Abigail 255, Jessica 293, Kayla 272, Grace 282, Isabella 353, Taylor 394, Madison 301, Jessica 230, Jessica 175, Emma 387, Lauren 11, Kayla 409, Sarah 315, Jessica 163, Abigail 82, Sarah 107, Emma 9, Elizabeth 166, Olivia 167, Olivia 1</t>
+          <t>Lauren 12, Lauren 11, Emma 9, Sarah 2, Olivia 1</t>
         </is>
       </c>
     </row>
@@ -859,11 +823,7 @@
           <t>Arvutite riistvara ja lisaseadmed</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Emily 229, Emily 334, Abigail 131, Alexis 370, Madison 173, Taylor 288, Emma 401, Alyssa 273, Alexis 316, Emma 454, Isabella 161, Alexis 69, Taylor 26, Brianna 180, Alyssa 380, Hannah 119</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -871,11 +831,7 @@
           <t>Loodusteadused, tehnoloogia ja ühiskond</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Lauren 90, Elizabeth 436, Emily 146, Emily 87, Samantha 211, Isabella 160, Taylor 254, Elizabeth 476, Lauren 60, Emily 445, Emma 238, Lauren 452, Sarah 377, Olivia 137, Emily 144, Emily 228, Elizabeth 385, Jessica 521, Hannah 165, Emily 152, Taylor 215, Samantha 298, Brianna 205, Grace 280, Brianna 419</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -885,7 +841,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Brianna 61, Alexis 35, Emily 334, Ashley 193, Alexis 471, Alyssa 308, Madison 126, Lauren 49, Samantha 429, Taylor 158, Alyssa 432, Taylor 130, Isabella 485, Madison 155, Emma 290, Jessica 219, Alexis 69, Madison 243, Olivia 234, Elizabeth 364, Isabella 347, Ashley 283, Sarah 156, Samantha 483, Olivia 21, Alyssa 245, Taylor 394</t>
+          <t>Hannah 16, Olivia 1</t>
         </is>
       </c>
     </row>
@@ -897,7 +853,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Brianna 61, Ashley 78, Jessica 66, Lauren 248, Emily 330, Taylor 6, Alyssa 233, Grace 100, Kayla 188, Emma 499, Abigail 490, Sarah 400, Lauren 452, Brianna 201, Ashley 460, Kayla 51, Olivia 41, Hannah 165</t>
+          <t>Taylor 6</t>
         </is>
       </c>
     </row>
@@ -909,7 +865,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Brianna 61, Ashley 78, Jessica 66, Lauren 248, Emily 330, Taylor 6, Alyssa 233, Grace 100, Kayla 188, Emma 499, Abigail 490, Sarah 400, Lauren 452, Brianna 201, Ashley 460, Kayla 51, Olivia 41, Hannah 165</t>
+          <t>Taylor 6</t>
         </is>
       </c>
     </row>
@@ -921,7 +877,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Brianna 61, Ashley 78, Jessica 66, Lauren 248, Emily 330, Taylor 6, Alyssa 233, Grace 100, Kayla 188, Emma 499, Abigail 490, Sarah 400, Lauren 452, Brianna 201, Ashley 460, Kayla 51, Olivia 41, Hannah 165</t>
+          <t>Taylor 6</t>
         </is>
       </c>
     </row>
@@ -931,11 +887,7 @@
           <t>Kirjandus ja film</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Sarah 331, Elizabeth 516, Lauren 90, Emily 330, Grace 100, Olivia 416, Kayla 188, Alexis 62, Samantha 143, Alyssa 308, Sarah 400, Alexis 171, Elizabeth 472, Alyssa 19, Alexis 316, Emily 390, Olivia 41, Kayla 235, Isabella 161, Abigail 291, Kayla 369, Emma 350, Sarah 114, Emily 403, Madison 149, Abigail 255, Lauren 170, Sarah 156, Emma 77, Kayla 272, Hannah 357, Grace 282, Kayla 495, Olivia 169</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -945,7 +897,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Brianna 61, Lauren 363, Ashley 348, Samantha 302, Isabella 395, Emma 142, Olivia 504, Hannah 59, Elizabeth 476, Brianna 203, Alexis 381, Samantha 271, Jessica 506, Jessica 23, Elizabeth 486, Jessica 521, Elizabeth 289, Ashley 412, Olivia 502, Lauren 249, Isabella 347, Alexis 524, Grace 511</t>
+          <t>Emma 9</t>
         </is>
       </c>
     </row>
@@ -957,7 +909,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Emma 118, Taylor 192, Lauren 232, Madison 24, Alyssa 366, Alexis 498, Taylor 226, Lauren 85, Lauren 12, Lauren 452, Sarah 2, Sarah 74, Madison 319, Elizabeth 422, Sarah 31, Alexis 343, Brianna 361, Elizabeth 262, Ashley 140, Emily 65</t>
+          <t>Lauren 12, Sarah 2, Hannah 16</t>
         </is>
       </c>
     </row>
@@ -969,7 +921,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Jessica 437, Kayla 139, Taylor 222, Alyssa 435, Olivia 103, Brianna 172, Isabella 160, Brianna 88, Emma 499, Grace 199, Emma 58, Alexis 45, Ashley 481, Hannah 467, Brianna 180, Hannah 119, Alexis 294, Isabella 474, Lauren 93, Alexis 261</t>
+          <t>Lauren 11</t>
         </is>
       </c>
     </row>
@@ -981,7 +933,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sarah 518, Emma 98, Abigail 212, Emma 142, Isabella 183, Lauren 8, Alyssa 308, Jessica 46, Emma 401, Alyssa 19, Kayla 13, Elizabeth 385, Samantha 27, Emily 390, Olivia 124, Samantha 20</t>
+          <t>Lauren 8, Kayla 13, Isabella 3, Kayla 7</t>
         </is>
       </c>
     </row>
@@ -1001,7 +953,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Emma 25, Isabella 342, Jessica 278, Taylor 192, Abigail 269, Abigail 338, Madison 173, Emily 37, Alexis 498, Lauren 360, Taylor 509, Grace 396, Ashley 286, Abigail 279, Taylor 130, Madison 444</t>
+          <t>Madison 14, Taylor 17, Kayla 5</t>
         </is>
       </c>
     </row>
@@ -1019,11 +971,7 @@
           <t>Lähis-Ida 20. sajandi teisest poolest tänapäevani</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Lauren 52, Samantha 302, Lauren 90, Madison 324, Brianna 221, Alyssa 359, Emma 238, Brianna 88, Lauren 49, Emily 228, Lauren 457, Olivia 345, Madison 225, Alexis 45, Alyssa 432, Jessica 219, Kayla 235, Alexis 355, Emma 72, Grace 280, Grace 213, Taylor 145, Hannah 357, Olivia 214, Grace 321, Brianna 42, Grace 428, Emma 55, Jessica 230, Lauren 346, Alexis 371, Emma 217, Brianna 362, Grace 515, Alexis 468, Olivia 127</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1033,7 +981,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Madison 368, Alexis 35, Emily 334, Jessica 383, Madison 54, Olivia 103, Isabella 241, Olivia 416, Samantha 143, Madison 126, Sarah 2, Hannah 218, Hannah 397, Sarah 501, Jessica 520, Elizabeth 289, Olivia 237, Isabella 485, Emily 65, Ashley 481, Olivia 40, Lauren 29, Lauren 249, Grace 320, Emma 257, Hannah 119, Samantha 298, Emily 403, Lauren 356, Sarah 156, Kayla 272, Brianna 492</t>
+          <t>Sarah 2</t>
         </is>
       </c>
     </row>
@@ -1045,7 +993,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Isabella 395, Grace 465, Alexis 378, Olivia 1, Alyssa 366, Lauren 309, Brianna 203, Grace 285, Grace 199, Sarah 377, Olivia 102, Hannah 202, Olivia 384, Emily 336, Elizabeth 227, Emily 479, Ashley 117, Sarah 434, Elizabeth 399, Grace 263</t>
+          <t>Olivia 1</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1005,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Isabella 395, Grace 465, Alexis 378, Olivia 1, Alyssa 366, Lauren 309, Brianna 203, Grace 285, Grace 199, Sarah 377, Olivia 102, Hannah 202, Olivia 384, Emily 336, Elizabeth 227, Emily 479, Ashley 117, Sarah 434, Elizabeth 399, Grace 263</t>
+          <t>Olivia 1</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1017,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Isabella 395, Grace 465, Alexis 378, Olivia 1, Alyssa 366, Lauren 309, Brianna 203, Grace 285, Grace 199, Sarah 377, Olivia 102, Hannah 202, Olivia 384, Emily 336, Elizabeth 227, Emily 479, Ashley 117, Sarah 434, Elizabeth 399, Grace 263</t>
+          <t>Olivia 1</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1029,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Jessica 437, Elizabeth 174, Hannah 522, Olivia 504, Alyssa 132, Emily 87, Taylor 254, Emma 208, Isabella 63, Alexis 471, Alexis 62, Ashley 478, Samantha 271, Madison 319, Hannah 323, Sarah 31, Madison 155, Lauren 430, Grace 48, Samantha 68, Olivia 502, Jessica 265, Emily 505, Kayla 466, Samantha 18</t>
+          <t>Samantha 18</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1041,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jessica 437, Elizabeth 174, Hannah 522, Olivia 504, Alyssa 132, Emily 87, Taylor 254, Emma 208, Isabella 63, Alexis 471, Alexis 62, Ashley 478, Samantha 271, Madison 319, Hannah 323, Sarah 31, Madison 155, Lauren 430, Grace 48, Samantha 68, Olivia 502, Jessica 265, Emily 505, Kayla 466, Samantha 18</t>
+          <t>Samantha 18</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1053,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jessica 437, Elizabeth 174, Hannah 522, Olivia 504, Alyssa 132, Emily 87, Taylor 254, Emma 208, Isabella 63, Alexis 471, Alexis 62, Ashley 478, Samantha 271, Madison 319, Hannah 323, Sarah 31, Madison 155, Lauren 430, Grace 48, Samantha 68, Olivia 502, Jessica 265, Emily 505, Kayla 466, Samantha 18</t>
+          <t>Samantha 18</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1065,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Alyssa 508, Jessica 191, Abigail 413, Ashley 198, Ashley 123, Alexis 370, Alexis 335, Emily 146, Lauren 475, Isabella 354, Ashley 193, Alyssa 4, Elizabeth 391, Samantha 487, Jessica 506, Kayla 15, Emma 58, Brianna 361</t>
+          <t>Alyssa 4, Kayla 15, Hannah 16</t>
         </is>
       </c>
     </row>
@@ -1127,11 +1075,7 @@
           <t>Ajakirjanduse alused</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Sarah 331, Kayla 139, Emily 330, Abigail 131, Ashley 193, Kayla 188, Ashley 460, Elizabeth 472, Elizabeth 422, Jessica 23, Olivia 345, Taylor 158, Hannah 165, Alyssa 133, Madison 444, Madison 155, Lauren 430, Kayla 469, Elizabeth 284, Isabella 161, Lauren 459, Lauren 136, Olivia 496, Abigail 255, Olivia 239, Alexis 261, Jessica 293, Jessica 44, Jessica 189, Alyssa 128, Kayla 410</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1141,7 +1085,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Emma 118, Samantha 302, Emily 229, Ashley 78, Taylor 115, Olivia 504, Emily 87, Abigail 338, Emma 208, Emily 445, Taylor 288, Ashley 240, Grace 285, Jessica 423, Sarah 377, Taylor 106, Lauren 457, Ashley 453, Emma 58, Emily 390, Abigail 406, Ashley 81, Lauren 310, Emily 505, Brianna 148, Lauren 489, Lauren 93, Samantha 18, Emily 507, Lauren 258</t>
+          <t>Hannah 16, Samantha 18</t>
         </is>
       </c>
     </row>
@@ -1151,11 +1095,7 @@
           <t>Filosoofia 2</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Emma 208, Emily 445, Taylor 106, Emma 58, Lauren 93, Emily 507, Lauren 310</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1165,7 +1105,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sarah 518, Madison 368, Lauren 363, Brianna 433, Jessica 383, Samantha 143, Samantha 271, Madison 319, Emma 401, Jessica 506, Alyssa 39, Olivia 384, Madison 225, Jessica 520, Ashley 412, Sarah 434, Taylor 17, Isabella 295</t>
+          <t>Kayla 7, Taylor 17</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1117,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sarah 518, Madison 368, Lauren 363, Brianna 433, Jessica 383, Samantha 143, Samantha 271, Madison 319, Emma 401, Jessica 506, Alyssa 39, Olivia 384, Madison 225, Jessica 520, Ashley 412, Sarah 434, Taylor 17, Isabella 295</t>
+          <t>Kayla 7, Taylor 17</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1129,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Alyssa 493, Emma 98, Lauren 33, Ashley 123, Ashley 50, Lauren 367, Lauren 475, Isabella 244, Isabella 354, Lauren 12, Sarah 400, Lauren 96, Taylor 509, Jessica 374, Abigail 279, Alexis 340, Hannah 467, Brianna 180, Elizabeth 364, Lauren 249, Emma 257, Hannah 119, Kayla 379, Isabella 474, Kayla 272, Emily 97</t>
+          <t>Lauren 12, Taylor 6</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1141,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Lauren 52, Brianna 61, Isabella 427, Isabella 395, Hannah 522, Abigail 269, Alyssa 306, Lauren 60, Samantha 487, Alexis 62, Abigail 490, Madison 126, Hannah 194, Sarah 2, Brianna 201, Samantha 429, Hannah 323, Olivia 41</t>
+          <t>Sarah 2, Isabella 3, Elizabeth 10, Madison 14</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1153,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Jessica 461, Jessica 437, Elizabeth 516, Abigail 413, Emily 334, Alexis 378, Olivia 274, Madison 352, Brianna 221, Brianna 172, Elizabeth 391, Isabella 241, Alexis 498, Alexis 471, Lauren 309, Emma 499</t>
+          <t>Kayla 13</t>
         </is>
       </c>
     </row>
@@ -1223,11 +1163,7 @@
           <t>Fotograafia 1</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Alexis 35, Abigail 413, Brianna 153, Lauren 475, Isabella 160, Emily 445, Taylor 226, Alyssa 308, Lauren 49, Lauren 96, Jessica 506, Sarah 501, Jessica 425, Jessica 520, Ashley 481, Kayla 235, Alexis 355, Samantha 20, Olivia 134, Hannah 181, Samantha 480, Madison 243, Lauren 459, Kayla 497</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1235,11 +1171,7 @@
           <t>Inimene ja ühiskond 3. periood</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Taylor 192, Jessica 383, Taylor 121, Abigail 338, Elizabeth 391, Samantha 487, Madison 126, Jessica 423, Olivia 137, Emily 91, Ashley 81, Emily 65, Brianna 299, Emma 72, Kayla 369, Grace 320, Emma 77, Kayla 272, Ashley 389, Lauren 258, Grace 159, Kayla 495, Samantha 488, Ashley 392, Jessica 230, Brianna 373, Jessica 163, Abigail 82, Lauren 56, Taylor 94, Emma 64, Lauren 337, Lauren 11, Ashley 198, Olivia 270, Hannah 194</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1249,7 +1181,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Emma 25, Taylor 222, Madison 24, Lauren 12, Elizabeth 289, Kayla 379, Lauren 93, Jessica 189, Jessica 32, Isabella 95, Emma 404, Abigail 125, Lauren 494, Alexis 371, Alyssa 491, Olivia 53, Elizabeth 313, Hannah 281, Madison 415, Taylor 110, Brianna 179, Lauren 223, Elizabeth 116, Emma 9, Madison 417, Emily 349, Lauren 236, Olivia 318, Sarah 277, Elizabeth 307, Alyssa 440, Lauren 372, Samantha 382, Ashley 441, Abigail 209, Samantha 462</t>
+          <t>Lauren 12</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1193,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jessica 278, Lauren 90, Abigail 269, Kayla 407, Alyssa 359, Madison 225, Ashley 140, Brianna 438, Kayla 469, Madison 162, Grace 122, Alyssa 304, Olivia 40, Lauren 29, Lauren 136, Samantha 276, Olivia 239, Grace 213, Isabella 3, Alyssa 128, Lauren 358, Kayla 410, Hannah 317, Brianna 251, Brianna 419, Alyssa 245, Taylor 394, Sarah 442, Isabella 242, Brianna 200</t>
+          <t>Isabella 3</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1205,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Kayla 252, Isabella 426, Jessica 437, Abigail 413, Isabella 395, Brianna 153, Alexis 378, Lauren 475, Brianna 221, Abigail 338, Elizabeth 391, Taylor 254, Elizabeth 476, Lauren 12, Sarah 400, Jessica 46, Jessica 506, Kayla 15, Alexis 316, Sarah 31, Lauren 457, Samantha 27, Emily 390, Brianna 361, Emily 91, Abigail 279, Hannah 266, Madison 444, Lauren 207, Emily 65</t>
+          <t>Lauren 12, Kayla 15, Lauren 11, Elizabeth 10</t>
         </is>
       </c>
     </row>
@@ -1283,11 +1215,7 @@
           <t>Turundus</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Jessica 461, Lauren 52, Olivia 259, Ashley 348, Lauren 232, Lauren 33, Hannah 59, Brianna 221, Ashley 240, Brianna 88, Alyssa 39, Emily 390, Alyssa 432, Taylor 130, Emily 97, Abigail 503, Ashley 220, Jessica 303, Abigail 71, Emma 305, Grace 411, Alexis 470, Madison 301, Jessica 311, Elizabeth 141, Lauren 346</t>
-        </is>
-      </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1297,7 +1225,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sarah 518, Sarah 331, Olivia 274, Elizabeth 449, Elizabeth 476, Lauren 85, Sarah 74, Kayla 13, Grace 396, Alexis 45, Elizabeth 284, Taylor 17, Samantha 73, Emma 257, Samantha 298, Lauren 489, Lauren 356, Abigail 517, Olivia 21, Grace 428, Samantha 250, Grace 120, Abigail 109, Jessica 147</t>
+          <t>Kayla 13, Taylor 17</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1237,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Emma 25, Isabella 426, Emma 118, Jessica 437, Abigail 108, Alyssa 508, Lauren 248, Isabella 395, Taylor 222, Elizabeth 449, Grace 100, Taylor 226, Lauren 85, Lauren 12, Grace 199, Abigail 408, Hannah 202, Kayla 15, Elizabeth 486, Alexis 343</t>
+          <t>Lauren 12, Kayla 15, Lauren 11, Elizabeth 10, Isabella 3</t>
         </is>
       </c>
     </row>
@@ -1319,11 +1247,7 @@
           <t>Kujutav geomeetria</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Emma 98, Kayla 252, Hannah 59, Isabella 354, Madison 173, Taylor 288, Ashley 478, Sarah 400, Taylor 509, Alyssa 273, Ashley 453, Jessica 374, Abigail 406, Elizabeth 289, Madison 444, Ashley 81, Kayla 235, Madison 162, Grace 253, Ashley 195, Hannah 181, Olivia 502</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1331,11 +1255,7 @@
           <t>Loominguline joonistamine 2</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Samantha 302, Alexis 381</t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1345,7 +1265,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ashley 348, Emily 229, Jessica 66, Taylor 115, Jessica 206, Madison 24, Lauren 309, Grace 285, Sarah 210, Kayla 13, Hannah 323, Abigail 279, Taylor 523, Elizabeth 284, Samantha 73, Isabella 161, Ashley 458, Emma 72, Brianna 180, Lauren 249, Abigail 291, Emily 403, Hannah 287, Grace 159, Grace 511, Hannah 317, Olivia 169, Samantha 488, Grace 83, Isabella 353, Abigail 231, Brianna 200, Alexis 36, Isabella 260, Sarah 57</t>
+          <t>Kayla 13, Taylor 6, Madison 14</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1277,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Emma 28, Jessica 278, Taylor 115, Grace 99, Ashley 123, Alexis 370, Elizabeth 391, Alyssa 359, Lauren 60, Jessica 423, Sarah 210, Lauren 96, Kayla 13, Alyssa 273, Samantha 429, Hannah 397, Lauren 457, Grace 396, Brianna 361, Sarah 501, Abigail 279, Elizabeth 284, Samantha 73, Brianna 299, Hannah 181, Samantha 480, Olivia 234, Lauren 459, Alyssa 440, Alyssa 380, Emily 403, Ashley 297, Lauren 372, Kayla 7, Sarah 86, Samantha 224</t>
+          <t>Kayla 13, Lauren 11, Kayla 7</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1289,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lauren 232, Lauren 90, Emily 334, Alyssa 435, Brianna 221, Lauren 8, Elizabeth 476, Samantha 487, Hannah 194, Abigail 408, Emma 401, Jessica 520, Brianna 438, Taylor 523, Emma 454</t>
+          <t>Lauren 8, Taylor 17</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1301,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Abigail 212, Brianna 433, Brianna 153, Abigail 269, Isabella 160, Abigail 338, Emily 445, Samantha 143, Sarah 2, Olivia 137, Samantha 402, Taylor 130, Ashley 246, Ashley 412, Alyssa 339, Lauren 310, Jessica 219, Grace 122, Alyssa 128, Abigail 517, Hannah 317, Brianna 251, Brianna 42, Abigail 109</t>
+          <t>Sarah 2, Madison 14</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1313,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Alyssa 493, Ashley 50, Emily 146, Olivia 103, Taylor 226, Hannah 218, Alexis 340, Emma 290, Emily 65, Emily 152, Kayla 469, Hannah 467, Hannah 119, Isabella 474, Abigail 255, Hannah 287, Samantha 150, Hannah 357, Samantha 327, Grace 282, Kayla 495, Olivia 169, Samantha 386, Ashley 414, Emma 305, Elizabeth 473, Emma 185, Ashley 392, Hannah 129, Lauren 346, Emma 448, Emily 349, Kayla 5, Olivia 186, Ashley 168, Lauren 101, Taylor 500, Kayla 409, Olivia 264, Brianna 492, Taylor 176, Isabella 347, Brianna 92, Brianna 172, Kayla 410, Brianna 47, Alexis 294, Jessica 311, Elizabeth 164, Brianna 205, Abigail 82, Alyssa 245, Emma 72, Sarah 518, Madison 444, Isabella 161, Grace 463, Sarah 420, Kayla 272, Emily 135, Lauren 489, Olivia 138, Kayla 497, Grace 159, Brianna 197, Abigail 344, Sarah 114, Emma 216, Brianna 419, Hannah 332, Kayla 75, Elizabeth 157, Emily 405, Abigail 108, Isabella 375, Madison 455, Sarah 482, Alyssa 19, Elizabeth 385, Lauren 258</t>
+          <t>Kayla 5</t>
         </is>
       </c>
     </row>
@@ -1403,11 +1323,7 @@
           <t>Riigikaitse 2</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Taylor 226, Hannah 218, Samantha 150, Olivia 169, Samantha 386, Hannah 119, Emma 185, Brianna 47, Alexis 294, Ashley 414, Ashley 392, Lauren 346, Hannah 467, Elizabeth 157, Emily 349, Kayla 272, Sarah 420, Abigail 344, Emily 152, Olivia 138, Emily 135</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1417,7 +1333,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Lauren 52, Emily 229, Abigail 413, Lauren 33, Isabella 183, Hannah 59, Olivia 274, Kayla 407, Taylor 121, Madison 173, Alyssa 306, Alexis 498, Brianna 88, Alyssa 308, Jessica 46, Taylor 106, Olivia 345, Emma 58, Madison 225, Ashley 286, Emily 91, Jessica 425, Alyssa 432, Brianna 456, Lauren 207</t>
+          <t>Isabella 3, Hannah 16</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1343,7 @@
           <t>Ajakirjanduse praktika</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Emily 229, Emily 330, Ashley 460, Jessica 23, Sarah 501, Taylor 523, Samantha 73, Abigail 255, Grace 511, Hannah 317, Alexis 36, Samantha 488, Brianna 492, Jessica 189, Brianna 200, Isabella 161, Lauren 309, Emma 257, Elizabeth 284, Madison 126, Sarah 210, Kayla 13, Lauren 136, Lauren 356, Olivia 345, Isabella 353, Samantha 143, Emily 403, Alyssa 128</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1441,7 +1353,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jessica 461, Alexis 35, Isabella 342, Elizabeth 67, Elizabeth 174, Jessica 278, Lauren 90, Elizabeth 436, Hannah 522, Taylor 222, Madison 54, Alexis 370, Alyssa 359, Taylor 6, Samantha 487, Isabella 241, Taylor 288, Abigail 490, Grace 199, Brianna 201, Hannah 323, Hannah 397, Olivia 384, Emily 336, Taylor 158, Olivia 41, Brianna 197, Hannah 165, Alexis 340, Ashley 140</t>
+          <t>Taylor 6, Kayla 13</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1365,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Emma 98, Ashley 348, Kayla 139, Taylor 192, Jessica 191, Alexis 104, Emily 334, Olivia 103, Abigail 269, Kayla 407, Taylor 121, Madison 24, Lauren 8, Lauren 60, Alexis 471, Brianna 88, Alyssa 308, Grace 285</t>
+          <t>Lauren 8, Sarah 2</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1377,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Alyssa 493, Emma 118, Ashley 78, Taylor 115, Alyssa 435, Jessica 383, Grace 99, Ashley 123, Alyssa 132, Olivia 1, Emily 87, Alyssa 366, Grace 100, Olivia 416, Emma 499, Samantha 271</t>
+          <t>Olivia 1, Emma 9, Hannah 16, Kayla 7</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1389,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Alyssa 493, Lauren 52, Lauren 363, Elizabeth 174, Abigail 413, Hannah 522, Emily 330, Olivia 504, Brianna 221, Kayla 407, Madison 24, Lauren 8, Taylor 6, Isabella 241, Ashley 478, Taylor 226, Grace 285, Abigail 490, Sarah 377, Emma 216</t>
+          <t>Lauren 8, Taylor 6, Samantha 18, Madison 14, Taylor 17</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1401,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sarah 518, Isabella 426, Alexis 35, Hannah 522, Abigail 131, Olivia 1, Emily 146, Taylor 151, Emily 87, Taylor 121, Lauren 309, Sarah 377, Lauren 49, Ashley 460, Kayla 51, Ashley 286</t>
+          <t>Olivia 1, Samantha 18, Kayla 7</t>
         </is>
       </c>
     </row>
@@ -1499,11 +1411,7 @@
           <t>Tänavakunst</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Sarah 331, Kayla 252, Isabella 342, Emily 229, Jessica 191, Alexis 104, Lauren 90, Brianna 433, Grace 99, Alyssa 132, Samantha 211, Alyssa 306, Alexis 498, Ashley 240, Lauren 309, Emma 499, Abigail 408, Lauren 96, Taylor 509, Emily 144</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -364,6 +364,11 @@
           <t>Õpilased</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Järjekord</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -373,7 +378,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alyssa 4, Lauren 8, Kayla 5, Madison 14</t>
+          <t>Jessica 278, Madison 204, Alexis 370, Abigail 269, Olivia 137, Lauren 96, Madison 324, Isabella 427, Lauren 60, Alyssa 4, Jessica 46, Kayla 252, Abigail 490, Lauren 8, Emily 144, Olivia 318, Samantha 488, Brianna 148, Madison 14, Isabella 485, Alexis 443, Jessica 425, Grace 280, Emily 505, Madison 464, Abigail 109, Isabella 95</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Kayla 497, Grace 320, Kayla 5, Emily 405, Isabella 275, Olivia 270, Emily 135, Olivia 186, Brianna 197, Brianna 47</t>
         </is>
       </c>
     </row>
@@ -385,7 +395,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lauren 12, Lauren 11</t>
+          <t>Jessica 423, Alyssa 435, Sarah 210, Alyssa 306, Elizabeth 476, Olivia 259, Ashley 453, Emily 229, Taylor 222, Ashley 50, Lauren 12, Elizabeth 449, Isabella 426, Samantha 327, Olivia 53, Emily 91, Sarah 315, Abigail 255, Olivia 234, Abigail 125, Jessica 44, Emily 439, Lauren 11, Madison 184, Madison 417, Samantha 150, Olivia 264</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Jessica 32, Grace 351, Lauren 494, Taylor 215, Taylor 176, Hannah 314, Madison 519, Kayla 75, Abigail 338, Emma 118</t>
         </is>
       </c>
     </row>
@@ -397,9 +412,10 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lauren 8, Alyssa 4</t>
-        </is>
-      </c>
+          <t>Jessica 278, Jessica 46, Lauren 8, Madison 417, Samantha 150, Alyssa 4</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -409,7 +425,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Elizabeth 10, Emma 9</t>
+          <t>Lauren 363, Madison 204, Alexis 104, Elizabeth 486, Jessica 206, Elizabeth 516, Jessica 23, Madison 352, Lauren 367, Isabella 244, Emma 118, Elizabeth 472, Alexis 365, Emily 144, Alexis 261, Isabella 329, Ashley 195, Brianna 373, Elizabeth 364, Jessica 293, Abigail 291, Ashley 220, Olivia 451, Emma 9, Jessica 374, Ashley 283, Madison 149, Elizabeth 166, Samantha 484, Abigail 344</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Emily 349, Brianna 200, Brianna 513, Alyssa 421, Olivia 376, Madison 455, Elizabeth 10, Elizabeth 262, Taylor 158, Grace 256</t>
         </is>
       </c>
     </row>
@@ -421,9 +442,10 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Elizabeth 10, Emma 9</t>
-        </is>
-      </c>
+          <t>Lauren 363, Madison 204, Alexis 104, Elizabeth 486, Jessica 206, Elizabeth 516, Jessica 23, Madison 352, Lauren 367, Isabella 244, Emma 118, Elizabeth 472, Alexis 365, Emily 144, Alexis 261, Isabella 329, Ashley 195, Brianna 373, Elizabeth 364, Jessica 293, Abigail 291, Ashley 220, Olivia 451, Emma 9, Jessica 374, Ashley 283, Madison 149, Elizabeth 166, Samantha 484, Abigail 344</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -433,9 +455,10 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Elizabeth 10, Emma 9</t>
-        </is>
-      </c>
+          <t>Lauren 363, Madison 204, Alexis 104, Elizabeth 486, Jessica 206, Elizabeth 516, Jessica 23, Madison 352, Lauren 367, Isabella 244, Emma 118, Elizabeth 472, Alexis 365, Emily 144, Alexis 261, Isabella 329, Ashley 195, Brianna 373, Elizabeth 364, Jessica 293, Abigail 291, Ashley 220, Olivia 451, Emma 9, Jessica 374, Ashley 283, Madison 149, Elizabeth 166, Samantha 484, Abigail 344</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -443,7 +466,16 @@
           <t>Planimeetria alused</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Alyssa 493, Alyssa 233, Madison 352, Olivia 274, Jessica 383, Abigail 212, Isabella 244, Taylor 288, Elizabeth 399, Ashley 195, Madison 162, Grace 321, Grace 120, Elizabeth 284, Grace 263, Hannah 165, Grace 159, Brianna 513, Brianna 362, Sarah 501, Alexis 468, Abigail 71, Lauren 494, Lauren 56, Samantha 398, Madison 243, Alexis 470, Emma 185, Alyssa 304, Taylor 215</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Hannah 314, Brianna 61, Emma 64, Hannah 317, Ashley 326, Jessica 423, Emily 34, Taylor 288, Lauren 101, Lauren 248</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -451,7 +483,12 @@
           <t>3D-modelleerimine 3. periood</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hannah 218, Elizabeth 174, Grace 515, Ashley 140, Lauren 346, Emma 58, Olivia 451, Grace 253, Isabella 63</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -459,7 +496,12 @@
           <t>3D-modelleerimine 5. periood</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Jessica 147, Grace 122, Grace 253, Elizabeth 157, Abigail 71, Samantha 27, Madison 519, Samantha 20</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -469,7 +511,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alyssa 4, Kayla 5, Madison 14</t>
+          <t>Ashley 123, Alyssa 493, Taylor 151, Emma 216, Emma 238, Alyssa 508, Emma 98, Lauren 60, Alyssa 4, Abigail 108, Alyssa 19, Kayla 252, Madison 14, Alexis 343, Olivia 384, Emily 152, Sarah 315, Elizabeth 473, Lauren 249, Grace 280, Jessica 70, Brianna 179, Taylor 145, Jessica 44</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Emma 350, Elizabeth 328, Alexis 294, Jessica 374, Ashley 326, Hannah 165, Emma 217, Samantha 150, Jessica 32, Sarah 86</t>
         </is>
       </c>
     </row>
@@ -481,7 +528,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Samantha 18</t>
+          <t>Kayla 188, Hannah 218, Isabella 183, Emily 507, Emily 91, Grace 89, Ashley 412, Brianna 373, Taylor 145, Brianna 42, Sarah 482, Alexis 294, Brianna 492, Samantha 20, Alexis 112, Madison 196, Alyssa 128, Samantha 18, Hannah 266, Brianna 251, Sarah 86, Grace 320, Emily 349, Alyssa 421</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Olivia 376, Olivia 124, Emily 333, Alexis 340, Kayla 268, Sarah 107, Hannah 393, Brianna 47, Taylor 176, Elizabeth 227</t>
         </is>
       </c>
     </row>
@@ -493,7 +545,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Olivia 1</t>
+          <t>Alyssa 435, Olivia 416, Olivia 137, Alexis 381, Sarah 74, Emma 216, Taylor 254, Madison 324, Lauren 90, Emma 28, Madison 173, Alyssa 19, Olivia 1, Alexis 365, Ashley 348, Isabella 426, Samantha 327, Ashley 286, Grace 83, Jessica 311, Jessica 325, Grace 292, Grace 267, Jessica 425</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Elizabeth 473, Grace 321, Olivia 40, Emma 217, Lauren 101, Madison 196, Olivia 167, Ashley 246, Grace 351, Ashley 481</t>
         </is>
       </c>
     </row>
@@ -505,7 +562,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kayla 5, Isabella 3, Madison 14, Taylor 17, Alyssa 4, Samantha 18</t>
+          <t>Kayla 188, Jessica 206, Samantha 211, Lauren 232, Lauren 49, Alexis 498, Abigail 131, Ashley 50, Isabella 244, Madison 368, Emma 208, Lauren 360, Emma 28, Lauren 452</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Ashley 193, Alexis 335, Isabella 160, Elizabeth 385, Elizabeth 399, Madison 14, Taylor 17, Brianna 456, Ashley 392, Alexis 443</t>
         </is>
       </c>
     </row>
@@ -517,7 +579,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sarah 2, Kayla 15, Lauren 12</t>
+          <t>Sarah 2, Kayla 15, Brianna 172, Olivia 103, Sarah 210, Alyssa 306, Alexis 498, Kayla 139, Madison 368, Elizabeth 67, Ashley 193, Samantha 302, Brianna 361, Grace 267, Emily 34, Sarah 156, Isabella 474, Olivia 496, Olivia 127, Samantha 462, Jessica 521</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Madison 417, Samantha 18, Lauren 310, Abigail 296, Alyssa 491, Jessica 175, Brianna 513, Emma 58, Isabella 347, Emily 479</t>
         </is>
       </c>
     </row>
@@ -529,7 +596,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Alyssa 4</t>
+          <t>Lauren 85, Emily 228, Sarah 74, Madison 324, Emma 238, Alyssa 4, Kayla 139, Madison 368, Isabella 241, Elizabeth 422, Taylor 192, Isabella 426, Taylor 288, Grace 22, Jessica 325, Alexis 343</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Alexis 443, Sarah 315, Jessica 44, Olivia 451, Emma 350, Abigail 341, Abigail 514, Hannah 182, Olivia 127, Kayla 497</t>
         </is>
       </c>
     </row>
@@ -541,7 +613,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lauren 8, Kayla 15</t>
+          <t>Emily 146, Ashley 198, Samantha 211, Madison 24, Hannah 202, Grace 465, Alyssa 308, Alyssa 508, Abigail 212, Jessica 46, Kayla 252, Brianna 88, Alexis 335, Isabella 160, Ashley 478, Lauren 8, Emma 454, Jessica 147, Lauren 207, Brianna 361, Taylor 110, Samantha 276, Olivia 234, Elizabeth 328, Olivia 134, Grace 463, Brianna 492, Ashley 326, Samantha 20, Hannah 182, Lauren 372, Samantha 447, Grace 159, Elizabeth 166, Sarah 57, Olivia 154</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Samantha 73, Abigail 231, Isabella 353, Isabella 275, Taylor 26, Brianna 388, Elizabeth 262, Alexis 80, Emma 55, Madison 519</t>
         </is>
       </c>
     </row>
@@ -553,7 +630,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Isabella 3</t>
+          <t>Taylor 115, Brianna 433, Grace 465, Taylor 106, Ashley 50, Emma 208, Elizabeth 449, Alexis 365, Grace 285, Isabella 241, Grace 48, Kayla 410, Elizabeth 164, Jessica 70, Lauren 136, Alexis 371, Isabella 3, Samantha 483, Olivia 496, Madison 184</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Abigail 105, Lauren 372, Lauren 223, Samantha 447, Alyssa 133, Samantha 224, Alyssa 491, Jessica 175, Elizabeth 43, Alyssa 421</t>
         </is>
       </c>
     </row>
@@ -565,7 +647,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lauren 8, Lauren 11</t>
+          <t>Emily 146, Samantha 211, Olivia 416, Grace 99, Taylor 509, Hannah 397, Abigail 408, Samantha 429, Isabella 354, Lauren 8, Kayla 409, Hannah 467, Sarah 114, Abigail 514, Lauren 11, Hannah 182, Ashley 414, Olivia 169, Lauren 101, Madison 196</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Isabella 260, Madison 149, Samantha 386, Emily 403, Isabella 353, Brianna 388, Kayla 268, Kayla 466, Ashley 458, Brianna 47</t>
         </is>
       </c>
     </row>
@@ -575,7 +662,16 @@
           <t>Labortöid füüsikas 10. ja 11. klassile</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Hannah 59, Brianna 433, Madison 24, Lauren 232, Taylor 121, Grace 99, Taylor 106, Sarah 74, Olivia 274, Abigail 131, Kayla 139, Alyssa 39</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Emma 28, Kayla 252, Elizabeth 422, Lauren 33, Alexis 171, Kayla 409, Samantha 488, Taylor 523, Emma 64, Grace 292</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -585,7 +681,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kayla 13</t>
+          <t>Isabella 342, Hannah 218, Madison 126, Madison 368, Elizabeth 67, Elizabeth 174, Samantha 429, Alyssa 359, Kayla 13, Emma 454, Taylor 523, Jessica 147, Ashley 392, Taylor 110, Jessica 293, Olivia 234, Jessica 44, Olivia 451, Lauren 459, Sarah 512, Taylor 130, Samantha 20, Grace 247, Hannah 266, Brianna 251, Alexis 69, Olivia 167, Sarah 86, Ashley 246, Samantha 73, Alyssa 432, Brianna 419, Ashley 389, Grace 253, Elizabeth 157, Samantha 178, Olivia 21, Grace 428, Brianna 388, Emma 76, Elizabeth 473, Sarah 424, Grace 515, Grace 256, Olivia 376</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Emma 257, Elizabeth 227, Grace 159, Taylor 176, Abigail 71, Ashley 458, Olivia 154, Alexis 524, Abigail 131, Taylor 151</t>
         </is>
       </c>
     </row>
@@ -595,7 +696,16 @@
           <t>Joonestamine 4. periood</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Alyssa 132, Samantha 27, Emma 142, Grace 99, Emma 216, Alyssa 366, Elizabeth 472, Elizabeth 174, Isabella 63, Isabella 375, Olivia 53, Lauren 430, Jessica 147, Emma 387, Jessica 425, Hannah 467, Kayla 272, Grace 463, Emily 439, Olivia 496, Ashley 326, Grace 122, Samantha 462, Jessica 189, Lauren 346, Alyssa 491, Emma 58, Kayla 7, Abigail 71, Brianna 438, Emma 77, Brianna 388, Lauren 170, Sarah 424, Grace 431, Alexis 470, Olivia 237, Alyssa 304, Samantha 178, Ashley 140, Madison 519, Madison 301, Abigail 177, Kayla 369, Brianna 88</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Hannah 181, Brianna 197, Taylor 226, Emma 142, Elizabeth 262, Ashley 198, Sarah 501, Alexis 171, Grace 411, Grace 263</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -605,7 +715,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hannah 16</t>
+          <t>Samantha 27, Alyssa 435, Brianna 433, Hannah 218, Isabella 183, Emma 142, Taylor 106, Lauren 457, Samantha 402, Abigail 212, Emma 28, Alexis 335, Isabella 241, Elizabeth 422, Alexis 171, Isabella 375, Isabella 295, Ashley 412, Alexis 36, Alexis 112, Olivia 477, Emma 404, Grace 282, Elizabeth 116</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Olivia 376, Jessica 219, Kayla 51, Isabella 275, Sarah 277, Grace 111, Lauren 494, Grace 253, Hannah 16, Abigail 113</t>
         </is>
       </c>
     </row>
@@ -617,7 +732,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kayla 7, Kayla 13</t>
+          <t>Jessica 278, Emily 146, Hannah 194, Alyssa 233, Elizabeth 476, Olivia 259, Sarah 74, Brianna 153, Samantha 487, Abigail 131, Samantha 271, Lauren 33, Alexis 261, Lauren 489, Grace 83, Brianna 148, Hannah 357, Lauren 249, Samantha 382, Taylor 145, Brianna 42, Kayla 235, Emily 439, Taylor 130</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Olivia 40, Abigail 105, Ashley 414, Emma 217, Lauren 101, Hannah 266, Grace 159, Samantha 484, Hannah 287, Grace 511</t>
         </is>
       </c>
     </row>
@@ -629,7 +749,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kayla 15</t>
+          <t>Emily 37, Kayla 15, Ashley 198, Samantha 211, Lauren 49, Alexis 381, Emma 142, Jessica 506, Jessica 383, Alexis 316, Lauren 360, Jessica 191, Elizabeth 67, Kayla 252, Samantha 302, Lauren 489, Olivia 318, Brianna 148, Ashley 81, Olivia 384, Elizabeth 307, Isabella 485, Grace 292, Grace 30, Grace 267</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Samantha 276, Jessica 70, Ashley 220, Hannah 332, Sarah 442, Emily 505, Alexis 36, Alexis 45, Grace 463, Abigail 105</t>
         </is>
       </c>
     </row>
@@ -641,7 +766,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Kayla 7</t>
+          <t>Emily 37, Elizabeth 436, Isabella 342, Alexis 381, Samantha 143, Ashley 453, Isabella 427, Ashley 50, Jessica 191, Isabella 426, Samantha 327, Olivia 318, Olivia 53, Emily 507, Grace 83, Brianna 148, Brianna 456, Isabella 485, Grace 30, Abigail 255, Hannah 357, Olivia 234</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Brianna 492, Emma 290, Brianna 190, Alyssa 133, Ashley 246, Hannah 287, Grace 511, Kayla 7, Elizabeth 79, Olivia 270</t>
         </is>
       </c>
     </row>
@@ -653,7 +783,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Emma 9</t>
+          <t>Ashley 123, Alyssa 493, Olivia 103, Brianna 221, Elizabeth 516, Taylor 121, Olivia 102, Alyssa 233, Ashley 50, Emma 208, Isabella 241, Olivia 318, Ashley 286, Abigail 517, Emma 448, Lauren 207, Hannah 129, Elizabeth 307, Jessica 70, Samantha 382, Alexis 371, Sarah 114, Olivia 451, Madison 225, Grace 321, Emma 9, Madison 184, Grace 263, Kayla 379</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Samantha 250, Emily 390, Abigail 296, Olivia 167, Samantha 386, Elizabeth 116, Grace 351, Lauren 356, Jessica 230, Ashley 389</t>
         </is>
       </c>
     </row>
@@ -665,7 +800,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Kayla 15, Kayla 5</t>
+          <t>Alexis 370, Kayla 15, Jessica 206, Elizabeth 436, Brianna 203, Sarah 518, Alexis 62, Madison 324, Grace 199, Alexis 316, Isabella 244, Emma 401, Jessica 437, Emma 118, Olivia 345, Taylor 288, Alexis 471, Samantha 327, Olivia 53, Emma 454, Elizabeth 289, Emma 300, Isabella 329, Brianna 179, Ashley 220, Abigail 125, Abigail 341, Elizabeth 328, Samantha 483, Elizabeth 284, Samantha 250, Olivia 477, Lauren 258, Jessica 189, Grace 320, Brianna 513, Ashley 481, Olivia 376, Emily 403, Brianna 418, Madison 415, Emma 77, Abigail 177, Elizabeth 262, Olivia 214, Taylor 158, Alexis 470, Hannah 281, Brianna 47, Hannah 314</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Brianna 179, Kayla 75, Brianna 190, Madison 415, Hannah 202, Kayla 369, Taylor 145, Brianna 92, Elizabeth 307, Sarah 501</t>
         </is>
       </c>
     </row>
@@ -677,7 +817,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kayla 15, Taylor 17</t>
+          <t>Alexis 104, Kayla 15, Samantha 27, Elizabeth 436, Alyssa 306, Taylor 254, Samantha 487, Emily 445, Abigail 408, Lauren 367, Elizabeth 391, Alyssa 39, Isabella 354, Alexis 378, Lauren 475, Sarah 434, Emily 336, Isabella 295, Emily 507, Lauren 207, Taylor 17, Isabella 329, Elizabeth 307, Brianna 373, Emily 152</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Samantha 276, Elizabeth 473, Ashley 297, Alyssa 128, Samantha 150, Jessica 189, Olivia 376, Madison 155, Isabella 353, Brianna 418</t>
         </is>
       </c>
     </row>
@@ -689,7 +834,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Taylor 6, Elizabeth 10</t>
+          <t>Jessica 423, Isabella 183, Kayla 407, Taylor 6, Abigail 413, Lauren 457, Jessica 191, Emma 28, Lauren 248, Olivia 345, Abigail 108, Isabella 375, Kayla 409, Grace 83, Emily 91, Grace 267, Emily 34, Hannah 317, Alexis 36, Jessica 374, Brianna 492, Taylor 394, Lauren 101, Isabella 260, Elizabeth 166, Abigail 296, Lauren 358, Emma 404</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Elizabeth 10, Elizabeth 79, Taylor 26, Ashley 117, Sarah 277, Alexis 340, Sarah 424, Madison 415, Emily 152, Kayla 369</t>
         </is>
       </c>
     </row>
@@ -701,7 +851,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hannah 16, Isabella 3</t>
+          <t>Emily 37, Taylor 115, Madison 204, Alexis 381, Grace 100, Taylor 121, Ashley 453, Ashley 50, Ashley 193, Alyssa 359, Isabella 375, Grace 48, Jessica 311, Isabella 485, Grace 267, Jessica 70, Hannah 332, Hannah 181, Lauren 372, Olivia 127, Olivia 169, Samantha 150, Samantha 386, Samantha 68, Alyssa 491, Elizabeth 116, Madison 155, Ashley 84, Emily 97, Olivia 124, Taylor 26, Brianna 299, Sarah 424, Samantha 398, Grace 431, Alyssa 304, Samantha 178, Abigail 279, Olivia 41, Lauren 337, Ashley 392, Grace 463, Isabella 3, Grace 465, Hannah 16, Brianna 201, Samantha 276, Samantha 302, Olivia 21, Grace 111</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Alexis 316, Lauren 452, Hannah 165, Jessica 230, Emily 507, Elizabeth 227, Alyssa 39, Olivia 259, Emma 185, Olivia 237</t>
         </is>
       </c>
     </row>
@@ -711,7 +866,16 @@
           <t>Astronoomia</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Alyssa 493, Brianna 172, Lauren 85, Taylor 151, Hannah 194, Alexis 381, Lauren 96, Emma 216, Lauren 60, Abigail 408, Elizabeth 67, Abigail 108, Jessica 461, Ashley 240, Samantha 429, Sarah 331, Alyssa 273, Taylor 94, Emily 507, Lauren 207, Emma 387, Ashley 412, Brianna 180, Madison 162, Alyssa 245, Lauren 459, Alexis 294, Kayla 379, Alyssa 128, Samantha 447</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lauren 310, Sarah 57, Olivia 138, Kayla 469, Brianna 419, Grace 253, Grace 431, Alexis 470, Brianna 197, Brianna 47</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -719,7 +883,16 @@
           <t>Astrofüüsika 2. periood</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Emily 37, Ashley 123, Madison 54, Samantha 211, Hannah 202, Hannah 194, Abigail 338, Olivia 102, Grace 99, Olivia 259, Emma 238, Brianna 153, Samantha 402, Ashley 453, Emma 25, Brianna 201, Emma 401, Lauren 33, Alyssa 273, Elizabeth 385, Alexis 471, Emily 334, Taylor 94, Emma 64, Ashley 81, Brianna 456, Jessica 446, Sarah 442, Elizabeth 328, Emily 439, Emma 290, Madison 417, Samantha 484, Brianna 190, Jessica 219</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Abigail 231, Emily 479, Olivia 138, Brianna 388, Alexis 80, Alexis 355, Kayla 466, Kayla 75, Grace 213, Brianna 179</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -729,7 +902,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kayla 5, Emma 9</t>
+          <t>Alyssa 132, Alexis 104, Lauren 49, Kayla 407, Elizabeth 476, Alexis 35, Hannah 397, Lauren 360, Lauren 248, Abigail 108, Taylor 192, Grace 22, Brianna 373, Ashley 220, Abigail 341, Emma 9, Abigail 503, Samantha 483, Alexis 294, Lauren 29, Taylor 130, Isabella 95, Hannah 266, Madison 149, Abigail 296, Sarah 86, Grace 320, Hannah 287, Kayla 5, Elizabeth 43, Emma 72, Sarah 424, Alyssa 304, Taylor 215, Lauren 236</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Elizabeth 307, Hannah 16, Kayla 272, Lauren 457, Alexis 171, Elizabeth 449, Lauren 309, Brianna 221, Grace 120, Emma 238</t>
         </is>
       </c>
     </row>
@@ -741,7 +919,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Alyssa 4, Lauren 11</t>
+          <t>Jessica 278, Madison 204, Alexis 370, Samantha 27, Jessica 206, Elizabeth 436, Isabella 183, Olivia 103, Sarah 210, Taylor 151, Emma 142, Taylor 121, Alyssa 233, Brianna 153, Alyssa 4, Grace 199, Abigail 408, Jessica 191, Elizabeth 67, Elizabeth 449</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Alyssa 359, Alyssa 273, Elizabeth 385, Emily 336, Elizabeth 399, Brianna 456, Elizabeth 307, Isabella 485, Abigail 125, Olivia 502</t>
         </is>
       </c>
     </row>
@@ -751,7 +934,16 @@
           <t>Loogika 2. periood</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Jessica 206, Ashley 198, Brianna 221, Sarah 210, Hannah 323, Taylor 509, Emma 98, Emily 229, Hannah 397, Lauren 360, Ashley 78, Ashley 240, Alexis 335, Isabella 63, Samantha 327, Abigail 517, Samantha 480, Hannah 129, Olivia 239, Sarah 482, Abigail 450, Olivia 40, Kayla 379, Jessica 163, Olivia 264, Emily 349, Jessica 265, Brianna 200, Jessica 230, Brianna 92, Olivia 214</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Kayla 268, Ashley 168, Lauren 337, Olivia 318, Olivia 234, Brianna 92, Elizabeth 307, Samantha 483, Hannah 287, Abigail 231</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -761,7 +953,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sarah 2</t>
+          <t>Sarah 2, Madison 204, Jessica 423, Hannah 194, Brianna 153, Samantha 402, Alexis 378, Sarah 331, Abigail 490, Lauren 33, Lauren 475, Alexis 261, Lauren 337, Grace 120, Lauren 459, Ashley 414, Alyssa 133, Emma 404, Abigail 344, Ashley 246, Elizabeth 141, Alyssa 440, Elizabeth 262, Alexis 80, Alexis 355, Ashley 168, Emma 55, Hannah 314, Ashley 441, Isabella 187, Madison 415</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Emily 144, Sarah 107, Hannah 467, Lauren 232, Olivia 137, Alyssa 245, Abigail 82, Abigail 291, Samantha 402, Jessica 437</t>
         </is>
       </c>
     </row>
@@ -771,7 +968,12 @@
           <t>Programmeerimine keeles Java 1</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Olivia 318, Sarah 315, Isabella 485</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -780,6 +982,7 @@
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -789,7 +992,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kayla 5</t>
+          <t>Olivia 504, Brianna 172, Olivia 416, Brianna 203, Grace 396, Jessica 23, Taylor 106, Sarah 74, Lauren 96, Lauren 457, Isabella 244, Alexis 365, Lauren 52, Elizabeth 422, Samantha 327, Olivia 384, Brianna 361, Abigail 255, Elizabeth 473, Emily 505, Abigail 109, Olivia 134, Sarah 512, Samantha 484, Jessica 32, Grace 282, Kayla 5, Emily 405, Kayla 469, Sarah 277</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Olivia 214, Lauren 494, Samantha 398, Lauren 236, Madison 301, Ashley 510, Jessica 44, Grace 463, Olivia 318, Brianna 201</t>
         </is>
       </c>
     </row>
@@ -801,7 +1009,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Elizabeth 10, Alyssa 4</t>
+          <t>Hannah 59, Lauren 49, Olivia 103, Taylor 151, Emma 142, Olivia 102, Lauren 457, Emma 238, Isabella 427, Alyssa 366, Elizabeth 391, Alyssa 39, Madison 368, Abigail 108, Alyssa 19, Alexis 365, Brianna 88, Alexis 171, Isabella 63, Lauren 430, Ashley 195, Elizabeth 307, Alexis 443, Jessica 425, Elizabeth 473, Abigail 291, Olivia 502, Brianna 180, Emma 350, Madison 225, Alexis 294, Sarah 512, Isabella 474, Emily 390, Ashley 246, Kayla 369, Emma 305, Kayla 51, Madison 322, Olivia 270, Grace 428, Alexis 80, Sarah 420, Olivia 186, Emma 185, Kayla 75, Taylor 215, Ashley 510, Jessica 44, Emily 152</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Brianna 388, Hannah 181, Alexis 45, Elizabeth 262, Abigail 450, Hannah 281, Abigail 279, Brianna 42, Sarah 312, Alyssa 366</t>
         </is>
       </c>
     </row>
@@ -813,7 +1026,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lauren 12, Lauren 11, Emma 9, Sarah 2, Olivia 1</t>
+          <t>Alyssa 435, Hannah 218, Isabella 183, Abigail 338, Alyssa 308, Grace 396, Samantha 143, Madison 126, Alyssa 508, Lauren 12, Elizabeth 472, Elizabeth 67, Madison 173, Lauren 452, Samantha 429, Isabella 160, Elizabeth 385, Emily 87, Kayla 409, Ashley 286, Alexis 343, Emma 387, Samantha 480, Sarah 315, Hannah 467, Abigail 255, Jessica 293, Emma 9, Lauren 459, Kayla 272, Lauren 11, Taylor 394, Jessica 163, Ashley 283, Elizabeth 166, Olivia 167, Jessica 175, Grace 282, Emily 405, Isabella 353, Jessica 230, Alyssa 432, Abigail 82, Alexis 340, Madison 243, Ashley 458, Sarah 107, Alyssa 339, Madison 301, Olivia 318</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Brianna 362, Ashley 198, Elizabeth 472, Taylor 288, Lauren 309, Grace 263, Taylor 509, Grace 515, Jessica 374, Emma 387</t>
         </is>
       </c>
     </row>
@@ -823,7 +1041,16 @@
           <t>Arvutite riistvara ja lisaseadmed</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Alexis 370, Abigail 131, Emily 229, Alexis 316, Emma 401, Madison 173, Alyssa 273, Taylor 288, Emily 334, Emma 454, Emma 448, Emma 387, Grace 89, Brianna 180, Brianna 42, Ashley 297</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Madison 464, Sarah 512, Grace 463, Alyssa 380, Grace 263, Lauren 372, Grace 247, Elizabeth 166, Alexis 69, Jessica 189</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -831,7 +1058,16 @@
           <t>Loodusteadused, tehnoloogia ja ühiskond</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Emily 146, Elizabeth 436, Samantha 211, Olivia 137, Emily 228, Elizabeth 476, Taylor 254, Emma 238, Lauren 60, Emily 445, Lauren 90, Sarah 377, Lauren 452, Isabella 160, Elizabeth 385, Emily 87, Emily 144, Jessica 311, Emily 152, Grace 280, Hannah 165, Emma 217, Jessica 521, Emma 305, Sarah 312</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Elizabeth 79, Samantha 298, Grace 515, Brianna 419, Brianna 205, Taylor 215, Lauren 85, Samantha 68, Brianna 362, Emily 135</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -841,7 +1077,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hannah 16, Olivia 1</t>
+          <t>Lauren 49, Alyssa 308, Madison 126, Brianna 61, Alexis 35, Samantha 429, Ashley 193, Alexis 471, Emily 334, Ashley 392, Isabella 485, Elizabeth 364, Taylor 110, Sarah 156, Olivia 234, Alyssa 245, Abigail 514, Samantha 483, Taylor 130, Emma 290, Taylor 394, Ashley 283, Alexis 69, Jessica 219, Madison 155, Isabella 347, Isabella 275</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Alexis 468, Alyssa 432, Abigail 177, Taylor 158, Hannah 16, Madison 243, Olivia 21, Kayla 75, Brianna 190, Lauren 337</t>
         </is>
       </c>
     </row>
@@ -853,7 +1094,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Taylor 6</t>
+          <t>Sarah 400, Kayla 188, Emily 330, Grace 100, Alyssa 233, Jessica 66, Taylor 6, Brianna 61, Ashley 460, Emma 499, Brianna 201, Lauren 248, Ashley 78, Lauren 452, Abigail 490, Hannah 129, Alexis 443, Taylor 110</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Abigail 503, Isabella 474, Lauren 93, Hannah 165, Isabella 95, Alexis 69, Alyssa 133, Samantha 386, Emma 305, Abigail 209</t>
         </is>
       </c>
     </row>
@@ -865,9 +1111,10 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Taylor 6</t>
-        </is>
-      </c>
+          <t>Sarah 400, Kayla 188, Emily 330, Grace 100, Alyssa 233, Jessica 66, Taylor 6, Brianna 61, Ashley 460, Emma 499, Brianna 201, Lauren 248, Ashley 78, Lauren 452, Abigail 490, Hannah 129, Alexis 443, Taylor 110</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -877,9 +1124,10 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Taylor 6</t>
-        </is>
-      </c>
+          <t>Sarah 400, Kayla 188, Emily 330, Grace 100, Alyssa 233, Jessica 66, Taylor 6, Brianna 61, Ashley 460, Emma 499, Brianna 201, Lauren 248, Ashley 78, Lauren 452, Abigail 490, Hannah 129, Alexis 443, Taylor 110</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -887,7 +1135,16 @@
           <t>Kirjandus ja film</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sarah 400, Kayla 188, Emily 330, Olivia 416, Alyssa 308, Grace 100, Elizabeth 516, Samantha 143, Alexis 62, Alexis 316, Lauren 90, Elizabeth 472, Alyssa 19, Sarah 331, Alexis 171, Emma 387, Abigail 255, Hannah 357, Sarah 156, Abigail 291, Sarah 114, Alyssa 245, Hannah 332, Emma 350, Olivia 38, Kayla 235, Kayla 272, Olivia 169, Emily 390, Madison 149, Kayla 495, Samantha 386, Grace 282, Kayla 369</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Isabella 161, Emily 403, Madison 415, Emma 77, Abigail 82, Lauren 170, Grace 431, Sarah 107, Madison 519, Olivia 41</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -897,7 +1154,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Emma 9</t>
+          <t>Lauren 363, Olivia 504, Elizabeth 486, Hannah 59, Brianna 203, Alexis 381, Isabella 395, Emma 142, Jessica 23, Elizabeth 476, Jessica 506, Brianna 61, Samantha 271, Samantha 302, Ashley 348, Olivia 53, Elizabeth 289, Ashley 412, Lauren 249, Abigail 125, Olivia 502, Emma 9, Emma 217</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Jessica 521, Lauren 346, Grace 511, Sarah 57, Emma 305, Elizabeth 141, Isabella 347, Madison 322, Elizabeth 313, Alexis 524</t>
         </is>
       </c>
     </row>
@@ -909,7 +1171,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lauren 12, Sarah 2, Hannah 16</t>
+          <t>Sarah 2, Madison 24, Lauren 232, Lauren 85, Sarah 74, Alexis 498, Sarah 31, Alyssa 366, Lauren 12, Madison 319, Emma 118, Lauren 452, Taylor 226, Elizabeth 422, Taylor 192, Lauren 337, Grace 22, Jessica 311, Jessica 325, Alexis 343</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Brianna 361, Emily 65, Abigail 341, Alyssa 380, Ashley 326, Samantha 250, Madison 196, Ashley 283, Olivia 477, Lauren 310</t>
         </is>
       </c>
     </row>
@@ -921,7 +1188,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Lauren 11</t>
+          <t>Alyssa 435, Brianna 172, Olivia 103, Taylor 222, Grace 199, Emma 499, Kayla 139, Jessica 437, Brianna 88, Isabella 160, Alexis 261, Emma 300, Sarah 315, Hannah 467, Samantha 382, Ashley 220, Brianna 180, Abigail 503, Alexis 294, Alexis 45</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Grace 463, Isabella 474, Lauren 11, Lauren 93, Alexis 112, Lauren 258, Ashley 481, Emma 58, Madison 455, Grace 515</t>
         </is>
       </c>
     </row>
@@ -933,7 +1205,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Lauren 8, Kayla 13, Isabella 3, Kayla 7</t>
+          <t>Samantha 27, Isabella 183, Alyssa 308, Emma 142, Sarah 518, Emma 98, Abigail 212, Jessica 46, Emma 401, Alyssa 19, Kayla 13, Elizabeth 385, Lauren 8, Brianna 148, Grace 30, Hannah 317</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Sarah 114, Alexis 36, Isabella 3, Samantha 20, Taylor 394, Olivia 169, Samantha 250, Emily 390, Olivia 154, Kayla 7</t>
         </is>
       </c>
     </row>
@@ -944,6 +1221,7 @@
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -953,7 +1231,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Madison 14, Taylor 17, Kayla 5</t>
+          <t>Jessica 278, Emily 37, Isabella 342, Abigail 269, Abigail 338, Grace 396, Alexis 498, Taylor 509, Emma 25, Lauren 360, Madison 173, Taylor 192, Ashley 286, Abigail 517, Madison 14, Taylor 17</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Samantha 480, Ashley 81, Brianna 456, Grace 267, Sarah 442, Alyssa 380, Abigail 450, Olivia 496, Taylor 130, Samantha 462</t>
         </is>
       </c>
     </row>
@@ -964,6 +1247,7 @@
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -971,7 +1255,16 @@
           <t>Lähis-Ida 20. sajandi teisest poolest tänapäevani</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Lauren 49, Brianna 221, Emily 228, Lauren 457, Madison 324, Emma 238, Lauren 90, Olivia 345, Brianna 88, Samantha 302, Alyssa 359, Lauren 52, Hannah 357, Grace 280, Taylor 145, Alexis 371, Brianna 42, Madison 225, Grace 321, Kayla 235, Alexis 45, Olivia 127, Emma 217, Lauren 346, Jessica 219, Brianna 362, Jessica 230, Alexis 468, Grace 515, Alyssa 432, Grace 428, Olivia 214, Emma 72, Alexis 355, Emma 55, Grace 213</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Brianna 179, Madison 301, Ashley 392, Abigail 177, Elizabeth 307, Grace 267, Samantha 483, Olivia 134, Lauren 475, Elizabeth 449</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -981,7 +1274,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sarah 2</t>
+          <t>Sarah 2, Madison 54, Hannah 218, Olivia 103, Olivia 416, Samantha 143, Madison 126, Alexis 35, Jessica 383, Hannah 397, Madison 368, Isabella 241, Emily 334, Isabella 375, Grace 22, Jessica 520, Elizabeth 289, Grace 83, Elizabeth 164, Isabella 485, Emily 65, Sarah 156, Lauren 249, Jessica 70, Abigail 514, Kayla 272, Lauren 29, Brianna 492, Olivia 40, Lauren 101, Abigail 296, Grace 320</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Ashley 481, Emily 403, Lauren 356, Sarah 501, Samantha 298, Emma 257, Emily 333, Kayla 268, Hannah 119, Olivia 237</t>
         </is>
       </c>
     </row>
@@ -993,7 +1291,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Olivia 1</t>
+          <t>Hannah 202, Grace 465, Brianna 203, Isabella 395, Olivia 102, Lauren 309, Grace 199, Alyssa 366, Sarah 377, Olivia 1, Grace 285, Alexis 378, Sarah 434, Emily 336, Jessica 303, Elizabeth 399, Kayla 410, Emma 300, Jessica 147, Jessica 311</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Grace 89, Olivia 384, Elizabeth 307, Brianna 179, Grace 120, Sarah 482, Grace 263, Lauren 258, Emma 404, Hannah 287</t>
         </is>
       </c>
     </row>
@@ -1005,9 +1308,10 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Olivia 1</t>
-        </is>
-      </c>
+          <t>Hannah 202, Grace 465, Brianna 203, Isabella 395, Olivia 102, Lauren 309, Grace 199, Alyssa 366, Sarah 377, Olivia 1, Grace 285, Alexis 378, Sarah 434, Emily 336, Jessica 303, Elizabeth 399, Kayla 410, Emma 300, Jessica 147, Jessica 311</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1017,9 +1321,10 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Olivia 1</t>
-        </is>
-      </c>
+          <t>Hannah 202, Grace 465, Brianna 203, Isabella 395, Olivia 102, Lauren 309, Grace 199, Alyssa 366, Sarah 377, Olivia 1, Grace 285, Alexis 378, Sarah 434, Emily 336, Jessica 303, Elizabeth 399, Kayla 410, Emma 300, Jessica 147, Jessica 311</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1029,7 +1334,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Samantha 18</t>
+          <t>Alyssa 132, Olivia 504, Hannah 323, Alexis 62, Taylor 254, Sarah 31, Madison 319, Jessica 437, Emma 208, Elizabeth 174, Hannah 522, Samantha 271, Emily 87, Ashley 478, Alexis 471, Isabella 63, Lauren 337, Grace 48, Lauren 430, Samantha 382, Olivia 502, Emily 505, Abigail 105, Lauren 223, Samantha 18</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Samantha 224, Samantha 68, Jessica 265, Alyssa 491, Grace 511, Abigail 231, Madison 155, Isabella 353, Ashley 84, Abigail 177</t>
         </is>
       </c>
     </row>
@@ -1041,9 +1351,10 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Samantha 18</t>
-        </is>
-      </c>
+          <t>Alyssa 132, Olivia 504, Hannah 323, Alexis 62, Taylor 254, Sarah 31, Madison 319, Jessica 437, Emma 208, Elizabeth 174, Hannah 522, Samantha 271, Emily 87, Ashley 478, Alexis 471, Isabella 63, Lauren 337, Grace 48, Lauren 430, Samantha 382, Olivia 502, Emily 505, Abigail 105, Lauren 223, Samantha 18</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1053,9 +1364,10 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Samantha 18</t>
-        </is>
-      </c>
+          <t>Alyssa 132, Olivia 504, Hannah 323, Alexis 62, Taylor 254, Sarah 31, Madison 319, Jessica 437, Emma 208, Elizabeth 174, Hannah 522, Samantha 271, Emily 87, Ashley 478, Alexis 471, Isabella 63, Lauren 337, Grace 48, Lauren 430, Samantha 382, Olivia 502, Emily 505, Abigail 105, Lauren 223, Samantha 18</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1065,7 +1377,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Alyssa 4, Kayla 15, Hannah 16</t>
+          <t>Alexis 370, Kayla 15, Ashley 123, Emily 146, Ashley 198, Jessica 506, Abigail 413, Alyssa 508, Samantha 487, Alyssa 4, Elizabeth 391, Jessica 191, Isabella 354, Ashley 193, Alexis 335, Lauren 475, Olivia 318, Emma 454</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Emma 448, Ashley 392, Brianna 361, Emily 34, Elizabeth 473, Emma 350, Abigail 341, Ashley 297, Madison 464, Elizabeth 328</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1392,16 @@
           <t>Ajakirjanduse alused</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Kayla 188, Emily 330, Jessica 23, Ashley 460, Abigail 131, Kayla 139, Elizabeth 472, Olivia 345, Ashley 193, Sarah 331, Elizabeth 422, Alexis 261, Lauren 430, Kayla 410, Abigail 255, Jessica 293, Lauren 136, Alexis 371, Jessica 44, Olivia 38, Lauren 459, Olivia 239, Elizabeth 284, Olivia 496, Hannah 165, Lauren 223, Alyssa 128, Isabella 260, Jessica 189, Brianna 190, Alyssa 133</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Samantha 386, Jessica 175, Isabella 161, Olivia 376, Madison 155, Madison 322, Kayla 469, Madison 444, Madison 415, Taylor 158</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1085,7 +1411,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hannah 16, Samantha 18</t>
+          <t>Taylor 115, Jessica 423, Olivia 504, Abigail 338, Taylor 106, Lauren 457, Ashley 453, Emily 229, Emily 445, Emma 118, Emma 208, Sarah 377, Ashley 78, Ashley 240, Grace 285, Samantha 302, Emily 87, Taylor 288, Lauren 489, Olivia 53, Emily 507, Emma 300, Brianna 148, Ashley 81, Elizabeth 164, Jessica 70, Emily 505, Madison 464, Lauren 93, Taylor 394</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Samantha 462, Emily 390, Samantha 18, Isabella 242, Lauren 258, Lauren 310, Kayla 495, Elizabeth 116, Emma 58, Sarah 312</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1426,12 @@
           <t>Filosoofia 2</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Taylor 106, Emily 445, Emma 208, Emily 507, Lauren 93</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1105,7 +1441,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Kayla 7, Taylor 17</t>
+          <t>Lauren 363, Brianna 433, Samantha 143, Sarah 518, Jessica 506, Jessica 383, Alyssa 39, Madison 319, Emma 401, Madison 368, Samantha 271, Sarah 434, Isabella 295, Jessica 520, Jessica 303, Samantha 488, Taylor 17, Ashley 195</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Olivia 384, Ashley 412, Grace 30, Grace 280, Brianna 179, Jessica 446, Madison 225, Samantha 250, Brianna 251, Lauren 346</t>
         </is>
       </c>
     </row>
@@ -1117,9 +1458,10 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Kayla 7, Taylor 17</t>
-        </is>
-      </c>
+          <t>Lauren 363, Brianna 433, Samantha 143, Sarah 518, Jessica 506, Jessica 383, Alyssa 39, Madison 319, Emma 401, Madison 368, Samantha 271, Sarah 434, Isabella 295, Jessica 520, Jessica 303, Samantha 488, Taylor 17, Ashley 195</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1129,7 +1471,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lauren 12, Taylor 6</t>
+          <t>Sarah 400, Ashley 123, Alyssa 493, Lauren 96, Taylor 509, Emma 98, Lauren 367, Ashley 50, Lauren 12, Isabella 244, Isabella 354, Lauren 33, Lauren 475, Kayla 409, Lauren 337, Abigail 517, Elizabeth 364, Hannah 467, Hannah 357, Lauren 249, Samantha 382, Brianna 180, Kayla 272, Jessica 374, Abigail 450, Isabella 474</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Emily 439, Ashley 414, Kayla 379, Madison 417, Jessica 32, Lauren 358, Brianna 362, Olivia 270, Emily 97, Emma 257</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1488,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sarah 2, Isabella 3, Elizabeth 10, Madison 14</t>
+          <t>Sarah 2, Abigail 269, Hannah 194, Isabella 395, Hannah 323, Alyssa 306, Alexis 62, Madison 126, Brianna 61, Samantha 487, Isabella 427, Lauren 60, Brianna 201, Hannah 522, Samantha 429, Lauren 52, Abigail 490, Madison 14</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Hannah 129, Sarah 114, Alyssa 245, Sarah 442, Alexis 36, Isabella 3, Abigail 514, Kayla 235, Sarah 512, Grace 263</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1505,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Kayla 13</t>
+          <t>Brianna 172, Brianna 221, Elizabeth 516, Madison 352, Abigail 413, Alexis 498, Olivia 274, Lauren 309, Sarah 31, Elizabeth 391, Emma 499, Jessica 437, Jessica 461, Alexis 378, Isabella 241, Kayla 13</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Alexis 471, Emily 144, Emily 334, Elizabeth 289, Taylor 523, Emily 152, Madison 162, Emily 349, Brianna 513, Grace 515</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1520,16 @@
           <t>Fotograafia 1</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Lauren 49, Alyssa 308, Lauren 96, Jessica 506, Abigail 413, Alexis 35, Brianna 153, Emily 445, Taylor 226, Isabella 160, Lauren 475, Grace 22, Jessica 520, Jessica 325, Samantha 480, Elizabeth 307, Jessica 425, Alexis 371, Hannah 181, Abigail 341, Lauren 459, Kayla 235, Olivia 134, Lauren 93</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Samantha 20, Kayla 497, Ashley 481, Abigail 231, Madison 455, Sarah 501, Olivia 138, Alexis 355, Grace 431, Madison 243</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1171,7 +1537,16 @@
           <t>Inimene ja ühiskond 3. periood</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Jessica 423, Olivia 137, Abigail 338, Taylor 121, Madison 126, Samantha 487, Jessica 383, Elizabeth 391, Taylor 192, Taylor 94, Samantha 488, Emma 64, Emily 91, Ashley 81, Ashley 392, Emily 65, Kayla 272, Jessica 163, Grace 159, Lauren 258, Kayla 495, Grace 320, Jessica 265, Kayla 369, Jessica 230, Ashley 389, Ashley 117, Brianna 299, Emma 77, Abigail 82, Emma 72, Lauren 56, Grace 463, Ashley 198, Sarah 277, Olivia 270</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Kayla 466, Ashley 481, Alyssa 491, Lauren 11, Madison 444, Samantha 211, Samantha 402, Madison 196, Sarah 482, Olivia 237</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1181,7 +1556,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Lauren 12</t>
+          <t>Madison 24, Emma 25, Taylor 222, Lauren 12, Elizabeth 289, Isabella 95, Kayla 379, Madison 417, Jessica 189, Jessica 32, Alyssa 491, Isabella 161, Isabella 275, Madison 444, Madison 415, Emma 257, Alexis 355, Lauren 494, Elizabeth 313, Brianna 197, Hannah 281, Elizabeth 227, Olivia 21, Kayla 51, Emma 76, Grace 411, Sarah 424, Grace 111, Hannah 393, Alyssa 440, Alexis 69, Grace 253, Olivia 237, Emily 349, Hannah 194, Ashley 441</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Emily 390, Olivia 38, Sarah 377, Alyssa 493, Elizabeth 364, Jessica 325, Lauren 372, Emily 146, Abigail 209, Jessica 163</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1573,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Isabella 3</t>
+          <t>Jessica 278, Abigail 269, Kayla 407, Lauren 90, Alyssa 359, Samantha 276, Hannah 317, Lauren 136, Abigail 125, Madison 162, Alyssa 245, Sarah 442, Madison 225, Olivia 38, Isabella 3, Olivia 239, Sarah 482, Lauren 29, Abigail 450, Olivia 40, Taylor 394, Grace 122, Alyssa 128, Isabella 242, Brianna 251, Lauren 358, Sarah 57, Brianna 200, Grace 515, Kayla 469</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Brianna 419, Brianna 438, Alexis 80, Sarah 107, Alyssa 304, Ashley 140, Grace 213, Lauren 85, Taylor 226, Olivia 234</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1590,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lauren 12, Kayla 15, Lauren 11, Elizabeth 10</t>
+          <t>Sarah 400, Kayla 15, Samantha 27, Brianna 221, Abigail 338, Isabella 395, Elizabeth 476, Jessica 506, Taylor 254, Abigail 413, Lauren 457, Brianna 153, Sarah 31, Jessica 46, Alexis 316, Elizabeth 391, Lauren 12, Jessica 437, Alexis 378, Kayla 252, Isabella 426, Lauren 475, Alexis 261, Emily 507, Emma 300, Brianna 148, Lauren 207, Emily 91, Brianna 361, Emily 65</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Grace 267, Sarah 315, Emily 34, Hannah 357, Abigail 291, Brianna 179, Madison 225, Grace 321, Isabella 474, Emily 439</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1605,16 @@
           <t>Turundus</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Hannah 59, Lauren 232, Brianna 221, Olivia 259, Alyssa 39, Jessica 461, Ashley 240, Brianna 88, Lauren 52, Lauren 33, Ashley 348, Abigail 503, Taylor 130, Emily 390, Lauren 346, Alyssa 421, Emma 305, Madison 155, Elizabeth 141, Ashley 84, Alyssa 432, Emily 97, Abigail 71, Elizabeth 262, Taylor 158, Ashley 168</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Samantha 398, Alexis 470, Kayla 75, Madison 301, Grace 411, Emma 76, Madison 415, Kayla 369, Alyssa 304, Hannah 317</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1225,7 +1624,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Kayla 13, Taylor 17</t>
+          <t>Lauren 85, Grace 396, Elizabeth 476, Sarah 518, Sarah 74, Olivia 274, Elizabeth 449, Sarah 331, Kayla 13, Lauren 489, Abigail 517, Taylor 17, Hannah 332, Grace 120, Abigail 109, Elizabeth 284, Alexis 45, Emily 439, Madison 184, Samantha 250, Olivia 167, Samantha 68, Samantha 73, Lauren 356</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Brianna 362, Alexis 468, Madison 322, Samantha 298, Grace 428, Emma 257, Emily 333, Hannah 281, Taylor 500, Madison 519</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1641,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Lauren 12, Kayla 15, Lauren 11, Elizabeth 10, Isabella 3</t>
+          <t>Kayla 15, Elizabeth 486, Hannah 202, Lauren 85, Grace 100, Isabella 395, Alyssa 508, Emma 25, Taylor 222, Grace 199, Abigail 408, Lauren 12, Jessica 437, Emma 118, Lauren 248, Abigail 108, Taylor 226, Elizabeth 449, Isabella 426, Emily 336</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Jessica 325, Alexis 343, Grace 267, Alexis 443, Samantha 276, Jessica 293, Jessica 44, Olivia 239, Lauren 11, Elizabeth 166</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1656,16 @@
           <t>Kujutav geomeetria</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Sarah 400, Hannah 59, Taylor 509, Emma 98, Ashley 453, Madison 173, Isabella 354, Kayla 252, Alyssa 273, Ashley 478, Taylor 288, Elizabeth 289, Emma 300, Isabella 329, Ashley 81, Grace 30, Emily 34, Lauren 136, Abigail 125, Jessica 446, Olivia 502, Madison 162</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Hannah 332, Hannah 181, Kayla 235, Madison 464, Elizabeth 328, Jessica 374, Isabella 95, Lauren 372, Grace 247, Lauren 101</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1255,7 +1673,12 @@
           <t>Loominguline joonistamine 2</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Alexis 381, Samantha 302</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1265,7 +1688,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kayla 13, Taylor 6, Madison 14</t>
+          <t>Taylor 115, Jessica 206, Madison 24, Sarah 210, Hannah 323, Jessica 66, Lauren 309, Emily 229, Grace 285, Kayla 13, Ashley 348, Kayla 409, Taylor 94, Grace 83, Taylor 523, Hannah 317, Lauren 249, Abigail 291, Brianna 180, Alexis 36, Elizabeth 284, Olivia 127, Olivia 169, Isabella 260, Grace 159, Hannah 287, Grace 511, Sarah 57, Brianna 200, Isabella 161, Samantha 73, Abigail 231, Emily 403, Isabella 353, Madison 322</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Emma 72, Lauren 56, Ashley 458, Abigail 279, Ashley 78, Ashley 392, Alyssa 304, Taylor 222, Alyssa 432, Taylor 6</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1705,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kayla 13, Lauren 11, Kayla 7</t>
+          <t>Jessica 278, Taylor 115, Alexis 370, Jessica 423, Ashley 123, Sarah 210, Grace 396, Grace 99, Lauren 96, Lauren 457, Lauren 60, Hannah 397, Elizabeth 391, Emma 28, Samantha 429, Alyssa 359, Kayla 13, Alyssa 273, Samantha 480, Grace 89, Brianna 361, Elizabeth 164, Olivia 234, Alyssa 245, Hannah 181, Ashley 297, Lauren 459, Elizabeth 284, Alyssa 380, Lauren 11, Lauren 372, Emma 217, Samantha 462, Olivia 477, Sarah 86, Samantha 224</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Jessica 265, Samantha 73, Emily 403, Isabella 353, Kayla 7, Madison 455, Sarah 501, Elizabeth 79, Grace 515, Abigail 71</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1722,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lauren 8, Taylor 17</t>
+          <t>Alyssa 435, Lauren 232, Brianna 221, Hannah 194, Elizabeth 476, Samantha 487, Abigail 408, Lauren 90, Emma 401, Lauren 8, Emily 334, Isabella 295, Emma 454, Jessica 520, Samantha 488</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Kayla 410, Taylor 523, Taylor 17, Ashley 195, Sarah 156, Lauren 136, Sarah 114, Grace 321, Olivia 38, Olivia 239</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1739,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sarah 2, Madison 14</t>
+          <t>Sarah 2, Brianna 433, Abigail 269, Olivia 137, Abigail 338, Samantha 143, Brianna 153, Samantha 402, Emily 445, Abigail 212, Isabella 160, Taylor 94, Abigail 517, Madison 14, Emma 387, Ashley 412, Emily 34, Hannah 317, Jessica 446, Brianna 42, Sarah 482, Abigail 109, Emily 439, Taylor 130</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Grace 122, Alyssa 128, Isabella 260, Lauren 310, Samantha 484, Brianna 251, Ashley 246, Brianna 513, Alyssa 421, Jessica 219</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1756,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Kayla 5</t>
+          <t>Emily 146, Alyssa 493, Hannah 218, Olivia 103, Ashley 50, Taylor 226, Samantha 327, Emma 448, Ashley 392, Emily 152, Emily 65, Hannah 467, Abigail 255, Hannah 357, Elizabeth 473, Isabella 474, Emma 290, Ashley 414, Olivia 169, Lauren 101, Samantha 150, Lauren 346, Kayla 495, Samantha 386, Emily 349, Hannah 287, Grace 282, Kayla 5, Emma 305, Elizabeth 10, Kayla 469, Ashley 117, Alexis 340, Ashley 168, Olivia 186, Hannah 119, Ashley 458, Emma 185, Taylor 500, Grace 463, Lauren 310, Brianna 92, Emma 216, Kayla 272, Elizabeth 262, Olivia 138, Emily 135, Brianna 205, Kayla 497, Emily 479, Isabella 347, Sarah 114, Emma 72, Abigail 82, Grace 159, Taylor 176, Sarah 420, Jessica 265, Madison 225, Brianna 419, Brianna 492, Olivia 264, Hannah 266, Brianna 172, Brianna 47, Sarah 518, Alexis 294, Elizabeth 116, Brianna 299, Olivia 154, Elizabeth 385, Samantha 298, Elizabeth 157, Abigail 108, Brianna 513, Madison 455, Samantha 398, Hannah 332, Isabella 375, Kayla 75</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Emily 65, Lauren 337, Jessica 325, Elizabeth 166, Emma 28, Isabella 426, Olivia 376, Ashley 460, Grace 282, Lauren 494</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1771,12 @@
           <t>Riigikaitse 2</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hannah 218, Taylor 226, Olivia 169, Samantha 150, Samantha 386, Ashley 392, Hannah 119, Ashley 414, Emma 185, Brianna 47, Alexis 294, Lauren 346, Elizabeth 10, Elizabeth 157, Olivia 138, Sarah 420, Elizabeth 262, Elizabeth 116, Emily 135, Emily 349, Hannah 266, Hannah 467, Kayla 272, Emily 152, Ashley 458</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1333,7 +1786,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Isabella 3, Hannah 16</t>
+          <t>Hannah 59, Isabella 183, Alyssa 308, Kayla 407, Alyssa 306, Taylor 121, Taylor 106, Abigail 413, Alexis 498, Olivia 274, Emily 229, Jessica 46, Olivia 345, Madison 173, Brianna 88, Lauren 52, Lauren 33, Kayla 409, Ashley 286, Lauren 207, Emily 91, Brianna 456, Jessica 425, Lauren 249, Taylor 145</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Madison 225, Grace 120, Isabella 3, Samantha 483, Alexis 294, Kayla 272, Abigail 450, Olivia 496, Brianna 492, Ashley 326</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1801,16 @@
           <t>Ajakirjanduse praktika</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Emily 330, Jessica 23, Ashley 460, Emily 229, Isabella 375, Taylor 523, Abigail 255, Hannah 317, Jessica 70, Alexis 36, Brianna 190, Grace 511, Samantha 73, Lauren 309, Hannah 165, Alexis 371, Emily 334, Isabella 161, Brianna 200, Brianna 492, Jessica 189, Elizabeth 284, Samantha 143, Emily 403, Kayla 13, Lauren 223, Lauren 136, Olivia 345, Isabella 353, Alyssa 128</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Brianna 88, Lauren 207, Elizabeth 141, Emily 144, Kayla 409, Jessica 461, Emily 479, Emma 499, Ashley 414, Elizabeth 307</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1353,7 +1820,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Taylor 6, Kayla 13</t>
+          <t>Jessica 278, Alexis 370, Elizabeth 436, Madison 54, Isabella 342, Hannah 323, Taylor 6, Alexis 35, Samantha 487, Hannah 397, Taylor 222, Grace 199, Brianna 201, Lauren 90, Elizabeth 67, Elizabeth 174, Jessica 461, Hannah 522, Alyssa 359, Isabella 241, Abigail 490, Taylor 288, Emily 336, Olivia 318, Olivia 53, Grace 48, Jessica 147, Grace 89, Ashley 195, Olivia 384</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Isabella 485, Lauren 249, Taylor 145, Alyssa 245, Hannah 181, Ashley 297, Lauren 459, Grace 463, Grace 263, Hannah 165</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1837,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Lauren 8, Sarah 2</t>
+          <t>Sarah 2, Alexis 104, Elizabeth 486, Madison 24, Abigail 269, Hannah 202, Olivia 103, Sarah 210, Alyssa 308, Kayla 407, Taylor 121, Sarah 74, Madison 126, Emma 98, Lauren 60, Kayla 139, Alyssa 39, Jessica 191</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Alyssa 19, Samantha 429, Grace 285, Brianna 88, Alexis 171, Ashley 348, Taylor 192, Alexis 471, Lauren 8, Emily 334</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1854,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Olivia 1, Emma 9, Hannah 16, Kayla 7</t>
+          <t>Alyssa 132, Taylor 115, Ashley 123, Alyssa 435, Alyssa 493, Olivia 416, Grace 100, Emily 228, Grace 99, Taylor 509, Samantha 402, Jessica 383, Alyssa 366, Emma 499, Emma 118, Ashley 78</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Olivia 345, Olivia 1, Samantha 271, Emily 87, Kayla 409, Samantha 327, Lauren 337, Taylor 94, Jessica 303, Grace 83</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1871,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Lauren 8, Taylor 6, Samantha 18, Madison 14, Taylor 17</t>
+          <t>Lauren 363, Olivia 504, Alyssa 493, Emily 330, Madison 24, Brianna 221, Kayla 407, Emma 216, Taylor 6, Abigail 413, Sarah 31, Sarah 377, Elizabeth 174, Hannah 522, Taylor 226, Grace 285, Isabella 241, Lauren 52, Elizabeth 422, Abigail 490</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Ashley 478, Lauren 8, Taylor 94, Jessica 520, Jessica 303, Elizabeth 399, Taylor 523, Emily 91, Madison 14, Taylor 17</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1888,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Olivia 1, Samantha 18, Kayla 7</t>
+          <t>Emily 146, Lauren 49, Taylor 151, Taylor 121, Sarah 518, Ashley 460, Alexis 35, Lauren 309, Abigail 131, Sarah 377, Hannah 522, Olivia 1, Emily 87, Isabella 426, Lauren 430, Ashley 286</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Emma 448, Grace 89, Grace 30, Brianna 179, Taylor 145, Hannah 181, Lauren 29, Grace 122, Samantha 462, Samantha 18</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1903,16 @@
           <t>Tänavakunst</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Alyssa 132, Alexis 104, Elizabeth 486, Brianna 433, Samantha 211, Isabella 342, Alyssa 306, Jessica 23, Grace 99, Lauren 96, Alexis 498, Taylor 509, Lauren 309, Emily 229, Hannah 397, Abigail 408, Emma 499, Lauren 90, Jessica 191, Ashley 240</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Kayla 252, Sarah 331, Emily 144, Emily 336, Olivia 318, Samantha 488, Jessica 325, Ashley 81, Brianna 456, Grace 292</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -378,14 +378,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Jessica 278, Madison 204, Alexis 370, Abigail 269, Olivia 137, Lauren 96, Madison 324, Isabella 427, Lauren 60, Alyssa 4, Jessica 46, Kayla 252, Abigail 490, Lauren 8, Emily 144, Olivia 318, Samantha 488, Brianna 148, Madison 14, Isabella 485, Alexis 443, Jessica 425, Grace 280, Emily 505, Madison 464, Abigail 109, Isabella 95</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Kayla 497, Grace 320, Kayla 5, Emily 405, Isabella 275, Olivia 270, Emily 135, Olivia 186, Brianna 197, Brianna 47</t>
-        </is>
-      </c>
+          <t>Lauren 8, Alyssa 4, Kayla 5, Madison 14</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -395,14 +391,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jessica 423, Alyssa 435, Sarah 210, Alyssa 306, Elizabeth 476, Olivia 259, Ashley 453, Emily 229, Taylor 222, Ashley 50, Lauren 12, Elizabeth 449, Isabella 426, Samantha 327, Olivia 53, Emily 91, Sarah 315, Abigail 255, Olivia 234, Abigail 125, Jessica 44, Emily 439, Lauren 11, Madison 184, Madison 417, Samantha 150, Olivia 264</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Jessica 32, Grace 351, Lauren 494, Taylor 215, Taylor 176, Hannah 314, Madison 519, Kayla 75, Abigail 338, Emma 118</t>
-        </is>
-      </c>
+          <t>Lauren 12, Lauren 11</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -412,7 +404,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jessica 278, Jessica 46, Lauren 8, Madison 417, Samantha 150, Alyssa 4</t>
+          <t>Lauren 8, Alyssa 4</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -425,14 +417,10 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lauren 363, Madison 204, Alexis 104, Elizabeth 486, Jessica 206, Elizabeth 516, Jessica 23, Madison 352, Lauren 367, Isabella 244, Emma 118, Elizabeth 472, Alexis 365, Emily 144, Alexis 261, Isabella 329, Ashley 195, Brianna 373, Elizabeth 364, Jessica 293, Abigail 291, Ashley 220, Olivia 451, Emma 9, Jessica 374, Ashley 283, Madison 149, Elizabeth 166, Samantha 484, Abigail 344</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Emily 349, Brianna 200, Brianna 513, Alyssa 421, Olivia 376, Madison 455, Elizabeth 10, Elizabeth 262, Taylor 158, Grace 256</t>
-        </is>
-      </c>
+          <t>Emma 9, Elizabeth 10</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -442,7 +430,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lauren 363, Madison 204, Alexis 104, Elizabeth 486, Jessica 206, Elizabeth 516, Jessica 23, Madison 352, Lauren 367, Isabella 244, Emma 118, Elizabeth 472, Alexis 365, Emily 144, Alexis 261, Isabella 329, Ashley 195, Brianna 373, Elizabeth 364, Jessica 293, Abigail 291, Ashley 220, Olivia 451, Emma 9, Jessica 374, Ashley 283, Madison 149, Elizabeth 166, Samantha 484, Abigail 344</t>
+          <t>Emma 9, Elizabeth 10</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -455,7 +443,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lauren 363, Madison 204, Alexis 104, Elizabeth 486, Jessica 206, Elizabeth 516, Jessica 23, Madison 352, Lauren 367, Isabella 244, Emma 118, Elizabeth 472, Alexis 365, Emily 144, Alexis 261, Isabella 329, Ashley 195, Brianna 373, Elizabeth 364, Jessica 293, Abigail 291, Ashley 220, Olivia 451, Emma 9, Jessica 374, Ashley 283, Madison 149, Elizabeth 166, Samantha 484, Abigail 344</t>
+          <t>Emma 9, Elizabeth 10</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -466,16 +454,8 @@
           <t>Planimeetria alused</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Alyssa 493, Alyssa 233, Madison 352, Olivia 274, Jessica 383, Abigail 212, Isabella 244, Taylor 288, Elizabeth 399, Ashley 195, Madison 162, Grace 321, Grace 120, Elizabeth 284, Grace 263, Hannah 165, Grace 159, Brianna 513, Brianna 362, Sarah 501, Alexis 468, Abigail 71, Lauren 494, Lauren 56, Samantha 398, Madison 243, Alexis 470, Emma 185, Alyssa 304, Taylor 215</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Hannah 314, Brianna 61, Emma 64, Hannah 317, Ashley 326, Jessica 423, Emily 34, Taylor 288, Lauren 101, Lauren 248</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -483,11 +463,7 @@
           <t>3D-modelleerimine 3. periood</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Hannah 218, Elizabeth 174, Grace 515, Ashley 140, Lauren 346, Emma 58, Olivia 451, Grace 253, Isabella 63</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -496,11 +472,7 @@
           <t>3D-modelleerimine 5. periood</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Jessica 147, Grace 122, Grace 253, Elizabeth 157, Abigail 71, Samantha 27, Madison 519, Samantha 20</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -511,14 +483,10 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ashley 123, Alyssa 493, Taylor 151, Emma 216, Emma 238, Alyssa 508, Emma 98, Lauren 60, Alyssa 4, Abigail 108, Alyssa 19, Kayla 252, Madison 14, Alexis 343, Olivia 384, Emily 152, Sarah 315, Elizabeth 473, Lauren 249, Grace 280, Jessica 70, Brianna 179, Taylor 145, Jessica 44</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Emma 350, Elizabeth 328, Alexis 294, Jessica 374, Ashley 326, Hannah 165, Emma 217, Samantha 150, Jessica 32, Sarah 86</t>
-        </is>
-      </c>
+          <t>Alyssa 4, Kayla 5, Madison 14</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -528,14 +496,10 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kayla 188, Hannah 218, Isabella 183, Emily 507, Emily 91, Grace 89, Ashley 412, Brianna 373, Taylor 145, Brianna 42, Sarah 482, Alexis 294, Brianna 492, Samantha 20, Alexis 112, Madison 196, Alyssa 128, Samantha 18, Hannah 266, Brianna 251, Sarah 86, Grace 320, Emily 349, Alyssa 421</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Olivia 376, Olivia 124, Emily 333, Alexis 340, Kayla 268, Sarah 107, Hannah 393, Brianna 47, Taylor 176, Elizabeth 227</t>
-        </is>
-      </c>
+          <t>Samantha 18</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -545,14 +509,10 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Alyssa 435, Olivia 416, Olivia 137, Alexis 381, Sarah 74, Emma 216, Taylor 254, Madison 324, Lauren 90, Emma 28, Madison 173, Alyssa 19, Olivia 1, Alexis 365, Ashley 348, Isabella 426, Samantha 327, Ashley 286, Grace 83, Jessica 311, Jessica 325, Grace 292, Grace 267, Jessica 425</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Elizabeth 473, Grace 321, Olivia 40, Emma 217, Lauren 101, Madison 196, Olivia 167, Ashley 246, Grace 351, Ashley 481</t>
-        </is>
-      </c>
+          <t>Olivia 1</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -562,14 +522,10 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kayla 188, Jessica 206, Samantha 211, Lauren 232, Lauren 49, Alexis 498, Abigail 131, Ashley 50, Isabella 244, Madison 368, Emma 208, Lauren 360, Emma 28, Lauren 452</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Ashley 193, Alexis 335, Isabella 160, Elizabeth 385, Elizabeth 399, Madison 14, Taylor 17, Brianna 456, Ashley 392, Alexis 443</t>
-        </is>
-      </c>
+          <t>Isabella 3, Kayla 5, Madison 14, Taylor 17, Alyssa 4, Samantha 18</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -579,14 +535,10 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sarah 2, Kayla 15, Brianna 172, Olivia 103, Sarah 210, Alyssa 306, Alexis 498, Kayla 139, Madison 368, Elizabeth 67, Ashley 193, Samantha 302, Brianna 361, Grace 267, Emily 34, Sarah 156, Isabella 474, Olivia 496, Olivia 127, Samantha 462, Jessica 521</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Madison 417, Samantha 18, Lauren 310, Abigail 296, Alyssa 491, Jessica 175, Brianna 513, Emma 58, Isabella 347, Emily 479</t>
-        </is>
-      </c>
+          <t>Sarah 2, Kayla 15, Lauren 12</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -596,14 +548,10 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lauren 85, Emily 228, Sarah 74, Madison 324, Emma 238, Alyssa 4, Kayla 139, Madison 368, Isabella 241, Elizabeth 422, Taylor 192, Isabella 426, Taylor 288, Grace 22, Jessica 325, Alexis 343</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Alexis 443, Sarah 315, Jessica 44, Olivia 451, Emma 350, Abigail 341, Abigail 514, Hannah 182, Olivia 127, Kayla 497</t>
-        </is>
-      </c>
+          <t>Alyssa 4</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -613,14 +561,10 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Emily 146, Ashley 198, Samantha 211, Madison 24, Hannah 202, Grace 465, Alyssa 308, Alyssa 508, Abigail 212, Jessica 46, Kayla 252, Brianna 88, Alexis 335, Isabella 160, Ashley 478, Lauren 8, Emma 454, Jessica 147, Lauren 207, Brianna 361, Taylor 110, Samantha 276, Olivia 234, Elizabeth 328, Olivia 134, Grace 463, Brianna 492, Ashley 326, Samantha 20, Hannah 182, Lauren 372, Samantha 447, Grace 159, Elizabeth 166, Sarah 57, Olivia 154</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Samantha 73, Abigail 231, Isabella 353, Isabella 275, Taylor 26, Brianna 388, Elizabeth 262, Alexis 80, Emma 55, Madison 519</t>
-        </is>
-      </c>
+          <t>Lauren 8, Kayla 15</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -630,14 +574,10 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Taylor 115, Brianna 433, Grace 465, Taylor 106, Ashley 50, Emma 208, Elizabeth 449, Alexis 365, Grace 285, Isabella 241, Grace 48, Kayla 410, Elizabeth 164, Jessica 70, Lauren 136, Alexis 371, Isabella 3, Samantha 483, Olivia 496, Madison 184</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Abigail 105, Lauren 372, Lauren 223, Samantha 447, Alyssa 133, Samantha 224, Alyssa 491, Jessica 175, Elizabeth 43, Alyssa 421</t>
-        </is>
-      </c>
+          <t>Isabella 3</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -647,14 +587,10 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Emily 146, Samantha 211, Olivia 416, Grace 99, Taylor 509, Hannah 397, Abigail 408, Samantha 429, Isabella 354, Lauren 8, Kayla 409, Hannah 467, Sarah 114, Abigail 514, Lauren 11, Hannah 182, Ashley 414, Olivia 169, Lauren 101, Madison 196</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Isabella 260, Madison 149, Samantha 386, Emily 403, Isabella 353, Brianna 388, Kayla 268, Kayla 466, Ashley 458, Brianna 47</t>
-        </is>
-      </c>
+          <t>Lauren 8, Lauren 11</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -662,16 +598,8 @@
           <t>Labortöid füüsikas 10. ja 11. klassile</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Hannah 59, Brianna 433, Madison 24, Lauren 232, Taylor 121, Grace 99, Taylor 106, Sarah 74, Olivia 274, Abigail 131, Kayla 139, Alyssa 39</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Emma 28, Kayla 252, Elizabeth 422, Lauren 33, Alexis 171, Kayla 409, Samantha 488, Taylor 523, Emma 64, Grace 292</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -681,14 +609,10 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Isabella 342, Hannah 218, Madison 126, Madison 368, Elizabeth 67, Elizabeth 174, Samantha 429, Alyssa 359, Kayla 13, Emma 454, Taylor 523, Jessica 147, Ashley 392, Taylor 110, Jessica 293, Olivia 234, Jessica 44, Olivia 451, Lauren 459, Sarah 512, Taylor 130, Samantha 20, Grace 247, Hannah 266, Brianna 251, Alexis 69, Olivia 167, Sarah 86, Ashley 246, Samantha 73, Alyssa 432, Brianna 419, Ashley 389, Grace 253, Elizabeth 157, Samantha 178, Olivia 21, Grace 428, Brianna 388, Emma 76, Elizabeth 473, Sarah 424, Grace 515, Grace 256, Olivia 376</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Emma 257, Elizabeth 227, Grace 159, Taylor 176, Abigail 71, Ashley 458, Olivia 154, Alexis 524, Abigail 131, Taylor 151</t>
-        </is>
-      </c>
+          <t>Kayla 13</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,16 +620,8 @@
           <t>Joonestamine 4. periood</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Alyssa 132, Samantha 27, Emma 142, Grace 99, Emma 216, Alyssa 366, Elizabeth 472, Elizabeth 174, Isabella 63, Isabella 375, Olivia 53, Lauren 430, Jessica 147, Emma 387, Jessica 425, Hannah 467, Kayla 272, Grace 463, Emily 439, Olivia 496, Ashley 326, Grace 122, Samantha 462, Jessica 189, Lauren 346, Alyssa 491, Emma 58, Kayla 7, Abigail 71, Brianna 438, Emma 77, Brianna 388, Lauren 170, Sarah 424, Grace 431, Alexis 470, Olivia 237, Alyssa 304, Samantha 178, Ashley 140, Madison 519, Madison 301, Abigail 177, Kayla 369, Brianna 88</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Hannah 181, Brianna 197, Taylor 226, Emma 142, Elizabeth 262, Ashley 198, Sarah 501, Alexis 171, Grace 411, Grace 263</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -715,14 +631,10 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Samantha 27, Alyssa 435, Brianna 433, Hannah 218, Isabella 183, Emma 142, Taylor 106, Lauren 457, Samantha 402, Abigail 212, Emma 28, Alexis 335, Isabella 241, Elizabeth 422, Alexis 171, Isabella 375, Isabella 295, Ashley 412, Alexis 36, Alexis 112, Olivia 477, Emma 404, Grace 282, Elizabeth 116</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Olivia 376, Jessica 219, Kayla 51, Isabella 275, Sarah 277, Grace 111, Lauren 494, Grace 253, Hannah 16, Abigail 113</t>
-        </is>
-      </c>
+          <t>Hannah 16</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -732,14 +644,10 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jessica 278, Emily 146, Hannah 194, Alyssa 233, Elizabeth 476, Olivia 259, Sarah 74, Brianna 153, Samantha 487, Abigail 131, Samantha 271, Lauren 33, Alexis 261, Lauren 489, Grace 83, Brianna 148, Hannah 357, Lauren 249, Samantha 382, Taylor 145, Brianna 42, Kayla 235, Emily 439, Taylor 130</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Olivia 40, Abigail 105, Ashley 414, Emma 217, Lauren 101, Hannah 266, Grace 159, Samantha 484, Hannah 287, Grace 511</t>
-        </is>
-      </c>
+          <t>Kayla 7, Kayla 13</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -749,14 +657,10 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Emily 37, Kayla 15, Ashley 198, Samantha 211, Lauren 49, Alexis 381, Emma 142, Jessica 506, Jessica 383, Alexis 316, Lauren 360, Jessica 191, Elizabeth 67, Kayla 252, Samantha 302, Lauren 489, Olivia 318, Brianna 148, Ashley 81, Olivia 384, Elizabeth 307, Isabella 485, Grace 292, Grace 30, Grace 267</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Samantha 276, Jessica 70, Ashley 220, Hannah 332, Sarah 442, Emily 505, Alexis 36, Alexis 45, Grace 463, Abigail 105</t>
-        </is>
-      </c>
+          <t>Kayla 15</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -766,14 +670,10 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Emily 37, Elizabeth 436, Isabella 342, Alexis 381, Samantha 143, Ashley 453, Isabella 427, Ashley 50, Jessica 191, Isabella 426, Samantha 327, Olivia 318, Olivia 53, Emily 507, Grace 83, Brianna 148, Brianna 456, Isabella 485, Grace 30, Abigail 255, Hannah 357, Olivia 234</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Brianna 492, Emma 290, Brianna 190, Alyssa 133, Ashley 246, Hannah 287, Grace 511, Kayla 7, Elizabeth 79, Olivia 270</t>
-        </is>
-      </c>
+          <t>Kayla 7</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -783,14 +683,10 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ashley 123, Alyssa 493, Olivia 103, Brianna 221, Elizabeth 516, Taylor 121, Olivia 102, Alyssa 233, Ashley 50, Emma 208, Isabella 241, Olivia 318, Ashley 286, Abigail 517, Emma 448, Lauren 207, Hannah 129, Elizabeth 307, Jessica 70, Samantha 382, Alexis 371, Sarah 114, Olivia 451, Madison 225, Grace 321, Emma 9, Madison 184, Grace 263, Kayla 379</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Samantha 250, Emily 390, Abigail 296, Olivia 167, Samantha 386, Elizabeth 116, Grace 351, Lauren 356, Jessica 230, Ashley 389</t>
-        </is>
-      </c>
+          <t>Emma 9</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -800,14 +696,10 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Alexis 370, Kayla 15, Jessica 206, Elizabeth 436, Brianna 203, Sarah 518, Alexis 62, Madison 324, Grace 199, Alexis 316, Isabella 244, Emma 401, Jessica 437, Emma 118, Olivia 345, Taylor 288, Alexis 471, Samantha 327, Olivia 53, Emma 454, Elizabeth 289, Emma 300, Isabella 329, Brianna 179, Ashley 220, Abigail 125, Abigail 341, Elizabeth 328, Samantha 483, Elizabeth 284, Samantha 250, Olivia 477, Lauren 258, Jessica 189, Grace 320, Brianna 513, Ashley 481, Olivia 376, Emily 403, Brianna 418, Madison 415, Emma 77, Abigail 177, Elizabeth 262, Olivia 214, Taylor 158, Alexis 470, Hannah 281, Brianna 47, Hannah 314</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Brianna 179, Kayla 75, Brianna 190, Madison 415, Hannah 202, Kayla 369, Taylor 145, Brianna 92, Elizabeth 307, Sarah 501</t>
-        </is>
-      </c>
+          <t>Kayla 15, Kayla 5</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -817,14 +709,10 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Alexis 104, Kayla 15, Samantha 27, Elizabeth 436, Alyssa 306, Taylor 254, Samantha 487, Emily 445, Abigail 408, Lauren 367, Elizabeth 391, Alyssa 39, Isabella 354, Alexis 378, Lauren 475, Sarah 434, Emily 336, Isabella 295, Emily 507, Lauren 207, Taylor 17, Isabella 329, Elizabeth 307, Brianna 373, Emily 152</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Samantha 276, Elizabeth 473, Ashley 297, Alyssa 128, Samantha 150, Jessica 189, Olivia 376, Madison 155, Isabella 353, Brianna 418</t>
-        </is>
-      </c>
+          <t>Kayla 15, Taylor 17</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -834,14 +722,10 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jessica 423, Isabella 183, Kayla 407, Taylor 6, Abigail 413, Lauren 457, Jessica 191, Emma 28, Lauren 248, Olivia 345, Abigail 108, Isabella 375, Kayla 409, Grace 83, Emily 91, Grace 267, Emily 34, Hannah 317, Alexis 36, Jessica 374, Brianna 492, Taylor 394, Lauren 101, Isabella 260, Elizabeth 166, Abigail 296, Lauren 358, Emma 404</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Elizabeth 10, Elizabeth 79, Taylor 26, Ashley 117, Sarah 277, Alexis 340, Sarah 424, Madison 415, Emily 152, Kayla 369</t>
-        </is>
-      </c>
+          <t>Taylor 6, Elizabeth 10</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -851,14 +735,10 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Emily 37, Taylor 115, Madison 204, Alexis 381, Grace 100, Taylor 121, Ashley 453, Ashley 50, Ashley 193, Alyssa 359, Isabella 375, Grace 48, Jessica 311, Isabella 485, Grace 267, Jessica 70, Hannah 332, Hannah 181, Lauren 372, Olivia 127, Olivia 169, Samantha 150, Samantha 386, Samantha 68, Alyssa 491, Elizabeth 116, Madison 155, Ashley 84, Emily 97, Olivia 124, Taylor 26, Brianna 299, Sarah 424, Samantha 398, Grace 431, Alyssa 304, Samantha 178, Abigail 279, Olivia 41, Lauren 337, Ashley 392, Grace 463, Isabella 3, Grace 465, Hannah 16, Brianna 201, Samantha 276, Samantha 302, Olivia 21, Grace 111</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Alexis 316, Lauren 452, Hannah 165, Jessica 230, Emily 507, Elizabeth 227, Alyssa 39, Olivia 259, Emma 185, Olivia 237</t>
-        </is>
-      </c>
+          <t>Hannah 16, Isabella 3</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -866,16 +746,8 @@
           <t>Astronoomia</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Alyssa 493, Brianna 172, Lauren 85, Taylor 151, Hannah 194, Alexis 381, Lauren 96, Emma 216, Lauren 60, Abigail 408, Elizabeth 67, Abigail 108, Jessica 461, Ashley 240, Samantha 429, Sarah 331, Alyssa 273, Taylor 94, Emily 507, Lauren 207, Emma 387, Ashley 412, Brianna 180, Madison 162, Alyssa 245, Lauren 459, Alexis 294, Kayla 379, Alyssa 128, Samantha 447</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Lauren 310, Sarah 57, Olivia 138, Kayla 469, Brianna 419, Grace 253, Grace 431, Alexis 470, Brianna 197, Brianna 47</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -883,16 +755,8 @@
           <t>Astrofüüsika 2. periood</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Emily 37, Ashley 123, Madison 54, Samantha 211, Hannah 202, Hannah 194, Abigail 338, Olivia 102, Grace 99, Olivia 259, Emma 238, Brianna 153, Samantha 402, Ashley 453, Emma 25, Brianna 201, Emma 401, Lauren 33, Alyssa 273, Elizabeth 385, Alexis 471, Emily 334, Taylor 94, Emma 64, Ashley 81, Brianna 456, Jessica 446, Sarah 442, Elizabeth 328, Emily 439, Emma 290, Madison 417, Samantha 484, Brianna 190, Jessica 219</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Abigail 231, Emily 479, Olivia 138, Brianna 388, Alexis 80, Alexis 355, Kayla 466, Kayla 75, Grace 213, Brianna 179</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -902,14 +766,10 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Alyssa 132, Alexis 104, Lauren 49, Kayla 407, Elizabeth 476, Alexis 35, Hannah 397, Lauren 360, Lauren 248, Abigail 108, Taylor 192, Grace 22, Brianna 373, Ashley 220, Abigail 341, Emma 9, Abigail 503, Samantha 483, Alexis 294, Lauren 29, Taylor 130, Isabella 95, Hannah 266, Madison 149, Abigail 296, Sarah 86, Grace 320, Hannah 287, Kayla 5, Elizabeth 43, Emma 72, Sarah 424, Alyssa 304, Taylor 215, Lauren 236</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Elizabeth 307, Hannah 16, Kayla 272, Lauren 457, Alexis 171, Elizabeth 449, Lauren 309, Brianna 221, Grace 120, Emma 238</t>
-        </is>
-      </c>
+          <t>Kayla 5, Emma 9</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -919,14 +779,10 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jessica 278, Madison 204, Alexis 370, Samantha 27, Jessica 206, Elizabeth 436, Isabella 183, Olivia 103, Sarah 210, Taylor 151, Emma 142, Taylor 121, Alyssa 233, Brianna 153, Alyssa 4, Grace 199, Abigail 408, Jessica 191, Elizabeth 67, Elizabeth 449</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Alyssa 359, Alyssa 273, Elizabeth 385, Emily 336, Elizabeth 399, Brianna 456, Elizabeth 307, Isabella 485, Abigail 125, Olivia 502</t>
-        </is>
-      </c>
+          <t>Alyssa 4, Lauren 11</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -934,16 +790,8 @@
           <t>Loogika 2. periood</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Jessica 206, Ashley 198, Brianna 221, Sarah 210, Hannah 323, Taylor 509, Emma 98, Emily 229, Hannah 397, Lauren 360, Ashley 78, Ashley 240, Alexis 335, Isabella 63, Samantha 327, Abigail 517, Samantha 480, Hannah 129, Olivia 239, Sarah 482, Abigail 450, Olivia 40, Kayla 379, Jessica 163, Olivia 264, Emily 349, Jessica 265, Brianna 200, Jessica 230, Brianna 92, Olivia 214</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Kayla 268, Ashley 168, Lauren 337, Olivia 318, Olivia 234, Brianna 92, Elizabeth 307, Samantha 483, Hannah 287, Abigail 231</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -953,14 +801,10 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sarah 2, Madison 204, Jessica 423, Hannah 194, Brianna 153, Samantha 402, Alexis 378, Sarah 331, Abigail 490, Lauren 33, Lauren 475, Alexis 261, Lauren 337, Grace 120, Lauren 459, Ashley 414, Alyssa 133, Emma 404, Abigail 344, Ashley 246, Elizabeth 141, Alyssa 440, Elizabeth 262, Alexis 80, Alexis 355, Ashley 168, Emma 55, Hannah 314, Ashley 441, Isabella 187, Madison 415</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Emily 144, Sarah 107, Hannah 467, Lauren 232, Olivia 137, Alyssa 245, Abigail 82, Abigail 291, Samantha 402, Jessica 437</t>
-        </is>
-      </c>
+          <t>Sarah 2</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -968,11 +812,7 @@
           <t>Programmeerimine keeles Java 1</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Olivia 318, Sarah 315, Isabella 485</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -992,14 +832,10 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Olivia 504, Brianna 172, Olivia 416, Brianna 203, Grace 396, Jessica 23, Taylor 106, Sarah 74, Lauren 96, Lauren 457, Isabella 244, Alexis 365, Lauren 52, Elizabeth 422, Samantha 327, Olivia 384, Brianna 361, Abigail 255, Elizabeth 473, Emily 505, Abigail 109, Olivia 134, Sarah 512, Samantha 484, Jessica 32, Grace 282, Kayla 5, Emily 405, Kayla 469, Sarah 277</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Olivia 214, Lauren 494, Samantha 398, Lauren 236, Madison 301, Ashley 510, Jessica 44, Grace 463, Olivia 318, Brianna 201</t>
-        </is>
-      </c>
+          <t>Kayla 5</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1009,14 +845,10 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hannah 59, Lauren 49, Olivia 103, Taylor 151, Emma 142, Olivia 102, Lauren 457, Emma 238, Isabella 427, Alyssa 366, Elizabeth 391, Alyssa 39, Madison 368, Abigail 108, Alyssa 19, Alexis 365, Brianna 88, Alexis 171, Isabella 63, Lauren 430, Ashley 195, Elizabeth 307, Alexis 443, Jessica 425, Elizabeth 473, Abigail 291, Olivia 502, Brianna 180, Emma 350, Madison 225, Alexis 294, Sarah 512, Isabella 474, Emily 390, Ashley 246, Kayla 369, Emma 305, Kayla 51, Madison 322, Olivia 270, Grace 428, Alexis 80, Sarah 420, Olivia 186, Emma 185, Kayla 75, Taylor 215, Ashley 510, Jessica 44, Emily 152</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Brianna 388, Hannah 181, Alexis 45, Elizabeth 262, Abigail 450, Hannah 281, Abigail 279, Brianna 42, Sarah 312, Alyssa 366</t>
-        </is>
-      </c>
+          <t>Elizabeth 10, Alyssa 4</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1026,14 +858,10 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Alyssa 435, Hannah 218, Isabella 183, Abigail 338, Alyssa 308, Grace 396, Samantha 143, Madison 126, Alyssa 508, Lauren 12, Elizabeth 472, Elizabeth 67, Madison 173, Lauren 452, Samantha 429, Isabella 160, Elizabeth 385, Emily 87, Kayla 409, Ashley 286, Alexis 343, Emma 387, Samantha 480, Sarah 315, Hannah 467, Abigail 255, Jessica 293, Emma 9, Lauren 459, Kayla 272, Lauren 11, Taylor 394, Jessica 163, Ashley 283, Elizabeth 166, Olivia 167, Jessica 175, Grace 282, Emily 405, Isabella 353, Jessica 230, Alyssa 432, Abigail 82, Alexis 340, Madison 243, Ashley 458, Sarah 107, Alyssa 339, Madison 301, Olivia 318</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Brianna 362, Ashley 198, Elizabeth 472, Taylor 288, Lauren 309, Grace 263, Taylor 509, Grace 515, Jessica 374, Emma 387</t>
-        </is>
-      </c>
+          <t>Lauren 12, Emma 9, Lauren 11, Sarah 2, Olivia 1</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1041,16 +869,8 @@
           <t>Arvutite riistvara ja lisaseadmed</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Alexis 370, Abigail 131, Emily 229, Alexis 316, Emma 401, Madison 173, Alyssa 273, Taylor 288, Emily 334, Emma 454, Emma 448, Emma 387, Grace 89, Brianna 180, Brianna 42, Ashley 297</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Madison 464, Sarah 512, Grace 463, Alyssa 380, Grace 263, Lauren 372, Grace 247, Elizabeth 166, Alexis 69, Jessica 189</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1058,16 +878,8 @@
           <t>Loodusteadused, tehnoloogia ja ühiskond</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Emily 146, Elizabeth 436, Samantha 211, Olivia 137, Emily 228, Elizabeth 476, Taylor 254, Emma 238, Lauren 60, Emily 445, Lauren 90, Sarah 377, Lauren 452, Isabella 160, Elizabeth 385, Emily 87, Emily 144, Jessica 311, Emily 152, Grace 280, Hannah 165, Emma 217, Jessica 521, Emma 305, Sarah 312</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Elizabeth 79, Samantha 298, Grace 515, Brianna 419, Brianna 205, Taylor 215, Lauren 85, Samantha 68, Brianna 362, Emily 135</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1077,14 +889,10 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Lauren 49, Alyssa 308, Madison 126, Brianna 61, Alexis 35, Samantha 429, Ashley 193, Alexis 471, Emily 334, Ashley 392, Isabella 485, Elizabeth 364, Taylor 110, Sarah 156, Olivia 234, Alyssa 245, Abigail 514, Samantha 483, Taylor 130, Emma 290, Taylor 394, Ashley 283, Alexis 69, Jessica 219, Madison 155, Isabella 347, Isabella 275</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Alexis 468, Alyssa 432, Abigail 177, Taylor 158, Hannah 16, Madison 243, Olivia 21, Kayla 75, Brianna 190, Lauren 337</t>
-        </is>
-      </c>
+          <t>Hannah 16, Olivia 1</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1094,14 +902,10 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sarah 400, Kayla 188, Emily 330, Grace 100, Alyssa 233, Jessica 66, Taylor 6, Brianna 61, Ashley 460, Emma 499, Brianna 201, Lauren 248, Ashley 78, Lauren 452, Abigail 490, Hannah 129, Alexis 443, Taylor 110</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Abigail 503, Isabella 474, Lauren 93, Hannah 165, Isabella 95, Alexis 69, Alyssa 133, Samantha 386, Emma 305, Abigail 209</t>
-        </is>
-      </c>
+          <t>Taylor 6</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1111,7 +915,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sarah 400, Kayla 188, Emily 330, Grace 100, Alyssa 233, Jessica 66, Taylor 6, Brianna 61, Ashley 460, Emma 499, Brianna 201, Lauren 248, Ashley 78, Lauren 452, Abigail 490, Hannah 129, Alexis 443, Taylor 110</t>
+          <t>Taylor 6</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -1124,7 +928,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sarah 400, Kayla 188, Emily 330, Grace 100, Alyssa 233, Jessica 66, Taylor 6, Brianna 61, Ashley 460, Emma 499, Brianna 201, Lauren 248, Ashley 78, Lauren 452, Abigail 490, Hannah 129, Alexis 443, Taylor 110</t>
+          <t>Taylor 6</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -1135,16 +939,8 @@
           <t>Kirjandus ja film</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Sarah 400, Kayla 188, Emily 330, Olivia 416, Alyssa 308, Grace 100, Elizabeth 516, Samantha 143, Alexis 62, Alexis 316, Lauren 90, Elizabeth 472, Alyssa 19, Sarah 331, Alexis 171, Emma 387, Abigail 255, Hannah 357, Sarah 156, Abigail 291, Sarah 114, Alyssa 245, Hannah 332, Emma 350, Olivia 38, Kayla 235, Kayla 272, Olivia 169, Emily 390, Madison 149, Kayla 495, Samantha 386, Grace 282, Kayla 369</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Isabella 161, Emily 403, Madison 415, Emma 77, Abigail 82, Lauren 170, Grace 431, Sarah 107, Madison 519, Olivia 41</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1154,14 +950,10 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Lauren 363, Olivia 504, Elizabeth 486, Hannah 59, Brianna 203, Alexis 381, Isabella 395, Emma 142, Jessica 23, Elizabeth 476, Jessica 506, Brianna 61, Samantha 271, Samantha 302, Ashley 348, Olivia 53, Elizabeth 289, Ashley 412, Lauren 249, Abigail 125, Olivia 502, Emma 9, Emma 217</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Jessica 521, Lauren 346, Grace 511, Sarah 57, Emma 305, Elizabeth 141, Isabella 347, Madison 322, Elizabeth 313, Alexis 524</t>
-        </is>
-      </c>
+          <t>Emma 9</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1171,14 +963,10 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sarah 2, Madison 24, Lauren 232, Lauren 85, Sarah 74, Alexis 498, Sarah 31, Alyssa 366, Lauren 12, Madison 319, Emma 118, Lauren 452, Taylor 226, Elizabeth 422, Taylor 192, Lauren 337, Grace 22, Jessica 311, Jessica 325, Alexis 343</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Brianna 361, Emily 65, Abigail 341, Alyssa 380, Ashley 326, Samantha 250, Madison 196, Ashley 283, Olivia 477, Lauren 310</t>
-        </is>
-      </c>
+          <t>Sarah 2, Lauren 12, Hannah 16</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1188,14 +976,10 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Alyssa 435, Brianna 172, Olivia 103, Taylor 222, Grace 199, Emma 499, Kayla 139, Jessica 437, Brianna 88, Isabella 160, Alexis 261, Emma 300, Sarah 315, Hannah 467, Samantha 382, Ashley 220, Brianna 180, Abigail 503, Alexis 294, Alexis 45</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Grace 463, Isabella 474, Lauren 11, Lauren 93, Alexis 112, Lauren 258, Ashley 481, Emma 58, Madison 455, Grace 515</t>
-        </is>
-      </c>
+          <t>Lauren 11</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1205,14 +989,10 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Samantha 27, Isabella 183, Alyssa 308, Emma 142, Sarah 518, Emma 98, Abigail 212, Jessica 46, Emma 401, Alyssa 19, Kayla 13, Elizabeth 385, Lauren 8, Brianna 148, Grace 30, Hannah 317</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Sarah 114, Alexis 36, Isabella 3, Samantha 20, Taylor 394, Olivia 169, Samantha 250, Emily 390, Olivia 154, Kayla 7</t>
-        </is>
-      </c>
+          <t>Kayla 13, Lauren 8, Isabella 3, Kayla 7</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1231,14 +1011,10 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Jessica 278, Emily 37, Isabella 342, Abigail 269, Abigail 338, Grace 396, Alexis 498, Taylor 509, Emma 25, Lauren 360, Madison 173, Taylor 192, Ashley 286, Abigail 517, Madison 14, Taylor 17</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Samantha 480, Ashley 81, Brianna 456, Grace 267, Sarah 442, Alyssa 380, Abigail 450, Olivia 496, Taylor 130, Samantha 462</t>
-        </is>
-      </c>
+          <t>Madison 14, Taylor 17, Kayla 5</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1255,16 +1031,8 @@
           <t>Lähis-Ida 20. sajandi teisest poolest tänapäevani</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Lauren 49, Brianna 221, Emily 228, Lauren 457, Madison 324, Emma 238, Lauren 90, Olivia 345, Brianna 88, Samantha 302, Alyssa 359, Lauren 52, Hannah 357, Grace 280, Taylor 145, Alexis 371, Brianna 42, Madison 225, Grace 321, Kayla 235, Alexis 45, Olivia 127, Emma 217, Lauren 346, Jessica 219, Brianna 362, Jessica 230, Alexis 468, Grace 515, Alyssa 432, Grace 428, Olivia 214, Emma 72, Alexis 355, Emma 55, Grace 213</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Brianna 179, Madison 301, Ashley 392, Abigail 177, Elizabeth 307, Grace 267, Samantha 483, Olivia 134, Lauren 475, Elizabeth 449</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1274,14 +1042,10 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sarah 2, Madison 54, Hannah 218, Olivia 103, Olivia 416, Samantha 143, Madison 126, Alexis 35, Jessica 383, Hannah 397, Madison 368, Isabella 241, Emily 334, Isabella 375, Grace 22, Jessica 520, Elizabeth 289, Grace 83, Elizabeth 164, Isabella 485, Emily 65, Sarah 156, Lauren 249, Jessica 70, Abigail 514, Kayla 272, Lauren 29, Brianna 492, Olivia 40, Lauren 101, Abigail 296, Grace 320</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Ashley 481, Emily 403, Lauren 356, Sarah 501, Samantha 298, Emma 257, Emily 333, Kayla 268, Hannah 119, Olivia 237</t>
-        </is>
-      </c>
+          <t>Sarah 2</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1291,14 +1055,10 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hannah 202, Grace 465, Brianna 203, Isabella 395, Olivia 102, Lauren 309, Grace 199, Alyssa 366, Sarah 377, Olivia 1, Grace 285, Alexis 378, Sarah 434, Emily 336, Jessica 303, Elizabeth 399, Kayla 410, Emma 300, Jessica 147, Jessica 311</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Grace 89, Olivia 384, Elizabeth 307, Brianna 179, Grace 120, Sarah 482, Grace 263, Lauren 258, Emma 404, Hannah 287</t>
-        </is>
-      </c>
+          <t>Olivia 1</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1308,7 +1068,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Hannah 202, Grace 465, Brianna 203, Isabella 395, Olivia 102, Lauren 309, Grace 199, Alyssa 366, Sarah 377, Olivia 1, Grace 285, Alexis 378, Sarah 434, Emily 336, Jessica 303, Elizabeth 399, Kayla 410, Emma 300, Jessica 147, Jessica 311</t>
+          <t>Olivia 1</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -1321,7 +1081,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hannah 202, Grace 465, Brianna 203, Isabella 395, Olivia 102, Lauren 309, Grace 199, Alyssa 366, Sarah 377, Olivia 1, Grace 285, Alexis 378, Sarah 434, Emily 336, Jessica 303, Elizabeth 399, Kayla 410, Emma 300, Jessica 147, Jessica 311</t>
+          <t>Olivia 1</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -1334,14 +1094,10 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Alyssa 132, Olivia 504, Hannah 323, Alexis 62, Taylor 254, Sarah 31, Madison 319, Jessica 437, Emma 208, Elizabeth 174, Hannah 522, Samantha 271, Emily 87, Ashley 478, Alexis 471, Isabella 63, Lauren 337, Grace 48, Lauren 430, Samantha 382, Olivia 502, Emily 505, Abigail 105, Lauren 223, Samantha 18</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Samantha 224, Samantha 68, Jessica 265, Alyssa 491, Grace 511, Abigail 231, Madison 155, Isabella 353, Ashley 84, Abigail 177</t>
-        </is>
-      </c>
+          <t>Samantha 18</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1351,7 +1107,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Alyssa 132, Olivia 504, Hannah 323, Alexis 62, Taylor 254, Sarah 31, Madison 319, Jessica 437, Emma 208, Elizabeth 174, Hannah 522, Samantha 271, Emily 87, Ashley 478, Alexis 471, Isabella 63, Lauren 337, Grace 48, Lauren 430, Samantha 382, Olivia 502, Emily 505, Abigail 105, Lauren 223, Samantha 18</t>
+          <t>Samantha 18</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -1364,7 +1120,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Alyssa 132, Olivia 504, Hannah 323, Alexis 62, Taylor 254, Sarah 31, Madison 319, Jessica 437, Emma 208, Elizabeth 174, Hannah 522, Samantha 271, Emily 87, Ashley 478, Alexis 471, Isabella 63, Lauren 337, Grace 48, Lauren 430, Samantha 382, Olivia 502, Emily 505, Abigail 105, Lauren 223, Samantha 18</t>
+          <t>Samantha 18</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -1377,14 +1133,10 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Alexis 370, Kayla 15, Ashley 123, Emily 146, Ashley 198, Jessica 506, Abigail 413, Alyssa 508, Samantha 487, Alyssa 4, Elizabeth 391, Jessica 191, Isabella 354, Ashley 193, Alexis 335, Lauren 475, Olivia 318, Emma 454</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Emma 448, Ashley 392, Brianna 361, Emily 34, Elizabeth 473, Emma 350, Abigail 341, Ashley 297, Madison 464, Elizabeth 328</t>
-        </is>
-      </c>
+          <t>Kayla 15, Alyssa 4, Hannah 16</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1392,16 +1144,8 @@
           <t>Ajakirjanduse alused</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Kayla 188, Emily 330, Jessica 23, Ashley 460, Abigail 131, Kayla 139, Elizabeth 472, Olivia 345, Ashley 193, Sarah 331, Elizabeth 422, Alexis 261, Lauren 430, Kayla 410, Abigail 255, Jessica 293, Lauren 136, Alexis 371, Jessica 44, Olivia 38, Lauren 459, Olivia 239, Elizabeth 284, Olivia 496, Hannah 165, Lauren 223, Alyssa 128, Isabella 260, Jessica 189, Brianna 190, Alyssa 133</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Samantha 386, Jessica 175, Isabella 161, Olivia 376, Madison 155, Madison 322, Kayla 469, Madison 444, Madison 415, Taylor 158</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1411,14 +1155,10 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Taylor 115, Jessica 423, Olivia 504, Abigail 338, Taylor 106, Lauren 457, Ashley 453, Emily 229, Emily 445, Emma 118, Emma 208, Sarah 377, Ashley 78, Ashley 240, Grace 285, Samantha 302, Emily 87, Taylor 288, Lauren 489, Olivia 53, Emily 507, Emma 300, Brianna 148, Ashley 81, Elizabeth 164, Jessica 70, Emily 505, Madison 464, Lauren 93, Taylor 394</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Samantha 462, Emily 390, Samantha 18, Isabella 242, Lauren 258, Lauren 310, Kayla 495, Elizabeth 116, Emma 58, Sarah 312</t>
-        </is>
-      </c>
+          <t>Hannah 16, Samantha 18</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1426,11 +1166,7 @@
           <t>Filosoofia 2</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Taylor 106, Emily 445, Emma 208, Emily 507, Lauren 93</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -1441,14 +1177,10 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Lauren 363, Brianna 433, Samantha 143, Sarah 518, Jessica 506, Jessica 383, Alyssa 39, Madison 319, Emma 401, Madison 368, Samantha 271, Sarah 434, Isabella 295, Jessica 520, Jessica 303, Samantha 488, Taylor 17, Ashley 195</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Olivia 384, Ashley 412, Grace 30, Grace 280, Brianna 179, Jessica 446, Madison 225, Samantha 250, Brianna 251, Lauren 346</t>
-        </is>
-      </c>
+          <t>Kayla 7, Taylor 17</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1458,7 +1190,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Lauren 363, Brianna 433, Samantha 143, Sarah 518, Jessica 506, Jessica 383, Alyssa 39, Madison 319, Emma 401, Madison 368, Samantha 271, Sarah 434, Isabella 295, Jessica 520, Jessica 303, Samantha 488, Taylor 17, Ashley 195</t>
+          <t>Kayla 7, Taylor 17</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -1471,14 +1203,10 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sarah 400, Ashley 123, Alyssa 493, Lauren 96, Taylor 509, Emma 98, Lauren 367, Ashley 50, Lauren 12, Isabella 244, Isabella 354, Lauren 33, Lauren 475, Kayla 409, Lauren 337, Abigail 517, Elizabeth 364, Hannah 467, Hannah 357, Lauren 249, Samantha 382, Brianna 180, Kayla 272, Jessica 374, Abigail 450, Isabella 474</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Emily 439, Ashley 414, Kayla 379, Madison 417, Jessica 32, Lauren 358, Brianna 362, Olivia 270, Emily 97, Emma 257</t>
-        </is>
-      </c>
+          <t>Lauren 12, Taylor 6</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1488,14 +1216,10 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sarah 2, Abigail 269, Hannah 194, Isabella 395, Hannah 323, Alyssa 306, Alexis 62, Madison 126, Brianna 61, Samantha 487, Isabella 427, Lauren 60, Brianna 201, Hannah 522, Samantha 429, Lauren 52, Abigail 490, Madison 14</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Hannah 129, Sarah 114, Alyssa 245, Sarah 442, Alexis 36, Isabella 3, Abigail 514, Kayla 235, Sarah 512, Grace 263</t>
-        </is>
-      </c>
+          <t>Sarah 2, Isabella 3, Madison 14, Elizabeth 10</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1505,14 +1229,10 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Brianna 172, Brianna 221, Elizabeth 516, Madison 352, Abigail 413, Alexis 498, Olivia 274, Lauren 309, Sarah 31, Elizabeth 391, Emma 499, Jessica 437, Jessica 461, Alexis 378, Isabella 241, Kayla 13</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Alexis 471, Emily 144, Emily 334, Elizabeth 289, Taylor 523, Emily 152, Madison 162, Emily 349, Brianna 513, Grace 515</t>
-        </is>
-      </c>
+          <t>Kayla 13</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1520,16 +1240,8 @@
           <t>Fotograafia 1</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Lauren 49, Alyssa 308, Lauren 96, Jessica 506, Abigail 413, Alexis 35, Brianna 153, Emily 445, Taylor 226, Isabella 160, Lauren 475, Grace 22, Jessica 520, Jessica 325, Samantha 480, Elizabeth 307, Jessica 425, Alexis 371, Hannah 181, Abigail 341, Lauren 459, Kayla 235, Olivia 134, Lauren 93</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Samantha 20, Kayla 497, Ashley 481, Abigail 231, Madison 455, Sarah 501, Olivia 138, Alexis 355, Grace 431, Madison 243</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1537,16 +1249,8 @@
           <t>Inimene ja ühiskond 3. periood</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Jessica 423, Olivia 137, Abigail 338, Taylor 121, Madison 126, Samantha 487, Jessica 383, Elizabeth 391, Taylor 192, Taylor 94, Samantha 488, Emma 64, Emily 91, Ashley 81, Ashley 392, Emily 65, Kayla 272, Jessica 163, Grace 159, Lauren 258, Kayla 495, Grace 320, Jessica 265, Kayla 369, Jessica 230, Ashley 389, Ashley 117, Brianna 299, Emma 77, Abigail 82, Emma 72, Lauren 56, Grace 463, Ashley 198, Sarah 277, Olivia 270</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Kayla 466, Ashley 481, Alyssa 491, Lauren 11, Madison 444, Samantha 211, Samantha 402, Madison 196, Sarah 482, Olivia 237</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1556,14 +1260,10 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Madison 24, Emma 25, Taylor 222, Lauren 12, Elizabeth 289, Isabella 95, Kayla 379, Madison 417, Jessica 189, Jessica 32, Alyssa 491, Isabella 161, Isabella 275, Madison 444, Madison 415, Emma 257, Alexis 355, Lauren 494, Elizabeth 313, Brianna 197, Hannah 281, Elizabeth 227, Olivia 21, Kayla 51, Emma 76, Grace 411, Sarah 424, Grace 111, Hannah 393, Alyssa 440, Alexis 69, Grace 253, Olivia 237, Emily 349, Hannah 194, Ashley 441</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Emily 390, Olivia 38, Sarah 377, Alyssa 493, Elizabeth 364, Jessica 325, Lauren 372, Emily 146, Abigail 209, Jessica 163</t>
-        </is>
-      </c>
+          <t>Lauren 12</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1573,14 +1273,10 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jessica 278, Abigail 269, Kayla 407, Lauren 90, Alyssa 359, Samantha 276, Hannah 317, Lauren 136, Abigail 125, Madison 162, Alyssa 245, Sarah 442, Madison 225, Olivia 38, Isabella 3, Olivia 239, Sarah 482, Lauren 29, Abigail 450, Olivia 40, Taylor 394, Grace 122, Alyssa 128, Isabella 242, Brianna 251, Lauren 358, Sarah 57, Brianna 200, Grace 515, Kayla 469</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Brianna 419, Brianna 438, Alexis 80, Sarah 107, Alyssa 304, Ashley 140, Grace 213, Lauren 85, Taylor 226, Olivia 234</t>
-        </is>
-      </c>
+          <t>Isabella 3</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1590,14 +1286,10 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sarah 400, Kayla 15, Samantha 27, Brianna 221, Abigail 338, Isabella 395, Elizabeth 476, Jessica 506, Taylor 254, Abigail 413, Lauren 457, Brianna 153, Sarah 31, Jessica 46, Alexis 316, Elizabeth 391, Lauren 12, Jessica 437, Alexis 378, Kayla 252, Isabella 426, Lauren 475, Alexis 261, Emily 507, Emma 300, Brianna 148, Lauren 207, Emily 91, Brianna 361, Emily 65</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Grace 267, Sarah 315, Emily 34, Hannah 357, Abigail 291, Brianna 179, Madison 225, Grace 321, Isabella 474, Emily 439</t>
-        </is>
-      </c>
+          <t>Lauren 12, Kayla 15, Elizabeth 10, Lauren 11</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1605,16 +1297,8 @@
           <t>Turundus</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Hannah 59, Lauren 232, Brianna 221, Olivia 259, Alyssa 39, Jessica 461, Ashley 240, Brianna 88, Lauren 52, Lauren 33, Ashley 348, Abigail 503, Taylor 130, Emily 390, Lauren 346, Alyssa 421, Emma 305, Madison 155, Elizabeth 141, Ashley 84, Alyssa 432, Emily 97, Abigail 71, Elizabeth 262, Taylor 158, Ashley 168</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Samantha 398, Alexis 470, Kayla 75, Madison 301, Grace 411, Emma 76, Madison 415, Kayla 369, Alyssa 304, Hannah 317</t>
-        </is>
-      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1624,14 +1308,10 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Lauren 85, Grace 396, Elizabeth 476, Sarah 518, Sarah 74, Olivia 274, Elizabeth 449, Sarah 331, Kayla 13, Lauren 489, Abigail 517, Taylor 17, Hannah 332, Grace 120, Abigail 109, Elizabeth 284, Alexis 45, Emily 439, Madison 184, Samantha 250, Olivia 167, Samantha 68, Samantha 73, Lauren 356</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Brianna 362, Alexis 468, Madison 322, Samantha 298, Grace 428, Emma 257, Emily 333, Hannah 281, Taylor 500, Madison 519</t>
-        </is>
-      </c>
+          <t>Kayla 13, Taylor 17</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1641,14 +1321,10 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Kayla 15, Elizabeth 486, Hannah 202, Lauren 85, Grace 100, Isabella 395, Alyssa 508, Emma 25, Taylor 222, Grace 199, Abigail 408, Lauren 12, Jessica 437, Emma 118, Lauren 248, Abigail 108, Taylor 226, Elizabeth 449, Isabella 426, Emily 336</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Jessica 325, Alexis 343, Grace 267, Alexis 443, Samantha 276, Jessica 293, Jessica 44, Olivia 239, Lauren 11, Elizabeth 166</t>
-        </is>
-      </c>
+          <t>Lauren 12, Kayla 15, Elizabeth 10, Lauren 11, Isabella 3</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1656,16 +1332,8 @@
           <t>Kujutav geomeetria</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Sarah 400, Hannah 59, Taylor 509, Emma 98, Ashley 453, Madison 173, Isabella 354, Kayla 252, Alyssa 273, Ashley 478, Taylor 288, Elizabeth 289, Emma 300, Isabella 329, Ashley 81, Grace 30, Emily 34, Lauren 136, Abigail 125, Jessica 446, Olivia 502, Madison 162</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Hannah 332, Hannah 181, Kayla 235, Madison 464, Elizabeth 328, Jessica 374, Isabella 95, Lauren 372, Grace 247, Lauren 101</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1673,11 +1341,7 @@
           <t>Loominguline joonistamine 2</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Alexis 381, Samantha 302</t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -1688,14 +1352,10 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Taylor 115, Jessica 206, Madison 24, Sarah 210, Hannah 323, Jessica 66, Lauren 309, Emily 229, Grace 285, Kayla 13, Ashley 348, Kayla 409, Taylor 94, Grace 83, Taylor 523, Hannah 317, Lauren 249, Abigail 291, Brianna 180, Alexis 36, Elizabeth 284, Olivia 127, Olivia 169, Isabella 260, Grace 159, Hannah 287, Grace 511, Sarah 57, Brianna 200, Isabella 161, Samantha 73, Abigail 231, Emily 403, Isabella 353, Madison 322</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Emma 72, Lauren 56, Ashley 458, Abigail 279, Ashley 78, Ashley 392, Alyssa 304, Taylor 222, Alyssa 432, Taylor 6</t>
-        </is>
-      </c>
+          <t>Kayla 13, Taylor 6, Madison 14</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1705,14 +1365,10 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Jessica 278, Taylor 115, Alexis 370, Jessica 423, Ashley 123, Sarah 210, Grace 396, Grace 99, Lauren 96, Lauren 457, Lauren 60, Hannah 397, Elizabeth 391, Emma 28, Samantha 429, Alyssa 359, Kayla 13, Alyssa 273, Samantha 480, Grace 89, Brianna 361, Elizabeth 164, Olivia 234, Alyssa 245, Hannah 181, Ashley 297, Lauren 459, Elizabeth 284, Alyssa 380, Lauren 11, Lauren 372, Emma 217, Samantha 462, Olivia 477, Sarah 86, Samantha 224</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Jessica 265, Samantha 73, Emily 403, Isabella 353, Kayla 7, Madison 455, Sarah 501, Elizabeth 79, Grace 515, Abigail 71</t>
-        </is>
-      </c>
+          <t>Kayla 13, Kayla 7, Lauren 11</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1722,14 +1378,10 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Alyssa 435, Lauren 232, Brianna 221, Hannah 194, Elizabeth 476, Samantha 487, Abigail 408, Lauren 90, Emma 401, Lauren 8, Emily 334, Isabella 295, Emma 454, Jessica 520, Samantha 488</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Kayla 410, Taylor 523, Taylor 17, Ashley 195, Sarah 156, Lauren 136, Sarah 114, Grace 321, Olivia 38, Olivia 239</t>
-        </is>
-      </c>
+          <t>Lauren 8, Taylor 17</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1739,14 +1391,10 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sarah 2, Brianna 433, Abigail 269, Olivia 137, Abigail 338, Samantha 143, Brianna 153, Samantha 402, Emily 445, Abigail 212, Isabella 160, Taylor 94, Abigail 517, Madison 14, Emma 387, Ashley 412, Emily 34, Hannah 317, Jessica 446, Brianna 42, Sarah 482, Abigail 109, Emily 439, Taylor 130</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Grace 122, Alyssa 128, Isabella 260, Lauren 310, Samantha 484, Brianna 251, Ashley 246, Brianna 513, Alyssa 421, Jessica 219</t>
-        </is>
-      </c>
+          <t>Sarah 2, Madison 14</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1756,14 +1404,10 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Emily 146, Alyssa 493, Hannah 218, Olivia 103, Ashley 50, Taylor 226, Samantha 327, Emma 448, Ashley 392, Emily 152, Emily 65, Hannah 467, Abigail 255, Hannah 357, Elizabeth 473, Isabella 474, Emma 290, Ashley 414, Olivia 169, Lauren 101, Samantha 150, Lauren 346, Kayla 495, Samantha 386, Emily 349, Hannah 287, Grace 282, Kayla 5, Emma 305, Elizabeth 10, Kayla 469, Ashley 117, Alexis 340, Ashley 168, Olivia 186, Hannah 119, Ashley 458, Emma 185, Taylor 500, Grace 463, Lauren 310, Brianna 92, Emma 216, Kayla 272, Elizabeth 262, Olivia 138, Emily 135, Brianna 205, Kayla 497, Emily 479, Isabella 347, Sarah 114, Emma 72, Abigail 82, Grace 159, Taylor 176, Sarah 420, Jessica 265, Madison 225, Brianna 419, Brianna 492, Olivia 264, Hannah 266, Brianna 172, Brianna 47, Sarah 518, Alexis 294, Elizabeth 116, Brianna 299, Olivia 154, Elizabeth 385, Samantha 298, Elizabeth 157, Abigail 108, Brianna 513, Madison 455, Samantha 398, Hannah 332, Isabella 375, Kayla 75</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Emily 65, Lauren 337, Jessica 325, Elizabeth 166, Emma 28, Isabella 426, Olivia 376, Ashley 460, Grace 282, Lauren 494</t>
-        </is>
-      </c>
+          <t>Kayla 5</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1771,11 +1415,7 @@
           <t>Riigikaitse 2</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Hannah 218, Taylor 226, Olivia 169, Samantha 150, Samantha 386, Ashley 392, Hannah 119, Ashley 414, Emma 185, Brianna 47, Alexis 294, Lauren 346, Elizabeth 10, Elizabeth 157, Olivia 138, Sarah 420, Elizabeth 262, Elizabeth 116, Emily 135, Emily 349, Hannah 266, Hannah 467, Kayla 272, Emily 152, Ashley 458</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -1786,14 +1426,10 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Hannah 59, Isabella 183, Alyssa 308, Kayla 407, Alyssa 306, Taylor 121, Taylor 106, Abigail 413, Alexis 498, Olivia 274, Emily 229, Jessica 46, Olivia 345, Madison 173, Brianna 88, Lauren 52, Lauren 33, Kayla 409, Ashley 286, Lauren 207, Emily 91, Brianna 456, Jessica 425, Lauren 249, Taylor 145</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Madison 225, Grace 120, Isabella 3, Samantha 483, Alexis 294, Kayla 272, Abigail 450, Olivia 496, Brianna 492, Ashley 326</t>
-        </is>
-      </c>
+          <t>Hannah 16, Isabella 3</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1801,16 +1437,8 @@
           <t>Ajakirjanduse praktika</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Emily 330, Jessica 23, Ashley 460, Emily 229, Isabella 375, Taylor 523, Abigail 255, Hannah 317, Jessica 70, Alexis 36, Brianna 190, Grace 511, Samantha 73, Lauren 309, Hannah 165, Alexis 371, Emily 334, Isabella 161, Brianna 200, Brianna 492, Jessica 189, Elizabeth 284, Samantha 143, Emily 403, Kayla 13, Lauren 223, Lauren 136, Olivia 345, Isabella 353, Alyssa 128</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Brianna 88, Lauren 207, Elizabeth 141, Emily 144, Kayla 409, Jessica 461, Emily 479, Emma 499, Ashley 414, Elizabeth 307</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1820,14 +1448,10 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jessica 278, Alexis 370, Elizabeth 436, Madison 54, Isabella 342, Hannah 323, Taylor 6, Alexis 35, Samantha 487, Hannah 397, Taylor 222, Grace 199, Brianna 201, Lauren 90, Elizabeth 67, Elizabeth 174, Jessica 461, Hannah 522, Alyssa 359, Isabella 241, Abigail 490, Taylor 288, Emily 336, Olivia 318, Olivia 53, Grace 48, Jessica 147, Grace 89, Ashley 195, Olivia 384</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Isabella 485, Lauren 249, Taylor 145, Alyssa 245, Hannah 181, Ashley 297, Lauren 459, Grace 463, Grace 263, Hannah 165</t>
-        </is>
-      </c>
+          <t>Taylor 6, Kayla 13</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1837,14 +1461,10 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sarah 2, Alexis 104, Elizabeth 486, Madison 24, Abigail 269, Hannah 202, Olivia 103, Sarah 210, Alyssa 308, Kayla 407, Taylor 121, Sarah 74, Madison 126, Emma 98, Lauren 60, Kayla 139, Alyssa 39, Jessica 191</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Alyssa 19, Samantha 429, Grace 285, Brianna 88, Alexis 171, Ashley 348, Taylor 192, Alexis 471, Lauren 8, Emily 334</t>
-        </is>
-      </c>
+          <t>Sarah 2, Lauren 8</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1854,14 +1474,10 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Alyssa 132, Taylor 115, Ashley 123, Alyssa 435, Alyssa 493, Olivia 416, Grace 100, Emily 228, Grace 99, Taylor 509, Samantha 402, Jessica 383, Alyssa 366, Emma 499, Emma 118, Ashley 78</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Olivia 345, Olivia 1, Samantha 271, Emily 87, Kayla 409, Samantha 327, Lauren 337, Taylor 94, Jessica 303, Grace 83</t>
-        </is>
-      </c>
+          <t>Olivia 1, Hannah 16, Emma 9, Kayla 7</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1871,14 +1487,10 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Lauren 363, Olivia 504, Alyssa 493, Emily 330, Madison 24, Brianna 221, Kayla 407, Emma 216, Taylor 6, Abigail 413, Sarah 31, Sarah 377, Elizabeth 174, Hannah 522, Taylor 226, Grace 285, Isabella 241, Lauren 52, Elizabeth 422, Abigail 490</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Ashley 478, Lauren 8, Taylor 94, Jessica 520, Jessica 303, Elizabeth 399, Taylor 523, Emily 91, Madison 14, Taylor 17</t>
-        </is>
-      </c>
+          <t>Taylor 6, Lauren 8, Samantha 18, Madison 14, Taylor 17</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1888,14 +1500,10 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Emily 146, Lauren 49, Taylor 151, Taylor 121, Sarah 518, Ashley 460, Alexis 35, Lauren 309, Abigail 131, Sarah 377, Hannah 522, Olivia 1, Emily 87, Isabella 426, Lauren 430, Ashley 286</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Emma 448, Grace 89, Grace 30, Brianna 179, Taylor 145, Hannah 181, Lauren 29, Grace 122, Samantha 462, Samantha 18</t>
-        </is>
-      </c>
+          <t>Olivia 1, Samantha 18, Kayla 7</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1903,16 +1511,8 @@
           <t>Tänavakunst</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Alyssa 132, Alexis 104, Elizabeth 486, Brianna 433, Samantha 211, Isabella 342, Alyssa 306, Jessica 23, Grace 99, Lauren 96, Alexis 498, Taylor 509, Lauren 309, Emily 229, Hannah 397, Abigail 408, Emma 499, Lauren 90, Jessica 191, Ashley 240</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Kayla 252, Sarah 331, Emily 144, Emily 336, Olivia 318, Samantha 488, Jessica 325, Ashley 81, Brianna 456, Grace 292</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -378,10 +378,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lauren 8, Alyssa 4, Kayla 5, Madison 14</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>Kayla 252, Alexis 370, Jessica 278, Lauren 96, Olivia 137, Lauren 8, Abigail 269, Madison 204, Alyssa 4, Jessica 46, Abigail 490, Isabella 427, Madison 324, Lauren 60, Emily 144, Emily 405, Kayla 5, Madison 14, Grace 320, Olivia 186, Brianna 47, Emily 505, Isabella 485, Abigail 109, Olivia 270, Isabella 275, Emma 76</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Emily 135, Samantha 488, Kayla 497, Madison 464, Brianna 197, Olivia 318, Alexis 443, Grace 280, Isabella 187, Isabella 95</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -391,10 +395,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lauren 12, Lauren 11</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>Alyssa 435, Lauren 12, Taylor 222, Isabella 426, Elizabeth 449, Elizabeth 476, Olivia 259, Jessica 423, Sarah 210, Ashley 50, Ashley 453, Alyssa 306, Emily 229, Emily 91, Lauren 494, Sarah 315, Hannah 314, Madison 519, Olivia 234, Jessica 32, Abigail 125, Madison 184, Emily 439, Taylor 215, Abigail 255, Samantha 327, Samantha 150</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Jessica 44, Taylor 176, Grace 351, Olivia 264, Olivia 53, Madison 417, Lauren 11, Olivia 477, Emily 390, Ashley 117</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -404,7 +412,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lauren 8, Alyssa 4</t>
+          <t>Jessica 278, Lauren 8, Jessica 46, Samantha 150, Olivia 270, Alyssa 4</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -417,10 +425,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Emma 9, Elizabeth 10</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>Lauren 363, Isabella 244, Elizabeth 516, Madison 204, Jessica 206, Alexis 365, Emma 118, Lauren 367, Madison 352, Elizabeth 486, Elizabeth 472, Jessica 23, Alexis 104, Emily 144, Ashley 458, Taylor 500, Abigail 291, Jessica 374, Jessica 293, Olivia 451, Brianna 373, Taylor 158, Emily 349, Madison 149, Grace 256, Abigail 406, Brianna 200, Samantha 484, Madison 455, Elizabeth 262</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Emma 9, Alyssa 421, Isabella 329, Brianna 513, Alexis 261, Ashley 220, Elizabeth 166, Ashley 195, Ashley 283, Abigail 344</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -430,7 +442,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Emma 9, Elizabeth 10</t>
+          <t>Lauren 363, Isabella 244, Elizabeth 516, Madison 204, Jessica 206, Alexis 365, Emma 118, Lauren 367, Madison 352, Elizabeth 486, Elizabeth 472, Jessica 23, Alexis 104, Emily 144, Ashley 458, Taylor 500, Abigail 291, Jessica 374, Jessica 293, Olivia 451, Brianna 373, Taylor 158, Emily 349, Madison 149, Grace 256, Abigail 406, Brianna 200, Samantha 484, Madison 455, Elizabeth 262</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -443,7 +455,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Emma 9, Elizabeth 10</t>
+          <t>Lauren 363, Isabella 244, Elizabeth 516, Madison 204, Jessica 206, Alexis 365, Emma 118, Lauren 367, Madison 352, Elizabeth 486, Elizabeth 472, Jessica 23, Alexis 104, Emily 144, Ashley 458, Taylor 500, Abigail 291, Jessica 374, Jessica 293, Olivia 451, Brianna 373, Taylor 158, Emily 349, Madison 149, Grace 256, Abigail 406, Brianna 200, Samantha 484, Madison 455, Elizabeth 262</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -454,8 +466,16 @@
           <t>Planimeetria alused</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taylor 288, Olivia 274, Isabella 244, Alyssa 233, Madison 352, Alyssa 493, Jessica 383, Abigail 212, Lauren 56, Lauren 494, Grace 263, Hannah 314, Grace 321, Sarah 501, Abigail 71, Alexis 468, Grace 120, Brianna 362, Emma 185, Taylor 215, Alexis 470, Elizabeth 399, Brianna 513, Samantha 398, Grace 159, Elizabeth 284, Hannah 165, Ashley 195, Madison 162, Alyssa 304</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Madison 243, Abigail 514, Hannah 323, Hannah 317, Jessica 423, Lauren 101, Alexis 355, Alexis 443, Emma 300, Sarah 442</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -463,7 +483,11 @@
           <t>3D-modelleerimine 3. periood</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Elizabeth 174, Hannah 218, Lauren 346, Olivia 53, Ashley 140, Emma 58, Olivia 451, Isabella 63, Grace 253</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -472,7 +496,11 @@
           <t>3D-modelleerimine 5. periood</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Grace 122, Elizabeth 157, Jessica 147, Grace 253, Abigail 71, Samantha 20, Samantha 27, Taylor 176, Madison 519, Grace 463, Sarah 501</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -483,10 +511,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alyssa 4, Kayla 5, Madison 14</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+          <t>Taylor 151, Emma 98, Emma 238, Kayla 252, Alyssa 508, Alyssa 4, Emma 216, Alyssa 493, Alyssa 19, Ashley 123, Abigail 108, Lauren 60, Elizabeth 328, Kayla 5, Sarah 315, Jessica 70, Madison 14, Alexis 343, Emma 217, Hannah 393, Samantha 224, Ashley 326, Lauren 249, Abigail 177</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Alexis 294, Jessica 32, Emily 152, Grace 256, Taylor 110, Emily 135, Lauren 170, Brianna 418, Samantha 382, Madison 415</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -496,10 +528,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Samantha 18</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+          <t>Kayla 188, Isabella 183, Hannah 218, Hannah 266, Emily 91, Alexis 340, Olivia 124, Samantha 20, Grace 320, Hannah 393, Brianna 373, Alexis 294, Emily 349, Emily 507, Emma 76, Emily 333, Kayla 268, Brianna 251, Alyssa 128, Brianna 42, Sarah 86, Alyssa 421, Brianna 492, Grace 89</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Alexis 112, Taylor 145, Samantha 18, Taylor 176, Grace 213, Sarah 482, Madison 196, Ashley 412, Sarah 107, Elizabeth 227</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -509,10 +545,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Olivia 1</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+          <t>Olivia 1, Alyssa 435, Taylor 254, Isabella 426, Olivia 416, Alexis 381, Olivia 137, Alexis 365, Madison 173, Lauren 90, Emma 216, Emma 28, Alyssa 19, Sarah 74, Madison 324, Ashley 348, Brianna 92, Ashley 286, Ashley 481, Alyssa 432, Emma 217, Grace 321, Brianna 47, Grace 83</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Sarah 501, Grace 267, Ashley 246, Jessica 230, Grace 111, Alyssa 440, Grace 431, Madison 455, Jessica 325, Lauren 356</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -522,10 +562,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Isabella 3, Kayla 5, Madison 14, Taylor 17, Alyssa 4, Samantha 18</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
+          <t>Lauren 232, Isabella 160, Emma 208, Abigail 131, Lauren 452, Samantha 211, Alexis 335, Isabella 244, Elizabeth 385, Ashley 193, Kayla 188, Jessica 206, Madison 368, Emma 28</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lauren 49, Ashley 50, Alexis 498, Lauren 360, Lauren 93, Emily 405, Emma 257, Emma 290, Kayla 5, Madison 14</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -535,10 +579,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sarah 2, Kayla 15, Lauren 12</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+          <t>Sarah 2, Olivia 103, Ashley 193, Kayla 15, Sarah 210, Madison 368, Kayla 139, Samantha 302, Alexis 498, Elizabeth 67, Brianna 172, Alyssa 306, Abigail 296, Jessica 175, Sarah 156, Olivia 124, Ashley 441, Alyssa 491, Lauren 310, Olivia 496, Grace 267</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Emma 300, Emily 34, Isabella 474, Olivia 502, Olivia 127, Emma 58, Jessica 521, Brianna 513, Samantha 18, Brianna 361</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -548,10 +596,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Alyssa 4</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Taylor 288, Elizabeth 422, Isabella 241, Emma 238, Isabella 426, Alyssa 4, Madison 368, Taylor 192, Kayla 139, Sarah 74, Emily 228, Madison 324, Lauren 85, Abigail 514, Ashley 140, Sarah 315</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lauren 337, Ashley 481, Alexis 343, Grace 320, Alexis 80, Olivia 451, Brianna 47, Abigail 231, Abigail 341, Sarah 312</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -561,10 +613,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lauren 8, Kayla 15</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Isabella 160, Madison 24, Brianna 88, Kayla 252, Alyssa 508, Grace 465, Hannah 202, Samantha 211, Alexis 335, Lauren 8, Ashley 478, Alyssa 308, Jessica 46, Emily 146, Abigail 212, Ashley 198, Grace 463, Elizabeth 328, Isabella 353, Samantha 73, Lauren 372, Taylor 26, Madison 519, Olivia 234, Samantha 20, Alexis 80, Ashley 326, Abigail 231, Samantha 276, Sarah 57, Emma 55, Jessica 147, Taylor 110, Isabella 275, Elizabeth 262, Samantha 447</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Grace 411, Lauren 207, Brianna 492, Olivia 154, Hannah 182, Grace 159, Olivia 134, Emma 454, Elizabeth 166, Brianna 388</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -574,10 +630,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Isabella 3</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Isabella 241, Emma 208, Grace 465, Brianna 433, Elizabeth 449, Alexis 365, Grace 285, Ashley 50, Taylor 106, Taylor 115, Jessica 175, Lauren 223, Olivia 237, Grace 48, Abigail 113, Jessica 70, Abigail 105, Lauren 372, Sarah 420, Samantha 224</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Alyssa 491, Olivia 496, Alyssa 133, Madison 184, Kayla 469, Lauren 356, Samantha 447, Elizabeth 164, Lauren 136, Alyssa 421</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -587,10 +647,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lauren 8, Lauren 11</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Grace 99, Taylor 509, Samantha 211, Olivia 416, Lauren 8, Emily 146, Isabella 354, Hannah 397, Abigail 408, Samantha 429, Hannah 467, Abigail 514, Emily 403, Brianna 47, Kayla 409, Olivia 169, Samantha 386, Isabella 260, Ashley 414, Kayla 268</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Isabella 329, Samantha 483, Sarah 114, Hannah 182, Madison 196, Brianna 388, Lauren 101, Ashley 510, Lauren 11, Emma 448</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -598,8 +662,16 @@
           <t>Labortöid füüsikas 10. ja 11. klassile</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Elizabeth 422, Lauren 232, Grace 99, Madison 24, Abigail 131, Kayla 252, Lauren 33, Brianna 433, Olivia 274, Alexis 171, Emma 28, Alyssa 39</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Taylor 121, Hannah 59, Taylor 106, Kayla 139, Sarah 74, Elizabeth 116, Hannah 467, Emma 64, Emily 405, Taylor 523</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -609,10 +681,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kayla 13</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Madison 126, Alyssa 359, Isabella 342, Elizabeth 174, Madison 368, Kayla 13, Samantha 429, Hannah 218, Elizabeth 67, Hannah 266, Ashley 389, Samantha 73, Taylor 523, Alexis 69, Jessica 293, Olivia 234, Samantha 20, Alyssa 432, Olivia 21, Olivia 451, Ashley 246, Lauren 459, Elizabeth 157, Ashley 392, Jessica 147, Taylor 110, Brianna 419, Brianna 251, Sarah 86, Taylor 130, Jessica 44, Emma 454, Samantha 178, Sarah 512, Grace 253, Olivia 167, Grace 247, Brianna 388, Elizabeth 227, Madison 464, Sarah 424, Olivia 376, Olivia 53, Ashley 458, Taylor 176</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lauren 236, Elizabeth 486, Brianna 221, Olivia 154, Madison 352, Emma 76, Hannah 165, Elizabeth 473, Emma 25, Grace 159</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -620,8 +696,16 @@
           <t>Joonestamine 4. periood</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Grace 99, Emma 142, Alyssa 132, Alyssa 366, Emma 216, Elizabeth 174, Elizabeth 472, Isabella 63, Samantha 27, Hannah 467, Olivia 237, Grace 463, Ashley 140, Madison 519, Isabella 375, Lauren 430, Ashley 326, Alyssa 491, Grace 122, Olivia 496, Abigail 71, Kayla 272, Jessica 147, Grace 431, Emily 439, Lauren 170, Emma 77, Jessica 189, Emma 58, Alexis 470, Kayla 7, Emma 387, Samantha 178, Brianna 388, Brianna 438, Olivia 53, Samantha 462, Lauren 346, Sarah 424, Alyssa 304, Jessica 425, Alexis 335, Brianna 88, Ashley 84, Sarah 501</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Taylor 226, Elizabeth 262, Jessica 278, Madison 464, Jessica 383, Lauren 459, Emily 97, Alyssa 132, Brianna 197, Taylor 130</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -631,10 +715,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hannah 16</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Elizabeth 422, Isabella 241, Lauren 457, Alyssa 435, Emma 142, Brianna 433, Alexis 335, Alexis 171, Samantha 402, Isabella 183, Emma 28, Taylor 106, Abigail 212, Hannah 218, Samantha 27, Elizabeth 116, Lauren 494, Hannah 129, Grace 282, Hannah 16, Isabella 295, Isabella 375, Jessica 219, Sarah 277</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Grace 111, Isabella 275, Taylor 215, Olivia 477, Alexis 112, Grace 253, Emily 336, Kayla 51, Ashley 412, Elizabeth 364</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -644,10 +732,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kayla 7, Kayla 13</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Abigail 131, Jessica 278, Lauren 33, Elizabeth 476, Alyssa 233, Olivia 259, Samantha 271, Emily 146, Hannah 194, Sarah 74, Samantha 487, Brianna 153, Olivia 237, Hannah 266, Abigail 105, Lauren 489, Emma 217, Lauren 249, Grace 83, Grace 511, Grace 256, Samantha 484, Kayla 235, Alexis 468</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Emily 439, Hannah 357, Emily 135, Ashley 414, Samantha 382, Kayla 7, Brianna 42, Alyssa 421, Brianna 197, Taylor 130</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -657,10 +749,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kayla 15</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Kayla 252, Jessica 506, Emma 142, Samantha 211, Alexis 381, Kayla 15, Emily 37, Alexis 316, Lauren 49, Jessica 383, Samantha 302, Ashley 198, Lauren 360, Elizabeth 67, Jessica 191, Abigail 296, Olivia 237, Grace 30, Grace 463, Hannah 266, Ashley 389, Jessica 70, Alexis 45, Lauren 489, Samantha 20</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lauren 430, Elizabeth 307, Alexis 524, Jessica 163, Emily 505, Samantha 276, Grace 267, Isabella 485, Elizabeth 157, Sarah 442</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -670,10 +766,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Kayla 7</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Isabella 426, Alexis 381, Elizabeth 436, Isabella 342, Emily 37, Isabella 427, Ashley 50, Jessica 191, Ashley 453, Samantha 143, Olivia 237, Grace 30, Emma 290, Sarah 420, Olivia 234, Alexis 524, Brianna 190, Grace 83, Grace 511, Brianna 456, Alyssa 133, Ashley 246</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Isabella 485, Elizabeth 157, Emily 507, Olivia 270, Hannah 357, Abigail 255, Kayla 7, Samantha 327, Brianna 492, Olivia 318</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -683,10 +783,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Emma 9</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Isabella 241, Emma 208, Olivia 102, Brianna 221, Olivia 103, Elizabeth 516, Alyssa 233, Alyssa 493, Taylor 121, Ashley 50, Ashley 123, Abigail 296, Elizabeth 116, Ashley 389, Jessica 70, Hannah 129, Grace 263, Ashley 286, Grace 321, Elizabeth 307, Olivia 451, Elizabeth 157, Jessica 230, Samantha 386, Madison 184, Emma 448, Lauren 356, Emily 390, Emma 9</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lauren 207, Kayla 379, Samantha 382, Olivia 318, Samantha 250, Sarah 114, Grace 351, Madison 225, Abigail 517, Olivia 167</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -696,10 +800,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Kayla 15, Kayla 5</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>Grace 199, Taylor 288, Olivia 345, Alexis 370, Isabella 244, Brianna 203, Jessica 206, Elizabeth 436, Kayla 15, Emma 118, Sarah 518, Alexis 316, Alexis 471, Emma 401, Madison 324, Alexis 62, Jessica 437, Elizabeth 328, Emily 403, Hannah 314, Ashley 481, Grace 320, Abigail 177, Brianna 47, Taylor 158, Abigail 125, Abigail 341, Emma 300, Lauren 258, Hannah 281, Elizabeth 262, Emma 77, Brianna 418, Jessica 189, Elizabeth 289, Alexis 470, Madison 415, Samantha 327, Olivia 477, Isabella 329, Brianna 513, Samantha 483, Samantha 250, Emma 454, Brianna 179, Elizabeth 284, Ashley 220, Olivia 214, Olivia 53, Olivia 376</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Olivia 477, Lauren 11, Sarah 512, Brianna 92, Madison 415, Olivia 103, Emily 439, Brianna 179, Abigail 341, Emma 55</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -709,10 +817,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kayla 15, Taylor 17</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Emily 445, Taylor 254, Alexis 378, Elizabeth 391, Elizabeth 436, Kayla 15, Lauren 367, Isabella 354, Alyssa 39, Abigail 408, Lauren 475, Alexis 104, Samantha 27, Samantha 487, Alyssa 306, Ashley 84, Emma 257, Isabella 353, Sarah 434, Isabella 295, Ashley 441, Elizabeth 307, Brianna 373, Taylor 158, Emily 152</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Samantha 276, Abigail 406, Emily 507, Hannah 281, Ashley 297, Madison 155, Brianna 418, Jessica 189, Grace 411, Brianna 205</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -722,10 +834,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Taylor 6, Elizabeth 10</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>Kayla 407, Lauren 248, Olivia 345, Abigail 413, Lauren 457, Jessica 423, Isabella 183, Emma 28, Taylor 6, Abigail 108, Jessica 191, Abigail 296, Emily 91, Alexis 340, Taylor 26, Emma 404, Jessica 374, Taylor 394, Isabella 375, Grace 83, Kayla 409, Sarah 277, Grace 267, Emily 34, Isabella 260, Brianna 492, Lauren 358, Ashley 117</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Elizabeth 166, Elizabeth 79, Sarah 424, Elizabeth 10, Lauren 101, Alexis 36, Hannah 317, Grace 396, Sarah 107, Samantha 462</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -735,10 +851,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hannah 16, Isabella 3</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
+          <t>Ashley 193, Alexis 381, Madison 204, Alyssa 359, Emily 37, Taylor 121, Ashley 50, Ashley 453, Taylor 115, Grace 100, Olivia 41, Elizabeth 116, Ashley 84, Hannah 181, Grace 48, Jessica 70, Lauren 372, Taylor 26, Olivia 124, Isabella 375, Alyssa 491, Grace 267, Isabella 485, Olivia 169, Samantha 386, Grace 431, Madison 155, Jessica 311, Samantha 68, Abigail 279, Olivia 127, Brianna 299, Hannah 332, Samantha 150, Samantha 398, Samantha 178, Sarah 424, Alyssa 304, Emily 97, Emily 507, Ashley 392, Olivia 21, Elizabeth 227, Lauren 337, Hannah 16, Taylor 110, Lauren 346, Grace 465, Abigail 406, Isabella 3</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Olivia 237, Lauren 8, Samantha 302, Abigail 131, Emily 333, Hannah 165, Grace 22, Taylor 115, Alyssa 39, Grace 463</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -746,8 +866,16 @@
           <t>Astronoomia</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Taylor 151, Ashley 240, Lauren 96, Alexis 381, Jessica 461, Alyssa 273, Emma 216, Alyssa 493, Abigail 408, Hannah 194, Samantha 429, Sarah 331, Abigail 108, Elizabeth 67, Brianna 172, Lauren 85, Lauren 60, Taylor 94, Alexis 524, Brianna 47, Alexis 294, Lauren 310, Brianna 180, Lauren 459, Sarah 57, Grace 431, Kayla 469, Emily 507, Samantha 447, Brianna 419</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lauren 207, Kayla 379, Alexis 470, Alyssa 128, Alyssa 245, Brianna 197, Emma 387, Olivia 138, Grace 253, Alyssa 339</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -755,8 +883,16 @@
           <t>Astrofüüsika 2. periood</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Grace 99, Olivia 102, Emma 238, Hannah 202, Lauren 33, Brianna 201, Samantha 211, Elizabeth 385, Abigail 338, Samantha 402, Olivia 259, Emily 37, Alyssa 273, Madison 54, Emma 25, Ashley 123, Hannah 194, Emily 334, Alexis 471, Emma 401, Ashley 453, Brianna 153, Emma 64, Emma 290, Elizabeth 328, Kayla 466, Alexis 355, Taylor 94, Alexis 80, Jessica 219, Kayla 75, Brianna 190, Brianna 456, Abigail 231, Samantha 484</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Sarah 442, Emily 439, Ashley 81, Grace 213, Olivia 138, Brianna 388, Emily 479, Madison 417, Jessica 446, Ashley 348</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -766,10 +902,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kayla 5, Emma 9</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>Kayla 407, Lauren 248, Alexis 35, Alyssa 132, Elizabeth 476, Lauren 49, Taylor 192, Hannah 397, Abigail 108, Alexis 104, Lauren 360, Abigail 296, Hannah 266, Kayla 5, Grace 320, Brianna 373, Alexis 294, Madison 149, Abigail 341, Abigail 503, Grace 22, Emma 9, Taylor 215, Sarah 86, Taylor 130, Samantha 483, Emma 72, Lauren 236, Ashley 220, Hannah 287, Elizabeth 43, Sarah 424, Alyssa 304, Lauren 29, Isabella 95</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Brianna 203, Lauren 309, Isabella 187, Hannah 323, Abigail 341, Hannah 16, Emma 55, Abigail 125, Jessica 278, Elizabeth 449</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -779,10 +919,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Alyssa 4, Lauren 11</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Grace 199, Taylor 151, Alexis 370, Jessica 278, Emma 142, Elizabeth 385, Olivia 103, Elizabeth 449, Alyssa 233, Madison 204, Alyssa 359, Jessica 206, Elizabeth 436, Alyssa 4, Alyssa 273, Sarah 210, Isabella 183, Taylor 121, Abigail 408, Samantha 27</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Elizabeth 67, Jessica 191, Brianna 153, Ashley 140, Lauren 494, Ashley 458, Kayla 466, Olivia 124, Olivia 21, Elizabeth 307</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -790,8 +934,16 @@
           <t>Loogika 2. periood</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Taylor 509, Emma 98, Ashley 240, Alexis 335, Brianna 221, Jessica 206, Ashley 78, Sarah 210, Hannah 397, Isabella 63, Ashley 198, Lauren 360, Hannah 323, Emily 229, Brianna 92, Hannah 129, Olivia 239, Jessica 265, Jessica 163, Emily 349, Brianna 200, Jessica 230, Kayla 379, Kayla 268, Samantha 327, Olivia 264, Sarah 482, Ashley 168, Olivia 214, Abigail 517, Abigail 450</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Olivia 40, Samantha 480, Isabella 63, Emily 445, Samantha 483, Isabella 260, Brianna 92, Alexis 381, Lauren 337, Grace 282</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -801,10 +953,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sarah 2</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Lauren 33, Alexis 378, Sarah 2, Samantha 402, Madison 204, Jessica 423, Abigail 490, Hannah 194, Lauren 475, Sarah 331, Brianna 153, Elizabeth 141, Emma 404, Hannah 314, Lauren 337, Alexis 355, Alexis 80, Alyssa 133, Ashley 246, Lauren 459, Emma 55, Alyssa 440, Grace 120, Elizabeth 262, Ashley 414, Alexis 261, Isabella 187, Abigail 344, Samantha 480, Sarah 107, Madison 415</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lauren 232, Emily 144, Olivia 504, Abigail 82, Olivia 137, Hannah 194, Hannah 467, Elizabeth 43, Kayla 407, Alyssa 421</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -812,7 +968,11 @@
           <t>Programmeerimine keeles Java 1</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sarah 315, Hannah 314, Emily 405, Isabella 485</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -832,10 +992,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kayla 5</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>Elizabeth 422, Grace 396, Lauren 457, Lauren 96, Isabella 244, Olivia 416, Brianna 203, Alexis 365, Lauren 52, Taylor 106, Sarah 74, Jessica 23, Brianna 172, Olivia 504, Emily 405, Lauren 494, Kayla 5, Grace 282, Jessica 32, Emily 505, Sarah 277, Samantha 484, Abigail 109, Kayla 469, Abigail 255, Samantha 327, Elizabeth 473, Samantha 398, Olivia 134, Madison 301</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lauren 236, Sarah 512, Olivia 214, Brianna 361, Olivia 384, Ashley 510, Samantha 462, Grace 280, Sarah 114, Alexis 62</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -845,10 +1009,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Elizabeth 10, Alyssa 4</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Taylor 151, Brianna 88, Olivia 102, Emma 238, Lauren 457, Emma 142, Elizabeth 391, Olivia 103, Alexis 171, Alyssa 366, Alexis 365, Madison 368, Isabella 427, Alyssa 39, Lauren 49, Alyssa 19, Hannah 59, Isabella 63, Abigail 108, Abigail 291, Sarah 420, Alexis 80, Lauren 430, Elizabeth 307, Olivia 186, Kayla 75, Alexis 294, Brianna 180, Ashley 246, Olivia 270, Kayla 369, Isabella 474, Olivia 502, Emma 185, Emily 390, Madison 322, Taylor 215, Emma 350, Grace 428, Elizabeth 473, Sarah 512, Madison 225, Alexis 443, Ashley 195, Emma 305, Kayla 51, Jessica 425, Ashley 510, Brianna 388, Sarah 312</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Alyssa 366, Abigail 279, Hannah 181, Lauren 90, Emma 9, Alyssa 491, Samantha 484, Alexis 381, Alexis 355, Grace 30</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -858,10 +1026,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lauren 12, Emma 9, Lauren 11, Sarah 2, Olivia 1</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Isabella 160, Madison 126, Grace 396, Alyssa 508, Lauren 452, Alyssa 435, Lauren 12, Elizabeth 385, Abigail 338, Emily 87, Madison 173, Alyssa 308, Isabella 183, Elizabeth 472, Samantha 429, Hannah 218, Elizabeth 67, Samantha 143, Jessica 175, Hannah 467, Emily 405, Ashley 458, Isabella 353, Sarah 315, Alexis 340, Grace 282, Ashley 286, Taylor 394, Jessica 293, Alexis 343, Alyssa 432, Jessica 163, Kayla 409, Lauren 459, Jessica 230, Kayla 272, Emma 9, Abigail 255, Madison 301, Emma 387, Elizabeth 166, Alyssa 339, Olivia 167, Ashley 283, Sarah 107, Abigail 82, Samantha 480, Madison 243, Lauren 11, Samantha 382</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Jessica 265, Grace 263, Emma 387, Alexis 335, Sarah 482, Olivia 1, Taylor 394, Isabella 161, Abigail 209, Abigail 82</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -869,8 +1041,16 @@
           <t>Arvutite riistvara ja lisaseadmed</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Taylor 288, Abigail 131, Alexis 370, Madison 173, Alyssa 273, Alexis 316, Emily 334, Emma 401, Emily 229, Grace 463, Brianna 92, Lauren 372, Taylor 26, Alexis 69, Brianna 180, Isabella 161</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Emma 55, Emma 448, Alyssa 380, Ashley 297, Jessica 189, Hannah 119, Brianna 205, Madison 464, Brianna 42, Grace 89</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -878,8 +1058,16 @@
           <t>Loodusteadused, tehnoloogia ja ühiskond</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Isabella 160, Sarah 377, Emily 445, Emma 238, Lauren 452, Taylor 254, Samantha 211, Elizabeth 385, Olivia 137, Elizabeth 476, Emily 87, Elizabeth 436, Lauren 90, Emily 146, Emily 228, Lauren 60, Emily 144, Emma 217, Emily 152, Grace 515, Sarah 312, Jessica 311, Brianna 419, Brianna 205, Taylor 215</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Jessica 521, Hannah 165, Samantha 298, Elizabeth 79, Grace 280, Emma 305, Brianna 172, Madison 54, Ashley 412, Hannah 129</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -889,10 +1077,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hannah 16, Olivia 1</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Madison 126, Alexis 35, Ashley 193, Alyssa 308, Lauren 49, Emily 334, Samantha 429, Brianna 61, Alexis 471, Abigail 514, Emma 290, Sarah 156, Hannah 16, Alexis 69, Taylor 394, Olivia 234, Alyssa 432, Olivia 21, Jessica 219, Abigail 177, Taylor 158, Isabella 485, Ashley 392, Alexis 468, Taylor 110, Isabella 275, Madison 155</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Alyssa 245, Taylor 130, Samantha 483, Ashley 283, Isabella 347, Elizabeth 364, Madison 243, Isabella 187, Emily 65, Olivia 186</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -902,10 +1094,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Taylor 6</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Lauren 248, Sarah 400, Lauren 452, Emily 330, Brianna 201, Alyssa 233, Kayla 188, Ashley 460, Ashley 78, Abigail 490, Emma 499, Jessica 66, Taylor 6, Brianna 61, Grace 100, Olivia 41, Lauren 93, Abigail 113</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Hannah 129, Alexis 69, Sarah 277, Alyssa 133, Abigail 71, Elizabeth 157, Samantha 386, Abigail 503, Taylor 110, Isabella 474</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -915,7 +1111,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Taylor 6</t>
+          <t>Lauren 248, Sarah 400, Lauren 452, Emily 330, Brianna 201, Alyssa 233, Kayla 188, Ashley 460, Ashley 78, Abigail 490, Emma 499, Jessica 66, Taylor 6, Brianna 61, Grace 100, Olivia 41, Lauren 93, Abigail 113</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -928,7 +1124,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Taylor 6</t>
+          <t>Lauren 248, Sarah 400, Lauren 452, Emily 330, Brianna 201, Alyssa 233, Kayla 188, Ashley 460, Ashley 78, Abigail 490, Emma 499, Jessica 66, Taylor 6, Brianna 61, Grace 100, Olivia 41, Lauren 93, Abigail 113</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -939,8 +1135,16 @@
           <t>Kirjandus ja film</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sarah 400, Emily 330, Olivia 416, Alexis 171, Elizabeth 516, Kayla 188, Alyssa 308, Lauren 90, Alexis 316, Elizabeth 472, Alyssa 19, Sarah 331, Alexis 62, Grace 100, Samantha 143, Olivia 41, Sarah 156, Abigail 291, Grace 282, Emily 403, Madison 519, Kayla 495, Madison 149, Olivia 38, Isabella 161, Olivia 169, Samantha 386, Kayla 272, Grace 431, Kayla 235, Kayla 369, Hannah 357, Lauren 170, Emma 77</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Emily 390, Madison 415, Abigail 255, Emma 350, Alyssa 245, Hannah 332, Sarah 114, Emma 387, Sarah 107, Abigail 82</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -950,10 +1154,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Emma 9</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Isabella 395, Lauren 363, Jessica 506, Emma 142, Alexis 381, Brianna 203, Elizabeth 476, Samantha 271, Elizabeth 486, Hannah 59, Samantha 302, Brianna 61, Jessica 23, Olivia 504, Ashley 348, Elizabeth 141, Emma 217, Alexis 524, Lauren 249, Abigail 125, Grace 511, Sarah 57, Olivia 502</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Elizabeth 313, Emma 9, Elizabeth 289, Madison 322, Jessica 521, Olivia 53, Lauren 346, Emma 305, Ashley 412, Isabella 347</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -963,10 +1171,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sarah 2, Lauren 12, Hannah 16</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Elizabeth 422, Lauren 232, Madison 24, Sarah 31, Lauren 452, Lauren 12, Sarah 2, Alyssa 366, Emma 118, Taylor 226, Taylor 192, Sarah 74, Alexis 498, Madison 319, Lauren 85, Ashley 140, Hannah 16, Olivia 124, Lauren 337, Alexis 343</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Hannah 393, Ashley 326, Lauren 310, Jessica 32, Abigail 341, Sarah 312, Jessica 325, Grace 22, Alyssa 380, Elizabeth 262</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -976,10 +1188,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Lauren 11</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
+          <t>Grace 199, Isabella 160, Brianna 88, Alyssa 435, Taylor 222, Olivia 103, Emma 499, Kayla 139, Brianna 172, Jessica 437, Hannah 467, Lauren 93, Grace 463, Sarah 315, Alexis 45, Ashley 481, Alexis 294, Brianna 180, Grace 256, Grace 515</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Abigail 503, Emma 300, Madison 455, Lauren 258, Isabella 474, Hannah 119, Emma 58, Samantha 382, Alexis 112, Alexis 261</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -989,10 +1205,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Kayla 13, Lauren 8, Isabella 3, Kayla 7</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Emma 98, Emma 142, Elizabeth 385, Lauren 8, Sarah 518, Alyssa 308, Jessica 46, Isabella 183, Alyssa 19, Kayla 13, Abigail 212, Emma 401, Samantha 27, Grace 30, Taylor 26, Olivia 124</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Ashley 441, Taylor 394, Samantha 20, Olivia 186, Olivia 169, Emily 390, Madison 415, Kayla 7, Olivia 154, Samantha 250</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1011,10 +1231,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Madison 14, Taylor 17, Kayla 5</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>Taylor 509, Grace 396, Jessica 278, Abigail 269, Abigail 338, Isabella 342, Emily 37, Madison 173, Emma 25, Taylor 192, Alexis 498, Lauren 360, Brianna 92, Madison 14, Sarah 420, Ashley 286</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Hannah 393, Brianna 456, Olivia 496, Kayla 495, Grace 267, Sarah 442, Ashley 81, Alyssa 380, Emma 77, Abigail 279</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1031,8 +1255,16 @@
           <t>Lähis-Ida 20. sajandi teisest poolest tänapäevani</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Olivia 345, Brianna 88, Emma 238, Lauren 457, Brianna 221, Alyssa 359, Lauren 90, Lauren 49, Lauren 52, Samantha 302, Emily 228, Madison 324, Alexis 45, Alyssa 432, Alexis 355, Emma 217, Grace 321, Jessica 219, Grace 515, Jessica 230, Emma 55, Kayla 235, Alexis 468, Brianna 362, Hannah 357, Olivia 127, Grace 428, Brianna 42, Taylor 145, Grace 213, Emma 72, Madison 225, Olivia 214, Grace 280, Lauren 346, Alexis 371</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Brianna 172, Sarah 312, Emma 448, Samantha 483, Ashley 392, Abigail 177, Lauren 475, Samantha 382, Samantha 480, Brianna 492</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1042,10 +1274,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sarah 2</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Isabella 241, Madison 126, Alexis 35, Sarah 2, Olivia 416, Olivia 103, Madison 54, Madison 368, Jessica 383, Hannah 397, Emily 334, Hannah 218, Samantha 143, Abigail 296, Olivia 237, Abigail 514, Emma 257, Jessica 70, Sarah 156, Jessica 520, Emily 403, Ashley 481, Isabella 375, Grace 320, Lauren 249, Grace 83, Sarah 501, Isabella 485, Kayla 272, Emma 76, Grace 22, Emma 185</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lauren 356, Emily 65, Hannah 119, Elizabeth 289, Grace 411, Emily 333, Kayla 268, Elizabeth 164, Brianna 492, Samantha 298</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1055,10 +1291,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Olivia 1</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
+          <t>Grace 199, Sarah 377, Isabella 395, Olivia 102, Olivia 1, Grace 465, Hannah 202, Alexis 378, Brianna 203, Alyssa 366, Grace 285, Lauren 309, Elizabeth 141, Emma 404, Sarah 434, Grace 263, Elizabeth 307, Kayla 75, Jessica 303, Emma 300</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Jessica 147, Lauren 258, Grace 120, Isabella 275, Kayla 369, Elizabeth 313, Lauren 170, Jessica 311, Elizabeth 399, Grace 89</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1068,7 +1308,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Olivia 1</t>
+          <t>Grace 199, Sarah 377, Isabella 395, Olivia 102, Olivia 1, Grace 465, Hannah 202, Alexis 378, Brianna 203, Alyssa 366, Grace 285, Lauren 309, Elizabeth 141, Emma 404, Sarah 434, Grace 263, Elizabeth 307, Kayla 75, Jessica 303, Emma 300</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -1081,7 +1321,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Olivia 1</t>
+          <t>Grace 199, Sarah 377, Isabella 395, Olivia 102, Olivia 1, Grace 465, Hannah 202, Alexis 378, Brianna 203, Alyssa 366, Grace 285, Lauren 309, Elizabeth 141, Emma 404, Sarah 434, Grace 263, Elizabeth 307, Kayla 75, Jessica 303, Emma 300</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -1094,10 +1334,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Samantha 18</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>Emma 208, Sarah 31, Taylor 254, Alyssa 132, Ashley 478, Emily 87, Samantha 271, Elizabeth 174, Hannah 522, Isabella 63, Alexis 471, Hannah 323, Madison 319, Alexis 62, Olivia 504, Jessica 437, Lauren 223, Ashley 84, Grace 48, Kayla 466, Isabella 353, Abigail 105, Lauren 337, Olivia 21, Lauren 430</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Jessica 265, Samantha 224, Abigail 177, Alyssa 491, Grace 511, Abigail 231, Emily 505, Olivia 502, Madison 155, Samantha 68</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1107,7 +1351,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Samantha 18</t>
+          <t>Emma 208, Sarah 31, Taylor 254, Alyssa 132, Ashley 478, Emily 87, Samantha 271, Elizabeth 174, Hannah 522, Isabella 63, Alexis 471, Hannah 323, Madison 319, Alexis 62, Olivia 504, Jessica 437, Lauren 223, Ashley 84, Grace 48, Kayla 466, Isabella 353, Abigail 105, Lauren 337, Olivia 21, Lauren 430</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -1120,7 +1364,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Samantha 18</t>
+          <t>Emma 208, Sarah 31, Taylor 254, Alyssa 132, Ashley 478, Emily 87, Samantha 271, Elizabeth 174, Hannah 522, Isabella 63, Alexis 471, Hannah 323, Madison 319, Alexis 62, Olivia 504, Jessica 437, Lauren 223, Ashley 84, Grace 48, Kayla 466, Isabella 353, Abigail 105, Lauren 337, Olivia 21, Lauren 430</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -1133,10 +1377,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Kayla 15, Alyssa 4, Hannah 16</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>Abigail 413, Alyssa 508, Alexis 370, Jessica 506, Alexis 335, Elizabeth 391, Ashley 193, Kayla 15, Alyssa 4, Emily 146, Isabella 354, Ashley 123, Lauren 475, Ashley 198, Jessica 191, Samantha 487, Jessica 175, Hannah 266</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Ashley 140, Ashley 389, Emma 290, Elizabeth 328, Samantha 73, Grace 282, Ashley 326, Brianna 190, Grace 122, Abigail 341</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1144,8 +1392,16 @@
           <t>Ajakirjanduse alused</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Elizabeth 422, Olivia 345, Abigail 131, Emily 330, Ashley 193, Kayla 188, Ashley 460, Elizabeth 472, Kayla 139, Jessica 23, Sarah 331, Jessica 175, Lauren 223, Jessica 293, Olivia 239, Lauren 430, Brianna 190, Taylor 158, Olivia 496, Alyssa 133, Olivia 38, Isabella 161, Lauren 459, Samantha 386, Kayla 469, Isabella 260, Madison 155, Jessica 189, Madison 322, Madison 415, Abigail 255</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Alyssa 128, Lauren 136, Kayla 410, Jessica 44, Alexis 261, Madison 301, Madison 444, Samantha 178, Elizabeth 284, Hannah 165</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1155,10 +1411,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hannah 16, Samantha 18</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
+          <t>Taylor 288, Sarah 377, Emma 208, Emily 445, Lauren 457, Ashley 240, Abigail 338, Emily 87, Emma 118, Jessica 423, Ashley 78, Grace 285, Taylor 106, Samantha 302, Olivia 504, Ashley 453, Taylor 115, Emily 229, Elizabeth 116, Lauren 93, Ashley 84, Taylor 500, Jessica 70, Hannah 16, Lauren 489, Taylor 394, Lauren 310, Kayla 495, Emily 505, Abigail 406</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Emma 300, Sarah 312, Lauren 258, Emily 507, Ashley 81, Hannah 281, Emily 390, Emma 58, Isabella 242, Madison 464</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1166,7 +1426,11 @@
           <t>Filosoofia 2</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Emma 208, Emily 445, Taylor 106, Lauren 93, Kayla 495, Lauren 310</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -1177,10 +1441,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Kayla 7, Taylor 17</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>Lauren 363, Jessica 506, Brianna 433, Samantha 271, Sarah 518, Madison 368, Alyssa 39, Jessica 383, Emma 401, Madison 319, Samantha 143, Grace 30, Jessica 520, Sarah 434, Isabella 295, Ashley 441, Jessica 303, Grace 511</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Abigail 71, Emma 185, Elizabeth 313, Brianna 419, Brianna 205, Alexis 470, Samantha 488, Kayla 7, Brianna 251, Taylor 17</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1190,7 +1458,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Kayla 7, Taylor 17</t>
+          <t>Lauren 363, Jessica 506, Brianna 433, Samantha 271, Sarah 518, Madison 368, Alyssa 39, Jessica 383, Emma 401, Madison 319, Samantha 143, Grace 30, Jessica 520, Sarah 434, Isabella 295, Ashley 441, Jessica 303, Grace 511</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -1203,10 +1471,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lauren 12, Taylor 6</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>Taylor 509, Emma 98, Sarah 400, Lauren 33, Lauren 12, Lauren 96, Isabella 244, Lauren 367, Alyssa 493, Isabella 354, Ashley 50, Ashley 123, Lauren 475, Hannah 467, Emma 257, Alexis 340, Jessica 374, Lauren 337, Alexis 524, Olivia 186, Lauren 249, Kayla 409, Jessica 32, Brianna 180, Kayla 272, Emily 439</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Olivia 270, Brianna 362, Isabella 474, Hannah 357, Ashley 414, Hannah 119, Abigail 279, Kayla 379, Samantha 382, Lauren 358</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1216,10 +1488,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sarah 2, Isabella 3, Madison 14, Elizabeth 10</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>Isabella 395, Madison 126, Brianna 201, Sarah 2, Abigail 269, Abigail 490, Isabella 427, Hannah 522, Lauren 52, Hannah 194, Samantha 429, Brianna 61, Hannah 323, Alexis 62, Samantha 487, Alyssa 306, Lauren 60, Olivia 41</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Abigail 514, Elizabeth 141, Abigail 113, Hannah 129, Madison 14, Grace 282, Emily 403, Grace 263, Alyssa 491, Sarah 277</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1229,10 +1505,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Kayla 13</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>Isabella 241, Abigail 413, Sarah 31, Alexis 378, Olivia 274, Brianna 221, Elizabeth 391, Elizabeth 516, Jessica 461, Madison 352, Emma 499, Kayla 13, Emily 334, Alexis 498, Alexis 471, Brianna 172</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Lauren 309, Emily 144, Jessica 437, Taylor 523, Hannah 393, Emily 349, Emily 152, Grace 515, Elizabeth 157, Lauren 170</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1240,8 +1520,16 @@
           <t>Fotograafia 1</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Isabella 160, Emily 445, Alexis 35, Abigail 413, Jessica 506, Lauren 96, Alyssa 308, Taylor 226, Lauren 49, Lauren 475, Brianna 153, Hannah 181, Jessica 520, Hannah 314, Ashley 481, Samantha 20, Alexis 355, Sarah 501, Abigail 231, Abigail 341, Lauren 459, Grace 431, Kayla 235, Jessica 325</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Grace 22, Emma 185, Emma 9, Kayla 497, Olivia 134, Olivia 138, Elizabeth 227, Samantha 480, Alexis 371, Jessica 425</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1249,8 +1537,16 @@
           <t>Inimene ja ühiskond 3. periood</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Madison 126, Elizabeth 391, Olivia 137, Abigail 338, Jessica 423, Jessica 383, Taylor 192, Taylor 121, Samantha 487, Emma 64, Lauren 56, Ashley 389, Emily 91, Grace 320, Taylor 94, Jessica 265, Jessica 163, Kayla 495, Emily 505, Jessica 230, Ashley 392, Kayla 272, Lauren 258, Ashley 81, Kayla 369, Emily 65, Emma 77, Samantha 488, Brianna 299, Grace 159, Emma 72, Alexis 261, Ashley 117, Ashley 283, Abigail 82, Grace 89</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Alyssa 366, Lauren 11, Lauren 49, Sarah 512, Alyssa 491, Madison 417, Alexis 524, Sarah 482, Lauren 337, Olivia 270</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1260,10 +1556,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Lauren 12</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>Madison 24, Lauren 12, Taylor 222, Emma 25, Jessica 32, Taylor 110, Emily 507, Isabella 275, Olivia 502, Elizabeth 313, Jessica 189, Emma 9, Elizabeth 289, Kayla 379, Madison 415, Brianna 197, Isabella 329, Madison 444, Brianna 179, Madison 196, Olivia 53, Grace 280, Madison 417, Elizabeth 227, Isabella 95, Alexis 371, Samantha 462, Samantha 382, Alyssa 440, Abigail 209, Hannah 194, Sarah 424, Kayla 51, Emily 34, Olivia 318, Lauren 236</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Alyssa 493, Emily 146, Alexis 343, Emma 76, Elizabeth 307, Ashley 198, Elizabeth 364, Brianna 456, Madison 155, Alexis 498</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1273,10 +1573,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Isabella 3</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
+          <t>Kayla 407, Jessica 278, Abigail 269, Alyssa 359, Lauren 90, Ashley 140, Taylor 394, Olivia 239, Alexis 80, Grace 122, Abigail 125, Samantha 276, Olivia 38, Grace 515, Sarah 442, Sarah 57, Kayla 469, Brianna 419, Isabella 242, Brianna 251, Alyssa 128, Alyssa 245, Lauren 136, Kayla 410, Grace 213, Sarah 482, Lauren 358, Madison 225, Brianna 438, Madison 162</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Sarah 107, Abigail 450, Olivia 40, Isabella 3, Alyssa 304, Lauren 29, Hannah 317, Emily 390, Sarah 312, Alexis 470</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1286,10 +1590,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lauren 12, Kayla 15, Elizabeth 10, Lauren 11</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
+          <t>Isabella 395, Sarah 400, Abigail 413, Sarah 31, Kayla 252, Lauren 457, Lauren 12, Taylor 254, Jessica 506, Alexis 378, Isabella 426, Brianna 221, Elizabeth 391, Elizabeth 476, Abigail 338, Kayla 15, Jessica 46, Alexis 316, Lauren 475, Samantha 27, Brianna 153, Jessica 437, Lauren 223, Hannah 266, Emily 91, Ashley 458, Taylor 500, Sarah 315, Abigail 291, Emma 404</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Madison 519, Grace 321, Kayla 75, Lauren 310, Abigail 231, Sarah 277, Grace 267, Sarah 57, Emma 55, Emma 300</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1297,8 +1605,16 @@
           <t>Turundus</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Lauren 232, Brianna 88, Ashley 240, Lauren 33, Brianna 221, Olivia 259, Jessica 461, Alyssa 39, Hannah 59, Lauren 52, Ashley 348, Alyssa 432, Abigail 71, Abigail 503, Emma 76, Madison 155, Emily 390, Jessica 311, Grace 411, Alexis 470, Alyssa 421, Taylor 130, Samantha 398, Madison 301, Ashley 220, Ashley 168</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Lauren 346, Emma 305, Emily 97, Elizabeth 227, Hannah 317, Samantha 484, Madison 415, Alexis 355, Abigail 341, Abigail 125</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1308,10 +1624,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Kayla 13, Taylor 17</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+          <t>Grace 396, Olivia 274, Elizabeth 449, Elizabeth 476, Sarah 518, Kayla 13, Sarah 74, Sarah 331, Lauren 85, Emma 257, Alexis 45, Samantha 73, Lauren 489, Madison 519, Abigail 109, Madison 184, Jessica 147, Alexis 468, Grace 120, Emily 439, Brianna 362, Hannah 281, Lauren 356, Samantha 68</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Madison 322, Elizabeth 399, Emily 333, Grace 428, Hannah 332, Taylor 17, Samantha 250, Elizabeth 284, Samantha 298, Abigail 517</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1321,10 +1641,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Lauren 12, Kayla 15, Elizabeth 10, Lauren 11, Isabella 3</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
+          <t>Grace 199, Lauren 248, Isabella 395, Alyssa 508, Hannah 202, Lauren 12, Taylor 222, Isabella 426, Elizabeth 449, Kayla 15, Emma 118, Taylor 226, Elizabeth 486, Emma 25, Abigail 408, Abigail 108, Lauren 85, Grace 100, Jessica 437, Jessica 293</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Alexis 343, Olivia 239, Lauren 310, Sarah 501, Kayla 495, Samantha 276, Grace 267, Madison 455, Jessica 325, Brianna 362</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1332,8 +1656,16 @@
           <t>Kujutav geomeetria</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Taylor 288, Taylor 509, Emma 98, Sarah 400, Kayla 252, Ashley 478, Madison 173, Alyssa 273, Isabella 354, Hannah 59, Ashley 453, Hannah 181, Emma 257, Elizabeth 328, Abigail 113, Lauren 372, Jessica 374, Olivia 186, Kayla 75, Brianna 190, Jessica 163, Abigail 125</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Abigail 406, Emma 300, Emily 34, Kayla 235, Olivia 270, Ashley 81, Abigail 209, Olivia 502, Samantha 447, Elizabeth 289</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1341,7 +1673,11 @@
           <t>Loominguline joonistamine 2</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Alexis 381, Samantha 302</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -1352,10 +1688,14 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kayla 13, Taylor 6, Madison 14</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
+          <t>Madison 24, Jessica 206, Grace 285, Sarah 210, Jessica 66, Kayla 13, Hannah 323, Ashley 348, Taylor 115, Lauren 309, Emily 229, Lauren 56, Ashley 458, Isabella 353, Abigail 291, Samantha 73, Taylor 523, Emily 403, Taylor 94, Lauren 249, Grace 83, Kayla 409, Abigail 231, Brianna 180, Isabella 161, Brianna 200, Olivia 169, Sarah 57, Isabella 260, Madison 322, Abigail 279, Olivia 127, Samantha 488, Grace 159, Emma 72</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Elizabeth 284, Hannah 287, Alexis 36, Hannah 317, Ashley 392, Sarah 512, Emma 9, Alyssa 491, Ashley 50, Brianna 92</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1365,10 +1705,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kayla 13, Kayla 7, Lauren 11</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
+          <t>Grace 99, Grace 396, Alexis 370, Lauren 457, Jessica 278, Lauren 96, Elizabeth 391, Alyssa 359, Jessica 423, Alyssa 273, Sarah 210, Emma 28, Hannah 397, Kayla 13, Ashley 123, Samantha 429, Taylor 115, Lauren 60, Hannah 181, Samantha 73, Lauren 372, Emily 403, Hannah 314, Olivia 234, Emma 217, Jessica 265, Samantha 224, Abigail 177, Sarah 501, Lauren 459, Abigail 71, Grace 515, Alyssa 440, Alyssa 380, Ashley 297, Abigail 279</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Alexis 470, Kayla 7, Brianna 299, Elizabeth 164, Alyssa 245, Olivia 477, Sarah 86, Grace 89, Alexis 261, Elizabeth 284</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1378,10 +1722,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lauren 8, Taylor 17</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
+          <t>Lauren 232, Alyssa 435, Brianna 221, Lauren 8, Elizabeth 476, Lauren 90, Abigail 408, Hannah 194, Emily 334, Emma 401, Samantha 487, Emily 405, Elizabeth 328, Sarah 156, Jessica 520</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Taylor 523, Olivia 124, Isabella 295, Olivia 239, Grace 321, Brianna 190, Jessica 303, Taylor 158, Sarah 277, Grace 256</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1391,10 +1739,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sarah 2, Madison 14</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
+          <t>Isabella 160, Emily 445, Brianna 433, Sarah 2, Olivia 137, Abigail 269, Abigail 338, Samantha 402, Abigail 212, Brianna 153, Samantha 143, Madison 14, Madison 519, Taylor 94, Jessica 219, Grace 122, Lauren 310, Ashley 246, Abigail 109, Emily 34, Isabella 260, Emily 439, Jessica 311, Brianna 251</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Alyssa 128, Brianna 42, Alyssa 421, Taylor 130, Brianna 513, Sarah 482, Madison 301, Emma 387, Abigail 517, Alyssa 339</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1404,10 +1756,14 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Kayla 5</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
+          <t>Olivia 103, Alyssa 493, Emily 146, Taylor 226, Ashley 50, Hannah 218, Hannah 467, Emma 290, Kayla 5, Hannah 129, Alexis 340, Grace 282, Olivia 186, Emily 152, Kayla 495, Ashley 392, Olivia 169, Samantha 386, Emma 448, Kayla 469, Isabella 474, Hannah 357, Emma 185, Emily 65, Ashley 414, Hannah 119, Abigail 255, Samantha 327, Samantha 150, Elizabeth 473, Ashley 117, Ashley 168, Hannah 287, Lauren 346, Emma 305, Elizabeth 10, Lauren 101, Elizabeth 364, Brianna 172, Samantha 480, Hannah 317, Brianna 492, Sarah 114, Brianna 205, Brianna 47, Isabella 161, Olivia 138, Kayla 497, Abigail 82, Brianna 299, Elizabeth 164, Kayla 409, Emily 479, Sarah 86, Samantha 18, Sarah 518, Alexis 294, Emily 135, Lauren 207, Olivia 264, Taylor 176, Emma 216, Kayla 272, Emma 72, Abigail 344, Alyssa 245, Madison 225, Grace 159, Isabella 347, Kayla 410, Elizabeth 116, Emily 336, Brianna 419, Sarah 420, Jessica 325, Hannah 332, Abigail 517, Alyssa 39, Samantha 298, Brianna 513</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Kayla 13, Lauren 367, Emma 217, Olivia 169, Abigail 413, Emily 405, Olivia 137, Grace 511, Alexis 36, Elizabeth 284</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1415,7 +1771,11 @@
           <t>Riigikaitse 2</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Taylor 226, Hannah 218, Olivia 169, Samantha 386, Samantha 150, Elizabeth 364, Ashley 392, Brianna 47, Ashley 414, Emma 185, Lauren 346, Alexis 294, Hannah 119, Emily 152, Elizabeth 10, Olivia 138, Sarah 420, Ashley 50, Emily 135, Elizabeth 116, Abigail 344, Hannah 467, Kayla 272</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -1426,10 +1786,14 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Hannah 16, Isabella 3</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
+          <t>Kayla 407, Olivia 345, Brianna 88, Abigail 413, Lauren 33, Olivia 274, Madison 173, Alyssa 308, Jessica 46, Isabella 183, Taylor 121, Hannah 59, Lauren 52, Taylor 106, Alexis 498, Alyssa 306, Emily 229, Jessica 175, Emily 91, Brianna 92, Taylor 26, Hannah 16, Ashley 286, Alexis 69, Ashley 441</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Taylor 394, Alyssa 432, Hannah 393, Ashley 326, Lauren 249, Alexis 294, Kayla 409, Brianna 456, Olivia 496, Brianna 200</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1437,7 +1801,11 @@
           <t>Ajakirjanduse praktika</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Emily 330, Ashley 460, Jessica 23, Emily 229, Jessica 70, Samantha 73, Taylor 523, Isabella 375, Brianna 190, Sarah 501, Abigail 255, Lauren 309, Isabella 161, Jessica 189, Samantha 488, Emma 76, Emily 334, Brianna 200, Jessica 175, Emma 257, Samantha 143, Kayla 13, Emily 403, Kayla 409</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -1448,10 +1816,14 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Taylor 6, Kayla 13</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
+          <t>Grace 199, Taylor 288, Isabella 241, Alexis 35, Alexis 370, Jessica 278, Brianna 201, Taylor 222, Alyssa 359, Elizabeth 436, Jessica 461, Isabella 342, Abigail 490, Lauren 90, Madison 54, Elizabeth 174, Hannah 397, Taylor 6, Hannah 522, Elizabeth 67, Hannah 323, Samantha 487, Olivia 41, Grace 463, Lauren 56, Ashley 140, Ashley 389, Hannah 181, Grace 48, Isabella 353</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Alexis 340, Taylor 26, Olivia 124, Grace 263, Alexis 80, Lauren 249, Taylor 158, Madison 149, Grace 256, Isabella 161</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1461,10 +1833,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sarah 2, Lauren 8</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
+          <t>Emma 98, Kayla 407, Madison 126, Madison 24, Brianna 88, Hannah 202, Sarah 2, Olivia 103, Lauren 8, Alexis 171, Abigail 269, Alyssa 308, Grace 285, Sarah 210, Elizabeth 486, Alyssa 39, Alyssa 19, Taylor 192</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Taylor 121, Kayla 139, Emily 334, Samantha 429, Sarah 74, Alexis 471, Alexis 104, Jessica 191, Ashley 348, Lauren 60</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1474,10 +1850,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Olivia 1, Hannah 16, Emma 9, Kayla 7</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
+          <t>Grace 99, Taylor 509, Olivia 345, Olivia 1, Alyssa 435, Olivia 416, Alyssa 132, Samantha 402, Emily 87, Alyssa 366, Samantha 271, Emma 118, Ashley 78, Alyssa 493, Emma 499, Jessica 383</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Ashley 123, Emily 228, Taylor 115, Grace 100, Abigail 296, Hannah 467, Brianna 92, Hannah 16, Lauren 337, Olivia 234</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1487,10 +1867,14 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Taylor 6, Lauren 8, Samantha 18, Madison 14, Taylor 17</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
+          <t>Elizabeth 422, Sarah 377, Kayla 407, Isabella 241, Madison 24, Abigail 413, Sarah 31, Lauren 363, Emily 330, Brianna 221, Lauren 8, Ashley 478, Grace 285, Abigail 490, Emma 216, Alyssa 493, Taylor 226, Elizabeth 174, Taylor 6, Hannah 522</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Lauren 52, Olivia 504, Abigail 296, Grace 30, Ashley 140, Emily 91, Kayla 466, Jessica 520, Madison 14, Taylor 523</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1500,10 +1884,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Olivia 1, Samantha 18, Kayla 7</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
+          <t>Taylor 151, Sarah 377, Alexis 35, Abigail 131, Olivia 1, Isabella 426, Emily 87, Ashley 460, Sarah 518, Emily 146, Lauren 49, Taylor 121, Hannah 522, Lauren 309, Elizabeth 116, Grace 30</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Hannah 181, Ashley 458, Taylor 500, Ashley 286, Lauren 430, Abigail 177, Grace 122, Grace 111, Alyssa 440, Emma 448</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1511,8 +1899,16 @@
           <t>Tänavakunst</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Grace 99, Taylor 509, Kayla 252, Ashley 240, Brianna 433, Samantha 211, Lauren 96, Alyssa 132, Isabella 342, Lauren 90, Emma 499, Elizabeth 486, Hannah 397, Abigail 408, Jessica 23, Sarah 331, Alexis 498, Alexis 104, Jessica 191, Lauren 309</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Alyssa 306, Emily 229, Emily 144, Grace 463, Ashley 389, Emma 257, Grace 263, Olivia 239, Brianna 373, Jessica 32</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -378,12 +378,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kayla 252, Alexis 370, Jessica 278, Lauren 96, Olivia 137, Lauren 8, Abigail 269, Madison 204, Alyssa 4, Jessica 46, Abigail 490, Isabella 427, Madison 324, Lauren 60, Emily 144, Emily 405, Kayla 5, Madison 14, Grace 320, Olivia 186, Brianna 47, Emily 505, Isabella 485, Abigail 109, Olivia 270, Isabella 275, Emma 76</t>
+          <t>Lauren 8, Jessica 278, Madison 324, Jessica 46, Alyssa 4, Lauren 96, Olivia 137, Lauren 60, Madison 204, Isabella 427, Alexis 370, Abigail 490, Abigail 269, Emily 144, Kayla 252, Olivia 186, Brianna 197, Brianna 47, Isabella 485, Grace 280, Olivia 270, Isabella 95, Isabella 187, Alexis 443, Kayla 5, Olivia 318, Emily 505</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Emily 135, Samantha 488, Kayla 497, Madison 464, Brianna 197, Olivia 318, Alexis 443, Grace 280, Isabella 187, Isabella 95</t>
+          <t>Grace 320, Emily 135, Emma 76, Madison 464, Isabella 275, Brianna 148, Kayla 497, Samantha 488, Jessica 425, Emily 405</t>
         </is>
       </c>
     </row>
@@ -395,12 +395,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alyssa 435, Lauren 12, Taylor 222, Isabella 426, Elizabeth 449, Elizabeth 476, Olivia 259, Jessica 423, Sarah 210, Ashley 50, Ashley 453, Alyssa 306, Emily 229, Emily 91, Lauren 494, Sarah 315, Hannah 314, Madison 519, Olivia 234, Jessica 32, Abigail 125, Madison 184, Emily 439, Taylor 215, Abigail 255, Samantha 327, Samantha 150</t>
+          <t>Isabella 426, Jessica 423, Elizabeth 476, Taylor 222, Emily 229, Alyssa 306, Sarah 210, Ashley 453, Alyssa 435, Olivia 259, Ashley 50, Lauren 12, Elizabeth 449, Abigail 255, Lauren 494, Jessica 44, Emily 439, Madison 519, Lauren 11, Taylor 215, Grace 351, Olivia 264, Madison 184, Madison 417, Abigail 125, Sarah 315, Samantha 327</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Jessica 44, Taylor 176, Grace 351, Olivia 264, Olivia 53, Madison 417, Lauren 11, Olivia 477, Emily 390, Ashley 117</t>
+          <t>Jessica 32, Olivia 234, Samantha 150, Emily 91, Hannah 314, Taylor 176, Olivia 53, Abigail 406, Emma 118, Jessica 425</t>
         </is>
       </c>
     </row>
@@ -412,10 +412,9 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jessica 278, Lauren 8, Jessica 46, Samantha 150, Olivia 270, Alyssa 4</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+          <t>Lauren 8, Jessica 278, Jessica 46, Brianna 197, Madison 417, Alyssa 4, Olivia 270</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -425,12 +424,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lauren 363, Isabella 244, Elizabeth 516, Madison 204, Jessica 206, Alexis 365, Emma 118, Lauren 367, Madison 352, Elizabeth 486, Elizabeth 472, Jessica 23, Alexis 104, Emily 144, Ashley 458, Taylor 500, Abigail 291, Jessica 374, Jessica 293, Olivia 451, Brianna 373, Taylor 158, Emily 349, Madison 149, Grace 256, Abigail 406, Brianna 200, Samantha 484, Madison 455, Elizabeth 262</t>
+          <t>Madison 352, Jessica 206, Lauren 367, Isabella 244, Jessica 23, Madison 204, Emma 118, Alexis 365, Lauren 363, Elizabeth 516, Elizabeth 486, Alexis 104, Emily 144, Elizabeth 472, Abigail 406, Jessica 374, Alyssa 421, Brianna 373, Jessica 293, Madison 455, Grace 256, Alexis 261, Brianna 200, Olivia 376, Abigail 344, Ashley 220, Ashley 283, Elizabeth 166, Ashley 195, Elizabeth 10</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Emma 9, Alyssa 421, Isabella 329, Brianna 513, Alexis 261, Ashley 220, Elizabeth 166, Ashley 195, Ashley 283, Abigail 344</t>
+          <t>Abigail 291, Ashley 458, Brianna 513, Taylor 158, Taylor 500, Emily 349, Elizabeth 262, Elizabeth 364, Emma 9, Madison 149</t>
         </is>
       </c>
     </row>
@@ -442,10 +441,9 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lauren 363, Isabella 244, Elizabeth 516, Madison 204, Jessica 206, Alexis 365, Emma 118, Lauren 367, Madison 352, Elizabeth 486, Elizabeth 472, Jessica 23, Alexis 104, Emily 144, Ashley 458, Taylor 500, Abigail 291, Jessica 374, Jessica 293, Olivia 451, Brianna 373, Taylor 158, Emily 349, Madison 149, Grace 256, Abigail 406, Brianna 200, Samantha 484, Madison 455, Elizabeth 262</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>Madison 352, Jessica 206, Lauren 367, Isabella 244, Jessica 23, Madison 204, Emma 118, Alexis 365, Lauren 363, Elizabeth 516, Elizabeth 486, Alexis 104, Emily 144, Elizabeth 472, Abigail 406, Jessica 374, Alyssa 421, Brianna 373, Jessica 293, Madison 455, Grace 256, Alexis 261, Brianna 200, Olivia 376, Abigail 344, Ashley 220, Ashley 283, Elizabeth 166, Ashley 195, Elizabeth 10</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -455,10 +453,9 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lauren 363, Isabella 244, Elizabeth 516, Madison 204, Jessica 206, Alexis 365, Emma 118, Lauren 367, Madison 352, Elizabeth 486, Elizabeth 472, Jessica 23, Alexis 104, Emily 144, Ashley 458, Taylor 500, Abigail 291, Jessica 374, Jessica 293, Olivia 451, Brianna 373, Taylor 158, Emily 349, Madison 149, Grace 256, Abigail 406, Brianna 200, Samantha 484, Madison 455, Elizabeth 262</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
+          <t>Madison 352, Jessica 206, Lauren 367, Isabella 244, Jessica 23, Madison 204, Emma 118, Alexis 365, Lauren 363, Elizabeth 516, Elizabeth 486, Alexis 104, Emily 144, Elizabeth 472, Abigail 406, Jessica 374, Alyssa 421, Brianna 373, Jessica 293, Madison 455, Grace 256, Alexis 261, Brianna 200, Olivia 376, Abigail 344, Ashley 220, Ashley 283, Elizabeth 166, Ashley 195, Elizabeth 10</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -468,12 +465,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Taylor 288, Olivia 274, Isabella 244, Alyssa 233, Madison 352, Alyssa 493, Jessica 383, Abigail 212, Lauren 56, Lauren 494, Grace 263, Hannah 314, Grace 321, Sarah 501, Abigail 71, Alexis 468, Grace 120, Brianna 362, Emma 185, Taylor 215, Alexis 470, Elizabeth 399, Brianna 513, Samantha 398, Grace 159, Elizabeth 284, Hannah 165, Ashley 195, Madison 162, Alyssa 304</t>
+          <t>Alyssa 493, Madison 352, Taylor 288, Isabella 244, Alyssa 233, Olivia 274, Abigail 212, Jessica 383, Lauren 494, Emma 185, Lauren 56, Grace 120, Grace 159, Taylor 215, Sarah 501, Grace 321, Elizabeth 284, Alexis 470, Elizabeth 399, Hannah 165, Madison 243, Ashley 195, Brianna 513, Madison 162, Samantha 398, Hannah 314, Grace 263, Alyssa 304, Abigail 71, Alexis 468</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Madison 243, Abigail 514, Hannah 323, Hannah 317, Jessica 423, Lauren 101, Alexis 355, Alexis 443, Emma 300, Sarah 442</t>
+          <t>Brianna 362, Emily 403, Sarah 86, Alyssa 421, Emma 404, Elizabeth 289, Samantha 327, Hannah 317, Brianna 61, Taylor 288</t>
         </is>
       </c>
     </row>
@@ -485,10 +482,9 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Elizabeth 174, Hannah 218, Lauren 346, Olivia 53, Ashley 140, Emma 58, Olivia 451, Isabella 63, Grace 253</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
+          <t>Hannah 218, Elizabeth 174, Lauren 346, Jessica 189, Olivia 234, Olivia 53, Abigail 109, Ashley 140, Isabella 63, Olivia 451, Grace 253</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -498,10 +494,9 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Grace 122, Elizabeth 157, Jessica 147, Grace 253, Abigail 71, Samantha 20, Samantha 27, Taylor 176, Madison 519, Grace 463, Sarah 501</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
+          <t>Jessica 147, Grace 253, Elizabeth 157, Grace 122, Abigail 71, Madison 519, Grace 463, Grace 263, Sarah 501, Samantha 27, Samantha 20, Taylor 176</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -511,12 +506,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Taylor 151, Emma 98, Emma 238, Kayla 252, Alyssa 508, Alyssa 4, Emma 216, Alyssa 493, Alyssa 19, Ashley 123, Abigail 108, Lauren 60, Elizabeth 328, Kayla 5, Sarah 315, Jessica 70, Madison 14, Alexis 343, Emma 217, Hannah 393, Samantha 224, Ashley 326, Lauren 249, Abigail 177</t>
+          <t>Alyssa 493, Alyssa 4, Abigail 108, Alyssa 19, Emma 238, Lauren 60, Emma 98, Taylor 151, Alyssa 508, Emma 216, Ashley 123, Kayla 252, Taylor 145, Jessica 44, Brianna 197, Brianna 418, Grace 280, Emily 152, Madison 444, Madison 415, Taylor 110, Sarah 315, Kayla 5, Hannah 165</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Alexis 294, Jessica 32, Emily 152, Grace 256, Taylor 110, Emily 135, Lauren 170, Brianna 418, Samantha 382, Madison 415</t>
+          <t>Alexis 343, Olivia 384, Jessica 32, Ashley 326, Emily 135, Elizabeth 473, Lauren 249, Lauren 170, Emma 350, Jessica 70</t>
         </is>
       </c>
     </row>
@@ -528,12 +523,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kayla 188, Isabella 183, Hannah 218, Hannah 266, Emily 91, Alexis 340, Olivia 124, Samantha 20, Grace 320, Hannah 393, Brianna 373, Alexis 294, Emily 349, Emily 507, Emma 76, Emily 333, Kayla 268, Brianna 251, Alyssa 128, Brianna 42, Sarah 86, Alyssa 421, Brianna 492, Grace 89</t>
+          <t>Kayla 188, Hannah 218, Isabella 183, Grace 89, Alexis 112, Taylor 145, Emily 333, Hannah 266, Olivia 124, Sarah 482, Alyssa 421, Emily 507, Brianna 373, Ashley 412, Kayla 268, Samantha 18, Alexis 340, Samantha 20, Olivia 376, Brianna 251, Grace 213, Sarah 107, Grace 320, Madison 196</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Alexis 112, Taylor 145, Samantha 18, Taylor 176, Grace 213, Sarah 482, Madison 196, Ashley 412, Sarah 107, Elizabeth 227</t>
+          <t>Emma 76, Emily 349, Emily 91, Hannah 393, Taylor 176, Sarah 86, Brianna 492, Brianna 42, Alyssa 128, Alexis 294</t>
         </is>
       </c>
     </row>
@@ -545,12 +540,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Olivia 1, Alyssa 435, Taylor 254, Isabella 426, Olivia 416, Alexis 381, Olivia 137, Alexis 365, Madison 173, Lauren 90, Emma 216, Emma 28, Alyssa 19, Sarah 74, Madison 324, Ashley 348, Brianna 92, Ashley 286, Ashley 481, Alyssa 432, Emma 217, Grace 321, Brianna 47, Grace 83</t>
+          <t>Madison 173, Olivia 416, Alexis 381, Isabella 426, Madison 324, Olivia 1, Taylor 254, Sarah 74, Alyssa 19, Ashley 348, Olivia 137, Alyssa 435, Alexis 365, Emma 216, Emma 28, Lauren 90, Isabella 347, Jessica 311, Jessica 230, Grace 351, Sarah 501, Lauren 101, Brianna 47, Brianna 418</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Sarah 501, Grace 267, Ashley 246, Jessica 230, Grace 111, Alyssa 440, Grace 431, Madison 455, Jessica 325, Lauren 356</t>
+          <t>Grace 267, Grace 321, Madison 455, Kayla 268, Grace 292, Alyssa 440, Samantha 327, Alyssa 432, Grace 431, Olivia 40</t>
         </is>
       </c>
     </row>
@@ -562,12 +557,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lauren 232, Isabella 160, Emma 208, Abigail 131, Lauren 452, Samantha 211, Alexis 335, Isabella 244, Elizabeth 385, Ashley 193, Kayla 188, Jessica 206, Madison 368, Emma 28</t>
+          <t>Lauren 360, Elizabeth 385, Alexis 335, Abigail 131, Kayla 188, Jessica 206, Emma 208, Lauren 452, Isabella 244, Isabella 160, Lauren 232, Madison 368, Ashley 193, Lauren 49</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Lauren 49, Ashley 50, Alexis 498, Lauren 360, Lauren 93, Emily 405, Emma 257, Emma 290, Kayla 5, Madison 14</t>
+          <t>Ashley 50, Alexis 498, Emma 28, Samantha 211, Olivia 38, Lauren 93, Isabella 3, Jessica 44, Olivia 186, Olivia 502</t>
         </is>
       </c>
     </row>
@@ -579,12 +574,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sarah 2, Olivia 103, Ashley 193, Kayla 15, Sarah 210, Madison 368, Kayla 139, Samantha 302, Alexis 498, Elizabeth 67, Brianna 172, Alyssa 306, Abigail 296, Jessica 175, Sarah 156, Olivia 124, Ashley 441, Alyssa 491, Lauren 310, Olivia 496, Grace 267</t>
+          <t>Kayla 15, Alyssa 306, Elizabeth 67, Sarah 210, Madison 368, Olivia 103, Ashley 193, Kayla 139, Alexis 498, Sarah 2, Samantha 302, Brianna 172, Isabella 347, Olivia 127, Olivia 124, Jessica 521, Grace 267, Isabella 474, Madison 417, Samantha 18, Emma 58</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Emma 300, Emily 34, Isabella 474, Olivia 502, Olivia 127, Emma 58, Jessica 521, Brianna 513, Samantha 18, Brianna 361</t>
+          <t>Ashley 441, Abigail 296, Lauren 310, Olivia 496, Emily 479, Jessica 175, Brianna 361, Sarah 156, Emma 300, Brianna 513</t>
         </is>
       </c>
     </row>
@@ -596,12 +591,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Taylor 288, Elizabeth 422, Isabella 241, Emma 238, Isabella 426, Alyssa 4, Madison 368, Taylor 192, Kayla 139, Sarah 74, Emily 228, Madison 324, Lauren 85, Abigail 514, Ashley 140, Sarah 315</t>
+          <t>Emily 228, Isabella 426, Madison 324, Alyssa 4, Sarah 74, Elizabeth 422, Isabella 241, Emma 238, Taylor 288, Madison 368, Lauren 85, Taylor 192, Kayla 139, Alexis 112, Emily 333, Jessica 44</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Lauren 337, Ashley 481, Alexis 343, Grace 320, Alexis 80, Olivia 451, Brianna 47, Abigail 231, Abigail 341, Sarah 312</t>
+          <t>Olivia 127, Alexis 80, Taylor 215, Olivia 264, Grace 253, Brianna 47, Ashley 84, Lauren 236, Samantha 18, Sarah 315</t>
         </is>
       </c>
     </row>
@@ -613,12 +608,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Isabella 160, Madison 24, Brianna 88, Kayla 252, Alyssa 508, Grace 465, Hannah 202, Samantha 211, Alexis 335, Lauren 8, Ashley 478, Alyssa 308, Jessica 46, Emily 146, Abigail 212, Ashley 198, Grace 463, Elizabeth 328, Isabella 353, Samantha 73, Lauren 372, Taylor 26, Madison 519, Olivia 234, Samantha 20, Alexis 80, Ashley 326, Abigail 231, Samantha 276, Sarah 57, Emma 55, Jessica 147, Taylor 110, Isabella 275, Elizabeth 262, Samantha 447</t>
+          <t>Lauren 8, Grace 465, Jessica 46, Alexis 335, Alyssa 308, Hannah 202, Ashley 198, Isabella 160, Brianna 88, Madison 24, Emily 146, Ashley 478, Abigail 212, Alyssa 508, Samantha 211, Kayla 252, Emma 55, Brianna 388, Grace 411, Jessica 147, Emma 454, Grace 159, Madison 519, Taylor 26, Alexis 80, Grace 463, Samantha 20, Olivia 154, Taylor 110, Lauren 207, Brianna 361, Elizabeth 166, Ashley 326, Lauren 372, Abigail 231, Samantha 73</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Grace 411, Lauren 207, Brianna 492, Olivia 154, Hannah 182, Grace 159, Olivia 134, Emma 454, Elizabeth 166, Brianna 388</t>
+          <t>Sarah 57, Olivia 234, Isabella 275, Elizabeth 262, Samantha 447, Hannah 182, Isabella 353, Olivia 134, Brianna 492, Samantha 276</t>
         </is>
       </c>
     </row>
@@ -630,12 +625,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Isabella 241, Emma 208, Grace 465, Brianna 433, Elizabeth 449, Alexis 365, Grace 285, Ashley 50, Taylor 106, Taylor 115, Jessica 175, Lauren 223, Olivia 237, Grace 48, Abigail 113, Jessica 70, Abigail 105, Lauren 372, Sarah 420, Samantha 224</t>
+          <t>Grace 465, Taylor 106, Isabella 241, Grace 285, Emma 208, Taylor 115, Alexis 365, Ashley 50, Elizabeth 449, Brianna 433, Isabella 3, Abigail 113, Abigail 105, Samantha 224, Alyssa 421, Sarah 420, Madison 184, Elizabeth 164, Olivia 496, Kayla 410</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Alyssa 491, Olivia 496, Alyssa 133, Madison 184, Kayla 469, Lauren 356, Samantha 447, Elizabeth 164, Lauren 136, Alyssa 421</t>
+          <t>Jessica 175, Lauren 136, Lauren 372, Alyssa 491, Jessica 70, Lauren 223, Grace 48, Samantha 447, Elizabeth 43, Alyssa 133</t>
         </is>
       </c>
     </row>
@@ -647,12 +642,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Grace 99, Taylor 509, Samantha 211, Olivia 416, Lauren 8, Emily 146, Isabella 354, Hannah 397, Abigail 408, Samantha 429, Hannah 467, Abigail 514, Emily 403, Brianna 47, Kayla 409, Olivia 169, Samantha 386, Isabella 260, Ashley 414, Kayla 268</t>
+          <t>Olivia 416, Lauren 8, Isabella 354, Samantha 429, Hannah 397, Emily 146, Grace 99, Taylor 509, Samantha 211, Abigail 408, Isabella 260, Ashley 510, Lauren 11, Lauren 101, Hannah 467, Brianna 47, Kayla 268, Emily 403, Olivia 169, Abigail 514</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Isabella 329, Samantha 483, Sarah 114, Hannah 182, Madison 196, Brianna 388, Lauren 101, Ashley 510, Lauren 11, Emma 448</t>
+          <t>Sarah 114, Kayla 466, Samantha 386, Madison 196, Ashley 458, Kayla 409, Hannah 182, Isabella 353, Madison 149, Ashley 414</t>
         </is>
       </c>
     </row>
@@ -664,12 +659,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Elizabeth 422, Lauren 232, Grace 99, Madison 24, Abigail 131, Kayla 252, Lauren 33, Brianna 433, Olivia 274, Alexis 171, Emma 28, Alyssa 39</t>
+          <t>Taylor 106, Taylor 121, Abigail 131, Sarah 74, Elizabeth 422, Alyssa 39, Madison 24, Lauren 232, Hannah 59, Olivia 274, Lauren 33, Alexis 171</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Taylor 121, Hannah 59, Taylor 106, Kayla 139, Sarah 74, Elizabeth 116, Hannah 467, Emma 64, Emily 405, Taylor 523</t>
+          <t>Grace 99, Kayla 139, Emma 28, Brianna 433, Kayla 252, Olivia 38, Grace 159, Jessica 521, Alexis 80, Hannah 467</t>
         </is>
       </c>
     </row>
@@ -681,12 +676,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Madison 126, Alyssa 359, Isabella 342, Elizabeth 174, Madison 368, Kayla 13, Samantha 429, Hannah 218, Elizabeth 67, Hannah 266, Ashley 389, Samantha 73, Taylor 523, Alexis 69, Jessica 293, Olivia 234, Samantha 20, Alyssa 432, Olivia 21, Olivia 451, Ashley 246, Lauren 459, Elizabeth 157, Ashley 392, Jessica 147, Taylor 110, Brianna 419, Brianna 251, Sarah 86, Taylor 130, Jessica 44, Emma 454, Samantha 178, Sarah 512, Grace 253, Olivia 167, Grace 247, Brianna 388, Elizabeth 227, Madison 464, Sarah 424, Olivia 376, Olivia 53, Ashley 458, Taylor 176</t>
+          <t>Kayla 13, Hannah 218, Madison 126, Samantha 429, Isabella 342, Elizabeth 67, Madison 368, Elizabeth 174, Alyssa 359, Brianna 419, Alexis 69, Jessica 44, Hannah 266, Jessica 147, Emma 454, Sarah 512, Grace 247, Lauren 459, Grace 253, Jessica 293, Ashley 392, Elizabeth 157, Samantha 178, Samantha 20, Brianna 251, Taylor 110, Taylor 523, Ashley 389, Taylor 130, Alyssa 432, Samantha 73, Olivia 234, Sarah 86, Ashley 246, Olivia 21, Olivia 167, Olivia 451, Olivia 154, Alexis 294, Madison 464, Olivia 53, Emma 76, Abigail 109, Elizabeth 227, Taylor 176</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Lauren 236, Elizabeth 486, Brianna 221, Olivia 154, Madison 352, Emma 76, Hannah 165, Elizabeth 473, Emma 25, Grace 159</t>
+          <t>Ashley 458, Olivia 38, Elizabeth 473, Lauren 494, Emma 257, Grace 159, Grace 428, Jessica 147, Alexis 524, Olivia 376</t>
         </is>
       </c>
     </row>
@@ -698,12 +693,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Grace 99, Emma 142, Alyssa 132, Alyssa 366, Emma 216, Elizabeth 174, Elizabeth 472, Isabella 63, Samantha 27, Hannah 467, Olivia 237, Grace 463, Ashley 140, Madison 519, Isabella 375, Lauren 430, Ashley 326, Alyssa 491, Grace 122, Olivia 496, Abigail 71, Kayla 272, Jessica 147, Grace 431, Emily 439, Lauren 170, Emma 77, Jessica 189, Emma 58, Alexis 470, Kayla 7, Emma 387, Samantha 178, Brianna 388, Brianna 438, Olivia 53, Samantha 462, Lauren 346, Sarah 424, Alyssa 304, Jessica 425, Alexis 335, Brianna 88, Ashley 84, Sarah 501</t>
+          <t>Emma 142, Isabella 63, Alyssa 366, Alyssa 132, Elizabeth 174, Samantha 27, Grace 99, Emma 216, Elizabeth 472, Brianna 388, Jessica 147, Emily 439, Madison 519, Sarah 424, Emma 77, Isabella 375, Hannah 467, Brianna 438, Grace 463, Lauren 346, Emma 58, Samantha 178, Olivia 496, Alexis 470, Grace 431, Jessica 189, Ashley 326, Ashley 140, Lauren 170, Alyssa 491, Emma 387, Alyssa 304, Kayla 272, Grace 122, Jessica 425, Abigail 71, Samantha 462, Olivia 53, Lauren 430, Olivia 237, Ashley 84, Sarah 501, Grace 263, Madison 464, Ashley 198</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Taylor 226, Elizabeth 262, Jessica 278, Madison 464, Jessica 383, Lauren 459, Emily 97, Alyssa 132, Brianna 197, Taylor 130</t>
+          <t>Abigail 105, Brianna 373, Isabella 342, Emma 58, Brianna 180, Alexis 470, Brianna 88, Taylor 394, Alyssa 132, Grace 411</t>
         </is>
       </c>
     </row>
@@ -715,12 +710,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Elizabeth 422, Isabella 241, Lauren 457, Alyssa 435, Emma 142, Brianna 433, Alexis 335, Alexis 171, Samantha 402, Isabella 183, Emma 28, Taylor 106, Abigail 212, Hannah 218, Samantha 27, Elizabeth 116, Lauren 494, Hannah 129, Grace 282, Hannah 16, Isabella 295, Isabella 375, Jessica 219, Sarah 277</t>
+          <t>Taylor 106, Alexis 335, Elizabeth 422, Isabella 241, Emma 142, Hannah 218, Isabella 183, Lauren 457, Alyssa 435, Abigail 212, Alexis 171, Samantha 27, Samantha 402, Emma 28, Brianna 433, Isabella 295, Alexis 112, Lauren 494, Abigail 113, Taylor 215, Kayla 51, Isabella 375, Grace 253, Ashley 412</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Grace 111, Isabella 275, Taylor 215, Olivia 477, Alexis 112, Grace 253, Emily 336, Kayla 51, Ashley 412, Elizabeth 364</t>
+          <t>Sarah 277, Olivia 376, Elizabeth 116, Hannah 16, Alexis 36, Grace 282, Hannah 129, Isabella 275, Elizabeth 364, Olivia 477</t>
         </is>
       </c>
     </row>
@@ -732,12 +727,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Abigail 131, Jessica 278, Lauren 33, Elizabeth 476, Alyssa 233, Olivia 259, Samantha 271, Emily 146, Hannah 194, Sarah 74, Samantha 487, Brianna 153, Olivia 237, Hannah 266, Abigail 105, Lauren 489, Emma 217, Lauren 249, Grace 83, Grace 511, Grace 256, Samantha 484, Kayla 235, Alexis 468</t>
+          <t>Jessica 278, Abigail 131, Sarah 74, Elizabeth 476, Hannah 194, Alyssa 233, Emily 146, Lauren 33, Brianna 153, Samantha 487, Olivia 259, Samantha 271, Taylor 145, Hannah 266, Kayla 7, Abigail 105, Emily 439, Grace 159, Brianna 197, Hannah 287, Samantha 382, Alyssa 421, Lauren 101, Grace 511</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Emily 439, Hannah 357, Emily 135, Ashley 414, Samantha 382, Kayla 7, Brianna 42, Alyssa 421, Brianna 197, Taylor 130</t>
+          <t>Grace 256, Sarah 277, Alexis 261, Elizabeth 79, Taylor 130, Olivia 40, Grace 83, Emma 72, Hannah 16, Emily 135</t>
         </is>
       </c>
     </row>
@@ -749,12 +744,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kayla 252, Jessica 506, Emma 142, Samantha 211, Alexis 381, Kayla 15, Emily 37, Alexis 316, Lauren 49, Jessica 383, Samantha 302, Ashley 198, Lauren 360, Elizabeth 67, Jessica 191, Abigail 296, Olivia 237, Grace 30, Grace 463, Hannah 266, Ashley 389, Jessica 70, Alexis 45, Lauren 489, Samantha 20</t>
+          <t>Emily 37, Alexis 381, Jessica 191, Lauren 360, Kayla 15, Emma 142, Ashley 198, Elizabeth 67, Alexis 316, Lauren 49, Jessica 506, Samantha 211, Samantha 302, Kayla 252, Jessica 383, Emma 55, Grace 30, Hannah 266, Emily 390, Jessica 521, Brianna 418, Grace 267, Isabella 485, Grace 463, Elizabeth 157</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Lauren 430, Elizabeth 307, Alexis 524, Jessica 163, Emily 505, Samantha 276, Grace 267, Isabella 485, Elizabeth 157, Sarah 442</t>
+          <t>Olivia 270, Abigail 296, Grace 292, Samantha 20, Emily 97, Hannah 332, Ashley 220, Madison 322, Sarah 442, Ashley 389</t>
         </is>
       </c>
     </row>
@@ -766,12 +761,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Isabella 426, Alexis 381, Elizabeth 436, Isabella 342, Emily 37, Isabella 427, Ashley 50, Jessica 191, Ashley 453, Samantha 143, Olivia 237, Grace 30, Emma 290, Sarah 420, Olivia 234, Alexis 524, Brianna 190, Grace 83, Grace 511, Brianna 456, Alyssa 133, Ashley 246</t>
+          <t>Emily 37, Alexis 381, Jessica 191, Isabella 426, Isabella 342, Ashley 453, Elizabeth 436, Isabella 427, Ashley 50, Samantha 143, Abigail 255, Grace 30, Kayla 7, Hannah 287, Emily 507, Sarah 420, Isabella 485, Elizabeth 157, Elizabeth 79, Olivia 270, Samantha 327, Olivia 318</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Isabella 485, Elizabeth 157, Emily 507, Olivia 270, Hannah 357, Abigail 255, Kayla 7, Samantha 327, Brianna 492, Olivia 318</t>
+          <t>Olivia 214, Grace 83, Ashley 195, Hannah 357, Brianna 190, Brianna 456, Olivia 234, Alexis 524, Brianna 148, Alyssa 133</t>
         </is>
       </c>
     </row>
@@ -783,12 +778,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Isabella 241, Emma 208, Olivia 102, Brianna 221, Olivia 103, Elizabeth 516, Alyssa 233, Alyssa 493, Taylor 121, Ashley 50, Ashley 123, Abigail 296, Elizabeth 116, Ashley 389, Jessica 70, Hannah 129, Grace 263, Ashley 286, Grace 321, Elizabeth 307, Olivia 451, Elizabeth 157, Jessica 230, Samantha 386, Madison 184, Emma 448, Lauren 356, Emily 390, Emma 9</t>
+          <t>Taylor 121, Alyssa 493, Isabella 241, Emma 208, Alyssa 233, Brianna 221, Olivia 103, Olivia 102, Ashley 50, Elizabeth 516, Ashley 123, Elizabeth 307, Emily 390, Jessica 230, Grace 351, Samantha 382, Madison 225, Grace 321, Madison 184, Elizabeth 157, Abigail 296, Abigail 517, Emma 448, Ashley 389, Olivia 318, Elizabeth 116, Lauren 207, Kayla 379, Sarah 114</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Lauren 207, Kayla 379, Samantha 382, Olivia 318, Samantha 250, Sarah 114, Grace 351, Madison 225, Abigail 517, Olivia 167</t>
+          <t>Samantha 386, Samantha 250, Jessica 70, Hannah 129, Grace 263, Emma 9, Lauren 356, Ashley 286, Olivia 167, Olivia 451</t>
         </is>
       </c>
     </row>
@@ -800,12 +795,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Grace 199, Taylor 288, Olivia 345, Alexis 370, Isabella 244, Brianna 203, Jessica 206, Elizabeth 436, Kayla 15, Emma 118, Sarah 518, Alexis 316, Alexis 471, Emma 401, Madison 324, Alexis 62, Jessica 437, Elizabeth 328, Emily 403, Hannah 314, Ashley 481, Grace 320, Abigail 177, Brianna 47, Taylor 158, Abigail 125, Abigail 341, Emma 300, Lauren 258, Hannah 281, Elizabeth 262, Emma 77, Brianna 418, Jessica 189, Elizabeth 289, Alexis 470, Madison 415, Samantha 327, Olivia 477, Isabella 329, Brianna 513, Samantha 483, Samantha 250, Emma 454, Brianna 179, Elizabeth 284, Ashley 220, Olivia 214, Olivia 53, Olivia 376</t>
+          <t>Madison 324, Kayla 15, Jessica 206, Taylor 288, Olivia 345, Alexis 471, Jessica 437, Isabella 244, Brianna 203, Elizabeth 436, Alexis 62, Alexis 316, Grace 199, Emma 401, Sarah 518, Emma 118, Alexis 370, Emma 454, Emma 77, Brianna 47, Brianna 418, Elizabeth 284, Emily 403, Abigail 125, Madison 415, Olivia 376, Alexis 470, Ashley 220, Samantha 327, Hannah 281, Olivia 214, Elizabeth 289, Jessica 189, Emma 300, Grace 320, Samantha 250, Ashley 481, Brianna 513, Taylor 158, Abigail 341, Elizabeth 262, Lauren 258, Hannah 314, Olivia 477, Brianna 179, Olivia 53, Abigail 177, Samantha 483, Elizabeth 328, Isabella 329</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Olivia 477, Lauren 11, Sarah 512, Brianna 92, Madison 415, Olivia 103, Emily 439, Brianna 179, Abigail 341, Emma 55</t>
+          <t>Grace 256, Taylor 106, Madison 352, Abigail 413, Lauren 11, Abigail 269, Alexis 294, Sarah 501, Elizabeth 399, Olivia 384</t>
         </is>
       </c>
     </row>
@@ -817,12 +812,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Emily 445, Taylor 254, Alexis 378, Elizabeth 391, Elizabeth 436, Kayla 15, Lauren 367, Isabella 354, Alyssa 39, Abigail 408, Lauren 475, Alexis 104, Samantha 27, Samantha 487, Alyssa 306, Ashley 84, Emma 257, Isabella 353, Sarah 434, Isabella 295, Ashley 441, Elizabeth 307, Brianna 373, Taylor 158, Emily 152</t>
+          <t>Lauren 475, Kayla 15, Taylor 254, Isabella 354, Elizabeth 391, Alyssa 39, Lauren 367, Alyssa 306, Elizabeth 436, Alexis 378, Samantha 27, Emily 445, Samantha 487, Alexis 104, Abigail 408, Isabella 295, Elizabeth 307, Emily 336, Emily 333, Abigail 406, Sarah 434, Grace 411, Brianna 205, Emily 507, Brianna 373</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Samantha 276, Abigail 406, Emily 507, Hannah 281, Ashley 297, Madison 155, Brianna 418, Jessica 189, Grace 411, Brianna 205</t>
+          <t>Brianna 418, Abigail 279, Ashley 84, Taylor 17, Emily 152, Madison 444, Ashley 441, Olivia 376, Hannah 281, Lauren 207</t>
         </is>
       </c>
     </row>
@@ -834,12 +829,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kayla 407, Lauren 248, Olivia 345, Abigail 413, Lauren 457, Jessica 423, Isabella 183, Emma 28, Taylor 6, Abigail 108, Jessica 191, Abigail 296, Emily 91, Alexis 340, Taylor 26, Emma 404, Jessica 374, Taylor 394, Isabella 375, Grace 83, Kayla 409, Sarah 277, Grace 267, Emily 34, Isabella 260, Brianna 492, Lauren 358, Ashley 117</t>
+          <t>Jessica 191, Jessica 423, Abigail 108, Kayla 407, Olivia 345, Lauren 248, Isabella 183, Lauren 457, Abigail 413, Taylor 6, Emma 28, Isabella 260, Jessica 374, Taylor 26, Sarah 424, Isabella 375, Lauren 101, Grace 267, Sarah 277, Alexis 340, Elizabeth 79, Abigail 296, Ashley 117, Lauren 358, Elizabeth 166, Grace 83, Taylor 394, Elizabeth 10</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Elizabeth 166, Elizabeth 79, Sarah 424, Elizabeth 10, Lauren 101, Alexis 36, Hannah 317, Grace 396, Sarah 107, Samantha 462</t>
+          <t>Alexis 36, Kayla 409, Emily 91, Emily 34, Brianna 492, Emma 404, Hannah 317, Madison 519, Alyssa 273, Lauren 11</t>
         </is>
       </c>
     </row>
@@ -851,12 +846,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ashley 193, Alexis 381, Madison 204, Alyssa 359, Emily 37, Taylor 121, Ashley 50, Ashley 453, Taylor 115, Grace 100, Olivia 41, Elizabeth 116, Ashley 84, Hannah 181, Grace 48, Jessica 70, Lauren 372, Taylor 26, Olivia 124, Isabella 375, Alyssa 491, Grace 267, Isabella 485, Olivia 169, Samantha 386, Grace 431, Madison 155, Jessica 311, Samantha 68, Abigail 279, Olivia 127, Brianna 299, Hannah 332, Samantha 150, Samantha 398, Samantha 178, Sarah 424, Alyssa 304, Emily 97, Emily 507, Ashley 392, Olivia 21, Elizabeth 227, Lauren 337, Hannah 16, Taylor 110, Lauren 346, Grace 465, Abigail 406, Isabella 3</t>
+          <t>Emily 37, Alexis 381, Taylor 121, Grace 100, Taylor 115, Ashley 453, Ashley 193, Madison 204, Alyssa 359, Ashley 50, Jessica 311, Olivia 127, Olivia 124, Taylor 26, Sarah 424, Isabella 375, Samantha 68, Grace 267, Abigail 279, Ashley 84, Isabella 485, Olivia 169, Samantha 178, Brianna 299, Emily 97, Hannah 332, Elizabeth 116, Grace 431, Olivia 41, Samantha 386, Lauren 372, Alyssa 491, Jessica 70, Samantha 398, Samantha 150, Grace 48, Alyssa 304, Hannah 181, Madison 155, Abigail 406, Lauren 346, Lauren 52, Olivia 237, Ashley 392, Grace 22, Lauren 170, Hannah 165, Lauren 337, Isabella 3, Hannah 16</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Olivia 237, Lauren 8, Samantha 302, Abigail 131, Emily 333, Hannah 165, Grace 22, Taylor 115, Alyssa 39, Grace 463</t>
+          <t>Grace 463, Taylor 110, Emily 333, Brianna 201, Grace 465, Olivia 259, Olivia 169, Olivia 21, Abigail 212, Samantha 302</t>
         </is>
       </c>
     </row>
@@ -868,12 +863,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Taylor 151, Ashley 240, Lauren 96, Alexis 381, Jessica 461, Alyssa 273, Emma 216, Alyssa 493, Abigail 408, Hannah 194, Samantha 429, Sarah 331, Abigail 108, Elizabeth 67, Brianna 172, Lauren 85, Lauren 60, Taylor 94, Alexis 524, Brianna 47, Alexis 294, Lauren 310, Brianna 180, Lauren 459, Sarah 57, Grace 431, Kayla 469, Emily 507, Samantha 447, Brianna 419</t>
+          <t>Alexis 381, Alyssa 493, Abigail 108, Lauren 96, Ashley 240, Lauren 60, Samantha 429, Alyssa 273, Hannah 194, Elizabeth 67, Sarah 331, Lauren 85, Taylor 151, Emma 216, Jessica 461, Abigail 408, Brianna 172, Brianna 419, Brianna 197, Lauren 459, Emily 507, Grace 253, Brianna 47, Olivia 138, Ashley 412, Brianna 180, Lauren 310, Alexis 470, Lauren 207, Grace 431</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Lauren 207, Kayla 379, Alexis 470, Alyssa 128, Alyssa 245, Brianna 197, Emma 387, Olivia 138, Grace 253, Alyssa 339</t>
+          <t>Kayla 379, Madison 162, Emma 387, Sarah 57, Samantha 447, Alexis 524, Taylor 94, Alyssa 339, Kayla 469, Alyssa 128</t>
         </is>
       </c>
     </row>
@@ -885,12 +880,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Grace 99, Olivia 102, Emma 238, Hannah 202, Lauren 33, Brianna 201, Samantha 211, Elizabeth 385, Abigail 338, Samantha 402, Olivia 259, Emily 37, Alyssa 273, Madison 54, Emma 25, Ashley 123, Hannah 194, Emily 334, Alexis 471, Emma 401, Ashley 453, Brianna 153, Emma 64, Emma 290, Elizabeth 328, Kayla 466, Alexis 355, Taylor 94, Alexis 80, Jessica 219, Kayla 75, Brianna 190, Brianna 456, Abigail 231, Samantha 484</t>
+          <t>Emily 37, Elizabeth 385, Abigail 338, Emma 238, Alexis 471, Hannah 202, Alyssa 273, Hannah 194, Emily 334, Ashley 453, Madison 54, Lauren 33, Emma 401, Brianna 153, Olivia 102, Olivia 259, Grace 99, Brianna 201, Samantha 402, Ashley 123, Samantha 211, Emma 25, Brianna 388, Emily 439, Alexis 80, Alexis 355, Olivia 138, Madison 417, Grace 213, Emily 479, Sarah 442, Kayla 466, Brianna 190, Abigail 231, Brianna 456</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Sarah 442, Emily 439, Ashley 81, Grace 213, Olivia 138, Brianna 388, Emily 479, Madison 417, Jessica 446, Ashley 348</t>
+          <t>Emma 64, Taylor 94, Kayla 75, Samantha 484, Jessica 219, Emma 290, Jessica 446, Elizabeth 328, Ashley 81, Jessica 425</t>
         </is>
       </c>
     </row>
@@ -902,12 +897,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kayla 407, Lauren 248, Alexis 35, Alyssa 132, Elizabeth 476, Lauren 49, Taylor 192, Hannah 397, Abigail 108, Alexis 104, Lauren 360, Abigail 296, Hannah 266, Kayla 5, Grace 320, Brianna 373, Alexis 294, Madison 149, Abigail 341, Abigail 503, Grace 22, Emma 9, Taylor 215, Sarah 86, Taylor 130, Samantha 483, Emma 72, Lauren 236, Ashley 220, Hannah 287, Elizabeth 43, Sarah 424, Alyssa 304, Lauren 29, Isabella 95</t>
+          <t>Lauren 360, Abigail 108, Elizabeth 476, Kayla 407, Lauren 248, Alexis 35, Hannah 397, Alyssa 132, Taylor 192, Lauren 49, Alexis 104, Hannah 266, Sarah 424, Taylor 215, Hannah 287, Brianna 373, Lauren 236, Isabella 95, Abigail 296, Kayla 5, Ashley 220, Taylor 130, Abigail 503, Emma 72, Grace 320, Abigail 341, Grace 22, Alyssa 304, Elizabeth 43, Emma 9, Madison 149, Samantha 484, Sarah 86, Alexis 294, Lauren 29</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Brianna 203, Lauren 309, Isabella 187, Hannah 323, Abigail 341, Hannah 16, Emma 55, Abigail 125, Jessica 278, Elizabeth 449</t>
+          <t>Samantha 483, Grace 256, Abigail 406, Kayla 272, Samantha 271, Emma 238, Ashley 481, Lauren 457, Lauren 309, Elizabeth 449</t>
         </is>
       </c>
     </row>
@@ -919,12 +914,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Grace 199, Taylor 151, Alexis 370, Jessica 278, Emma 142, Elizabeth 385, Olivia 103, Elizabeth 449, Alyssa 233, Madison 204, Alyssa 359, Jessica 206, Elizabeth 436, Alyssa 4, Alyssa 273, Sarah 210, Isabella 183, Taylor 121, Abigail 408, Samantha 27</t>
+          <t>Jessica 191, Taylor 121, Jessica 278, Elizabeth 385, Alyssa 4, Emma 142, Jessica 206, Alyssa 273, Isabella 183, Alyssa 233, Elizabeth 67, Sarah 210, Elizabeth 436, Olivia 103, Grace 199, Madison 204, Taylor 151, Brianna 153, Alyssa 359, Samantha 27</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Elizabeth 67, Jessica 191, Brianna 153, Ashley 140, Lauren 494, Ashley 458, Kayla 466, Olivia 124, Olivia 21, Elizabeth 307</t>
+          <t>Alexis 370, Elizabeth 449, Abigail 408, Elizabeth 307, Lauren 494, Emily 336, Grace 120, Olivia 124, Olivia 502, Sarah 482</t>
         </is>
       </c>
     </row>
@@ -936,12 +931,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Taylor 509, Emma 98, Ashley 240, Alexis 335, Brianna 221, Jessica 206, Ashley 78, Sarah 210, Hannah 397, Isabella 63, Ashley 198, Lauren 360, Hannah 323, Emily 229, Brianna 92, Hannah 129, Olivia 239, Jessica 265, Jessica 163, Emily 349, Brianna 200, Jessica 230, Kayla 379, Kayla 268, Samantha 327, Olivia 264, Sarah 482, Ashley 168, Olivia 214, Abigail 517, Abigail 450</t>
+          <t>Hannah 323, Lauren 360, Ashley 78, Alexis 335, Isabella 63, Jessica 206, Ashley 240, Emily 229, Ashley 198, Emma 98, Hannah 397, Sarah 210, Brianna 221, Taylor 509, Ashley 168, Jessica 230, Olivia 264, Sarah 482, Samantha 480, Kayla 268, Brianna 200, Abigail 517, Samantha 327, Jessica 163, Olivia 214, Olivia 40, Kayla 379, Olivia 239, Emily 349, Jessica 265, Hannah 129</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Olivia 40, Samantha 480, Isabella 63, Emily 445, Samantha 483, Isabella 260, Brianna 92, Alexis 381, Lauren 337, Grace 282</t>
+          <t>Abigail 450, Brianna 92, Emily 445, Isabella 63, Samantha 271, Grace 321, Abigail 517, Olivia 318, Abigail 82, Isabella 241</t>
         </is>
       </c>
     </row>
@@ -953,12 +948,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lauren 33, Alexis 378, Sarah 2, Samantha 402, Madison 204, Jessica 423, Abigail 490, Hannah 194, Lauren 475, Sarah 331, Brianna 153, Elizabeth 141, Emma 404, Hannah 314, Lauren 337, Alexis 355, Alexis 80, Alyssa 133, Ashley 246, Lauren 459, Emma 55, Alyssa 440, Grace 120, Elizabeth 262, Ashley 414, Alexis 261, Isabella 187, Abigail 344, Samantha 480, Sarah 107, Madison 415</t>
+          <t>Lauren 475, Jessica 423, Hannah 194, Sarah 331, Lauren 33, Madison 204, Alexis 378, Brianna 153, Abigail 490, Sarah 2, Samantha 402, Emma 55, Lauren 337, Grace 120, Alexis 80, Lauren 459, Alexis 355, Alexis 261, Ashley 441, Isabella 187, Alyssa 440, Abigail 344, Elizabeth 262, Hannah 314, Alyssa 133, Brianna 92, Ashley 414, Elizabeth 141, Emma 404, Ashley 246, Madison 352</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lauren 232, Emily 144, Olivia 504, Abigail 82, Olivia 137, Hannah 194, Hannah 467, Elizabeth 43, Kayla 407, Alyssa 421</t>
+          <t>Brianna 513, Alyssa 421, Madison 184, Brianna 492, Abigail 82, Hannah 194, Lauren 170, Olivia 504, Sarah 107, Kayla 407</t>
         </is>
       </c>
     </row>
@@ -970,10 +965,9 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sarah 315, Hannah 314, Emily 405, Isabella 485</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Sarah 315, Olivia 318, Isabella 485</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -981,8 +975,6 @@
           <t>Programmeerimine keeles Java 2</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -992,12 +984,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Elizabeth 422, Grace 396, Lauren 457, Lauren 96, Isabella 244, Olivia 416, Brianna 203, Alexis 365, Lauren 52, Taylor 106, Sarah 74, Jessica 23, Brianna 172, Olivia 504, Emily 405, Lauren 494, Kayla 5, Grace 282, Jessica 32, Emily 505, Sarah 277, Samantha 484, Abigail 109, Kayla 469, Abigail 255, Samantha 327, Elizabeth 473, Samantha 398, Olivia 134, Madison 301</t>
+          <t>Olivia 416, Taylor 106, Sarah 74, Elizabeth 422, Lauren 96, Isabella 244, Brianna 203, Jessica 23, Lauren 457, Grace 396, Alexis 365, Olivia 504, Lauren 52, Brianna 172, Abigail 255, Lauren 494, Ashley 510, Madison 301, Sarah 512, Lauren 236, Sarah 277, Kayla 5, Samantha 327, Emily 505, Brianna 361, Olivia 214, Olivia 384, Jessica 32, Elizabeth 473, Grace 282</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Lauren 236, Sarah 512, Olivia 214, Brianna 361, Olivia 384, Ashley 510, Samantha 462, Grace 280, Sarah 114, Alexis 62</t>
+          <t>Samantha 398, Samantha 484, Olivia 134, Kayla 469, Emily 405, Abigail 109, Abigail 413, Olivia 502, Emily 349, Lauren 346</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1001,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Taylor 151, Brianna 88, Olivia 102, Emma 238, Lauren 457, Emma 142, Elizabeth 391, Olivia 103, Alexis 171, Alyssa 366, Alexis 365, Madison 368, Isabella 427, Alyssa 39, Lauren 49, Alyssa 19, Hannah 59, Isabella 63, Abigail 108, Abigail 291, Sarah 420, Alexis 80, Lauren 430, Elizabeth 307, Olivia 186, Kayla 75, Alexis 294, Brianna 180, Ashley 246, Olivia 270, Kayla 369, Isabella 474, Olivia 502, Emma 185, Emily 390, Madison 322, Taylor 215, Emma 350, Grace 428, Elizabeth 473, Sarah 512, Madison 225, Alexis 443, Ashley 195, Emma 305, Kayla 51, Jessica 425, Ashley 510, Brianna 388, Sarah 312</t>
+          <t>Abigail 108, Alyssa 19, Emma 142, Isabella 63, Elizabeth 391, Emma 238, Alyssa 39, Brianna 88, Madison 368, Olivia 103, Hannah 59, Lauren 457, Alyssa 366, Alexis 365, Taylor 151, Lauren 49, Alexis 171, Olivia 102, Isabella 427, Elizabeth 307, Emma 185, Ashley 510, Emily 390, Olivia 186, Sarah 512, Alexis 80, Olivia 502, Taylor 215, Kayla 51, Madison 225, Sarah 420, Isabella 474, Brianna 180, Olivia 270, Alexis 443, Madison 322, Emma 305, Ashley 195, Elizabeth 473, Abigail 291, Emma 350, Kayla 75, Grace 428, Jessica 425, Kayla 369, Alexis 294, Lauren 430, Ashley 246, Samantha 484, Samantha 298</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Alyssa 366, Abigail 279, Hannah 181, Lauren 90, Emma 9, Alyssa 491, Samantha 484, Alexis 381, Alexis 355, Grace 30</t>
+          <t>Emma 404, Grace 511, Isabella 474, Grace 30, Brianna 42, Alyssa 493, Sarah 518, Hannah 194, Hannah 281, Elizabeth 116</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1018,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Isabella 160, Madison 126, Grace 396, Alyssa 508, Lauren 452, Alyssa 435, Lauren 12, Elizabeth 385, Abigail 338, Emily 87, Madison 173, Alyssa 308, Isabella 183, Elizabeth 472, Samantha 429, Hannah 218, Elizabeth 67, Samantha 143, Jessica 175, Hannah 467, Emily 405, Ashley 458, Isabella 353, Sarah 315, Alexis 340, Grace 282, Ashley 286, Taylor 394, Jessica 293, Alexis 343, Alyssa 432, Jessica 163, Kayla 409, Lauren 459, Jessica 230, Kayla 272, Emma 9, Abigail 255, Madison 301, Emma 387, Elizabeth 166, Alyssa 339, Olivia 167, Ashley 283, Sarah 107, Abigail 82, Samantha 480, Madison 243, Lauren 11, Samantha 382</t>
+          <t>Madison 173, Elizabeth 385, Emily 87, Abigail 338, Hannah 218, Madison 126, Alyssa 308, Lauren 452, Samantha 429, Isabella 183, Isabella 160, Elizabeth 67, Alyssa 435, Grace 396, Alyssa 508, Lauren 12, Samantha 143, Elizabeth 472, Abigail 255, Madison 301, Jessica 230, Lauren 11, Lauren 459, Samantha 480, Hannah 467, Jessica 293, Alexis 340, Sarah 315, Jessica 163, Jessica 175, Alyssa 432, Sarah 107, Ashley 283, Alexis 343, Elizabeth 166, Taylor 394, Madison 243, Ashley 458, Grace 282, Emma 387, Kayla 409, Emma 9, Alyssa 339, Isabella 353, Kayla 272, Abigail 82, Emily 405, Ashley 286, Olivia 167, Alyssa 273</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Jessica 265, Grace 263, Emma 387, Alexis 335, Sarah 482, Olivia 1, Taylor 394, Isabella 161, Abigail 209, Abigail 82</t>
+          <t>Sarah 86, Jessica 325, Grace 263, Madison 464, Ashley 198, Olivia 318, Lauren 309, Abigail 82, Elizabeth 472, Jessica 374</t>
         </is>
       </c>
     </row>
@@ -1043,12 +1035,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Taylor 288, Abigail 131, Alexis 370, Madison 173, Alyssa 273, Alexis 316, Emily 334, Emma 401, Emily 229, Grace 463, Brianna 92, Lauren 372, Taylor 26, Alexis 69, Brianna 180, Isabella 161</t>
+          <t>Madison 173, Abigail 131, Taylor 288, Emily 229, Alyssa 273, Emily 334, Alexis 316, Emma 401, Alexis 370, Emma 55, Hannah 119, Emma 454, Sarah 512, Taylor 26, Grace 247, Brianna 205</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Emma 55, Emma 448, Alyssa 380, Ashley 297, Jessica 189, Hannah 119, Brianna 205, Madison 464, Brianna 42, Grace 89</t>
+          <t>Alyssa 380, Isabella 161, Grace 463, Lauren 236, Brianna 180, Samantha 178, Olivia 154, Emma 448, Elizabeth 166, Jessica 189</t>
         </is>
       </c>
     </row>
@@ -1060,12 +1052,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Isabella 160, Sarah 377, Emily 445, Emma 238, Lauren 452, Taylor 254, Samantha 211, Elizabeth 385, Olivia 137, Elizabeth 476, Emily 87, Elizabeth 436, Lauren 90, Emily 146, Emily 228, Lauren 60, Emily 144, Emma 217, Emily 152, Grace 515, Sarah 312, Jessica 311, Brianna 419, Brianna 205, Taylor 215</t>
+          <t>Emily 228, Elizabeth 385, Taylor 254, Emily 87, Elizabeth 476, Olivia 137, Emma 238, Lauren 452, Lauren 60, Isabella 160, Elizabeth 436, Emily 146, Emily 445, Sarah 377, Samantha 211, Emily 144, Lauren 90, Jessica 311, Jessica 521, Taylor 215, Grace 515, Brianna 205, Grace 280, Emily 152, Elizabeth 79</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Jessica 521, Hannah 165, Samantha 298, Elizabeth 79, Grace 280, Emma 305, Brianna 172, Madison 54, Ashley 412, Hannah 129</t>
+          <t>Sarah 312, Hannah 165, Emma 305, Samantha 298, Emma 217, Abigail 131, Abigail 269, Alexis 365, Grace 247, Jessica 506</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1069,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Madison 126, Alexis 35, Ashley 193, Alyssa 308, Lauren 49, Emily 334, Samantha 429, Brianna 61, Alexis 471, Abigail 514, Emma 290, Sarah 156, Hannah 16, Alexis 69, Taylor 394, Olivia 234, Alyssa 432, Olivia 21, Jessica 219, Abigail 177, Taylor 158, Isabella 485, Ashley 392, Alexis 468, Taylor 110, Isabella 275, Madison 155</t>
+          <t>Madison 126, Alyssa 308, Alexis 471, Samantha 429, Alexis 35, Emily 334, Ashley 193, Lauren 49, Brianna 61, Alexis 69, Isabella 347, Ashley 392, Isabella 485, Taylor 110, Taylor 130, Alyssa 432, Ashley 283, Taylor 394, Madison 243, Abigail 514, Sarah 156, Hannah 16, Taylor 158, Olivia 234, Isabella 275, Elizabeth 364, Madison 155</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Alyssa 245, Taylor 130, Samantha 483, Ashley 283, Isabella 347, Elizabeth 364, Madison 243, Isabella 187, Emily 65, Olivia 186</t>
+          <t>Jessica 219, Alyssa 245, Alexis 468, Abigail 177, Emma 290, Olivia 21, Samantha 483, Emma 118, Brianna 419, Alexis 294</t>
         </is>
       </c>
     </row>
@@ -1094,12 +1086,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Lauren 248, Sarah 400, Lauren 452, Emily 330, Brianna 201, Alyssa 233, Kayla 188, Ashley 460, Ashley 78, Abigail 490, Emma 499, Jessica 66, Taylor 6, Brianna 61, Grace 100, Olivia 41, Lauren 93, Abigail 113</t>
+          <t>Ashley 78, Emily 330, Emma 499, Kayla 188, Grace 100, Lauren 452, Lauren 248, Alyssa 233, Ashley 460, Taylor 6, Sarah 400, Brianna 201, Abigail 490, Brianna 61, Jessica 66, Alexis 69, Brianna 388, Lauren 93</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Hannah 129, Alexis 69, Sarah 277, Alyssa 133, Abigail 71, Elizabeth 157, Samantha 386, Abigail 503, Taylor 110, Isabella 474</t>
+          <t>Abigail 113, Sarah 424, Kayla 51, Brianna 205, Elizabeth 157, Isabella 474, Sarah 277, Isabella 95, Taylor 110, Alexis 443</t>
         </is>
       </c>
     </row>
@@ -1111,10 +1103,9 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Lauren 248, Sarah 400, Lauren 452, Emily 330, Brianna 201, Alyssa 233, Kayla 188, Ashley 460, Ashley 78, Abigail 490, Emma 499, Jessica 66, Taylor 6, Brianna 61, Grace 100, Olivia 41, Lauren 93, Abigail 113</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>Ashley 78, Emily 330, Emma 499, Kayla 188, Grace 100, Lauren 452, Lauren 248, Alyssa 233, Ashley 460, Taylor 6, Sarah 400, Brianna 201, Abigail 490, Brianna 61, Jessica 66, Alexis 69, Brianna 388, Lauren 93</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1124,10 +1115,9 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lauren 248, Sarah 400, Lauren 452, Emily 330, Brianna 201, Alyssa 233, Kayla 188, Ashley 460, Ashley 78, Abigail 490, Emma 499, Jessica 66, Taylor 6, Brianna 61, Grace 100, Olivia 41, Lauren 93, Abigail 113</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Ashley 78, Emily 330, Emma 499, Kayla 188, Grace 100, Lauren 452, Lauren 248, Alyssa 233, Ashley 460, Taylor 6, Sarah 400, Brianna 201, Abigail 490, Brianna 61, Jessica 66, Alexis 69, Brianna 388, Lauren 93</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1137,12 +1127,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sarah 400, Emily 330, Olivia 416, Alexis 171, Elizabeth 516, Kayla 188, Alyssa 308, Lauren 90, Alexis 316, Elizabeth 472, Alyssa 19, Sarah 331, Alexis 62, Grace 100, Samantha 143, Olivia 41, Sarah 156, Abigail 291, Grace 282, Emily 403, Madison 519, Kayla 495, Madison 149, Olivia 38, Isabella 161, Olivia 169, Samantha 386, Kayla 272, Grace 431, Kayla 235, Kayla 369, Hannah 357, Lauren 170, Emma 77</t>
+          <t>Olivia 416, Emily 330, Alyssa 19, Kayla 188, Grace 100, Alyssa 308, Alexis 62, Alexis 316, Sarah 331, Alexis 171, Sarah 400, Elizabeth 516, Samantha 143, Elizabeth 472, Lauren 90, Abigail 255, Olivia 38, Emily 390, Madison 519, Emma 77, Kayla 495, Isabella 161, Emily 403, Madison 415, Olivia 169, Hannah 332, Sarah 107, Grace 431, Olivia 41, Sarah 156, Sarah 114, Samantha 386, Abigail 291, Hannah 357</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Emily 390, Madison 415, Abigail 255, Emma 350, Alyssa 245, Hannah 332, Sarah 114, Emma 387, Sarah 107, Abigail 82</t>
+          <t>Lauren 170, Grace 282, Emma 387, Emma 350, Kayla 272, Madison 149, Abigail 82, Alyssa 245, Kayla 369, Kayla 235</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1144,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Isabella 395, Lauren 363, Jessica 506, Emma 142, Alexis 381, Brianna 203, Elizabeth 476, Samantha 271, Elizabeth 486, Hannah 59, Samantha 302, Brianna 61, Jessica 23, Olivia 504, Ashley 348, Elizabeth 141, Emma 217, Alexis 524, Lauren 249, Abigail 125, Grace 511, Sarah 57, Olivia 502</t>
+          <t>Alexis 381, Emma 142, Ashley 348, Elizabeth 476, Brianna 203, Jessica 23, Hannah 59, Isabella 395, Lauren 363, Olivia 504, Elizabeth 486, Brianna 61, Samantha 271, Jessica 506, Samantha 302, Isabella 347, Elizabeth 313, Jessica 521, Olivia 502, Grace 511, Ashley 412, Lauren 346, Abigail 125</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Elizabeth 313, Emma 9, Elizabeth 289, Madison 322, Jessica 521, Olivia 53, Lauren 346, Emma 305, Ashley 412, Isabella 347</t>
+          <t>Madison 322, Emma 305, Elizabeth 289, Lauren 249, Sarah 57, Alexis 524, Emma 217, Emma 9, Elizabeth 141, Olivia 53</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1161,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Elizabeth 422, Lauren 232, Madison 24, Sarah 31, Lauren 452, Lauren 12, Sarah 2, Alyssa 366, Emma 118, Taylor 226, Taylor 192, Sarah 74, Alexis 498, Madison 319, Lauren 85, Ashley 140, Hannah 16, Olivia 124, Lauren 337, Alexis 343</t>
+          <t>Taylor 226, Sarah 74, Elizabeth 422, Lauren 452, Madison 24, Lauren 232, Alyssa 366, Lauren 85, Taylor 192, Emma 118, Madison 319, Lauren 12, Alexis 498, Sarah 31, Sarah 2, Lauren 337, Jessica 311, Ashley 510, Olivia 124, Emily 65</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Hannah 393, Ashley 326, Lauren 310, Jessica 32, Abigail 341, Sarah 312, Jessica 325, Grace 22, Alyssa 380, Elizabeth 262</t>
+          <t>Hannah 287, Alyssa 380, Brianna 299, Olivia 154, Lauren 310, Emily 97, Sarah 312, Ashley 283, Brianna 361, Alexis 343</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1178,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Grace 199, Isabella 160, Brianna 88, Alyssa 435, Taylor 222, Olivia 103, Emma 499, Kayla 139, Brianna 172, Jessica 437, Hannah 467, Lauren 93, Grace 463, Sarah 315, Alexis 45, Ashley 481, Alexis 294, Brianna 180, Grace 256, Grace 515</t>
+          <t>Emma 499, Taylor 222, Jessica 437, Isabella 160, Brianna 88, Olivia 103, Alyssa 435, Grace 199, Kayla 139, Brianna 172, Hannah 119, Lauren 93, Alexis 112, Lauren 11, Grace 515, Samantha 382, Hannah 467, Madison 455, Grace 463, Grace 256</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Abigail 503, Emma 300, Madison 455, Lauren 258, Isabella 474, Hannah 119, Emma 58, Samantha 382, Alexis 112, Alexis 261</t>
+          <t>Isabella 474, Alexis 261, Brianna 180, Emma 58, Sarah 315, Ashley 220, Abigail 503, Emma 300, Ashley 481, Alexis 45</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1195,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Emma 98, Emma 142, Elizabeth 385, Lauren 8, Sarah 518, Alyssa 308, Jessica 46, Isabella 183, Alyssa 19, Kayla 13, Abigail 212, Emma 401, Samantha 27, Grace 30, Taylor 26, Olivia 124</t>
+          <t>Lauren 8, Kayla 13, Elizabeth 385, Jessica 46, Alyssa 19, Emma 142, Alyssa 308, Isabella 183, Emma 98, Emma 401, Sarah 518, Abigail 212, Samantha 27, Grace 30, Isabella 3, Kayla 7</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Ashley 441, Taylor 394, Samantha 20, Olivia 186, Olivia 169, Emily 390, Madison 415, Kayla 7, Olivia 154, Samantha 250</t>
+          <t>Madison 301, Emily 390, Olivia 124, Olivia 186, Taylor 26, Madison 415, Ashley 441, Olivia 169, Samantha 20, Olivia 154</t>
         </is>
       </c>
     </row>
@@ -1220,8 +1210,6 @@
           <t>Kristliku kultuuriruumi alustekstid</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1231,12 +1219,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Taylor 509, Grace 396, Jessica 278, Abigail 269, Abigail 338, Isabella 342, Emily 37, Madison 173, Emma 25, Taylor 192, Alexis 498, Lauren 360, Brianna 92, Madison 14, Sarah 420, Ashley 286</t>
+          <t>Madison 173, Emily 37, Jessica 278, Lauren 360, Abigail 338, Isabella 342, Grace 396, Taylor 192, Taylor 509, Alexis 498, Abigail 269, Emma 25, Ashley 168, Emma 77, Samantha 480, Kayla 495</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Hannah 393, Brianna 456, Olivia 496, Kayla 495, Grace 267, Sarah 442, Ashley 81, Alyssa 380, Emma 77, Abigail 279</t>
+          <t>Sarah 420, Grace 267, Alyssa 380, Abigail 279, Taylor 17, Madison 444, Brianna 299, Brianna 251, Olivia 496, Abigail 517</t>
         </is>
       </c>
     </row>
@@ -1246,8 +1234,6 @@
           <t>Loodusvaatlused ja harrastusteadus</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1257,12 +1243,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Olivia 345, Brianna 88, Emma 238, Lauren 457, Brianna 221, Alyssa 359, Lauren 90, Lauren 49, Lauren 52, Samantha 302, Emily 228, Madison 324, Alexis 45, Alyssa 432, Alexis 355, Emma 217, Grace 321, Jessica 219, Grace 515, Jessica 230, Emma 55, Kayla 235, Alexis 468, Brianna 362, Hannah 357, Olivia 127, Grace 428, Brianna 42, Taylor 145, Grace 213, Emma 72, Madison 225, Olivia 214, Grace 280, Lauren 346, Alexis 371</t>
+          <t>Emily 228, Madison 324, Emma 238, Olivia 345, Brianna 88, Brianna 221, Lauren 457, Lauren 49, Alyssa 359, Lauren 52, Samantha 302, Lauren 90, Emma 55, Taylor 145, Olivia 127, Jessica 230, Grace 515, Alexis 355, Madison 225, Grace 321, Lauren 346, Grace 280, Grace 213, Alyssa 432, Olivia 214, Emma 72, Hannah 357, Alexis 45, Emma 217, Grace 428, Jessica 219, Brianna 42, Alexis 468, Brianna 362, Kayla 235, Alexis 371</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Brianna 172, Sarah 312, Emma 448, Samantha 483, Ashley 392, Abigail 177, Lauren 475, Samantha 382, Samantha 480, Brianna 492</t>
+          <t>Madison 319, Abigail 131, Sarah 86, Brianna 492, Emma 77, Elizabeth 449, Alexis 316, Grace 267, Ashley 392, Lauren 363</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1260,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Isabella 241, Madison 126, Alexis 35, Sarah 2, Olivia 416, Olivia 103, Madison 54, Madison 368, Jessica 383, Hannah 397, Emily 334, Hannah 218, Samantha 143, Abigail 296, Olivia 237, Abigail 514, Emma 257, Jessica 70, Sarah 156, Jessica 520, Emily 403, Ashley 481, Isabella 375, Grace 320, Lauren 249, Grace 83, Sarah 501, Isabella 485, Kayla 272, Emma 76, Grace 22, Emma 185</t>
+          <t>Olivia 416, Isabella 241, Hannah 218, Madison 126, Alexis 35, Emily 334, Hannah 397, Madison 54, Madison 368, Olivia 103, Samantha 143, Sarah 2, Jessica 383, Hannah 119, Jessica 520, Emily 333, Emma 185, Grace 411, Emily 65, Isabella 375, Sarah 501, Lauren 101, Isabella 485, Kayla 268, Elizabeth 164, Emily 403, Abigail 296, Olivia 40, Grace 83, Elizabeth 289, Abigail 514, Sarah 156</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Lauren 356, Emily 65, Hannah 119, Elizabeth 289, Grace 411, Emily 333, Kayla 268, Elizabeth 164, Brianna 492, Samantha 298</t>
+          <t>Grace 320, Ashley 481, Lauren 249, Jessica 70, Samantha 298, Emma 76, Grace 22, Kayla 272, Brianna 492, Lauren 356</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1277,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Grace 199, Sarah 377, Isabella 395, Olivia 102, Olivia 1, Grace 465, Hannah 202, Alexis 378, Brianna 203, Alyssa 366, Grace 285, Lauren 309, Elizabeth 141, Emma 404, Sarah 434, Grace 263, Elizabeth 307, Kayla 75, Jessica 303, Emma 300</t>
+          <t>Grace 465, Olivia 1, Lauren 309, Grace 285, Hannah 202, Brianna 203, Alyssa 366, Isabella 395, Grace 199, Alexis 378, Olivia 102, Sarah 377, Grace 89, Elizabeth 307, Emily 336, Jessica 311, Sarah 434, Grace 120, Jessica 147, Elizabeth 313</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Jessica 147, Lauren 258, Grace 120, Isabella 275, Kayla 369, Elizabeth 313, Lauren 170, Jessica 311, Elizabeth 399, Grace 89</t>
+          <t>Hannah 287, Sarah 482, Isabella 187, Kayla 410, Elizabeth 399, Emily 479, Ashley 117, Olivia 384, Emma 300, Lauren 170</t>
         </is>
       </c>
     </row>
@@ -1308,10 +1294,9 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Grace 199, Sarah 377, Isabella 395, Olivia 102, Olivia 1, Grace 465, Hannah 202, Alexis 378, Brianna 203, Alyssa 366, Grace 285, Lauren 309, Elizabeth 141, Emma 404, Sarah 434, Grace 263, Elizabeth 307, Kayla 75, Jessica 303, Emma 300</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>Grace 465, Olivia 1, Lauren 309, Grace 285, Hannah 202, Brianna 203, Alyssa 366, Isabella 395, Grace 199, Alexis 378, Olivia 102, Sarah 377, Grace 89, Elizabeth 307, Emily 336, Jessica 311, Sarah 434, Grace 120, Jessica 147, Elizabeth 313</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1321,10 +1306,9 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Grace 199, Sarah 377, Isabella 395, Olivia 102, Olivia 1, Grace 465, Hannah 202, Alexis 378, Brianna 203, Alyssa 366, Grace 285, Lauren 309, Elizabeth 141, Emma 404, Sarah 434, Grace 263, Elizabeth 307, Kayla 75, Jessica 303, Emma 300</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Grace 465, Olivia 1, Lauren 309, Grace 285, Hannah 202, Brianna 203, Alyssa 366, Isabella 395, Grace 199, Alexis 378, Olivia 102, Sarah 377, Grace 89, Elizabeth 307, Emily 336, Jessica 311, Sarah 434, Grace 120, Jessica 147, Elizabeth 313</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1334,12 +1318,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Emma 208, Sarah 31, Taylor 254, Alyssa 132, Ashley 478, Emily 87, Samantha 271, Elizabeth 174, Hannah 522, Isabella 63, Alexis 471, Hannah 323, Madison 319, Alexis 62, Olivia 504, Jessica 437, Lauren 223, Ashley 84, Grace 48, Kayla 466, Isabella 353, Abigail 105, Lauren 337, Olivia 21, Lauren 430</t>
+          <t>Hannah 323, Taylor 254, Emily 87, Isabella 63, Emma 208, Alexis 471, Jessica 437, Alexis 62, Alyssa 132, Ashley 478, Elizabeth 174, Hannah 522, Madison 319, Olivia 504, Sarah 31, Samantha 271, Lauren 337, Abigail 105, Olivia 502, Samantha 68, Samantha 224, Samantha 382, Grace 511, Ashley 84, Lauren 236</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Jessica 265, Samantha 224, Abigail 177, Alyssa 491, Grace 511, Abigail 231, Emily 505, Olivia 502, Madison 155, Samantha 68</t>
+          <t>Samantha 18, Emily 505, Kayla 466, Alyssa 491, Abigail 231, Lauren 223, Jessica 265, Grace 48, Isabella 353, Madison 155</t>
         </is>
       </c>
     </row>
@@ -1351,10 +1335,9 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Emma 208, Sarah 31, Taylor 254, Alyssa 132, Ashley 478, Emily 87, Samantha 271, Elizabeth 174, Hannah 522, Isabella 63, Alexis 471, Hannah 323, Madison 319, Alexis 62, Olivia 504, Jessica 437, Lauren 223, Ashley 84, Grace 48, Kayla 466, Isabella 353, Abigail 105, Lauren 337, Olivia 21, Lauren 430</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>Hannah 323, Taylor 254, Emily 87, Isabella 63, Emma 208, Alexis 471, Jessica 437, Alexis 62, Alyssa 132, Ashley 478, Elizabeth 174, Hannah 522, Madison 319, Olivia 504, Sarah 31, Samantha 271, Lauren 337, Abigail 105, Olivia 502, Samantha 68, Samantha 224, Samantha 382, Grace 511, Ashley 84, Lauren 236</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1364,10 +1347,9 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Emma 208, Sarah 31, Taylor 254, Alyssa 132, Ashley 478, Emily 87, Samantha 271, Elizabeth 174, Hannah 522, Isabella 63, Alexis 471, Hannah 323, Madison 319, Alexis 62, Olivia 504, Jessica 437, Lauren 223, Ashley 84, Grace 48, Kayla 466, Isabella 353, Abigail 105, Lauren 337, Olivia 21, Lauren 430</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Hannah 323, Taylor 254, Emily 87, Isabella 63, Emma 208, Alexis 471, Jessica 437, Alexis 62, Alyssa 132, Ashley 478, Elizabeth 174, Hannah 522, Madison 319, Olivia 504, Sarah 31, Samantha 271, Lauren 337, Abigail 105, Olivia 502, Samantha 68, Samantha 224, Samantha 382, Grace 511, Ashley 84, Lauren 236</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1377,12 +1359,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Abigail 413, Alyssa 508, Alexis 370, Jessica 506, Alexis 335, Elizabeth 391, Ashley 193, Kayla 15, Alyssa 4, Emily 146, Isabella 354, Ashley 123, Lauren 475, Ashley 198, Jessica 191, Samantha 487, Jessica 175, Hannah 266</t>
+          <t>Lauren 475, Jessica 191, Alyssa 4, Kayla 15, Alexis 335, Isabella 354, Elizabeth 391, Ashley 198, Emily 146, Abigail 413, Ashley 193, Alyssa 508, Samantha 487, Alexis 370, Ashley 123, Jessica 506, Hannah 266, Emma 454</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Ashley 140, Ashley 389, Emma 290, Elizabeth 328, Samantha 73, Grace 282, Ashley 326, Brianna 190, Grace 122, Abigail 341</t>
+          <t>Sarah 512, Grace 247, Ashley 392, Isabella 161, Emma 58, Samantha 178, Sarah 312, Madison 322, Emma 448, Ashley 389</t>
         </is>
       </c>
     </row>
@@ -1394,12 +1376,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Elizabeth 422, Olivia 345, Abigail 131, Emily 330, Ashley 193, Kayla 188, Ashley 460, Elizabeth 472, Kayla 139, Jessica 23, Sarah 331, Jessica 175, Lauren 223, Jessica 293, Olivia 239, Lauren 430, Brianna 190, Taylor 158, Olivia 496, Alyssa 133, Olivia 38, Isabella 161, Lauren 459, Samantha 386, Kayla 469, Isabella 260, Madison 155, Jessica 189, Madison 322, Madison 415, Abigail 255</t>
+          <t>Emily 330, Abigail 131, Elizabeth 422, Kayla 188, Olivia 345, Ashley 460, Jessica 23, Sarah 331, Ashley 193, Kayla 139, Elizabeth 472, Abigail 255, Olivia 38, Jessica 44, Isabella 260, Madison 301, Lauren 459, Jessica 293, Isabella 161, Elizabeth 284, Alexis 261, Madison 444, Madison 415, Samantha 178, Olivia 376, Olivia 496, Kayla 410, Hannah 165, Madison 322, Jessica 175, Lauren 136</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Alyssa 128, Lauren 136, Kayla 410, Jessica 44, Alexis 261, Madison 301, Madison 444, Samantha 178, Elizabeth 284, Hannah 165</t>
+          <t>Jessica 189, Samantha 386, Brianna 190, Olivia 239, Taylor 158, Lauren 223, Madison 155, Alyssa 133, Kayla 469, Alyssa 128</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1393,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Taylor 288, Sarah 377, Emma 208, Emily 445, Lauren 457, Ashley 240, Abigail 338, Emily 87, Emma 118, Jessica 423, Ashley 78, Grace 285, Taylor 106, Samantha 302, Olivia 504, Ashley 453, Taylor 115, Emily 229, Elizabeth 116, Lauren 93, Ashley 84, Taylor 500, Jessica 70, Hannah 16, Lauren 489, Taylor 394, Lauren 310, Kayla 495, Emily 505, Abigail 406</t>
+          <t>Taylor 106, Ashley 78, Jessica 423, Emily 87, Grace 285, Abigail 338, Ashley 240, Emma 208, Taylor 288, Taylor 115, Emily 229, Ashley 453, Lauren 457, Emma 118, Emily 445, Olivia 504, Sarah 377, Samantha 302, Lauren 93, Abigail 406, Emily 390, Emily 507, Kayla 495, Ashley 84, Elizabeth 164, Samantha 18, Emma 58, Lauren 310, Sarah 312, Hannah 281</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Emma 300, Sarah 312, Lauren 258, Emily 507, Ashley 81, Hannah 281, Emily 390, Emma 58, Isabella 242, Madison 464</t>
+          <t>Emily 505, Elizabeth 116, Taylor 394, Emma 300, Hannah 16, Jessica 70, Lauren 489, Taylor 500, Madison 464, Isabella 242</t>
         </is>
       </c>
     </row>
@@ -1428,10 +1410,9 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Emma 208, Emily 445, Taylor 106, Lauren 93, Kayla 495, Lauren 310</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>Taylor 106, Emma 208, Emily 445, Lauren 93, Emily 507, Emma 58, Kayla 495, Lauren 310</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1441,12 +1422,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Lauren 363, Jessica 506, Brianna 433, Samantha 271, Sarah 518, Madison 368, Alyssa 39, Jessica 383, Emma 401, Madison 319, Samantha 143, Grace 30, Jessica 520, Sarah 434, Isabella 295, Ashley 441, Jessica 303, Grace 511</t>
+          <t>Alyssa 39, Madison 368, Emma 401, Sarah 518, Lauren 363, Madison 319, Samantha 143, Samantha 271, Jessica 506, Brianna 433, Jessica 383, Brianna 419, Isabella 295, Jessica 520, Grace 30, Emma 185, Sarah 434, Kayla 7</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Abigail 71, Emma 185, Elizabeth 313, Brianna 419, Brianna 205, Alexis 470, Samantha 488, Kayla 7, Brianna 251, Taylor 17</t>
+          <t>Elizabeth 313, Brianna 205, Grace 511, Madison 225, Ashley 412, Lauren 346, Taylor 17, Grace 280, Ashley 441, Brianna 251</t>
         </is>
       </c>
     </row>
@@ -1458,10 +1439,9 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Lauren 363, Jessica 506, Brianna 433, Samantha 271, Sarah 518, Madison 368, Alyssa 39, Jessica 383, Emma 401, Madison 319, Samantha 143, Grace 30, Jessica 520, Sarah 434, Isabella 295, Ashley 441, Jessica 303, Grace 511</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr"/>
+          <t>Alyssa 39, Madison 368, Emma 401, Sarah 518, Lauren 363, Madison 319, Samantha 143, Samantha 271, Jessica 506, Brianna 433, Jessica 383, Brianna 419, Isabella 295, Jessica 520, Grace 30, Emma 185, Sarah 434, Kayla 7</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1471,12 +1451,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Taylor 509, Emma 98, Sarah 400, Lauren 33, Lauren 12, Lauren 96, Isabella 244, Lauren 367, Alyssa 493, Isabella 354, Ashley 50, Ashley 123, Lauren 475, Hannah 467, Emma 257, Alexis 340, Jessica 374, Lauren 337, Alexis 524, Olivia 186, Lauren 249, Kayla 409, Jessica 32, Brianna 180, Kayla 272, Emily 439</t>
+          <t>Lauren 475, Alyssa 493, Isabella 354, Lauren 96, Lauren 367, Isabella 244, Emma 98, Lauren 33, Sarah 400, Taylor 509, Ashley 50, Lauren 12, Ashley 123, Hannah 119, Lauren 337, Jessica 374, Ashley 510, Emily 439, Olivia 186, Samantha 382, Hannah 467, Abigail 279, Isabella 474, Madison 417, Alexis 340, Brianna 180</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Olivia 270, Brianna 362, Isabella 474, Hannah 357, Ashley 414, Hannah 119, Abigail 279, Kayla 379, Samantha 382, Lauren 358</t>
+          <t>Olivia 270, Emily 97, Abigail 517, Lauren 358, Kayla 379, Jessica 32, Hannah 357, Lauren 249, Kayla 409, Alexis 524</t>
         </is>
       </c>
     </row>
@@ -1488,12 +1468,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Isabella 395, Madison 126, Brianna 201, Sarah 2, Abigail 269, Abigail 490, Isabella 427, Hannah 522, Lauren 52, Hannah 194, Samantha 429, Brianna 61, Hannah 323, Alexis 62, Samantha 487, Alyssa 306, Lauren 60, Olivia 41</t>
+          <t>Hannah 323, Madison 126, Lauren 60, Samantha 429, Hannah 194, Alyssa 306, Alexis 62, Isabella 395, Isabella 427, Hannah 522, Samantha 487, Brianna 201, Abigail 490, Sarah 2, Brianna 61, Lauren 52, Abigail 269, Isabella 3</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Abigail 514, Elizabeth 141, Abigail 113, Hannah 129, Madison 14, Grace 282, Emily 403, Grace 263, Alyssa 491, Sarah 277</t>
+          <t>Abigail 113, Sarah 512, Grace 247, Samantha 68, Brianna 438, Sarah 277, Emily 403, Brianna 200, Sarah 442, Olivia 41</t>
         </is>
       </c>
     </row>
@@ -1505,12 +1485,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Isabella 241, Abigail 413, Sarah 31, Alexis 378, Olivia 274, Brianna 221, Elizabeth 391, Elizabeth 516, Jessica 461, Madison 352, Emma 499, Kayla 13, Emily 334, Alexis 498, Alexis 471, Brianna 172</t>
+          <t>Kayla 13, Madison 352, Lauren 309, Isabella 241, Emma 499, Elizabeth 391, Alexis 471, Jessica 437, Emily 334, Brianna 221, Olivia 274, Abigail 413, Alexis 378, Elizabeth 516, Jessica 461, Alexis 498</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Lauren 309, Emily 144, Jessica 437, Taylor 523, Hannah 393, Emily 349, Emily 152, Grace 515, Elizabeth 157, Lauren 170</t>
+          <t>Sarah 31, Emily 144, Brianna 172, Grace 515, Emma 77, Brianna 197, Elizabeth 157, Emily 152, Isabella 187, Taylor 523</t>
         </is>
       </c>
     </row>
@@ -1522,12 +1502,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Isabella 160, Emily 445, Alexis 35, Abigail 413, Jessica 506, Lauren 96, Alyssa 308, Taylor 226, Lauren 49, Lauren 475, Brianna 153, Hannah 181, Jessica 520, Hannah 314, Ashley 481, Samantha 20, Alexis 355, Sarah 501, Abigail 231, Abigail 341, Lauren 459, Grace 431, Kayla 235, Jessica 325</t>
+          <t>Lauren 475, Taylor 226, Lauren 96, Alyssa 308, Alexis 35, Isabella 160, Abigail 413, Brianna 153, Lauren 49, Emily 445, Jessica 506, Jessica 520, Emma 185, Lauren 459, Sarah 501, Samantha 480, Alexis 355, Olivia 138, Samantha 20, Grace 431, Madison 243, Ashley 481, Abigail 231, Abigail 341</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Grace 22, Emma 185, Emma 9, Kayla 497, Olivia 134, Olivia 138, Elizabeth 227, Samantha 480, Alexis 371, Jessica 425</t>
+          <t>Grace 22, Hannah 314, Emma 9, Kayla 497, Hannah 181, Olivia 134, Jessica 425, Lauren 430, Elizabeth 227, Jessica 325</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1519,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Madison 126, Elizabeth 391, Olivia 137, Abigail 338, Jessica 423, Jessica 383, Taylor 192, Taylor 121, Samantha 487, Emma 64, Lauren 56, Ashley 389, Emily 91, Grace 320, Taylor 94, Jessica 265, Jessica 163, Kayla 495, Emily 505, Jessica 230, Ashley 392, Kayla 272, Lauren 258, Ashley 81, Kayla 369, Emily 65, Emma 77, Samantha 488, Brianna 299, Grace 159, Emma 72, Alexis 261, Ashley 117, Ashley 283, Abigail 82, Grace 89</t>
+          <t>Taylor 121, Jessica 423, Abigail 338, Olivia 137, Elizabeth 391, Madison 126, Taylor 192, Samantha 487, Jessica 383, Lauren 56, Grace 159, Jessica 230, Emma 77, Emily 65, Kayla 495, Ashley 392, Brianna 299, Ashley 389, Jessica 163, Ashley 117, Emily 505, Emma 72, Grace 320, Emma 64, Jessica 265, Emily 91, Lauren 258, Taylor 94, Kayla 272, Samantha 488, Abigail 82, Kayla 369, Ashley 81, Olivia 451, Ashley 198, Olivia 237</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Alyssa 366, Lauren 11, Lauren 49, Sarah 512, Alyssa 491, Madison 417, Alexis 524, Sarah 482, Lauren 337, Olivia 270</t>
+          <t>Ashley 297, Kayla 466, Hannah 194, Brianna 61, Olivia 504, Olivia 270, Elizabeth 116, Elizabeth 10, Sarah 512, Lauren 337</t>
         </is>
       </c>
     </row>
@@ -1556,12 +1536,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Madison 24, Lauren 12, Taylor 222, Emma 25, Jessica 32, Taylor 110, Emily 507, Isabella 275, Olivia 502, Elizabeth 313, Jessica 189, Emma 9, Elizabeth 289, Kayla 379, Madison 415, Brianna 197, Isabella 329, Madison 444, Brianna 179, Madison 196, Olivia 53, Grace 280, Madison 417, Elizabeth 227, Isabella 95, Alexis 371, Samantha 462, Samantha 382, Alyssa 440, Abigail 209, Hannah 194, Sarah 424, Kayla 51, Emily 34, Olivia 318, Lauren 236</t>
+          <t>Taylor 222, Madison 24, Lauren 12, Emma 25, Isabella 161, Isabella 95, Elizabeth 116, Kayla 379, Jessica 32, Elizabeth 289, Jessica 189, Madison 196, Alyssa 491, Isabella 275, Emma 9, Emma 404, Brianna 179, Olivia 53, Elizabeth 227, Olivia 21, Isabella 329, Emma 257, Alexis 371, Sarah 424, Emily 349, Jessica 325, Lauren 29, Hannah 194, Brianna 456, Elizabeth 364, Alexis 343, Hannah 181, Emily 34, Sarah 277, Grace 83, Ashley 441</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Alyssa 493, Emily 146, Alexis 343, Emma 76, Elizabeth 307, Ashley 198, Elizabeth 364, Brianna 456, Madison 155, Alexis 498</t>
+          <t>Kayla 235, Kayla 51, Emma 76, Abigail 209, Madison 155, Madison 162, Samantha 211, Samantha 250, Abigail 109, Samantha 429</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1553,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Kayla 407, Jessica 278, Abigail 269, Alyssa 359, Lauren 90, Ashley 140, Taylor 394, Olivia 239, Alexis 80, Grace 122, Abigail 125, Samantha 276, Olivia 38, Grace 515, Sarah 442, Sarah 57, Kayla 469, Brianna 419, Isabella 242, Brianna 251, Alyssa 128, Alyssa 245, Lauren 136, Kayla 410, Grace 213, Sarah 482, Lauren 358, Madison 225, Brianna 438, Madison 162</t>
+          <t>Jessica 278, Kayla 407, Alyssa 359, Abigail 269, Lauren 90, Brianna 419, Olivia 38, Isabella 3, Alexis 80, Grace 515, Sarah 482, Madison 225, Brianna 438, Abigail 125, Brianna 251, Kayla 410, Grace 213, Sarah 442, Sarah 107, Lauren 358, Olivia 40, Lauren 136, Taylor 394, Ashley 140, Olivia 239, Madison 162, Lauren 223, Sarah 57, Isabella 242, Alyssa 304</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Sarah 107, Abigail 450, Olivia 40, Isabella 3, Alyssa 304, Lauren 29, Hannah 317, Emily 390, Sarah 312, Alexis 470</t>
+          <t>Grace 122, Abigail 450, Kayla 469, Samantha 276, Alyssa 128, Alyssa 245, Hannah 317, Lauren 29, Taylor 106, Olivia 264</t>
         </is>
       </c>
     </row>
@@ -1590,12 +1570,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Isabella 395, Sarah 400, Abigail 413, Sarah 31, Kayla 252, Lauren 457, Lauren 12, Taylor 254, Jessica 506, Alexis 378, Isabella 426, Brianna 221, Elizabeth 391, Elizabeth 476, Abigail 338, Kayla 15, Jessica 46, Alexis 316, Lauren 475, Samantha 27, Brianna 153, Jessica 437, Lauren 223, Hannah 266, Emily 91, Ashley 458, Taylor 500, Sarah 315, Abigail 291, Emma 404</t>
+          <t>Lauren 475, Isabella 426, Jessica 46, Kayla 15, Taylor 254, Abigail 338, Elizabeth 476, Elizabeth 391, Jessica 437, Brianna 221, Alexis 316, Lauren 457, Isabella 395, Abigail 413, Alexis 378, Brianna 153, Sarah 400, Samantha 27, Lauren 12, Sarah 31, Jessica 506, Kayla 252, Emma 55, Ashley 168, Hannah 266, Grace 411, Emily 390, Olivia 127, Emily 439, Elizabeth 313</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Madison 519, Grace 321, Kayla 75, Lauren 310, Abigail 231, Sarah 277, Grace 267, Sarah 57, Emma 55, Emma 300</t>
+          <t>Madison 519, Lauren 11, Emily 65, Emily 507, Madison 225, Grace 267, Grace 321, Abigail 279, Isabella 474, Sarah 277</t>
         </is>
       </c>
     </row>
@@ -1607,12 +1587,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Lauren 232, Brianna 88, Ashley 240, Lauren 33, Brianna 221, Olivia 259, Jessica 461, Alyssa 39, Hannah 59, Lauren 52, Ashley 348, Alyssa 432, Abigail 71, Abigail 503, Emma 76, Madison 155, Emily 390, Jessica 311, Grace 411, Alexis 470, Alyssa 421, Taylor 130, Samantha 398, Madison 301, Ashley 220, Ashley 168</t>
+          <t>Ashley 348, Ashley 240, Alyssa 39, Brianna 88, Brianna 221, Lauren 232, Hannah 59, Lauren 33, Olivia 259, Jessica 461, Lauren 52, Ashley 168, Grace 411, Madison 301, Emily 390, Lauren 346, Emily 97, Alexis 470, Taylor 130, Alyssa 432, Emma 305, Abigail 503, Taylor 158, Emma 76, Samantha 398, Elizabeth 262</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Lauren 346, Emma 305, Emily 97, Elizabeth 227, Hannah 317, Samantha 484, Madison 415, Alexis 355, Abigail 341, Abigail 125</t>
+          <t>Madison 155, Kayla 75, Elizabeth 141, Abigail 71, Jessica 303, Grace 256, Abigail 406, Madison 352, Grace 320, Emily 349</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1604,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Grace 396, Olivia 274, Elizabeth 449, Elizabeth 476, Sarah 518, Kayla 13, Sarah 74, Sarah 331, Lauren 85, Emma 257, Alexis 45, Samantha 73, Lauren 489, Madison 519, Abigail 109, Madison 184, Jessica 147, Alexis 468, Grace 120, Emily 439, Brianna 362, Hannah 281, Lauren 356, Samantha 68</t>
+          <t>Kayla 13, Sarah 74, Elizabeth 476, Sarah 331, Olivia 274, Lauren 85, Grace 396, Sarah 518, Elizabeth 449, Emily 333, Emily 439, Madison 519, Madison 184, Elizabeth 284, Taylor 17, Isabella 187, Abigail 517, Elizabeth 399, Hannah 332, Madison 322, Hannah 281, Olivia 41, Samantha 250, Alexis 45</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Madison 322, Elizabeth 399, Emily 333, Grace 428, Hannah 332, Taylor 17, Samantha 250, Elizabeth 284, Samantha 298, Abigail 517</t>
+          <t>Samantha 298, Lauren 489, Taylor 500, Samantha 73, Grace 48, Samantha 484, Grace 428, Abigail 109, Lauren 356, Alexis 468</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1621,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Grace 199, Lauren 248, Isabella 395, Alyssa 508, Hannah 202, Lauren 12, Taylor 222, Isabella 426, Elizabeth 449, Kayla 15, Emma 118, Taylor 226, Elizabeth 486, Emma 25, Abigail 408, Abigail 108, Lauren 85, Grace 100, Jessica 437, Jessica 293</t>
+          <t>Taylor 226, Isabella 426, Kayla 15, Abigail 108, Grace 100, Taylor 222, Hannah 202, Jessica 437, Lauren 248, Isabella 395, Lauren 85, Grace 199, Emma 118, Alyssa 508, Lauren 12, Elizabeth 449, Elizabeth 486, Emma 25, Abigail 408, Hannah 119</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Alexis 343, Olivia 239, Lauren 310, Sarah 501, Kayla 495, Samantha 276, Grace 267, Madison 455, Jessica 325, Brianna 362</t>
+          <t>Emily 336, Jessica 44, Grace 411, Elizabeth 313, Lauren 11, Samantha 68, Sarah 501, Kayla 495, Jessica 293, Grace 267</t>
         </is>
       </c>
     </row>
@@ -1658,12 +1638,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Taylor 288, Taylor 509, Emma 98, Sarah 400, Kayla 252, Ashley 478, Madison 173, Alyssa 273, Isabella 354, Hannah 59, Ashley 453, Hannah 181, Emma 257, Elizabeth 328, Abigail 113, Lauren 372, Jessica 374, Olivia 186, Kayla 75, Brianna 190, Jessica 163, Abigail 125</t>
+          <t>Madison 173, Isabella 354, Taylor 288, Alyssa 273, Emma 98, Ashley 453, Hannah 59, Ashley 478, Sarah 400, Taylor 509, Kayla 252, Abigail 406, Abigail 113, Jessica 374, Olivia 186, Olivia 502, Grace 247, Grace 253, Lauren 101, Olivia 138, Taylor 17, Abigail 125</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Abigail 406, Emma 300, Emily 34, Kayla 235, Olivia 270, Ashley 81, Abigail 209, Olivia 502, Samantha 447, Elizabeth 289</t>
+          <t>Madison 444, Olivia 270, Isabella 95, Hannah 332, Jessica 163, Lauren 136, Elizabeth 289, Emma 300, Lauren 372, Ashley 195</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1658,6 @@
           <t>Alexis 381, Samantha 302</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1688,12 +1667,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Madison 24, Jessica 206, Grace 285, Sarah 210, Jessica 66, Kayla 13, Hannah 323, Ashley 348, Taylor 115, Lauren 309, Emily 229, Lauren 56, Ashley 458, Isabella 353, Abigail 291, Samantha 73, Taylor 523, Emily 403, Taylor 94, Lauren 249, Grace 83, Kayla 409, Abigail 231, Brianna 180, Isabella 161, Brianna 200, Olivia 169, Sarah 57, Isabella 260, Madison 322, Abigail 279, Olivia 127, Samantha 488, Grace 159, Emma 72</t>
+          <t>Hannah 323, Kayla 13, Lauren 309, Ashley 348, Grace 285, Jessica 206, Taylor 115, Emily 229, Sarah 210, Madison 24, Jessica 66, Lauren 56, Isabella 260, Olivia 127, Grace 159, Hannah 287, Grace 511, Abigail 279, Isabella 161, Elizabeth 284, Emily 403, Brianna 180, Brianna 200, Olivia 169, Taylor 523, Madison 322, Grace 83, Emma 72, Alexis 36, Abigail 291, Ashley 458, Lauren 249, Abigail 231, Kayla 409, Samantha 73</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Elizabeth 284, Hannah 287, Alexis 36, Hannah 317, Ashley 392, Sarah 512, Emma 9, Alyssa 491, Ashley 50, Brianna 92</t>
+          <t>Sarah 57, Taylor 94, Isabella 353, Samantha 488, Hannah 317, Taylor 106, Ashley 50, Emily 403, Alexis 340, Grace 320</t>
         </is>
       </c>
     </row>
@@ -1705,12 +1684,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Grace 99, Grace 396, Alexis 370, Lauren 457, Jessica 278, Lauren 96, Elizabeth 391, Alyssa 359, Jessica 423, Alyssa 273, Sarah 210, Emma 28, Hannah 397, Kayla 13, Ashley 123, Samantha 429, Taylor 115, Lauren 60, Hannah 181, Samantha 73, Lauren 372, Emily 403, Hannah 314, Olivia 234, Emma 217, Jessica 265, Samantha 224, Abigail 177, Sarah 501, Lauren 459, Abigail 71, Grace 515, Alyssa 440, Alyssa 380, Ashley 297, Abigail 279</t>
+          <t>Jessica 278, Kayla 13, Jessica 423, Lauren 96, Elizabeth 391, Taylor 115, Lauren 60, Samantha 429, Alyssa 273, Hannah 397, Sarah 210, Lauren 457, Grace 396, Alyssa 359, Grace 99, Alexis 370, Ashley 123, Emma 28, Kayla 7, Lauren 11, Grace 515, Lauren 459, Sarah 501, Samantha 480, Alyssa 380, Abigail 279, Elizabeth 284, Elizabeth 164, Emily 403, Elizabeth 79, Brianna 299, Alyssa 440, Alexis 470, Brianna 361, Lauren 372, Samantha 73</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Alexis 470, Kayla 7, Brianna 299, Elizabeth 164, Alyssa 245, Olivia 477, Sarah 86, Grace 89, Alexis 261, Elizabeth 284</t>
+          <t>Jessica 265, Olivia 234, Grace 48, Hannah 314, Emma 217, Isabella 353, Hannah 181, Olivia 477, Sarah 86, Ashley 297</t>
         </is>
       </c>
     </row>
@@ -1722,12 +1701,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lauren 232, Alyssa 435, Brianna 221, Lauren 8, Elizabeth 476, Lauren 90, Abigail 408, Hannah 194, Emily 334, Emma 401, Samantha 487, Emily 405, Elizabeth 328, Sarah 156, Jessica 520</t>
+          <t>Lauren 8, Elizabeth 476, Hannah 194, Emily 334, Brianna 221, Lauren 232, Alyssa 435, Emma 401, Samantha 487, Lauren 90, Abigail 408, Brianna 419, Isabella 295, Jessica 520, Olivia 38</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Taylor 523, Olivia 124, Isabella 295, Olivia 239, Grace 321, Brianna 190, Jessica 303, Taylor 158, Sarah 277, Grace 256</t>
+          <t>Abigail 113, Emma 454, Olivia 124, Sarah 512, Kayla 51, Brianna 438, Grace 321, Madison 184, Taylor 17, Grace 256</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1718,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Isabella 160, Emily 445, Brianna 433, Sarah 2, Olivia 137, Abigail 269, Abigail 338, Samantha 402, Abigail 212, Brianna 153, Samantha 143, Madison 14, Madison 519, Taylor 94, Jessica 219, Grace 122, Lauren 310, Ashley 246, Abigail 109, Emily 34, Isabella 260, Emily 439, Jessica 311, Brianna 251</t>
+          <t>Abigail 338, Olivia 137, Isabella 160, Abigail 212, Brianna 153, Emily 445, Samantha 143, Sarah 2, Samantha 402, Abigail 269, Brianna 433, Isabella 260, Madison 301, Emily 439, Madison 519, Sarah 482, Ashley 412, Brianna 251, Lauren 310, Abigail 517, Taylor 130, Olivia 41, Brianna 513, Emma 387</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Alyssa 128, Brianna 42, Alyssa 421, Taylor 130, Brianna 513, Sarah 482, Madison 301, Emma 387, Abigail 517, Alyssa 339</t>
+          <t>Elizabeth 262, Taylor 94, Emily 34, Alyssa 339, Kayla 75, Grace 122, Samantha 484, Jessica 219, Brianna 42, Alyssa 128</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1735,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Olivia 103, Alyssa 493, Emily 146, Taylor 226, Ashley 50, Hannah 218, Hannah 467, Emma 290, Kayla 5, Hannah 129, Alexis 340, Grace 282, Olivia 186, Emily 152, Kayla 495, Ashley 392, Olivia 169, Samantha 386, Emma 448, Kayla 469, Isabella 474, Hannah 357, Emma 185, Emily 65, Ashley 414, Hannah 119, Abigail 255, Samantha 327, Samantha 150, Elizabeth 473, Ashley 117, Ashley 168, Hannah 287, Lauren 346, Emma 305, Elizabeth 10, Lauren 101, Elizabeth 364, Brianna 172, Samantha 480, Hannah 317, Brianna 492, Sarah 114, Brianna 205, Brianna 47, Isabella 161, Olivia 138, Kayla 497, Abigail 82, Brianna 299, Elizabeth 164, Kayla 409, Emily 479, Sarah 86, Samantha 18, Sarah 518, Alexis 294, Emily 135, Lauren 207, Olivia 264, Taylor 176, Emma 216, Kayla 272, Emma 72, Abigail 344, Alyssa 245, Madison 225, Grace 159, Isabella 347, Kayla 410, Elizabeth 116, Emily 336, Brianna 419, Sarah 420, Jessica 325, Hannah 332, Abigail 517, Alyssa 39, Samantha 298, Brianna 513</t>
+          <t>Taylor 226, Alyssa 493, Hannah 218, Olivia 103, Emily 146, Ashley 50, Hannah 119, Abigail 255, Emma 185, Ashley 168, Olivia 186, Emily 65, Hannah 287, Lauren 101, Hannah 467, Kayla 495, Ashley 392, Lauren 346, Isabella 474, Emily 152, Alexis 340, Olivia 169, Kayla 5, Samantha 327, Emma 448, Ashley 117, Emma 305, Samantha 386, Elizabeth 473, Abigail 291, Hannah 357, Ashley 458, Grace 282, Taylor 500, Emily 349, Hannah 129, Samantha 150, Elizabeth 364, Ashley 414, Kayla 469, Emma 290, Brianna 197, Olivia 264, Kayla 272, Sarah 86, Alexis 294, Brianna 47, Brianna 492, Madison 417, Kayla 410, Samantha 18, Abigail 82, Hannah 317, Sarah 518, Brianna 205, Kayla 409, Lauren 207, Emily 479, Emma 72, Emily 135, Elizabeth 262, Kayla 497, Olivia 138, Alyssa 245, Madison 444, Emily 91, Brianna 92, Sarah 114, Brianna 172, Taylor 176, Sarah 420, Madison 225, Grace 159, Lauren 489, Emma 216, Jessica 265, Alyssa 19, Samantha 398, Hannah 332, Taylor 151</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Kayla 13, Lauren 367, Emma 217, Olivia 169, Abigail 413, Emily 405, Olivia 137, Grace 511, Alexis 36, Elizabeth 284</t>
+          <t>Hannah 119, Abigail 413, Alyssa 366, Lauren 494, Grace 431, Elizabeth 157, Alyssa 39, Lauren 258, Grace 463, Grace 89</t>
         </is>
       </c>
     </row>
@@ -1773,10 +1752,9 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Taylor 226, Hannah 218, Olivia 169, Samantha 386, Samantha 150, Elizabeth 364, Ashley 392, Brianna 47, Ashley 414, Emma 185, Lauren 346, Alexis 294, Hannah 119, Emily 152, Elizabeth 10, Olivia 138, Sarah 420, Ashley 50, Emily 135, Elizabeth 116, Abigail 344, Hannah 467, Kayla 272</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr"/>
+          <t>Taylor 226, Hannah 218, Olivia 169, Samantha 386, Samantha 150, Elizabeth 364, Alexis 294, Lauren 346, Brianna 47, Ashley 414, Ashley 392, Emma 185, Abigail 291, Hannah 119, Hannah 467, Emily 152, Elizabeth 262, Brianna 197, Ashley 50, Emily 349, Olivia 138, Ashley 458, Kayla 272, Sarah 420, Emily 135</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1786,12 +1764,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Kayla 407, Olivia 345, Brianna 88, Abigail 413, Lauren 33, Olivia 274, Madison 173, Alyssa 308, Jessica 46, Isabella 183, Taylor 121, Hannah 59, Lauren 52, Taylor 106, Alexis 498, Alyssa 306, Emily 229, Jessica 175, Emily 91, Brianna 92, Taylor 26, Hannah 16, Ashley 286, Alexis 69, Ashley 441</t>
+          <t>Madison 173, Taylor 106, Taylor 121, Jessica 46, Kayla 407, Olivia 345, Alyssa 308, Emily 229, Isabella 183, Brianna 88, Alyssa 306, Hannah 59, Olivia 274, Abigail 413, Lauren 33, Alexis 498, Lauren 52, Isabella 347, Taylor 145, Isabella 3, Ashley 510, Taylor 26, Sarah 424, Grace 351, Emma 77</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Taylor 394, Alyssa 432, Hannah 393, Ashley 326, Lauren 249, Alexis 294, Kayla 409, Brianna 456, Olivia 496, Brianna 200</t>
+          <t>Samantha 382, Madison 225, Emma 58, Brianna 200, Ashley 441, Samantha 178, Olivia 496, Elizabeth 399, Grace 213, Hannah 165</t>
         </is>
       </c>
     </row>
@@ -1803,10 +1781,9 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Emily 330, Ashley 460, Jessica 23, Emily 229, Jessica 70, Samantha 73, Taylor 523, Isabella 375, Brianna 190, Sarah 501, Abigail 255, Lauren 309, Isabella 161, Jessica 189, Samantha 488, Emma 76, Emily 334, Brianna 200, Jessica 175, Emma 257, Samantha 143, Kayla 13, Emily 403, Kayla 409</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr"/>
+          <t>Emily 330, Emily 229, Ashley 460, Jessica 23, Abigail 255, Isabella 375, Sarah 501, Grace 511, Kayla 268, Taylor 523, Alexis 36, Samantha 73, Lauren 309, Olivia 103, Hannah 165, Jessica 175, Elizabeth 284, Madison 444, Samantha 178, Brianna 200, Isabella 161, Samantha 143, Olivia 376, Kayla 409, Kayla 13, Emily 403, Sarah 210, Lauren 136</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1816,12 +1793,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Grace 199, Taylor 288, Isabella 241, Alexis 35, Alexis 370, Jessica 278, Brianna 201, Taylor 222, Alyssa 359, Elizabeth 436, Jessica 461, Isabella 342, Abigail 490, Lauren 90, Madison 54, Elizabeth 174, Hannah 397, Taylor 6, Hannah 522, Elizabeth 67, Hannah 323, Samantha 487, Olivia 41, Grace 463, Lauren 56, Ashley 140, Ashley 389, Hannah 181, Grace 48, Isabella 353</t>
+          <t>Hannah 323, Jessica 278, Isabella 241, Taylor 288, Taylor 222, Isabella 342, Alexis 35, Hannah 397, Elizabeth 67, Elizabeth 436, Madison 54, Grace 199, Taylor 6, Elizabeth 174, Alyssa 359, Hannah 522, Samantha 487, Alexis 370, Brianna 201, Jessica 461, Abigail 490, Lauren 90, Grace 89, Taylor 145, Emily 336, Lauren 56, Ashley 510, Jessica 147, Madison 301, Olivia 124</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Alexis 340, Taylor 26, Olivia 124, Grace 263, Alexis 80, Lauren 249, Taylor 158, Madison 149, Grace 256, Isabella 161</t>
+          <t>Taylor 26, Alexis 80, Sarah 424, Grace 247, Taylor 215, Brianna 197, Lauren 459, Isabella 485, Isabella 161, Grace 463</t>
         </is>
       </c>
     </row>
@@ -1833,12 +1810,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Emma 98, Kayla 407, Madison 126, Madison 24, Brianna 88, Hannah 202, Sarah 2, Olivia 103, Lauren 8, Alexis 171, Abigail 269, Alyssa 308, Grace 285, Sarah 210, Elizabeth 486, Alyssa 39, Alyssa 19, Taylor 192</t>
+          <t>Lauren 8, Jessica 191, Taylor 121, Sarah 74, Alyssa 19, Ashley 348, Grace 285, Alyssa 39, Kayla 407, Madison 126, Alyssa 308, Alexis 471, Lauren 60, Samantha 429, Hannah 202, Brianna 88, Emma 98, Emily 334</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Taylor 121, Kayla 139, Emily 334, Samantha 429, Sarah 74, Alexis 471, Alexis 104, Jessica 191, Ashley 348, Lauren 60</t>
+          <t>Sarah 210, Madison 24, Olivia 103, Taylor 192, Alexis 171, Kayla 139, Elizabeth 486, Alexis 104, Sarah 2, Abigail 269</t>
         </is>
       </c>
     </row>
@@ -1850,12 +1827,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Grace 99, Taylor 509, Olivia 345, Olivia 1, Alyssa 435, Olivia 416, Alyssa 132, Samantha 402, Emily 87, Alyssa 366, Samantha 271, Emma 118, Ashley 78, Alyssa 493, Emma 499, Jessica 383</t>
+          <t>Olivia 416, Emily 228, Ashley 78, Alyssa 493, Olivia 1, Emily 87, Emma 499, Grace 100, Taylor 115, Olivia 345, Alyssa 366, Alyssa 435, Alyssa 132, Emma 118, Grace 99, Taylor 509</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Ashley 123, Emily 228, Taylor 115, Grace 100, Abigail 296, Hannah 467, Brianna 92, Hannah 16, Lauren 337, Olivia 234</t>
+          <t>Samantha 402, Samantha 271, Ashley 123, Jessica 383, Brianna 419, Brianna 388, Alexis 112, Lauren 337, Emma 185, Abigail 406</t>
         </is>
       </c>
     </row>
@@ -1867,12 +1844,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Elizabeth 422, Sarah 377, Kayla 407, Isabella 241, Madison 24, Abigail 413, Sarah 31, Lauren 363, Emily 330, Brianna 221, Lauren 8, Ashley 478, Grace 285, Abigail 490, Emma 216, Alyssa 493, Taylor 226, Elizabeth 174, Taylor 6, Hannah 522</t>
+          <t>Lauren 8, Taylor 226, Alyssa 493, Emily 330, Elizabeth 422, Isabella 241, Grace 285, Kayla 407, Madison 24, Brianna 221, Abigail 413, Taylor 6, Ashley 478, Lauren 363, Elizabeth 174, Hannah 522, Olivia 504, Sarah 377, Emma 216, Abigail 490</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Lauren 52, Olivia 504, Abigail 296, Grace 30, Ashley 140, Emily 91, Kayla 466, Jessica 520, Madison 14, Taylor 523</t>
+          <t>Sarah 31, Lauren 52, Grace 89, Jessica 520, Grace 30, Ashley 168, Sarah 482, Alexis 355, Grace 321, Taylor 17</t>
         </is>
       </c>
     </row>
@@ -1884,12 +1861,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Taylor 151, Sarah 377, Alexis 35, Abigail 131, Olivia 1, Isabella 426, Emily 87, Ashley 460, Sarah 518, Emily 146, Lauren 49, Taylor 121, Hannah 522, Lauren 309, Elizabeth 116, Grace 30</t>
+          <t>Taylor 121, Isabella 426, Olivia 1, Abigail 131, Lauren 309, Emily 87, Alexis 35, Ashley 460, Emily 146, Sarah 518, Taylor 151, Lauren 49, Hannah 522, Sarah 377, Grace 89, Grace 30</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Hannah 181, Ashley 458, Taylor 500, Ashley 286, Lauren 430, Abigail 177, Grace 122, Grace 111, Alyssa 440, Emma 448</t>
+          <t>Taylor 145, Kayla 7, Madison 301, Kayla 51, Brianna 438, Samantha 18, Alyssa 440, Abigail 344, Emma 448, Elizabeth 116</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1878,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Grace 99, Taylor 509, Kayla 252, Ashley 240, Brianna 433, Samantha 211, Lauren 96, Alyssa 132, Isabella 342, Lauren 90, Emma 499, Elizabeth 486, Hannah 397, Abigail 408, Jessica 23, Sarah 331, Alexis 498, Alexis 104, Jessica 191, Lauren 309</t>
+          <t>Jessica 191, Lauren 309, Emma 499, Lauren 96, Ashley 240, Emily 229, Isabella 342, Alyssa 306, Hannah 397, Jessica 23, Sarah 331, Alyssa 132, Grace 99, Taylor 509, Elizabeth 486, Alexis 104, Alexis 498, Samantha 211, Brianna 433, Emily 144</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Alyssa 306, Emily 229, Emily 144, Grace 463, Ashley 389, Emma 257, Grace 263, Olivia 239, Brianna 373, Jessica 32</t>
+          <t>Kayla 252, Lauren 90, Abigail 408, Hannah 119, Brianna 388, Emily 336, Abigail 406, Grace 411, Grace 247, Grace 351</t>
         </is>
       </c>
     </row>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -347,8 +346,8 @@
   </sheetPr>
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -412,7 +411,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lauren 8, Jessica 278, Jessica 46, Brianna 197, Madison 417, Alyssa 4, Olivia 270</t>
+          <t>Lauren 8, Jessica 278, Jessica 46, Brianna 197, Madison 417, Alyssa 4, Olivia 270, Emily 37</t>
         </is>
       </c>
     </row>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -346,8 +347,8 @@
   </sheetPr>
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -377,12 +378,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lauren 8, Jessica 278, Madison 324, Jessica 46, Alyssa 4, Lauren 96, Olivia 137, Lauren 60, Madison 204, Isabella 427, Alexis 370, Abigail 490, Abigail 269, Emily 144, Kayla 252, Olivia 186, Brianna 197, Brianna 47, Isabella 485, Grace 280, Olivia 270, Isabella 95, Isabella 187, Alexis 443, Kayla 5, Olivia 318, Emily 505</t>
+          <t>Lauren 8, Alyssa 4, Jessica 46, Kayla 252, Lauren 60, Abigail 269, Olivia 137, Jessica 278, Emily 144, Lauren 96, Madison 204, Alexis 370, Madison 324, Abigail 490, Isabella 427, Emily 505, Kayla 5, Grace 280, Kayla 497, Isabella 95, Grace 320, Olivia 270, Brianna 197, Isabella 187, Samantha 488, Madison 464, Emily 405</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Grace 320, Emily 135, Emma 76, Madison 464, Isabella 275, Brianna 148, Kayla 497, Samantha 488, Jessica 425, Emily 405</t>
+          <t>Madison 14, Isabella 485, Alexis 443, Abigail 109, Emma 76, Brianna 148, Brianna 47, Olivia 186, Emily 135, Jessica 425</t>
         </is>
       </c>
     </row>
@@ -394,12 +395,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Isabella 426, Jessica 423, Elizabeth 476, Taylor 222, Emily 229, Alyssa 306, Sarah 210, Ashley 453, Alyssa 435, Olivia 259, Ashley 50, Lauren 12, Elizabeth 449, Abigail 255, Lauren 494, Jessica 44, Emily 439, Madison 519, Lauren 11, Taylor 215, Grace 351, Olivia 264, Madison 184, Madison 417, Abigail 125, Sarah 315, Samantha 327</t>
+          <t>Lauren 12, Elizabeth 476, Olivia 259, Jessica 423, Isabella 426, Alyssa 306, Elizabeth 449, Emily 229, Alyssa 435, Taylor 222, Sarah 210, Ashley 453, Ashley 50, Samantha 150, Olivia 264, Madison 417, Lauren 494, Lauren 11, Abigail 255, Jessica 44, Taylor 215, Sarah 315, Jessica 32, Madison 184, Emily 439, Madison 519, Olivia 53</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Jessica 32, Olivia 234, Samantha 150, Emily 91, Hannah 314, Taylor 176, Olivia 53, Abigail 406, Emma 118, Jessica 425</t>
+          <t>Hannah 314, Olivia 234, Emily 91, Grace 351, Samantha 327, Abigail 125, Taylor 176, Emma 118, Olivia 103, Alyssa 304</t>
         </is>
       </c>
     </row>
@@ -411,9 +412,10 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lauren 8, Jessica 278, Jessica 46, Brianna 197, Madison 417, Alyssa 4, Olivia 270, Emily 37</t>
-        </is>
-      </c>
+          <t>Lauren 8, Jessica 46, Jessica 278, Samantha 150, Brianna 197, Madison 417, Alyssa 4</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -423,12 +425,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Madison 352, Jessica 206, Lauren 367, Isabella 244, Jessica 23, Madison 204, Emma 118, Alexis 365, Lauren 363, Elizabeth 516, Elizabeth 486, Alexis 104, Emily 144, Elizabeth 472, Abigail 406, Jessica 374, Alyssa 421, Brianna 373, Jessica 293, Madison 455, Grace 256, Alexis 261, Brianna 200, Olivia 376, Abigail 344, Ashley 220, Ashley 283, Elizabeth 166, Ashley 195, Elizabeth 10</t>
+          <t>Alexis 104, Elizabeth 472, Lauren 367, Isabella 244, Madison 352, Elizabeth 516, Emily 144, Emma 118, Madison 204, Jessica 206, Alexis 365, Elizabeth 486, Lauren 363, Jessica 23, Elizabeth 10, Abigail 344, Emily 349, Brianna 513, Alyssa 421, Brianna 373, Olivia 451, Jessica 293, Elizabeth 364, Abigail 406, Taylor 158, Taylor 500, Emma 9, Samantha 484, Madison 149, Abigail 291</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Abigail 291, Ashley 458, Brianna 513, Taylor 158, Taylor 500, Emily 349, Elizabeth 262, Elizabeth 364, Emma 9, Madison 149</t>
+          <t>Ashley 220, Elizabeth 166, Grace 256, Ashley 458, Elizabeth 262, Isabella 329, Olivia 376, Madison 455, Alexis 261, Ashley 283</t>
         </is>
       </c>
     </row>
@@ -440,9 +442,10 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Madison 352, Jessica 206, Lauren 367, Isabella 244, Jessica 23, Madison 204, Emma 118, Alexis 365, Lauren 363, Elizabeth 516, Elizabeth 486, Alexis 104, Emily 144, Elizabeth 472, Abigail 406, Jessica 374, Alyssa 421, Brianna 373, Jessica 293, Madison 455, Grace 256, Alexis 261, Brianna 200, Olivia 376, Abigail 344, Ashley 220, Ashley 283, Elizabeth 166, Ashley 195, Elizabeth 10</t>
-        </is>
-      </c>
+          <t>Alexis 104, Elizabeth 472, Lauren 367, Isabella 244, Madison 352, Elizabeth 516, Emily 144, Emma 118, Madison 204, Jessica 206, Alexis 365, Elizabeth 486, Lauren 363, Jessica 23, Elizabeth 10, Abigail 344, Emily 349, Brianna 513, Alyssa 421, Brianna 373, Olivia 451, Jessica 293, Elizabeth 364, Abigail 406, Taylor 158, Taylor 500, Emma 9, Samantha 484, Madison 149, Abigail 291</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -452,9 +455,10 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Madison 352, Jessica 206, Lauren 367, Isabella 244, Jessica 23, Madison 204, Emma 118, Alexis 365, Lauren 363, Elizabeth 516, Elizabeth 486, Alexis 104, Emily 144, Elizabeth 472, Abigail 406, Jessica 374, Alyssa 421, Brianna 373, Jessica 293, Madison 455, Grace 256, Alexis 261, Brianna 200, Olivia 376, Abigail 344, Ashley 220, Ashley 283, Elizabeth 166, Ashley 195, Elizabeth 10</t>
-        </is>
-      </c>
+          <t>Alexis 104, Elizabeth 472, Lauren 367, Isabella 244, Madison 352, Elizabeth 516, Emily 144, Emma 118, Madison 204, Jessica 206, Alexis 365, Elizabeth 486, Lauren 363, Jessica 23, Elizabeth 10, Abigail 344, Emily 349, Brianna 513, Alyssa 421, Brianna 373, Olivia 451, Jessica 293, Elizabeth 364, Abigail 406, Taylor 158, Taylor 500, Emma 9, Samantha 484, Madison 149, Abigail 291</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -464,12 +468,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alyssa 493, Madison 352, Taylor 288, Isabella 244, Alyssa 233, Olivia 274, Abigail 212, Jessica 383, Lauren 494, Emma 185, Lauren 56, Grace 120, Grace 159, Taylor 215, Sarah 501, Grace 321, Elizabeth 284, Alexis 470, Elizabeth 399, Hannah 165, Madison 243, Ashley 195, Brianna 513, Madison 162, Samantha 398, Hannah 314, Grace 263, Alyssa 304, Abigail 71, Alexis 468</t>
+          <t>Alyssa 493, Olivia 274, Alyssa 233, Isabella 244, Madison 352, Abigail 212, Taylor 288, Jessica 383, Abigail 71, Alexis 470, Brianna 513, Emma 185, Lauren 494, Alyssa 304, Grace 120, Taylor 215, Brianna 362, Hannah 165, Elizabeth 284, Grace 159, Samantha 398, Madison 243, Alexis 468, Elizabeth 399, Hannah 314, Sarah 501, Madison 162, Grace 263, Ashley 195, Lauren 56</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Brianna 362, Emily 403, Sarah 86, Alyssa 421, Emma 404, Elizabeth 289, Samantha 327, Hannah 317, Brianna 61, Taylor 288</t>
+          <t>Grace 321, Emily 403, Sarah 442, Emma 208, Taylor 288, Isabella 244, Emma 64, Lauren 248, Alyssa 421, Emma 300</t>
         </is>
       </c>
     </row>
@@ -481,9 +485,10 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hannah 218, Elizabeth 174, Lauren 346, Jessica 189, Olivia 234, Olivia 53, Abigail 109, Ashley 140, Isabella 63, Olivia 451, Grace 253</t>
-        </is>
-      </c>
+          <t>Elizabeth 174, Hannah 218, Abigail 109, Olivia 53, Olivia 234, Grace 515, Ashley 140, Isabella 63, Alexis 171, Emma 58, Olivia 451, Grace 253</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -493,9 +498,10 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jessica 147, Grace 253, Elizabeth 157, Grace 122, Abigail 71, Madison 519, Grace 463, Grace 263, Sarah 501, Samantha 27, Samantha 20, Taylor 176</t>
-        </is>
-      </c>
+          <t>Grace 253, Grace 122, Elizabeth 157, Jessica 147, Emma 257, Taylor 176, Grace 463, Samantha 27, Madison 519, Samantha 20</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -505,12 +511,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alyssa 493, Alyssa 4, Abigail 108, Alyssa 19, Emma 238, Lauren 60, Emma 98, Taylor 151, Alyssa 508, Emma 216, Ashley 123, Kayla 252, Taylor 145, Jessica 44, Brianna 197, Brianna 418, Grace 280, Emily 152, Madison 444, Madison 415, Taylor 110, Sarah 315, Kayla 5, Hannah 165</t>
+          <t>Ashley 123, Alyssa 493, Alyssa 19, Alyssa 4, Emma 216, Kayla 252, Taylor 151, Lauren 60, Abigail 108, Alyssa 508, Emma 98, Emma 238, Kayla 5, Brianna 418, Grace 280, Ashley 326, Elizabeth 473, Samantha 150, Taylor 145, Jessica 70, Brianna 197, Jessica 44, Alexis 343, Emma 350</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Alexis 343, Olivia 384, Jessica 32, Ashley 326, Emily 135, Elizabeth 473, Lauren 249, Lauren 170, Emma 350, Jessica 70</t>
+          <t>Hannah 165, Sarah 86, Sarah 315, Madison 415, Jessica 32, Emma 217, Samantha 224, Elizabeth 328, Madison 14, Grace 256</t>
         </is>
       </c>
     </row>
@@ -522,12 +528,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kayla 188, Hannah 218, Isabella 183, Grace 89, Alexis 112, Taylor 145, Emily 333, Hannah 266, Olivia 124, Sarah 482, Alyssa 421, Emily 507, Brianna 373, Ashley 412, Kayla 268, Samantha 18, Alexis 340, Samantha 20, Olivia 376, Brianna 251, Grace 213, Sarah 107, Grace 320, Madison 196</t>
+          <t>Hannah 218, Isabella 183, Kayla 188, Brianna 492, Alexis 340, Emily 507, Samantha 20, Emily 333, Grace 320, Emily 349, Samantha 18, Taylor 145, Alyssa 128, Sarah 107, Sarah 482, Ashley 412, Alyssa 421, Brianna 373, Sarah 86, Hannah 266, Alexis 112, Elizabeth 227, Olivia 124, Brianna 42</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Emma 76, Emily 349, Emily 91, Hannah 393, Taylor 176, Sarah 86, Brianna 492, Brianna 42, Alyssa 128, Alexis 294</t>
+          <t>Emma 76, Brianna 47, Olivia 376, Kayla 268, Grace 213, Grace 89, Alexis 294, Brianna 251, Emily 91, Jessica 303</t>
         </is>
       </c>
     </row>
@@ -539,12 +545,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Madison 173, Olivia 416, Alexis 381, Isabella 426, Madison 324, Olivia 1, Taylor 254, Sarah 74, Alyssa 19, Ashley 348, Olivia 137, Alyssa 435, Alexis 365, Emma 216, Emma 28, Lauren 90, Isabella 347, Jessica 311, Jessica 230, Grace 351, Sarah 501, Lauren 101, Brianna 47, Brianna 418</t>
+          <t>Madison 173, Alyssa 19, Lauren 90, Emma 216, Emma 28, Taylor 254, Olivia 137, Isabella 426, Olivia 1, Ashley 348, Sarah 74, Alexis 381, Alyssa 435, Olivia 416, Madison 324, Alexis 365, Alyssa 432, Grace 292, Brianna 418, Elizabeth 473, Alyssa 440, Jessica 230, Jessica 311, Emma 217</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Grace 267, Grace 321, Madison 455, Kayla 268, Grace 292, Alyssa 440, Samantha 327, Alyssa 432, Grace 431, Olivia 40</t>
+          <t>Olivia 167, Lauren 356, Grace 111, Ashley 286, Grace 431, Olivia 40, Brianna 47, Alyssa 339, Ashley 246, Sarah 501</t>
         </is>
       </c>
     </row>
@@ -556,12 +562,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lauren 360, Elizabeth 385, Alexis 335, Abigail 131, Kayla 188, Jessica 206, Emma 208, Lauren 452, Isabella 244, Isabella 160, Lauren 232, Madison 368, Ashley 193, Lauren 49</t>
+          <t>Ashley 193, Elizabeth 385, Emma 28, Abigail 131, Isabella 244, Alexis 335, Alexis 498, Lauren 452, Lauren 232, Lauren 360, Madison 368, Kayla 188, Isabella 160, Lauren 49</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Ashley 50, Alexis 498, Emma 28, Samantha 211, Olivia 38, Lauren 93, Isabella 3, Jessica 44, Olivia 186, Olivia 502</t>
+          <t>Jessica 206, Samantha 211, Ashley 50, Emma 208, Grace 428, Jessica 219, Kayla 5, Alexis 524, Isabella 3, Emma 77</t>
         </is>
       </c>
     </row>
@@ -573,12 +579,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kayla 15, Alyssa 306, Elizabeth 67, Sarah 210, Madison 368, Olivia 103, Ashley 193, Kayla 139, Alexis 498, Sarah 2, Samantha 302, Brianna 172, Isabella 347, Olivia 127, Olivia 124, Jessica 521, Grace 267, Isabella 474, Madison 417, Samantha 18, Emma 58</t>
+          <t>Ashley 193, Samantha 302, Kayla 139, Alyssa 306, Alexis 498, Sarah 2, Olivia 103, Madison 368, Sarah 210, Kayla 15, Brianna 172, Elizabeth 67, Lauren 310, Sarah 156, Jessica 175, Ashley 441, Madison 417, Olivia 496, Emma 58, Emily 34, Olivia 124</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Ashley 441, Abigail 296, Lauren 310, Olivia 496, Emily 479, Jessica 175, Brianna 361, Sarah 156, Emma 300, Brianna 513</t>
+          <t>Brianna 361, Alyssa 491, Jessica 521, Abigail 296, Samantha 462, Olivia 127, Emily 479, Grace 267, Isabella 347, Emily 65</t>
         </is>
       </c>
     </row>
@@ -590,12 +596,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Emily 228, Isabella 426, Madison 324, Alyssa 4, Sarah 74, Elizabeth 422, Isabella 241, Emma 238, Taylor 288, Madison 368, Lauren 85, Taylor 192, Kayla 139, Alexis 112, Emily 333, Jessica 44</t>
+          <t>Alyssa 4, Lauren 85, Elizabeth 422, Kayla 139, Isabella 426, Isabella 241, Sarah 74, Taylor 288, Emily 228, Madison 368, Taylor 192, Emma 238, Madison 324, Kayla 497, Grace 253, Emily 333</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Olivia 127, Alexis 80, Taylor 215, Olivia 264, Grace 253, Brianna 47, Ashley 84, Lauren 236, Samantha 18, Sarah 315</t>
+          <t>Grace 320, Samantha 18, Olivia 264, Sarah 107, Sarah 312, Grace 22, Jessica 44, Alexis 343, Emma 350, Taylor 215</t>
         </is>
       </c>
     </row>
@@ -607,12 +613,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lauren 8, Grace 465, Jessica 46, Alexis 335, Alyssa 308, Hannah 202, Ashley 198, Isabella 160, Brianna 88, Madison 24, Emily 146, Ashley 478, Abigail 212, Alyssa 508, Samantha 211, Kayla 252, Emma 55, Brianna 388, Grace 411, Jessica 147, Emma 454, Grace 159, Madison 519, Taylor 26, Alexis 80, Grace 463, Samantha 20, Olivia 154, Taylor 110, Lauren 207, Brianna 361, Elizabeth 166, Ashley 326, Lauren 372, Abigail 231, Samantha 73</t>
+          <t>Ashley 478, Lauren 8, Brianna 88, Jessica 46, Kayla 252, Alyssa 308, Alyssa 508, Ashley 198, Grace 465, Alexis 335, Abigail 212, Madison 24, Hannah 202, Emily 146, Isabella 160, Samantha 211, Samantha 447, Emma 55, Brianna 492, Lauren 207, Ashley 326, Samantha 20, Brianna 388, Samantha 73, Samantha 276, Sarah 57, Olivia 134, Hannah 182, Elizabeth 328, Emma 454, Grace 159, Elizabeth 166, Madison 519, Elizabeth 262, Lauren 372, Taylor 26</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Sarah 57, Olivia 234, Isabella 275, Elizabeth 262, Samantha 447, Hannah 182, Isabella 353, Olivia 134, Brianna 492, Samantha 276</t>
+          <t>Taylor 110, Isabella 353, Abigail 231, Olivia 154, Olivia 234, Brianna 361, Grace 411, Jessica 147, Isabella 275, Grace 463</t>
         </is>
       </c>
     </row>
@@ -624,12 +630,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Grace 465, Taylor 106, Isabella 241, Grace 285, Emma 208, Taylor 115, Alexis 365, Ashley 50, Elizabeth 449, Brianna 433, Isabella 3, Abigail 113, Abigail 105, Samantha 224, Alyssa 421, Sarah 420, Madison 184, Elizabeth 164, Olivia 496, Kayla 410</t>
+          <t>Grace 465, Elizabeth 449, Isabella 241, Taylor 115, Taylor 106, Brianna 433, Alexis 365, Grace 285, Ashley 50, Emma 208, Samantha 447, Elizabeth 164, Alexis 371, Sarah 420, Abigail 113, Kayla 410, Isabella 3, Jessica 70, Jessica 175, Abigail 105</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Jessica 175, Lauren 136, Lauren 372, Alyssa 491, Jessica 70, Lauren 223, Grace 48, Samantha 447, Elizabeth 43, Alyssa 133</t>
+          <t>Olivia 237, Olivia 496, Alyssa 421, Lauren 356, Samantha 224, Madison 184, Lauren 223, Lauren 372, Grace 48, Samantha 483</t>
         </is>
       </c>
     </row>
@@ -641,12 +647,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Olivia 416, Lauren 8, Isabella 354, Samantha 429, Hannah 397, Emily 146, Grace 99, Taylor 509, Samantha 211, Abigail 408, Isabella 260, Ashley 510, Lauren 11, Lauren 101, Hannah 467, Brianna 47, Kayla 268, Emily 403, Olivia 169, Abigail 514</t>
+          <t>Lauren 8, Abigail 408, Samantha 429, Taylor 509, Isabella 354, Hannah 397, Emily 146, Olivia 416, Grace 99, Samantha 211, Olivia 169, Brianna 388, Hannah 467, Samantha 386, Lauren 11, Kayla 409, Hannah 182, Ashley 414, Emily 403, Ashley 458</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Sarah 114, Kayla 466, Samantha 386, Madison 196, Ashley 458, Kayla 409, Hannah 182, Isabella 353, Madison 149, Ashley 414</t>
+          <t>Brianna 47, Isabella 329, Isabella 353, Ashley 510, Samantha 483, Isabella 260, Kayla 268, Sarah 114, Lauren 101, Madison 196</t>
         </is>
       </c>
     </row>
@@ -658,12 +664,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Taylor 106, Taylor 121, Abigail 131, Sarah 74, Elizabeth 422, Alyssa 39, Madison 24, Lauren 232, Hannah 59, Olivia 274, Lauren 33, Alexis 171</t>
+          <t>Lauren 33, Olivia 274, Emma 28, Kayla 252, Alyssa 39, Alexis 171, Hannah 59, Elizabeth 422, Kayla 139, Abigail 131, Sarah 74, Madison 24</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Grace 99, Kayla 139, Emma 28, Brianna 433, Kayla 252, Olivia 38, Grace 159, Jessica 521, Alexis 80, Hannah 467</t>
+          <t>Taylor 106, Lauren 232, Brianna 433, Grace 99, Taylor 121, Olivia 239, Grace 292, Kayla 497, Brianna 438, Alyssa 440</t>
         </is>
       </c>
     </row>
@@ -675,12 +681,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kayla 13, Hannah 218, Madison 126, Samantha 429, Isabella 342, Elizabeth 67, Madison 368, Elizabeth 174, Alyssa 359, Brianna 419, Alexis 69, Jessica 44, Hannah 266, Jessica 147, Emma 454, Sarah 512, Grace 247, Lauren 459, Grace 253, Jessica 293, Ashley 392, Elizabeth 157, Samantha 178, Samantha 20, Brianna 251, Taylor 110, Taylor 523, Ashley 389, Taylor 130, Alyssa 432, Samantha 73, Olivia 234, Sarah 86, Ashley 246, Olivia 21, Olivia 167, Olivia 451, Olivia 154, Alexis 294, Madison 464, Olivia 53, Emma 76, Abigail 109, Elizabeth 227, Taylor 176</t>
+          <t>Elizabeth 174, Isabella 342, Samantha 429, Hannah 218, Kayla 13, Madison 368, Madison 126, Alyssa 359, Elizabeth 67, Alyssa 432, Ashley 389, Samantha 20, Samantha 73, Grace 253, Taylor 130, Taylor 523, Sarah 512, Jessica 44, Sarah 86, Samantha 178, Olivia 451, Jessica 293, Hannah 266, Olivia 167, Elizabeth 157, Lauren 459, Alexis 69, Emma 454, Taylor 110, Ashley 246, Olivia 234, Olivia 21, Grace 247, Brianna 251, Jessica 147, Ashley 392, Brianna 419, Elizabeth 227, Abigail 109, Olivia 53, Taylor 176, Sarah 424, Lauren 236, Grace 515, Emma 257</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Ashley 458, Olivia 38, Elizabeth 473, Lauren 494, Emma 257, Grace 159, Grace 428, Jessica 147, Alexis 524, Olivia 376</t>
+          <t>Alyssa 4, Olivia 376, Lauren 494, Madison 352, Jessica 147, Elizabeth 486, Grace 256, Abigail 71, Olivia 154, Alexis 294</t>
         </is>
       </c>
     </row>
@@ -692,12 +698,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Emma 142, Isabella 63, Alyssa 366, Alyssa 132, Elizabeth 174, Samantha 27, Grace 99, Emma 216, Elizabeth 472, Brianna 388, Jessica 147, Emily 439, Madison 519, Sarah 424, Emma 77, Isabella 375, Hannah 467, Brianna 438, Grace 463, Lauren 346, Emma 58, Samantha 178, Olivia 496, Alexis 470, Grace 431, Jessica 189, Ashley 326, Ashley 140, Lauren 170, Alyssa 491, Emma 387, Alyssa 304, Kayla 272, Grace 122, Jessica 425, Abigail 71, Samantha 462, Olivia 53, Lauren 430, Olivia 237, Ashley 84, Sarah 501, Grace 263, Madison 464, Ashley 198</t>
+          <t>Elizabeth 472, Emma 216, Elizabeth 174, Alyssa 366, Samantha 27, Alyssa 132, Emma 142, Grace 99, Isabella 63, Ashley 326, Brianna 388, Brianna 438, Emma 77, Hannah 467, Olivia 237, Alyssa 304, Olivia 496, Grace 122, Samantha 178, Lauren 430, Emma 58, Ashley 140, Emily 439, Madison 519, Grace 431, Jessica 189, Olivia 53, Isabella 375, Alyssa 491, Sarah 424, Lauren 170, Samantha 462, Jessica 147, Kayla 7, Jessica 425, Emma 387, Grace 463, Kayla 272, Madison 464, Lauren 258, Madison 196, Brianna 88, Alexis 335, Taylor 151, Alexis 171</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Abigail 105, Brianna 373, Isabella 342, Emma 58, Brianna 180, Alexis 470, Brianna 88, Taylor 394, Alyssa 132, Grace 411</t>
+          <t>Hannah 181, Emma 58, Elizabeth 262, Isabella 342, Madison 322, Jessica 383, Emily 97, Sarah 501, Jessica 163, Alexis 104</t>
         </is>
       </c>
     </row>
@@ -709,12 +715,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Taylor 106, Alexis 335, Elizabeth 422, Isabella 241, Emma 142, Hannah 218, Isabella 183, Lauren 457, Alyssa 435, Abigail 212, Alexis 171, Samantha 27, Samantha 402, Emma 28, Brianna 433, Isabella 295, Alexis 112, Lauren 494, Abigail 113, Taylor 215, Kayla 51, Isabella 375, Grace 253, Ashley 412</t>
+          <t>Emma 28, Alexis 171, Elizabeth 422, Samantha 27, Lauren 457, Hannah 218, Alexis 335, Abigail 212, Isabella 241, Isabella 183, Taylor 106, Alyssa 435, Brianna 433, Emma 142, Samantha 402, Jessica 219, Olivia 477, Abigail 113, Grace 253, Isabella 295, Alexis 36, Ashley 412, Hannah 16, Lauren 494</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Sarah 277, Olivia 376, Elizabeth 116, Hannah 16, Alexis 36, Grace 282, Hannah 129, Isabella 275, Elizabeth 364, Olivia 477</t>
+          <t>Taylor 215, Elizabeth 364, Grace 282, Alexis 112, Grace 111, Emma 404, Sarah 277, Elizabeth 116, Hannah 129, Olivia 376</t>
         </is>
       </c>
     </row>
@@ -726,12 +732,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jessica 278, Abigail 131, Sarah 74, Elizabeth 476, Hannah 194, Alyssa 233, Emily 146, Lauren 33, Brianna 153, Samantha 487, Olivia 259, Samantha 271, Taylor 145, Hannah 266, Kayla 7, Abigail 105, Emily 439, Grace 159, Brianna 197, Hannah 287, Samantha 382, Alyssa 421, Lauren 101, Grace 511</t>
+          <t>Lauren 33, Brianna 153, Elizabeth 476, Olivia 259, Alyssa 233, Abigail 131, Jessica 278, Sarah 74, Samantha 487, Samantha 271, Emily 146, Hannah 194, Samantha 382, Taylor 145, Taylor 130, Brianna 197, Abigail 105, Olivia 237, Alyssa 421, Hannah 287, Hannah 266, Emma 217, Ashley 414, Emma 72</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Grace 256, Sarah 277, Alexis 261, Elizabeth 79, Taylor 130, Olivia 40, Grace 83, Emma 72, Hannah 16, Emily 135</t>
+          <t>Samantha 484, Elizabeth 79, Grace 159, Kayla 235, Grace 256, Emily 439, Sarah 277, Brianna 42, Alexis 468, Lauren 249</t>
         </is>
       </c>
     </row>
@@ -743,12 +749,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Emily 37, Alexis 381, Jessica 191, Lauren 360, Kayla 15, Emma 142, Ashley 198, Elizabeth 67, Alexis 316, Lauren 49, Jessica 506, Samantha 211, Samantha 302, Kayla 252, Jessica 383, Emma 55, Grace 30, Hannah 266, Emily 390, Jessica 521, Brianna 418, Grace 267, Isabella 485, Grace 463, Elizabeth 157</t>
+          <t>Samantha 302, Kayla 252, Ashley 198, Alexis 316, Jessica 191, Emily 37, Alexis 381, Lauren 360, Kayla 15, Jessica 506, Lauren 49, Emma 142, Jessica 383, Samantha 211, Elizabeth 67, Emma 55, Grace 292, Lauren 358, Ashley 389, Brianna 418, Alexis 524, Samantha 20, Emily 390, Olivia 270, Alexis 36</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Olivia 270, Abigail 296, Grace 292, Samantha 20, Emily 97, Hannah 332, Ashley 220, Madison 322, Sarah 442, Ashley 389</t>
+          <t>Jessica 70, Grace 30, Abigail 105, Alexis 45, Olivia 237, Brianna 362, Samantha 276, Elizabeth 307, Sarah 442, Hannah 266</t>
         </is>
       </c>
     </row>
@@ -760,12 +766,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Emily 37, Alexis 381, Jessica 191, Isabella 426, Isabella 342, Ashley 453, Elizabeth 436, Isabella 427, Ashley 50, Samantha 143, Abigail 255, Grace 30, Kayla 7, Hannah 287, Emily 507, Sarah 420, Isabella 485, Elizabeth 157, Elizabeth 79, Olivia 270, Samantha 327, Olivia 318</t>
+          <t>Isabella 342, Jessica 191, Isabella 426, Elizabeth 436, Emily 37, Alexis 381, Samantha 143, Ashley 453, Ashley 50, Isabella 427, Brianna 492, Sarah 420, Emily 507, Alexis 524, Olivia 270, Grace 30, Olivia 237, Abigail 255, Emma 290, Hannah 287, Elizabeth 157, Elizabeth 79</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Olivia 214, Grace 83, Ashley 195, Hannah 357, Brianna 190, Brianna 456, Olivia 234, Alexis 524, Brianna 148, Alyssa 133</t>
+          <t>Isabella 485, Brianna 456, Olivia 53, Brianna 148, Ashley 246, Hannah 357, Olivia 234, Olivia 214, Grace 511, Brianna 190</t>
         </is>
       </c>
     </row>
@@ -777,12 +783,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Taylor 121, Alyssa 493, Isabella 241, Emma 208, Alyssa 233, Brianna 221, Olivia 103, Olivia 102, Ashley 50, Elizabeth 516, Ashley 123, Elizabeth 307, Emily 390, Jessica 230, Grace 351, Samantha 382, Madison 225, Grace 321, Madison 184, Elizabeth 157, Abigail 296, Abigail 517, Emma 448, Ashley 389, Olivia 318, Elizabeth 116, Lauren 207, Kayla 379, Sarah 114</t>
+          <t>Ashley 123, Alyssa 493, Alyssa 233, Olivia 102, Brianna 221, Isabella 241, Olivia 103, Elizabeth 516, Taylor 121, Ashley 50, Emma 208, Alexis 371, Ashley 389, Lauren 207, Samantha 382, Emily 390, Kayla 379, Jessica 230, Jessica 70, Samantha 386, Emma 448, Elizabeth 307, Olivia 451, Olivia 167, Lauren 356, Elizabeth 157, Emma 9, Ashley 286, Madison 184</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Samantha 386, Samantha 250, Jessica 70, Hannah 129, Grace 263, Emma 9, Lauren 356, Ashley 286, Olivia 167, Olivia 451</t>
+          <t>Elizabeth 116, Hannah 129, Abigail 517, Grace 263, Samantha 250, Abigail 296, Grace 351, Madison 225, Sarah 114, Olivia 318</t>
         </is>
       </c>
     </row>
@@ -794,12 +800,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Madison 324, Kayla 15, Jessica 206, Taylor 288, Olivia 345, Alexis 471, Jessica 437, Isabella 244, Brianna 203, Elizabeth 436, Alexis 62, Alexis 316, Grace 199, Emma 401, Sarah 518, Emma 118, Alexis 370, Emma 454, Emma 77, Brianna 47, Brianna 418, Elizabeth 284, Emily 403, Abigail 125, Madison 415, Olivia 376, Alexis 470, Ashley 220, Samantha 327, Hannah 281, Olivia 214, Elizabeth 289, Jessica 189, Emma 300, Grace 320, Samantha 250, Ashley 481, Brianna 513, Taylor 158, Abigail 341, Elizabeth 262, Lauren 258, Hannah 314, Olivia 477, Brianna 179, Olivia 53, Abigail 177, Samantha 483, Elizabeth 328, Isabella 329</t>
+          <t>Brianna 203, Grace 199, Alexis 62, Alexis 316, Isabella 244, Jessica 437, Elizabeth 436, Emma 401, Taylor 288, Kayla 15, Emma 118, Alexis 370, Jessica 206, Madison 324, Olivia 345, Sarah 518, Alexis 471, Brianna 418, Emma 300, Olivia 477, Grace 320, Emma 77, Alexis 470, Brianna 179, Brianna 513, Lauren 258, Madison 415, Elizabeth 284, Taylor 158, Hannah 281, Ashley 220, Elizabeth 328, Emma 454, Elizabeth 289, Emily 403, Jessica 189, Elizabeth 262, Olivia 53, Hannah 314, Brianna 47, Isabella 329, Abigail 177, Samantha 483, Olivia 376, Ashley 481, Olivia 214, Samantha 250, Samantha 327, Abigail 341, Abigail 125</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Grace 256, Taylor 106, Madison 352, Abigail 413, Lauren 11, Abigail 269, Alexis 294, Sarah 501, Elizabeth 399, Olivia 384</t>
+          <t>Sarah 31, Olivia 103, Elizabeth 473, Grace 351, Lauren 249, Emma 305, Jessica 278, Abigail 413, Kayla 409, Sarah 442</t>
         </is>
       </c>
     </row>
@@ -811,12 +817,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lauren 475, Kayla 15, Taylor 254, Isabella 354, Elizabeth 391, Alyssa 39, Lauren 367, Alyssa 306, Elizabeth 436, Alexis 378, Samantha 27, Emily 445, Samantha 487, Alexis 104, Abigail 408, Isabella 295, Elizabeth 307, Emily 336, Emily 333, Abigail 406, Sarah 434, Grace 411, Brianna 205, Emily 507, Brianna 373</t>
+          <t>Emily 445, Alexis 104, Lauren 367, Alyssa 39, Abigail 408, Taylor 254, Elizabeth 391, Samantha 27, Alyssa 306, Elizabeth 436, Isabella 354, Lauren 475, Alexis 378, Samantha 487, Kayla 15, Lauren 207, Emily 507, Brianna 418, Elizabeth 473, Abigail 279, Emily 333, Isabella 295, Ashley 297, Samantha 150, Alyssa 128</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Brianna 418, Abigail 279, Ashley 84, Taylor 17, Emily 152, Madison 444, Ashley 441, Olivia 376, Hannah 281, Lauren 207</t>
+          <t>Brianna 205, Ashley 441, Samantha 276, Brianna 373, Elizabeth 307, Emma 257, Abigail 406, Taylor 158, Emma 72, Hannah 281</t>
         </is>
       </c>
     </row>
@@ -828,12 +834,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jessica 191, Jessica 423, Abigail 108, Kayla 407, Olivia 345, Lauren 248, Isabella 183, Lauren 457, Abigail 413, Taylor 6, Emma 28, Isabella 260, Jessica 374, Taylor 26, Sarah 424, Isabella 375, Lauren 101, Grace 267, Sarah 277, Alexis 340, Elizabeth 79, Abigail 296, Ashley 117, Lauren 358, Elizabeth 166, Grace 83, Taylor 394, Elizabeth 10</t>
+          <t>Taylor 6, Emma 28, Abigail 108, Jessica 423, Lauren 457, Jessica 191, Isabella 183, Kayla 407, Lauren 248, Olivia 345, Abigail 413, Elizabeth 10, Lauren 358, Brianna 492, Alexis 340, Hannah 317, Alexis 36, Ashley 117, Kayla 409, Elizabeth 79, Emily 34, Elizabeth 166, Emma 404, Sarah 277, Taylor 394, Taylor 26, Isabella 260, Isabella 375</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Alexis 36, Kayla 409, Emily 91, Emily 34, Brianna 492, Emma 404, Hannah 317, Madison 519, Alyssa 273, Lauren 11</t>
+          <t>Sarah 424, Abigail 296, Emily 91, Lauren 101, Jessica 374, Grace 267, Grace 83, Madison 155, Sarah 210, Alyssa 273</t>
         </is>
       </c>
     </row>
@@ -845,12 +851,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Emily 37, Alexis 381, Taylor 121, Grace 100, Taylor 115, Ashley 453, Ashley 193, Madison 204, Alyssa 359, Ashley 50, Jessica 311, Olivia 127, Olivia 124, Taylor 26, Sarah 424, Isabella 375, Samantha 68, Grace 267, Abigail 279, Ashley 84, Isabella 485, Olivia 169, Samantha 178, Brianna 299, Emily 97, Hannah 332, Elizabeth 116, Grace 431, Olivia 41, Samantha 386, Lauren 372, Alyssa 491, Jessica 70, Samantha 398, Samantha 150, Grace 48, Alyssa 304, Hannah 181, Madison 155, Abigail 406, Lauren 346, Lauren 52, Olivia 237, Ashley 392, Grace 22, Lauren 170, Hannah 165, Lauren 337, Isabella 3, Hannah 16</t>
+          <t>Ashley 193, Emily 37, Taylor 115, Alexis 381, Alyssa 359, Grace 100, Madison 204, Ashley 453, Taylor 121, Ashley 50, Olivia 169, Olivia 41, Abigail 279, Samantha 150, Jessica 70, Samantha 386, Jessica 311, Hannah 181, Alyssa 304, Samantha 178, Isabella 485, Samantha 398, Grace 431, Emily 97, Olivia 124, Ashley 84, Madison 155, Elizabeth 116, Lauren 372, Taylor 26, Grace 48, Isabella 375, Brianna 299, Alyssa 491, Sarah 424, Samantha 68, Olivia 127, Grace 267, Hannah 332, Elizabeth 227, Samantha 276, Lauren 337, Grace 22, Abigail 212, Isabella 3, Ashley 392, Hannah 165, Abigail 406, Brianna 201, Lauren 170</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Grace 463, Taylor 110, Emily 333, Brianna 201, Grace 465, Olivia 259, Olivia 169, Olivia 21, Abigail 212, Samantha 302</t>
+          <t>Abigail 408, Jessica 189, Grace 465, Olivia 21, Grace 99, Alyssa 39, Emily 333, Emma 185, Emily 507, Olivia 169</t>
         </is>
       </c>
     </row>
@@ -862,12 +868,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Alexis 381, Alyssa 493, Abigail 108, Lauren 96, Ashley 240, Lauren 60, Samantha 429, Alyssa 273, Hannah 194, Elizabeth 67, Sarah 331, Lauren 85, Taylor 151, Emma 216, Jessica 461, Abigail 408, Brianna 172, Brianna 419, Brianna 197, Lauren 459, Emily 507, Grace 253, Brianna 47, Olivia 138, Ashley 412, Brianna 180, Lauren 310, Alexis 470, Lauren 207, Grace 431</t>
+          <t>Alyssa 493, Emma 216, Lauren 85, Taylor 151, Abigail 408, Lauren 60, Jessica 461, Abigail 108, Samantha 429, Sarah 331, Ashley 240, Alexis 381, Brianna 172, Lauren 96, Alyssa 273, Hannah 194, Elizabeth 67, Samantha 447, Lauren 207, Emily 507, Alexis 524, Olivia 138, Grace 253, Kayla 379, Taylor 94, Lauren 310, Alexis 470, Alyssa 128, Brianna 197, Ashley 412</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Kayla 379, Madison 162, Emma 387, Sarah 57, Samantha 447, Alexis 524, Taylor 94, Alyssa 339, Kayla 469, Alyssa 128</t>
+          <t>Sarah 57, Lauren 459, Brianna 180, Grace 431, Alyssa 245, Brianna 47, Alyssa 339, Madison 162, Alexis 294, Emma 387</t>
         </is>
       </c>
     </row>
@@ -879,12 +885,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Emily 37, Elizabeth 385, Abigail 338, Emma 238, Alexis 471, Hannah 202, Alyssa 273, Hannah 194, Emily 334, Ashley 453, Madison 54, Lauren 33, Emma 401, Brianna 153, Olivia 102, Olivia 259, Grace 99, Brianna 201, Samantha 402, Ashley 123, Samantha 211, Emma 25, Brianna 388, Emily 439, Alexis 80, Alexis 355, Olivia 138, Madison 417, Grace 213, Emily 479, Sarah 442, Kayla 466, Brianna 190, Abigail 231, Brianna 456</t>
+          <t>Lauren 33, Ashley 123, Brianna 153, Elizabeth 385, Olivia 259, Olivia 102, Emma 25, Emma 401, Emily 37, Brianna 201, Hannah 202, Emily 334, Madison 54, Ashley 453, Alyssa 273, Grace 99, Abigail 338, Hannah 194, Emma 238, Samantha 402, Samantha 211, Alexis 471, Kayla 466, Jessica 219, Olivia 138, Brianna 388, Taylor 94, Madison 417, Emma 290, Jessica 446, Sarah 442, Kayla 75, Emma 64, Alexis 355, Samantha 484</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Emma 64, Taylor 94, Kayla 75, Samantha 484, Jessica 219, Emma 290, Jessica 446, Elizabeth 328, Ashley 81, Jessica 425</t>
+          <t>Elizabeth 328, Ashley 81, Brianna 456, Emily 439, Abigail 231, Grace 213, Brianna 190, Emily 479, Alexis 80, Sarah 331</t>
         </is>
       </c>
     </row>
@@ -896,12 +902,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lauren 360, Abigail 108, Elizabeth 476, Kayla 407, Lauren 248, Alexis 35, Hannah 397, Alyssa 132, Taylor 192, Lauren 49, Alexis 104, Hannah 266, Sarah 424, Taylor 215, Hannah 287, Brianna 373, Lauren 236, Isabella 95, Abigail 296, Kayla 5, Ashley 220, Taylor 130, Abigail 503, Emma 72, Grace 320, Abigail 341, Grace 22, Alyssa 304, Elizabeth 43, Emma 9, Madison 149, Samantha 484, Sarah 86, Alexis 294, Lauren 29</t>
+          <t>Alexis 104, Elizabeth 476, Abigail 108, Alyssa 132, Hannah 397, Lauren 360, Alexis 35, Lauren 49, Kayla 407, Taylor 192, Lauren 248, Kayla 5, Isabella 95, Grace 320, Taylor 130, Alyssa 304, Grace 22, Taylor 215, Brianna 373, Hannah 287, Sarah 86, Lauren 236, Abigail 503, Hannah 266, Emma 9, Emma 72, Madison 149, Ashley 220, Lauren 29, Samantha 483, Elizabeth 43, Sarah 424, Alexis 294, Abigail 296, Abigail 341</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Samantha 483, Grace 256, Abigail 406, Kayla 272, Samantha 271, Emma 238, Ashley 481, Lauren 457, Lauren 309, Elizabeth 449</t>
+          <t>Isabella 187, Emma 238, Samantha 271, Sarah 210, Hannah 397, Abigail 125, Jessica 278, Alexis 468, Lauren 457, Grace 120</t>
         </is>
       </c>
     </row>
@@ -913,12 +919,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jessica 191, Taylor 121, Jessica 278, Elizabeth 385, Alyssa 4, Emma 142, Jessica 206, Alyssa 273, Isabella 183, Alyssa 233, Elizabeth 67, Sarah 210, Elizabeth 436, Olivia 103, Grace 199, Madison 204, Taylor 151, Brianna 153, Alyssa 359, Samantha 27</t>
+          <t>Grace 199, Brianna 153, Elizabeth 385, Alyssa 4, Alyssa 233, Taylor 151, Abigail 408, Samantha 27, Jessica 191, Elizabeth 436, Jessica 278, Elizabeth 449, Olivia 103, Isabella 183, Sarah 210, Alyssa 359, Madison 204, Emma 142, Alexis 370, Alyssa 273</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Alexis 370, Elizabeth 449, Abigail 408, Elizabeth 307, Lauren 494, Emily 336, Grace 120, Olivia 124, Olivia 502, Sarah 482</t>
+          <t>Jessica 206, Taylor 121, Elizabeth 67, Kayla 466, Samantha 150, Olivia 502, Kayla 369, Sarah 482, Lauren 494, Grace 120</t>
         </is>
       </c>
     </row>
@@ -930,12 +936,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hannah 323, Lauren 360, Ashley 78, Alexis 335, Isabella 63, Jessica 206, Ashley 240, Emily 229, Ashley 198, Emma 98, Hannah 397, Sarah 210, Brianna 221, Taylor 509, Ashley 168, Jessica 230, Olivia 264, Sarah 482, Samantha 480, Kayla 268, Brianna 200, Abigail 517, Samantha 327, Jessica 163, Olivia 214, Olivia 40, Kayla 379, Olivia 239, Emily 349, Jessica 265, Hannah 129</t>
+          <t>Ashley 198, Ashley 78, Alexis 335, Taylor 509, Hannah 323, Ashley 240, Brianna 221, Emily 229, Emma 98, Hannah 397, Lauren 360, Sarah 210, Jessica 206, Isabella 63, Ashley 168, Olivia 239, Jessica 265, Abigail 450, Kayla 379, Emily 349, Olivia 264, Jessica 230, Sarah 482, Hannah 129, Abigail 517, Olivia 40, Samantha 480, Jessica 163, Kayla 268, Olivia 214, Brianna 92</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Abigail 450, Brianna 92, Emily 445, Isabella 63, Samantha 271, Grace 321, Abigail 517, Olivia 318, Abigail 82, Isabella 241</t>
+          <t>Samantha 327, Brianna 200, Abigail 82, Lauren 337, Isabella 241, Jessica 446, Samantha 271, Sarah 518, Elizabeth 364, Madison 162</t>
         </is>
       </c>
     </row>
@@ -947,12 +953,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lauren 475, Jessica 423, Hannah 194, Sarah 331, Lauren 33, Madison 204, Alexis 378, Brianna 153, Abigail 490, Sarah 2, Samantha 402, Emma 55, Lauren 337, Grace 120, Alexis 80, Lauren 459, Alexis 355, Alexis 261, Ashley 441, Isabella 187, Alyssa 440, Abigail 344, Elizabeth 262, Hannah 314, Alyssa 133, Brianna 92, Ashley 414, Elizabeth 141, Emma 404, Ashley 246, Madison 352</t>
+          <t>Lauren 33, Brianna 153, Sarah 331, Jessica 423, Sarah 2, Lauren 475, Alexis 378, Madison 204, Hannah 194, Samantha 402, Abigail 490, Emma 55, Abigail 344, Alyssa 440, Ashley 441, Grace 120, Isabella 187, Alexis 355, Ashley 414, Lauren 459, Emma 404, Elizabeth 262, Lauren 337, Hannah 314, Ashley 246, Alexis 261, Alyssa 133, Elizabeth 141, Alexis 80, Abigail 82, Lauren 232</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Brianna 513, Alyssa 421, Madison 184, Brianna 492, Abigail 82, Hannah 194, Lauren 170, Olivia 504, Sarah 107, Kayla 407</t>
+          <t>Olivia 137, Hannah 467, Elizabeth 43, Abigail 291, Lauren 170, Samantha 402, Madison 352, Sarah 107, Olivia 504, Taylor 192</t>
         </is>
       </c>
     </row>
@@ -964,9 +970,10 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sarah 315, Olivia 318, Isabella 485</t>
-        </is>
-      </c>
+          <t>Sarah 315, Emily 405, Samantha 488</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -974,6 +981,8 @@
           <t>Programmeerimine keeles Java 2</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -983,12 +992,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Olivia 416, Taylor 106, Sarah 74, Elizabeth 422, Lauren 96, Isabella 244, Brianna 203, Jessica 23, Lauren 457, Grace 396, Alexis 365, Olivia 504, Lauren 52, Brianna 172, Abigail 255, Lauren 494, Ashley 510, Madison 301, Sarah 512, Lauren 236, Sarah 277, Kayla 5, Samantha 327, Emily 505, Brianna 361, Olivia 214, Olivia 384, Jessica 32, Elizabeth 473, Grace 282</t>
+          <t>Brianna 203, Elizabeth 422, Lauren 457, Isabella 244, Sarah 74, Taylor 106, Olivia 504, Brianna 172, Lauren 96, Grace 396, Lauren 52, Olivia 416, Alexis 365, Jessica 23, Emily 505, Kayla 5, Elizabeth 473, Madison 301, Lauren 494, Sarah 512, Abigail 255, Lauren 236, Jessica 32, Olivia 134, Grace 282, Samantha 484, Emily 405, Samantha 398, Abigail 109, Sarah 277</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Samantha 398, Samantha 484, Olivia 134, Kayla 469, Emily 405, Abigail 109, Abigail 413, Olivia 502, Emily 349, Lauren 346</t>
+          <t>Ashley 510, Brianna 361, Olivia 214, Samantha 327, Kayla 469, Grace 280, Jessica 44, Elizabeth 79, Ashley 286, Abigail 108</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1009,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Abigail 108, Alyssa 19, Emma 142, Isabella 63, Elizabeth 391, Emma 238, Alyssa 39, Brianna 88, Madison 368, Olivia 103, Hannah 59, Lauren 457, Alyssa 366, Alexis 365, Taylor 151, Lauren 49, Alexis 171, Olivia 102, Isabella 427, Elizabeth 307, Emma 185, Ashley 510, Emily 390, Olivia 186, Sarah 512, Alexis 80, Olivia 502, Taylor 215, Kayla 51, Madison 225, Sarah 420, Isabella 474, Brianna 180, Olivia 270, Alexis 443, Madison 322, Emma 305, Ashley 195, Elizabeth 473, Abigail 291, Emma 350, Kayla 75, Grace 428, Jessica 425, Kayla 369, Alexis 294, Lauren 430, Ashley 246, Samantha 484, Samantha 298</t>
+          <t>Alyssa 19, Brianna 88, Olivia 102, Taylor 151, Alyssa 39, Alexis 171, Abigail 108, Alyssa 366, Hannah 59, Elizabeth 391, Lauren 457, Olivia 103, Madison 368, Lauren 49, Emma 142, Emma 238, Alexis 365, Isabella 63, Isabella 427, Grace 428, Sarah 420, Kayla 51, Elizabeth 473, Isabella 474, Emily 390, Emma 305, Olivia 270, Olivia 502, Kayla 369, Emma 185, Sarah 512, Emma 350, Taylor 215, Elizabeth 307, Kayla 75, Lauren 430, Abigail 291, Alexis 443, Brianna 180, Ashley 510, Ashley 246, Olivia 186, Alexis 294, Madison 225, Jessica 425, Ashley 195, Alexis 80, Madison 322, Jessica 44, Sarah 312</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Emma 404, Grace 511, Isabella 474, Grace 30, Brianna 42, Alyssa 493, Sarah 518, Hannah 194, Hannah 281, Elizabeth 116</t>
+          <t>Grace 30, Grace 285, Madison 149, Elizabeth 116, Brianna 438, Alyssa 366, Brianna 418, Hannah 194, Samantha 298, Brianna 388</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1026,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Madison 173, Elizabeth 385, Emily 87, Abigail 338, Hannah 218, Madison 126, Alyssa 308, Lauren 452, Samantha 429, Isabella 183, Isabella 160, Elizabeth 67, Alyssa 435, Grace 396, Alyssa 508, Lauren 12, Samantha 143, Elizabeth 472, Abigail 255, Madison 301, Jessica 230, Lauren 11, Lauren 459, Samantha 480, Hannah 467, Jessica 293, Alexis 340, Sarah 315, Jessica 163, Jessica 175, Alyssa 432, Sarah 107, Ashley 283, Alexis 343, Elizabeth 166, Taylor 394, Madison 243, Ashley 458, Grace 282, Emma 387, Kayla 409, Emma 9, Alyssa 339, Isabella 353, Kayla 272, Abigail 82, Emily 405, Ashley 286, Olivia 167, Alyssa 273</t>
+          <t>Madison 173, Lauren 12, Elizabeth 472, Elizabeth 385, Alyssa 308, Samantha 429, Alyssa 508, Hannah 218, Isabella 183, Alyssa 435, Lauren 452, Madison 126, Isabella 160, Grace 396, Samantha 143, Abigail 338, Emily 87, Elizabeth 67, Alyssa 432, Alexis 340, Jessica 230, Hannah 467, Jessica 175, Sarah 107, Madison 301, Abigail 82, Lauren 11, Abigail 255, Alexis 343, Kayla 409, Sarah 315, Jessica 293, Grace 282, Olivia 167, Emma 9, Ashley 286, Lauren 459, Emily 405, Elizabeth 166, Madison 243, Ashley 458, Taylor 394, Isabella 353, Alyssa 339, Samantha 480, Jessica 163, Ashley 283, Emma 387, Kayla 272, Sarah 2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Sarah 86, Jessica 325, Grace 263, Madison 464, Ashley 198, Olivia 318, Lauren 309, Abigail 82, Elizabeth 472, Jessica 374</t>
+          <t>Madison 301, Olivia 53, Sarah 210, Madison 368, Jessica 265, Alyssa 273, Madison 464, Hannah 393, Taylor 176, Taylor 288</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1043,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Madison 173, Abigail 131, Taylor 288, Emily 229, Alyssa 273, Emily 334, Alexis 316, Emma 401, Alexis 370, Emma 55, Hannah 119, Emma 454, Sarah 512, Taylor 26, Grace 247, Brianna 205</t>
+          <t>Madison 173, Abigail 131, Alexis 316, Emma 401, Emily 229, Taylor 288, Emily 334, Alexis 370, Alyssa 273, Emma 55, Ashley 297, Brianna 205, Sarah 512, Emma 448, Samantha 178, Madison 464</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Alyssa 380, Isabella 161, Grace 463, Lauren 236, Brianna 180, Samantha 178, Olivia 154, Emma 448, Elizabeth 166, Jessica 189</t>
+          <t>Alexis 69, Emma 454, Elizabeth 166, Brianna 180, Jessica 189, Brianna 42, Lauren 372, Taylor 26, Olivia 154, Grace 89</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1060,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Emily 228, Elizabeth 385, Taylor 254, Emily 87, Elizabeth 476, Olivia 137, Emma 238, Lauren 452, Lauren 60, Isabella 160, Elizabeth 436, Emily 146, Emily 445, Sarah 377, Samantha 211, Emily 144, Lauren 90, Jessica 311, Jessica 521, Taylor 215, Grace 515, Brianna 205, Grace 280, Emily 152, Elizabeth 79</t>
+          <t>Emily 445, Elizabeth 476, Elizabeth 385, Lauren 90, Lauren 60, Taylor 254, Olivia 137, Elizabeth 436, Lauren 452, Emily 228, Emily 144, Emily 146, Isabella 160, Sarah 377, Emily 87, Emma 238, Samantha 211, Samantha 298, Emma 305, Brianna 205, Jessica 311, Sarah 312, Taylor 215, Hannah 165, Emma 217</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Sarah 312, Hannah 165, Emma 305, Samantha 298, Emma 217, Abigail 131, Abigail 269, Alexis 365, Grace 247, Jessica 506</t>
+          <t>Elizabeth 79, Jessica 521, Emily 152, Grace 515, Sarah 434, Brianna 419, Lauren 56, Madison 149, Isabella 427, Emily 135</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1077,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Madison 126, Alyssa 308, Alexis 471, Samantha 429, Alexis 35, Emily 334, Ashley 193, Lauren 49, Brianna 61, Alexis 69, Isabella 347, Ashley 392, Isabella 485, Taylor 110, Taylor 130, Alyssa 432, Ashley 283, Taylor 394, Madison 243, Abigail 514, Sarah 156, Hannah 16, Taylor 158, Olivia 234, Isabella 275, Elizabeth 364, Madison 155</t>
+          <t>Ashley 193, Alyssa 308, Samantha 429, Brianna 61, Madison 126, Emily 334, Alexis 35, Lauren 49, Alexis 471, Alyssa 432, Jessica 219, Sarah 156, Taylor 130, Hannah 16, Emma 290, Elizabeth 364, Taylor 158, Alexis 69, Isabella 485, Madison 243, Madison 155, Taylor 394, Alexis 468, Alyssa 245, Taylor 110, Abigail 177, Samantha 483</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Jessica 219, Alyssa 245, Alexis 468, Abigail 177, Emma 290, Olivia 21, Samantha 483, Emma 118, Brianna 419, Alexis 294</t>
+          <t>Olivia 234, Olivia 21, Ashley 283, Isabella 275, Ashley 392, Abigail 514, Isabella 347, Isabella 187, Samantha 276, Emma 118</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1094,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ashley 78, Emily 330, Emma 499, Kayla 188, Grace 100, Lauren 452, Lauren 248, Alyssa 233, Ashley 460, Taylor 6, Sarah 400, Brianna 201, Abigail 490, Brianna 61, Jessica 66, Alexis 69, Brianna 388, Lauren 93</t>
+          <t>Emma 499, Taylor 6, Alyssa 233, Sarah 400, Ashley 78, Brianna 201, Lauren 452, Brianna 61, Kayla 188, Ashley 460, Grace 100, Jessica 66, Lauren 248, Abigail 490, Emily 330, Abigail 71, Kayla 51, Isabella 474</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Abigail 113, Sarah 424, Kayla 51, Brianna 205, Elizabeth 157, Isabella 474, Sarah 277, Isabella 95, Taylor 110, Alexis 443</t>
+          <t>Olivia 41, Brianna 388, Abigail 113, Isabella 95, Emma 305, Samantha 386, Brianna 205, Hannah 165, Abigail 503, Elizabeth 157</t>
         </is>
       </c>
     </row>
@@ -1102,9 +1111,10 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ashley 78, Emily 330, Emma 499, Kayla 188, Grace 100, Lauren 452, Lauren 248, Alyssa 233, Ashley 460, Taylor 6, Sarah 400, Brianna 201, Abigail 490, Brianna 61, Jessica 66, Alexis 69, Brianna 388, Lauren 93</t>
-        </is>
-      </c>
+          <t>Emma 499, Taylor 6, Alyssa 233, Sarah 400, Ashley 78, Brianna 201, Lauren 452, Brianna 61, Kayla 188, Ashley 460, Grace 100, Jessica 66, Lauren 248, Abigail 490, Emily 330, Abigail 71, Kayla 51, Isabella 474</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1114,9 +1124,10 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ashley 78, Emily 330, Emma 499, Kayla 188, Grace 100, Lauren 452, Lauren 248, Alyssa 233, Ashley 460, Taylor 6, Sarah 400, Brianna 201, Abigail 490, Brianna 61, Jessica 66, Alexis 69, Brianna 388, Lauren 93</t>
-        </is>
-      </c>
+          <t>Emma 499, Taylor 6, Alyssa 233, Sarah 400, Ashley 78, Brianna 201, Lauren 452, Brianna 61, Kayla 188, Ashley 460, Grace 100, Jessica 66, Lauren 248, Abigail 490, Emily 330, Abigail 71, Kayla 51, Isabella 474</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1126,12 +1137,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Olivia 416, Emily 330, Alyssa 19, Kayla 188, Grace 100, Alyssa 308, Alexis 62, Alexis 316, Sarah 331, Alexis 171, Sarah 400, Elizabeth 516, Samantha 143, Elizabeth 472, Lauren 90, Abigail 255, Olivia 38, Emily 390, Madison 519, Emma 77, Kayla 495, Isabella 161, Emily 403, Madison 415, Olivia 169, Hannah 332, Sarah 107, Grace 431, Olivia 41, Sarah 156, Sarah 114, Samantha 386, Abigail 291, Hannah 357</t>
+          <t>Alyssa 19, Elizabeth 472, Lauren 90, Alexis 62, Alexis 171, Alyssa 308, Sarah 331, Alexis 316, Sarah 400, Elizabeth 516, Kayla 188, Samantha 143, Grace 100, Olivia 416, Emily 330, Olivia 169, Olivia 41, Emily 390, Emma 77, Sarah 156, Samantha 386, Kayla 369, Sarah 107, Abigail 82, Abigail 255, Emma 350, Kayla 495, Madison 415, Grace 282, Madison 149, Abigail 291, Emily 403, Kayla 235, Madison 519</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Lauren 170, Grace 282, Emma 387, Emma 350, Kayla 272, Madison 149, Abigail 82, Alyssa 245, Kayla 369, Kayla 235</t>
+          <t>Grace 431, Alyssa 245, Olivia 38, Hannah 357, Lauren 170, Sarah 114, Emma 387, Hannah 332, Kayla 272, Isabella 161</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1154,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Alexis 381, Emma 142, Ashley 348, Elizabeth 476, Brianna 203, Jessica 23, Hannah 59, Isabella 395, Lauren 363, Olivia 504, Elizabeth 486, Brianna 61, Samantha 271, Jessica 506, Samantha 302, Isabella 347, Elizabeth 313, Jessica 521, Olivia 502, Grace 511, Ashley 412, Lauren 346, Abigail 125</t>
+          <t>Brianna 203, Elizabeth 476, Samantha 302, Hannah 59, Ashley 348, Alexis 381, Brianna 61, Olivia 504, Samantha 271, Jessica 506, Emma 142, Isabella 395, Elizabeth 486, Lauren 363, Jessica 23, Alexis 524, Emma 305, Olivia 502, Lauren 346, Ashley 412, Sarah 57, Emma 217, Emma 9</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Madison 322, Emma 305, Elizabeth 289, Lauren 249, Sarah 57, Alexis 524, Emma 217, Emma 9, Elizabeth 141, Olivia 53</t>
+          <t>Elizabeth 289, Olivia 53, Lauren 249, Grace 511, Jessica 521, Elizabeth 313, Elizabeth 141, Abigail 125, Isabella 347, Madison 322</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1171,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Taylor 226, Sarah 74, Elizabeth 422, Lauren 452, Madison 24, Lauren 232, Alyssa 366, Lauren 85, Taylor 192, Emma 118, Madison 319, Lauren 12, Alexis 498, Sarah 31, Sarah 2, Lauren 337, Jessica 311, Ashley 510, Olivia 124, Emily 65</t>
+          <t>Lauren 12, Lauren 85, Alyssa 366, Elizabeth 422, Alexis 498, Sarah 31, Sarah 2, Sarah 74, Madison 24, Lauren 452, Lauren 232, Emma 118, Madison 319, Taylor 226, Taylor 192, Ashley 326, Olivia 477, Lauren 310, Jessica 311, Sarah 312</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Hannah 287, Alyssa 380, Brianna 299, Olivia 154, Lauren 310, Emily 97, Sarah 312, Ashley 283, Brianna 361, Alexis 343</t>
+          <t>Hannah 16, Grace 22, Alexis 343, Hannah 287, Jessica 32, Ashley 140, Emily 97, Olivia 124, Elizabeth 262, Lauren 337</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1188,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Emma 499, Taylor 222, Jessica 437, Isabella 160, Brianna 88, Olivia 103, Alyssa 435, Grace 199, Kayla 139, Brianna 172, Hannah 119, Lauren 93, Alexis 112, Lauren 11, Grace 515, Samantha 382, Hannah 467, Madison 455, Grace 463, Grace 256</t>
+          <t>Emma 499, Grace 199, Brianna 88, Kayla 139, Jessica 437, Olivia 103, Alyssa 435, Taylor 222, Isabella 160, Brianna 172, Emma 300, Isabella 474, Samantha 382, Hannah 467, Alexis 45, Lauren 11, Lauren 258, Sarah 315, Abigail 503, Alexis 112</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Isabella 474, Alexis 261, Brianna 180, Emma 58, Sarah 315, Ashley 220, Abigail 503, Emma 300, Ashley 481, Alexis 45</t>
+          <t>Ashley 220, Emma 58, Grace 256, Brianna 180, Lauren 93, Ashley 481, Madison 455, Alexis 294, Alexis 261, Grace 515</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1205,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Lauren 8, Kayla 13, Elizabeth 385, Jessica 46, Alyssa 19, Emma 142, Alyssa 308, Isabella 183, Emma 98, Emma 401, Sarah 518, Abigail 212, Samantha 27, Grace 30, Isabella 3, Kayla 7</t>
+          <t>Alyssa 19, Lauren 8, Elizabeth 385, Jessica 46, Alyssa 308, Samantha 27, Emma 401, Abigail 212, Isabella 183, Emma 98, Kayla 13, Emma 142, Sarah 518, Olivia 169, Samantha 20, Emily 390</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Madison 301, Emily 390, Olivia 124, Olivia 186, Taylor 26, Madison 415, Ashley 441, Olivia 169, Samantha 20, Olivia 154</t>
+          <t>Hannah 317, Isabella 3, Alexis 36, Grace 30, Ashley 441, Madison 301, Alyssa 304, Madison 415, Emily 97, Olivia 124</t>
         </is>
       </c>
     </row>
@@ -1209,6 +1220,8 @@
           <t>Kristliku kultuuriruumi alustekstid</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1218,12 +1231,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Madison 173, Emily 37, Jessica 278, Lauren 360, Abigail 338, Isabella 342, Grace 396, Taylor 192, Taylor 509, Alexis 498, Abigail 269, Emma 25, Ashley 168, Emma 77, Samantha 480, Kayla 495</t>
+          <t>Madison 173, Isabella 342, Emma 25, Abigail 269, Jessica 278, Alexis 498, Taylor 509, Emily 37, Lauren 360, Grace 396, Taylor 192, Abigail 338, Ashley 168, Lauren 358, Sarah 420, Abigail 279</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Sarah 420, Grace 267, Alyssa 380, Abigail 279, Taylor 17, Madison 444, Brianna 299, Brianna 251, Olivia 496, Abigail 517</t>
+          <t>Abigail 450, Emma 77, Taylor 130, Sarah 107, Olivia 496, Sarah 86, Kayla 495, Sarah 442, Ashley 286, Madison 14</t>
         </is>
       </c>
     </row>
@@ -1233,6 +1246,8 @@
           <t>Loodusvaatlused ja harrastusteadus</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1242,12 +1257,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Emily 228, Madison 324, Emma 238, Olivia 345, Brianna 88, Brianna 221, Lauren 457, Lauren 49, Alyssa 359, Lauren 52, Samantha 302, Lauren 90, Emma 55, Taylor 145, Olivia 127, Jessica 230, Grace 515, Alexis 355, Madison 225, Grace 321, Lauren 346, Grace 280, Grace 213, Alyssa 432, Olivia 214, Emma 72, Hannah 357, Alexis 45, Emma 217, Grace 428, Jessica 219, Brianna 42, Alexis 468, Brianna 362, Kayla 235, Alexis 371</t>
+          <t>Lauren 90, Brianna 88, Samantha 302, Lauren 457, Brianna 221, Emily 228, Alyssa 359, Lauren 52, Lauren 49, Emma 238, Madison 324, Olivia 345, Alyssa 432, Emma 55, Alexis 371, Grace 428, Jessica 219, Grace 280, Taylor 145, Jessica 230, Lauren 346, Alexis 45, Brianna 362, Emma 217, Alexis 355, Emma 72, Kayla 235, Brianna 42, Alexis 468, Hannah 357, Grace 213, Olivia 214, Madison 225, Olivia 127, Grace 515, Grace 321</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Madison 319, Abigail 131, Sarah 86, Brianna 492, Emma 77, Elizabeth 449, Alexis 316, Grace 267, Ashley 392, Lauren 363</t>
+          <t>Samantha 382, Madison 301, Sarah 312, Emma 77, Emma 305, Emily 146, Kayla 409, Ashley 246, Elizabeth 307, Abigail 177</t>
         </is>
       </c>
     </row>
@@ -1259,12 +1274,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Olivia 416, Isabella 241, Hannah 218, Madison 126, Alexis 35, Emily 334, Hannah 397, Madison 54, Madison 368, Olivia 103, Samantha 143, Sarah 2, Jessica 383, Hannah 119, Jessica 520, Emily 333, Emma 185, Grace 411, Emily 65, Isabella 375, Sarah 501, Lauren 101, Isabella 485, Kayla 268, Elizabeth 164, Emily 403, Abigail 296, Olivia 40, Grace 83, Elizabeth 289, Abigail 514, Sarah 156</t>
+          <t>Hannah 218, Isabella 241, Sarah 2, Olivia 103, Hannah 397, Madison 368, Madison 126, Emily 334, Alexis 35, Samantha 143, Madison 54, Olivia 416, Jessica 383, Elizabeth 164, Brianna 492, Emily 333, Grace 320, Samantha 298, Sarah 156, Jessica 70, Emma 185, Olivia 237, Grace 22, Jessica 520, Emma 257, Lauren 356, Isabella 485, Elizabeth 289, Emily 403, Lauren 29, Lauren 249, Emma 76</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Grace 320, Ashley 481, Lauren 249, Jessica 70, Samantha 298, Emma 76, Grace 22, Kayla 272, Brianna 492, Lauren 356</t>
+          <t>Olivia 40, Sarah 501, Ashley 481, Isabella 375, Kayla 268, Grace 411, Abigail 296, Lauren 101, Grace 83, Kayla 272</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1291,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Grace 465, Olivia 1, Lauren 309, Grace 285, Hannah 202, Brianna 203, Alyssa 366, Isabella 395, Grace 199, Alexis 378, Olivia 102, Sarah 377, Grace 89, Elizabeth 307, Emily 336, Jessica 311, Sarah 434, Grace 120, Jessica 147, Elizabeth 313</t>
+          <t>Brianna 203, Grace 199, Lauren 309, Olivia 102, Alyssa 366, Grace 465, Olivia 1, Alexis 378, Hannah 202, Sarah 377, Isabella 395, Grace 285, Emma 300, Olivia 384, Kayla 410, Ashley 117, Brianna 179, Kayla 369, Jessica 311, Sarah 482</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Hannah 287, Sarah 482, Isabella 187, Kayla 410, Elizabeth 399, Emily 479, Ashley 117, Olivia 384, Emma 300, Lauren 170</t>
+          <t>Abigail 82, Grace 120, Isabella 187, Hannah 287, Lauren 258, Elizabeth 307, Kayla 75, Elizabeth 227, Emma 404, Elizabeth 399</t>
         </is>
       </c>
     </row>
@@ -1293,9 +1308,10 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Grace 465, Olivia 1, Lauren 309, Grace 285, Hannah 202, Brianna 203, Alyssa 366, Isabella 395, Grace 199, Alexis 378, Olivia 102, Sarah 377, Grace 89, Elizabeth 307, Emily 336, Jessica 311, Sarah 434, Grace 120, Jessica 147, Elizabeth 313</t>
-        </is>
-      </c>
+          <t>Brianna 203, Grace 199, Lauren 309, Olivia 102, Alyssa 366, Grace 465, Olivia 1, Alexis 378, Hannah 202, Sarah 377, Isabella 395, Grace 285, Emma 300, Olivia 384, Kayla 410, Ashley 117, Brianna 179, Kayla 369, Jessica 311, Sarah 482</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1305,9 +1321,10 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Grace 465, Olivia 1, Lauren 309, Grace 285, Hannah 202, Brianna 203, Alyssa 366, Isabella 395, Grace 199, Alexis 378, Olivia 102, Sarah 377, Grace 89, Elizabeth 307, Emily 336, Jessica 311, Sarah 434, Grace 120, Jessica 147, Elizabeth 313</t>
-        </is>
-      </c>
+          <t>Brianna 203, Grace 199, Lauren 309, Olivia 102, Alyssa 366, Grace 465, Olivia 1, Alexis 378, Hannah 202, Sarah 377, Isabella 395, Grace 285, Emma 300, Olivia 384, Kayla 410, Ashley 117, Brianna 179, Kayla 369, Jessica 311, Sarah 482</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1317,12 +1334,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hannah 323, Taylor 254, Emily 87, Isabella 63, Emma 208, Alexis 471, Jessica 437, Alexis 62, Alyssa 132, Ashley 478, Elizabeth 174, Hannah 522, Madison 319, Olivia 504, Sarah 31, Samantha 271, Lauren 337, Abigail 105, Olivia 502, Samantha 68, Samantha 224, Samantha 382, Grace 511, Ashley 84, Lauren 236</t>
+          <t>Ashley 478, Hannah 522, Elizabeth 174, Alexis 62, Taylor 254, Alyssa 132, Jessica 437, Hannah 323, Sarah 31, Olivia 504, Samantha 271, Madison 319, Emily 87, Isabella 63, Alexis 471, Emma 208, Kayla 466, Emily 505, Jessica 265, Samantha 382, Samantha 18, Olivia 502, Abigail 105, Lauren 236, Samantha 224</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Samantha 18, Emily 505, Kayla 466, Alyssa 491, Abigail 231, Lauren 223, Jessica 265, Grace 48, Isabella 353, Madison 155</t>
+          <t>Lauren 430, Lauren 223, Ashley 84, Madison 155, Lauren 337, Abigail 177, Isabella 353, Abigail 231, Grace 48, Grace 511</t>
         </is>
       </c>
     </row>
@@ -1334,9 +1351,10 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hannah 323, Taylor 254, Emily 87, Isabella 63, Emma 208, Alexis 471, Jessica 437, Alexis 62, Alyssa 132, Ashley 478, Elizabeth 174, Hannah 522, Madison 319, Olivia 504, Sarah 31, Samantha 271, Lauren 337, Abigail 105, Olivia 502, Samantha 68, Samantha 224, Samantha 382, Grace 511, Ashley 84, Lauren 236</t>
-        </is>
-      </c>
+          <t>Ashley 478, Hannah 522, Elizabeth 174, Alexis 62, Taylor 254, Alyssa 132, Jessica 437, Hannah 323, Sarah 31, Olivia 504, Samantha 271, Madison 319, Emily 87, Isabella 63, Alexis 471, Emma 208, Kayla 466, Emily 505, Jessica 265, Samantha 382, Samantha 18, Olivia 502, Abigail 105, Lauren 236, Samantha 224</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1346,9 +1364,10 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Hannah 323, Taylor 254, Emily 87, Isabella 63, Emma 208, Alexis 471, Jessica 437, Alexis 62, Alyssa 132, Ashley 478, Elizabeth 174, Hannah 522, Madison 319, Olivia 504, Sarah 31, Samantha 271, Lauren 337, Abigail 105, Olivia 502, Samantha 68, Samantha 224, Samantha 382, Grace 511, Ashley 84, Lauren 236</t>
-        </is>
-      </c>
+          <t>Ashley 478, Hannah 522, Elizabeth 174, Alexis 62, Taylor 254, Alyssa 132, Jessica 437, Hannah 323, Sarah 31, Olivia 504, Samantha 271, Madison 319, Emily 87, Isabella 63, Alexis 471, Emma 208, Kayla 466, Emily 505, Jessica 265, Samantha 382, Samantha 18, Olivia 502, Abigail 105, Lauren 236, Samantha 224</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1358,12 +1377,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Lauren 475, Jessica 191, Alyssa 4, Kayla 15, Alexis 335, Isabella 354, Elizabeth 391, Ashley 198, Emily 146, Abigail 413, Ashley 193, Alyssa 508, Samantha 487, Alexis 370, Ashley 123, Jessica 506, Hannah 266, Emma 454</t>
+          <t>Ashley 193, Ashley 123, Alyssa 4, Alyssa 508, Elizabeth 391, Ashley 198, Jessica 191, Alexis 335, Isabella 354, Lauren 475, Samantha 487, Kayla 15, Emily 146, Jessica 506, Alexis 370, Abigail 413, Ashley 389, Ashley 326</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Sarah 512, Grace 247, Ashley 392, Isabella 161, Emma 58, Samantha 178, Sarah 312, Madison 322, Emma 448, Ashley 389</t>
+          <t>Elizabeth 473, Samantha 73, Ashley 297, Jessica 175, Sarah 312, Sarah 512, Emma 290, Emma 350, Grace 122, Emma 448</t>
         </is>
       </c>
     </row>
@@ -1375,12 +1394,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Emily 330, Abigail 131, Elizabeth 422, Kayla 188, Olivia 345, Ashley 460, Jessica 23, Sarah 331, Ashley 193, Kayla 139, Elizabeth 472, Abigail 255, Olivia 38, Jessica 44, Isabella 260, Madison 301, Lauren 459, Jessica 293, Isabella 161, Elizabeth 284, Alexis 261, Madison 444, Madison 415, Samantha 178, Olivia 376, Olivia 496, Kayla 410, Hannah 165, Madison 322, Jessica 175, Lauren 136</t>
+          <t>Ashley 193, Elizabeth 472, Elizabeth 422, Kayla 139, Sarah 331, Abigail 131, Kayla 188, Ashley 460, Olivia 345, Emily 330, Jessica 23, Olivia 239, Alexis 371, Kayla 410, Alyssa 128, Jessica 175, Samantha 386, Madison 301, Olivia 496, Abigail 255, Jessica 44, Hannah 165, Samantha 178, Madison 415, Elizabeth 284, Jessica 293, Taylor 158, Lauren 430, Lauren 459, Lauren 223, Jessica 189</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Jessica 189, Samantha 386, Brianna 190, Olivia 239, Taylor 158, Lauren 223, Madison 155, Alyssa 133, Kayla 469, Alyssa 128</t>
+          <t>Madison 155, Olivia 38, Isabella 260, Olivia 376, Lauren 136, Alexis 261, Madison 444, Brianna 190, Alyssa 133, Kayla 469</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1411,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Taylor 106, Ashley 78, Jessica 423, Emily 87, Grace 285, Abigail 338, Ashley 240, Emma 208, Taylor 288, Taylor 115, Emily 229, Ashley 453, Lauren 457, Emma 118, Emily 445, Olivia 504, Sarah 377, Samantha 302, Lauren 93, Abigail 406, Emily 390, Emily 507, Kayla 495, Ashley 84, Elizabeth 164, Samantha 18, Emma 58, Lauren 310, Sarah 312, Hannah 281</t>
+          <t>Emily 445, Samantha 302, Jessica 423, Lauren 457, Ashley 78, Ashley 240, Taylor 115, Taylor 106, Emily 229, Taylor 288, Olivia 504, Emma 118, Sarah 377, Ashley 453, Abigail 338, Emily 87, Grace 285, Emma 208, Elizabeth 164, Emily 505, Emily 507, Emma 300, Emily 390, Lauren 310, Samantha 18, Jessica 70, Sarah 312, Hannah 16, Kayla 495, Lauren 258</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Emily 505, Elizabeth 116, Taylor 394, Emma 300, Hannah 16, Jessica 70, Lauren 489, Taylor 500, Madison 464, Isabella 242</t>
+          <t>Abigail 406, Taylor 500, Hannah 281, Madison 464, Emma 58, Ashley 81, Ashley 84, Elizabeth 116, Taylor 394, Olivia 53</t>
         </is>
       </c>
     </row>
@@ -1409,9 +1428,10 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Taylor 106, Emma 208, Emily 445, Lauren 93, Emily 507, Emma 58, Kayla 495, Lauren 310</t>
-        </is>
-      </c>
+          <t>Emily 445, Taylor 106, Emma 208, Emily 507, Kayla 495, Lauren 310</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1421,12 +1441,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Alyssa 39, Madison 368, Emma 401, Sarah 518, Lauren 363, Madison 319, Samantha 143, Samantha 271, Jessica 506, Brianna 433, Jessica 383, Brianna 419, Isabella 295, Jessica 520, Grace 30, Emma 185, Sarah 434, Kayla 7</t>
+          <t>Alyssa 39, Emma 401, Brianna 433, Madison 368, Samantha 271, Jessica 506, Madison 319, Samantha 143, Jessica 383, Sarah 518, Lauren 363, Abigail 71, Grace 280, Olivia 384, Isabella 295, Alexis 470, Lauren 346, Brianna 179</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Elizabeth 313, Brianna 205, Grace 511, Madison 225, Ashley 412, Lauren 346, Taylor 17, Grace 280, Ashley 441, Brianna 251</t>
+          <t>Grace 30, Brianna 205, Ashley 441, Sarah 107, Ashley 412, Emma 185, Jessica 446, Jessica 520, Samantha 488, Taylor 17</t>
         </is>
       </c>
     </row>
@@ -1438,9 +1458,10 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Alyssa 39, Madison 368, Emma 401, Sarah 518, Lauren 363, Madison 319, Samantha 143, Samantha 271, Jessica 506, Brianna 433, Jessica 383, Brianna 419, Isabella 295, Jessica 520, Grace 30, Emma 185, Sarah 434, Kayla 7</t>
-        </is>
-      </c>
+          <t>Alyssa 39, Emma 401, Brianna 433, Madison 368, Samantha 271, Jessica 506, Madison 319, Samantha 143, Jessica 383, Sarah 518, Lauren 363, Abigail 71, Grace 280, Olivia 384, Isabella 295, Alexis 470, Lauren 346, Brianna 179</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1450,12 +1471,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lauren 475, Alyssa 493, Isabella 354, Lauren 96, Lauren 367, Isabella 244, Emma 98, Lauren 33, Sarah 400, Taylor 509, Ashley 50, Lauren 12, Ashley 123, Hannah 119, Lauren 337, Jessica 374, Ashley 510, Emily 439, Olivia 186, Samantha 382, Hannah 467, Abigail 279, Isabella 474, Madison 417, Alexis 340, Brianna 180</t>
+          <t>Lauren 33, Ashley 123, Lauren 12, Alyssa 493, Lauren 367, Sarah 400, Isabella 244, Taylor 509, Isabella 354, Lauren 475, Emma 98, Lauren 96, Ashley 50, Lauren 358, Alexis 340, Alexis 524, Isabella 474, Samantha 382, Abigail 279, Abigail 450, Kayla 379, Olivia 270, Hannah 467, Madison 417, Brianna 362, Kayla 409</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Olivia 270, Emily 97, Abigail 517, Lauren 358, Kayla 379, Jessica 32, Hannah 357, Lauren 249, Kayla 409, Alexis 524</t>
+          <t>Elizabeth 364, Emma 257, Jessica 32, Ashley 414, Brianna 180, Emily 439, Emily 97, Lauren 337, Lauren 249, Abigail 517</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1488,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hannah 323, Madison 126, Lauren 60, Samantha 429, Hannah 194, Alyssa 306, Alexis 62, Isabella 395, Isabella 427, Hannah 522, Samantha 487, Brianna 201, Abigail 490, Sarah 2, Brianna 61, Lauren 52, Abigail 269, Isabella 3</t>
+          <t>Hannah 522, Alexis 62, Lauren 60, Samantha 429, Abigail 269, Alyssa 306, Hannah 323, Sarah 2, Brianna 201, Samantha 487, Brianna 61, Madison 126, Lauren 52, Isabella 395, Hannah 194, Abigail 490, Isabella 427, Elizabeth 10</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Abigail 113, Sarah 512, Grace 247, Samantha 68, Brianna 438, Sarah 277, Emily 403, Brianna 200, Sarah 442, Olivia 41</t>
+          <t>Olivia 41, Olivia 477, Abigail 113, Brianna 438, Isabella 3, Alexis 36, Sarah 512, Sarah 442, Grace 282, Madison 14</t>
         </is>
       </c>
     </row>
@@ -1484,12 +1505,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Kayla 13, Madison 352, Lauren 309, Isabella 241, Emma 499, Elizabeth 391, Alexis 471, Jessica 437, Emily 334, Brianna 221, Olivia 274, Abigail 413, Alexis 378, Elizabeth 516, Jessica 461, Alexis 498</t>
+          <t>Emma 499, Olivia 274, Lauren 309, Jessica 461, Elizabeth 391, Jessica 437, Alexis 498, Sarah 31, Madison 352, Brianna 221, Isabella 241, Elizabeth 516, Alexis 378, Emily 144, Kayla 13, Emily 334</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Sarah 31, Emily 144, Brianna 172, Grace 515, Emma 77, Brianna 197, Elizabeth 157, Emily 152, Isabella 187, Taylor 523</t>
+          <t>Brianna 172, Abigail 413, Alexis 471, Emily 349, Emma 77, Ashley 117, Brianna 197, Brianna 513, Taylor 523, Isabella 187</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1522,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Lauren 475, Taylor 226, Lauren 96, Alyssa 308, Alexis 35, Isabella 160, Abigail 413, Brianna 153, Lauren 49, Emily 445, Jessica 506, Jessica 520, Emma 185, Lauren 459, Sarah 501, Samantha 480, Alexis 355, Olivia 138, Samantha 20, Grace 431, Madison 243, Ashley 481, Abigail 231, Abigail 341</t>
+          <t>Emily 445, Brianna 153, Alyssa 308, Lauren 475, Jessica 506, Isabella 160, Alexis 35, Lauren 96, Lauren 49, Taylor 226, Abigail 413, Alexis 371, Kayla 497, Samantha 20, Olivia 138, Emma 185, Hannah 181, Grace 22, Jessica 520, Elizabeth 307, Olivia 134, Alexis 355, Lauren 430, Lauren 459</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Grace 22, Hannah 314, Emma 9, Kayla 497, Hannah 181, Olivia 134, Jessica 425, Lauren 430, Elizabeth 227, Jessica 325</t>
+          <t>Elizabeth 227, Kayla 235, Grace 431, Madison 243, Lauren 93, Hannah 314, Abigail 231, Samantha 480, Sarah 501, Jessica 325</t>
         </is>
       </c>
     </row>
@@ -1518,12 +1539,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Taylor 121, Jessica 423, Abigail 338, Olivia 137, Elizabeth 391, Madison 126, Taylor 192, Samantha 487, Jessica 383, Lauren 56, Grace 159, Jessica 230, Emma 77, Emily 65, Kayla 495, Ashley 392, Brianna 299, Ashley 389, Jessica 163, Ashley 117, Emily 505, Emma 72, Grace 320, Emma 64, Jessica 265, Emily 91, Lauren 258, Taylor 94, Kayla 272, Samantha 488, Abigail 82, Kayla 369, Ashley 81, Olivia 451, Ashley 198, Olivia 237</t>
+          <t>Elizabeth 391, Jessica 423, Olivia 137, Samantha 487, Madison 126, Taylor 192, Abigail 338, Jessica 383, Taylor 121, Ashley 389, Grace 320, Taylor 94, Emma 77, Jessica 230, Abigail 82, Samantha 488, Kayla 495, Lauren 258, Emma 64, Emma 72, Grace 159, Ashley 81, Jessica 163, Brianna 299, Alexis 261, Emily 91, Ashley 283, Ashley 392, Lauren 56, Kayla 272, Emily 65, Lauren 337, Isabella 375, Hannah 194, Grace 89, Sarah 277</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Ashley 297, Kayla 466, Hannah 194, Brianna 61, Olivia 504, Olivia 270, Elizabeth 116, Elizabeth 10, Sarah 512, Lauren 337</t>
+          <t>Lauren 52, Grace 463, Madison 444, Ashley 297, Olivia 237, Taylor 110, Alyssa 306, Ashley 481, Ashley 198, Brianna 61</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1556,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Taylor 222, Madison 24, Lauren 12, Emma 25, Isabella 161, Isabella 95, Elizabeth 116, Kayla 379, Jessica 32, Elizabeth 289, Jessica 189, Madison 196, Alyssa 491, Isabella 275, Emma 9, Emma 404, Brianna 179, Olivia 53, Elizabeth 227, Olivia 21, Isabella 329, Emma 257, Alexis 371, Sarah 424, Emily 349, Jessica 325, Lauren 29, Hannah 194, Brianna 456, Elizabeth 364, Alexis 343, Hannah 181, Emily 34, Sarah 277, Grace 83, Ashley 441</t>
+          <t>Lauren 12, Emma 25, Madison 24, Taylor 222, Isabella 95, Kayla 379, Madison 415, Jessica 32, Elizabeth 227, Elizabeth 289, Emma 404, Jessica 189, Elizabeth 116, Olivia 53, Lauren 93, Taylor 110, Isabella 329, Alyssa 491, Olivia 21, Madison 444, Jessica 374, Elizabeth 313, Isabella 275, Madison 196, Abigail 125, Isabella 161, Kayla 235, Abigail 109, Lauren 249, Hannah 393, Lauren 372, Samantha 250, Brianna 456, Sarah 424, Abigail 517, Jessica 325</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Kayla 235, Kayla 51, Emma 76, Abigail 209, Madison 155, Madison 162, Samantha 211, Samantha 250, Abigail 109, Samantha 429</t>
+          <t>Lauren 236, Elizabeth 391, Emily 390, Samantha 429, Alyssa 493, Lauren 494, Jessica 163, Grace 83, Alexis 498, Sarah 277</t>
         </is>
       </c>
     </row>
@@ -1552,12 +1573,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jessica 278, Kayla 407, Alyssa 359, Abigail 269, Lauren 90, Brianna 419, Olivia 38, Isabella 3, Alexis 80, Grace 515, Sarah 482, Madison 225, Brianna 438, Abigail 125, Brianna 251, Kayla 410, Grace 213, Sarah 442, Sarah 107, Lauren 358, Olivia 40, Lauren 136, Taylor 394, Ashley 140, Olivia 239, Madison 162, Lauren 223, Sarah 57, Isabella 242, Alyssa 304</t>
+          <t>Lauren 90, Abigail 269, Jessica 278, Alyssa 359, Kayla 407, Olivia 239, Lauren 358, Brianna 438, Abigail 450, Hannah 317, Isabella 3, Alyssa 128, Sarah 107, Alyssa 304, Samantha 276, Grace 122, Sarah 57, Sarah 442, Lauren 223, Ashley 140, Lauren 29, Taylor 394, Alyssa 245, Olivia 40, Olivia 38, Madison 162, Grace 213, Lauren 136, Brianna 251, Madison 225</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Grace 122, Abigail 450, Kayla 469, Samantha 276, Alyssa 128, Alyssa 245, Hannah 317, Lauren 29, Taylor 106, Olivia 264</t>
+          <t>Abigail 125, Grace 515, Kayla 469, Brianna 200, Brianna 419, Alexis 80, Isabella 242, Olivia 53, Alexis 471, Sarah 210</t>
         </is>
       </c>
     </row>
@@ -1569,12 +1590,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lauren 475, Isabella 426, Jessica 46, Kayla 15, Taylor 254, Abigail 338, Elizabeth 476, Elizabeth 391, Jessica 437, Brianna 221, Alexis 316, Lauren 457, Isabella 395, Abigail 413, Alexis 378, Brianna 153, Sarah 400, Samantha 27, Lauren 12, Sarah 31, Jessica 506, Kayla 252, Emma 55, Ashley 168, Hannah 266, Grace 411, Emily 390, Olivia 127, Emily 439, Elizabeth 313</t>
+          <t>Lauren 12, Brianna 153, Elizabeth 476, Jessica 46, Kayla 252, Taylor 254, Elizabeth 391, Samantha 27, Lauren 457, Alexis 316, Isabella 426, Sarah 400, Jessica 437, Sarah 31, Brianna 221, Lauren 475, Alexis 378, Kayla 15, Jessica 506, Isabella 395, Abigail 338, Abigail 413, Elizabeth 10, Emma 55, Ashley 168, Lauren 207, Emily 507, Emma 300, Isabella 474, Abigail 279</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Madison 519, Lauren 11, Emily 65, Emily 507, Madison 225, Grace 267, Grace 321, Abigail 279, Isabella 474, Sarah 277</t>
+          <t>Emily 390, Lauren 310, Brianna 179, Sarah 107, Lauren 11, Brianna 362, Sarah 315, Sarah 57, Kayla 75, Hannah 266</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1607,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ashley 348, Ashley 240, Alyssa 39, Brianna 88, Brianna 221, Lauren 232, Hannah 59, Lauren 33, Olivia 259, Jessica 461, Lauren 52, Ashley 168, Grace 411, Madison 301, Emily 390, Lauren 346, Emily 97, Alexis 470, Taylor 130, Alyssa 432, Emma 305, Abigail 503, Taylor 158, Emma 76, Samantha 398, Elizabeth 262</t>
+          <t>Lauren 33, Brianna 88, Olivia 259, Alyssa 39, Jessica 461, Hannah 59, Ashley 240, Brianna 221, Ashley 348, Lauren 232, Lauren 52, Alyssa 432, Ashley 168, Emily 390, Emma 305, Alexis 470, Lauren 346, Taylor 130, Madison 301, Kayla 75, Abigail 503, Ashley 220, Samantha 398, Emily 97, Ashley 84, Madison 155</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Madison 155, Kayla 75, Elizabeth 141, Abigail 71, Jessica 303, Grace 256, Abigail 406, Madison 352, Grace 320, Emily 349</t>
+          <t>Elizabeth 262, Emma 76, Grace 411, Jessica 303, Elizabeth 141, Elizabeth 227, Madison 155, Grace 320, Alyssa 304, Isabella 241</t>
         </is>
       </c>
     </row>
@@ -1603,12 +1624,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Kayla 13, Sarah 74, Elizabeth 476, Sarah 331, Olivia 274, Lauren 85, Grace 396, Sarah 518, Elizabeth 449, Emily 333, Emily 439, Madison 519, Madison 184, Elizabeth 284, Taylor 17, Isabella 187, Abigail 517, Elizabeth 399, Hannah 332, Madison 322, Hannah 281, Olivia 41, Samantha 250, Alexis 45</t>
+          <t>Elizabeth 476, Olivia 274, Lauren 85, Sarah 331, Elizabeth 449, Sarah 74, Kayla 13, Grace 396, Sarah 518, Grace 428, Olivia 41, Samantha 73, Emily 333, Samantha 298, Alexis 45, Grace 120, Isabella 187, Brianna 362, Elizabeth 284, Emma 257, Olivia 167, Lauren 356, Hannah 281, Madison 184</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Samantha 298, Lauren 489, Taylor 500, Samantha 73, Grace 48, Samantha 484, Grace 428, Abigail 109, Lauren 356, Alexis 468</t>
+          <t>Abigail 109, Emily 439, Madison 519, Alexis 468, Elizabeth 399, Abigail 517, Grace 48, Lauren 489, Taylor 17, Olivia 21</t>
         </is>
       </c>
     </row>
@@ -1620,12 +1641,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Taylor 226, Isabella 426, Kayla 15, Abigail 108, Grace 100, Taylor 222, Hannah 202, Jessica 437, Lauren 248, Isabella 395, Lauren 85, Grace 199, Emma 118, Alyssa 508, Lauren 12, Elizabeth 449, Elizabeth 486, Emma 25, Abigail 408, Hannah 119</t>
+          <t>Lauren 12, Grace 199, Lauren 85, Abigail 408, Emma 25, Abigail 108, Alyssa 508, Isabella 426, Jessica 437, Elizabeth 449, Taylor 222, Hannah 202, Kayla 15, Emma 118, Taylor 226, Grace 100, Isabella 395, Lauren 248, Elizabeth 486, Elizabeth 10</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Emily 336, Jessica 44, Grace 411, Elizabeth 313, Lauren 11, Samantha 68, Sarah 501, Kayla 495, Jessica 293, Grace 267</t>
+          <t>Olivia 239, Lauren 310, Lauren 11, Jessica 44, Alexis 343, Brianna 362, Samantha 276, Kayla 495, Jessica 293, Alexis 443</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1658,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Madison 173, Isabella 354, Taylor 288, Alyssa 273, Emma 98, Ashley 453, Hannah 59, Ashley 478, Sarah 400, Taylor 509, Kayla 252, Abigail 406, Abigail 113, Jessica 374, Olivia 186, Olivia 502, Grace 247, Grace 253, Lauren 101, Olivia 138, Taylor 17, Abigail 125</t>
+          <t>Madison 173, Ashley 478, Kayla 252, Hannah 59, Sarah 400, Taylor 509, Isabella 354, Taylor 288, Emma 98, Ashley 453, Alyssa 273, Samantha 447, Emma 300, Olivia 477, Olivia 138, Abigail 113, Isabella 95, Grace 253, Olivia 270, Olivia 502, Grace 30, Brianna 513</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Madison 444, Olivia 270, Isabella 95, Hannah 332, Jessica 163, Lauren 136, Elizabeth 289, Emma 300, Lauren 372, Ashley 195</t>
+          <t>Hannah 181, Jessica 446, Kayla 75, Emma 257, Abigail 406, Madison 464, Elizabeth 328, Elizabeth 289, Emily 34, Ashley 81</t>
         </is>
       </c>
     </row>
@@ -1654,9 +1675,10 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Alexis 381, Samantha 302</t>
-        </is>
-      </c>
+          <t>Samantha 302, Alexis 381</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1666,12 +1688,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Hannah 323, Kayla 13, Lauren 309, Ashley 348, Grace 285, Jessica 206, Taylor 115, Emily 229, Sarah 210, Madison 24, Jessica 66, Lauren 56, Isabella 260, Olivia 127, Grace 159, Hannah 287, Grace 511, Abigail 279, Isabella 161, Elizabeth 284, Emily 403, Brianna 180, Brianna 200, Olivia 169, Taylor 523, Madison 322, Grace 83, Emma 72, Alexis 36, Abigail 291, Ashley 458, Lauren 249, Abigail 231, Kayla 409, Samantha 73</t>
+          <t>Lauren 309, Hannah 323, Ashley 348, Taylor 115, Madison 24, Emily 229, Kayla 13, Sarah 210, Jessica 66, Jessica 206, Grace 285, Olivia 169, Abigail 279, Samantha 73, Hannah 317, Taylor 94, Alexis 36, Taylor 523, Kayla 409, Hannah 287, Samantha 488, Sarah 57, Elizabeth 284, Emma 72, Abigail 291, Grace 159, Emily 403, Brianna 180, Ashley 458, Lauren 249, Isabella 353, Abigail 231, Isabella 260, Grace 511, Olivia 127</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Sarah 57, Taylor 94, Isabella 353, Samantha 488, Hannah 317, Taylor 106, Ashley 50, Emily 403, Alexis 340, Grace 320</t>
+          <t>Lauren 56, Grace 83, Brianna 200, Isabella 161, Madison 322, Kayla 466, Grace 320, Hannah 522, Alyssa 304, Emma 238</t>
         </is>
       </c>
     </row>
@@ -1683,12 +1705,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Jessica 278, Kayla 13, Jessica 423, Lauren 96, Elizabeth 391, Taylor 115, Lauren 60, Samantha 429, Alyssa 273, Hannah 397, Sarah 210, Lauren 457, Grace 396, Alyssa 359, Grace 99, Alexis 370, Ashley 123, Emma 28, Kayla 7, Lauren 11, Grace 515, Lauren 459, Sarah 501, Samantha 480, Alyssa 380, Abigail 279, Elizabeth 284, Elizabeth 164, Emily 403, Elizabeth 79, Brianna 299, Alyssa 440, Alexis 470, Brianna 361, Lauren 372, Samantha 73</t>
+          <t>Ashley 123, Emma 28, Lauren 60, Samantha 429, Elizabeth 391, Jessica 423, Lauren 457, Jessica 278, Taylor 115, Hannah 397, Kayla 13, Sarah 210, Alyssa 359, Lauren 96, Grace 396, Alexis 370, Alyssa 273, Grace 99, Elizabeth 164, Olivia 477, Abigail 279, Samantha 73, Alyssa 440, Ashley 297, Alexis 470, Abigail 82, Hannah 181, Lauren 11, Sarah 86, Elizabeth 284, Emma 217, Lauren 459, Elizabeth 79, Emily 403, Elizabeth 166, Lauren 372</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Jessica 265, Olivia 234, Grace 48, Hannah 314, Emma 217, Isabella 353, Hannah 181, Olivia 477, Sarah 86, Ashley 297</t>
+          <t>Hannah 314, Alyssa 245, Abigail 177, Isabella 353, Grace 48, Samantha 480, Sarah 501, Olivia 234, Brianna 361, Brianna 299</t>
         </is>
       </c>
     </row>
@@ -1700,12 +1722,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Lauren 8, Elizabeth 476, Hannah 194, Emily 334, Brianna 221, Lauren 232, Alyssa 435, Emma 401, Samantha 487, Lauren 90, Abigail 408, Brianna 419, Isabella 295, Jessica 520, Olivia 38</t>
+          <t>Elizabeth 476, Lauren 8, Lauren 90, Abigail 408, Emma 401, Brianna 221, Alyssa 435, Samantha 487, Lauren 232, Emily 334, Hannah 194, Samantha 447, Olivia 239, Abigail 113, Brianna 438</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Abigail 113, Emma 454, Olivia 124, Sarah 512, Kayla 51, Brianna 438, Grace 321, Madison 184, Taylor 17, Grace 256</t>
+          <t>Isabella 295, Kayla 410, Sarah 156, Taylor 523, Sarah 512, Jessica 520, Samantha 488, Taylor 158, Elizabeth 328, Emma 454</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1739,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Abigail 338, Olivia 137, Isabella 160, Abigail 212, Brianna 153, Emily 445, Samantha 143, Sarah 2, Samantha 402, Abigail 269, Brianna 433, Isabella 260, Madison 301, Emily 439, Madison 519, Sarah 482, Ashley 412, Brianna 251, Lauren 310, Abigail 517, Taylor 130, Olivia 41, Brianna 513, Emma 387</t>
+          <t>Emily 445, Brianna 153, Abigail 269, Olivia 137, Abigail 212, Sarah 2, Brianna 433, Isabella 160, Samantha 143, Abigail 338, Samantha 402, Jessica 219, Olivia 41, Hannah 317, Taylor 94, Lauren 310, Alyssa 128, Taylor 130, Madison 301, Ashley 412, Jessica 446, Grace 122, Kayla 75, Madison 14</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Elizabeth 262, Taylor 94, Emily 34, Alyssa 339, Kayla 75, Grace 122, Samantha 484, Jessica 219, Brianna 42, Alyssa 128</t>
+          <t>Emily 34, Abigail 109, Emily 439, Madison 519, Elizabeth 262, Brianna 42, Abigail 517, Alyssa 339, Ashley 246, Isabella 260</t>
         </is>
       </c>
     </row>
@@ -1734,12 +1756,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Taylor 226, Alyssa 493, Hannah 218, Olivia 103, Emily 146, Ashley 50, Hannah 119, Abigail 255, Emma 185, Ashley 168, Olivia 186, Emily 65, Hannah 287, Lauren 101, Hannah 467, Kayla 495, Ashley 392, Lauren 346, Isabella 474, Emily 152, Alexis 340, Olivia 169, Kayla 5, Samantha 327, Emma 448, Ashley 117, Emma 305, Samantha 386, Elizabeth 473, Abigail 291, Hannah 357, Ashley 458, Grace 282, Taylor 500, Emily 349, Hannah 129, Samantha 150, Elizabeth 364, Ashley 414, Kayla 469, Emma 290, Brianna 197, Olivia 264, Kayla 272, Sarah 86, Alexis 294, Brianna 47, Brianna 492, Madison 417, Kayla 410, Samantha 18, Abigail 82, Hannah 317, Sarah 518, Brianna 205, Kayla 409, Lauren 207, Emily 479, Emma 72, Emily 135, Elizabeth 262, Kayla 497, Olivia 138, Alyssa 245, Madison 444, Emily 91, Brianna 92, Sarah 114, Brianna 172, Taylor 176, Sarah 420, Madison 225, Grace 159, Lauren 489, Emma 216, Jessica 265, Alyssa 19, Samantha 398, Hannah 332, Taylor 151</t>
+          <t>Alyssa 493, Hannah 218, Olivia 103, Emily 146, Taylor 226, Ashley 50, Olivia 169, Ashley 168, Kayla 5, Alexis 340, Elizabeth 473, Emma 305, Samantha 150, Hannah 467, Samantha 386, Lauren 346, Emma 185, Abigail 255, Emma 290, Hannah 287, Emma 448, Kayla 495, Grace 282, Ashley 414, Ashley 458, Hannah 129, Hannah 357, Olivia 186, Samantha 327, Lauren 101, Emily 152, Ashley 392, Kayla 469, Hannah 119, Emily 65, Sarah 518, Kayla 409, Madison 417, Olivia 138, Hannah 266, Taylor 176, Emily 135, Emma 216, Sarah 114, Brianna 205, Brianna 172, Brianna 92, Alyssa 245, Grace 159, Isabella 347, Brianna 299, Elizabeth 262, Olivia 264, Emily 336, Emily 91, Samantha 480, Emma 72, Brianna 419, Emily 479, Kayla 272, Jessica 520, Grace 463, Alexis 294, Lauren 489, Sarah 420, Brianna 47, Madison 225, Brianna 197, Olivia 234, Emily 405, Elizabeth 385, Hannah 332, Grace 511, Abigail 514, Samantha 462, Grace 431, Samantha 398, Taylor 151, Madison 455, Olivia 376</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Hannah 119, Abigail 413, Alyssa 366, Lauren 494, Grace 431, Elizabeth 157, Alyssa 39, Lauren 258, Grace 463, Grace 89</t>
+          <t>Grace 22, Kayla 13, Ashley 84, Olivia 239, Sarah 482, Isabella 426, Olivia 154, Lauren 337, Hannah 119, Jessica 230</t>
         </is>
       </c>
     </row>
@@ -1751,9 +1773,10 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Taylor 226, Hannah 218, Olivia 169, Samantha 386, Samantha 150, Elizabeth 364, Alexis 294, Lauren 346, Brianna 47, Ashley 414, Ashley 392, Emma 185, Abigail 291, Hannah 119, Hannah 467, Emily 152, Elizabeth 262, Brianna 197, Ashley 50, Emily 349, Olivia 138, Ashley 458, Kayla 272, Sarah 420, Emily 135</t>
-        </is>
-      </c>
+          <t>Hannah 218, Taylor 226, Olivia 169, Samantha 150, Samantha 386, Ashley 414, Hannah 119, Ashley 392, Emma 185, Alexis 294, Brianna 47, Lauren 346, Sarah 420, Kayla 272, Hannah 266, Olivia 138, Emily 152, Ashley 458, Brianna 197, Emily 135, Elizabeth 262, Ashley 50, Hannah 467</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1763,12 +1786,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Madison 173, Taylor 106, Taylor 121, Jessica 46, Kayla 407, Olivia 345, Alyssa 308, Emily 229, Isabella 183, Brianna 88, Alyssa 306, Hannah 59, Olivia 274, Abigail 413, Lauren 33, Alexis 498, Lauren 52, Isabella 347, Taylor 145, Isabella 3, Ashley 510, Taylor 26, Sarah 424, Grace 351, Emma 77</t>
+          <t>Madison 173, Lauren 33, Brianna 88, Olivia 274, Jessica 46, Hannah 59, Alyssa 308, Alyssa 306, Alexis 498, Isabella 183, Taylor 106, Emily 229, Lauren 52, Kayla 407, Olivia 345, Abigail 413, Taylor 121, Alyssa 432, Grace 428, Brianna 492, Lauren 207, Ashley 326, Abigail 450, Isabella 3, Emma 77</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Samantha 382, Madison 225, Emma 58, Brianna 200, Ashley 441, Samantha 178, Olivia 496, Elizabeth 399, Grace 213, Hannah 165</t>
+          <t>Taylor 145, Jessica 175, Kayla 369, Ashley 441, Hannah 16, Olivia 496, Grace 120, Kayla 409, Hannah 165, Samantha 178</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1803,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Emily 330, Emily 229, Ashley 460, Jessica 23, Abigail 255, Isabella 375, Sarah 501, Grace 511, Kayla 268, Taylor 523, Alexis 36, Samantha 73, Lauren 309, Olivia 103, Hannah 165, Jessica 175, Elizabeth 284, Madison 444, Samantha 178, Brianna 200, Isabella 161, Samantha 143, Olivia 376, Kayla 409, Kayla 13, Emily 403, Sarah 210, Lauren 136</t>
+          <t>Emily 229, Ashley 460, Emily 330, Jessica 23, Samantha 73, Hannah 317, Alexis 36, Jessica 70, Taylor 523, Abigail 255, Grace 511, Alexis 371, Samantha 178, Jessica 175, Hannah 165, Emma 257, Lauren 309, Jessica 189, Brianna 492, Samantha 488, Emily 334, Elizabeth 284, Emma 76, Madison 126, Samantha 143, Isabella 353, Lauren 356, Emily 403, Kayla 409, Kayla 13</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Jessica 461, Samantha 487, Grace 411, Grace 396, Grace 428, Taylor 145, Lauren 452, Olivia 345, Olivia 124, Olivia 186</t>
         </is>
       </c>
     </row>
@@ -1792,12 +1820,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Hannah 323, Jessica 278, Isabella 241, Taylor 288, Taylor 222, Isabella 342, Alexis 35, Hannah 397, Elizabeth 67, Elizabeth 436, Madison 54, Grace 199, Taylor 6, Elizabeth 174, Alyssa 359, Hannah 522, Samantha 487, Alexis 370, Brianna 201, Jessica 461, Abigail 490, Lauren 90, Grace 89, Taylor 145, Emily 336, Lauren 56, Ashley 510, Jessica 147, Madison 301, Olivia 124</t>
+          <t>Hannah 522, Grace 199, Lauren 90, Taylor 6, Elizabeth 174, Isabella 342, Jessica 461, Elizabeth 436, Jessica 278, Hannah 323, Isabella 241, Taylor 288, Taylor 222, Brianna 201, Samantha 487, Hannah 397, Alyssa 359, Alexis 35, Madison 54, Alexis 370, Abigail 490, Elizabeth 67, Ashley 389, Alexis 340, Kayla 497, Olivia 41, Olivia 384, Ashley 297, Olivia 270, Taylor 145</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Taylor 26, Alexis 80, Sarah 424, Grace 247, Taylor 215, Brianna 197, Lauren 459, Isabella 485, Isabella 161, Grace 463</t>
+          <t>Alexis 470, Brianna 197, Madison 301, Hannah 181, Taylor 215, Hannah 165, Taylor 158, Grace 111, Madison 149, Lauren 459</t>
         </is>
       </c>
     </row>
@@ -1809,12 +1837,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Lauren 8, Jessica 191, Taylor 121, Sarah 74, Alyssa 19, Ashley 348, Grace 285, Alyssa 39, Kayla 407, Madison 126, Alyssa 308, Alexis 471, Lauren 60, Samantha 429, Hannah 202, Brianna 88, Emma 98, Emily 334</t>
+          <t>Alexis 104, Alyssa 19, Lauren 8, Brianna 88, Alyssa 39, Lauren 60, Alexis 171, Alyssa 308, Samantha 429, Kayla 139, Abigail 269, Jessica 191, Sarah 2, Ashley 348, Sarah 74, Olivia 103, Madison 24, Emma 98</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Sarah 210, Madison 24, Olivia 103, Taylor 192, Alexis 171, Kayla 139, Elizabeth 486, Alexis 104, Sarah 2, Abigail 269</t>
+          <t>Hannah 202, Madison 126, Emily 334, Sarah 210, Kayla 407, Taylor 192, Grace 285, Taylor 121, Elizabeth 486, Alexis 471</t>
         </is>
       </c>
     </row>
@@ -1826,12 +1854,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Olivia 416, Emily 228, Ashley 78, Alyssa 493, Olivia 1, Emily 87, Emma 499, Grace 100, Taylor 115, Olivia 345, Alyssa 366, Alyssa 435, Alyssa 132, Emma 118, Grace 99, Taylor 509</t>
+          <t>Ashley 123, Emma 499, Alyssa 493, Alyssa 366, Alyssa 132, Ashley 78, Taylor 509, Olivia 1, Taylor 115, Alyssa 435, Emily 228, Samantha 271, Emma 118, Grace 100, Olivia 416, Grace 99</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Samantha 402, Samantha 271, Ashley 123, Jessica 383, Brianna 419, Brianna 388, Alexis 112, Lauren 337, Emma 185, Abigail 406</t>
+          <t>Jessica 383, Emily 87, Olivia 345, Samantha 402, Elizabeth 164, Emily 505, Alexis 371, Brianna 492, Grace 280, Olivia 477</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1871,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Lauren 8, Taylor 226, Alyssa 493, Emily 330, Elizabeth 422, Isabella 241, Grace 285, Kayla 407, Madison 24, Brianna 221, Abigail 413, Taylor 6, Ashley 478, Lauren 363, Elizabeth 174, Hannah 522, Olivia 504, Sarah 377, Emma 216, Abigail 490</t>
+          <t>Ashley 478, Alyssa 493, Hannah 522, Lauren 8, Taylor 6, Emma 216, Elizabeth 174, Elizabeth 422, Sarah 31, Brianna 221, Isabella 241, Madison 24, Olivia 504, Lauren 52, Kayla 407, Taylor 226, Sarah 377, Grace 285, Abigail 413, Abigail 490</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Sarah 31, Lauren 52, Grace 89, Jessica 520, Grace 30, Ashley 168, Sarah 482, Alexis 355, Grace 321, Taylor 17</t>
+          <t>Emily 330, Lauren 363, Kayla 466, Ashley 168, Alexis 524, Samantha 20, Hannah 317, Taylor 94, Ashley 297, Samantha 18</t>
         </is>
       </c>
     </row>
@@ -1860,12 +1888,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Taylor 121, Isabella 426, Olivia 1, Abigail 131, Lauren 309, Emily 87, Alexis 35, Ashley 460, Emily 146, Sarah 518, Taylor 151, Lauren 49, Hannah 522, Sarah 377, Grace 89, Grace 30</t>
+          <t>Hannah 522, Lauren 309, Taylor 151, Abigail 131, Isabella 426, Olivia 1, Ashley 460, Emily 146, Alexis 35, Lauren 49, Sarah 377, Emily 87, Taylor 121, Sarah 518, Grace 428, Kayla 51</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Taylor 145, Kayla 7, Madison 301, Kayla 51, Brianna 438, Samantha 18, Alyssa 440, Abigail 344, Emma 448, Elizabeth 116</t>
+          <t>Brianna 438, Abigail 344, Alyssa 440, Samantha 18, Taylor 145, Brianna 179, Grace 30, Madison 301, Hannah 181, Grace 122</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1905,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jessica 191, Lauren 309, Emma 499, Lauren 96, Ashley 240, Emily 229, Isabella 342, Alyssa 306, Hannah 397, Jessica 23, Sarah 331, Alyssa 132, Grace 99, Taylor 509, Elizabeth 486, Alexis 104, Alexis 498, Samantha 211, Brianna 433, Emily 144</t>
+          <t>Alexis 104, Emma 499, Lauren 90, Lauren 309, Kayla 252, Isabella 342, Abigail 408, Sarah 331, Jessica 191, Alyssa 132, Alyssa 306, Alexis 498, Taylor 509, Ashley 240, Emily 229, Emily 144, Hannah 397, Brianna 433, Lauren 96, Grace 99</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Kayla 252, Lauren 90, Abigail 408, Hannah 119, Brianna 388, Emily 336, Abigail 406, Grace 411, Grace 247, Grace 351</t>
+          <t>Samantha 211, Elizabeth 486, Jessica 23, Olivia 239, Grace 292, Ashley 389, Abigail 71, Brianna 388, Abigail 344, Kayla 379</t>
         </is>
       </c>
     </row>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -378,12 +378,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lauren 8, Alyssa 4, Jessica 46, Kayla 252, Lauren 60, Abigail 269, Olivia 137, Jessica 278, Emily 144, Lauren 96, Madison 204, Alexis 370, Madison 324, Abigail 490, Isabella 427, Emily 505, Kayla 5, Grace 280, Kayla 497, Isabella 95, Grace 320, Olivia 270, Brianna 197, Isabella 187, Samantha 488, Madison 464, Emily 405</t>
+          <t>Jessica 46, Emily 144, Lauren 8, Abigail 269, Madison 204, Madison 324, Abigail 490, Lauren 60, Jessica 278, Kayla 252, Alexis 370, Isabella 427, Lauren 96, Olivia 137, Alyssa 4, Kayla 5, Olivia 270, Alexis 443, Isabella 275, Jessica 425, Grace 320, Isabella 187, Emily 135, Isabella 95, Madison 464, Emily 405, Samantha 488</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Madison 14, Isabella 485, Alexis 443, Abigail 109, Emma 76, Brianna 148, Brianna 47, Olivia 186, Emily 135, Jessica 425</t>
+          <t>Brianna 47, Isabella 485, Emma 76, Madison 14, Brianna 197, Emily 505, Abigail 109, Olivia 318, Olivia 186, Brianna 148</t>
         </is>
       </c>
     </row>
@@ -395,12 +395,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lauren 12, Elizabeth 476, Olivia 259, Jessica 423, Isabella 426, Alyssa 306, Elizabeth 449, Emily 229, Alyssa 435, Taylor 222, Sarah 210, Ashley 453, Ashley 50, Samantha 150, Olivia 264, Madison 417, Lauren 494, Lauren 11, Abigail 255, Jessica 44, Taylor 215, Sarah 315, Jessica 32, Madison 184, Emily 439, Madison 519, Olivia 53</t>
+          <t>Ashley 453, Isabella 426, Alyssa 306, Jessica 423, Emily 229, Alyssa 435, Sarah 210, Taylor 222, Elizabeth 449, Ashley 50, Lauren 12, Olivia 259, Elizabeth 476, Lauren 11, Hannah 314, Emily 91, Madison 417, Jessica 32, Abigail 125, Grace 351, Jessica 44, Samantha 327, Madison 519, Abigail 255, Lauren 494, Olivia 53, Emily 439</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Hannah 314, Olivia 234, Emily 91, Grace 351, Samantha 327, Abigail 125, Taylor 176, Emma 118, Olivia 103, Alyssa 304</t>
+          <t>Olivia 234, Samantha 150, Madison 184, Taylor 215, Taylor 176, Sarah 315, Olivia 264, Emily 405, Olivia 376, Abigail 338</t>
         </is>
       </c>
     </row>
@@ -412,7 +412,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lauren 8, Jessica 46, Jessica 278, Samantha 150, Brianna 197, Madison 417, Alyssa 4</t>
+          <t>Jessica 46, Lauren 8, Jessica 278, Madison 417, Emily 135, Alyssa 4</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -425,12 +425,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alexis 104, Elizabeth 472, Lauren 367, Isabella 244, Madison 352, Elizabeth 516, Emily 144, Emma 118, Madison 204, Jessica 206, Alexis 365, Elizabeth 486, Lauren 363, Jessica 23, Elizabeth 10, Abigail 344, Emily 349, Brianna 513, Alyssa 421, Brianna 373, Olivia 451, Jessica 293, Elizabeth 364, Abigail 406, Taylor 158, Taylor 500, Emma 9, Samantha 484, Madison 149, Abigail 291</t>
+          <t>Isabella 244, Alexis 104, Emily 144, Jessica 206, Madison 204, Elizabeth 516, Emma 118, Madison 352, Alexis 365, Jessica 23, Elizabeth 472, Lauren 363, Lauren 367, Elizabeth 486, Jessica 293, Grace 256, Madison 455, Olivia 451, Isabella 329, Elizabeth 364, Elizabeth 10, Brianna 373, Abigail 344, Madison 149, Samantha 484, Ashley 283, Jessica 374, Ashley 220, Alyssa 421, Elizabeth 166</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Ashley 220, Elizabeth 166, Grace 256, Ashley 458, Elizabeth 262, Isabella 329, Olivia 376, Madison 455, Alexis 261, Ashley 283</t>
+          <t>Abigail 406, Taylor 158, Ashley 195, Emily 349, Brianna 513, Brianna 200, Taylor 500, Abigail 291, Ashley 458, Alexis 261</t>
         </is>
       </c>
     </row>
@@ -442,7 +442,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alexis 104, Elizabeth 472, Lauren 367, Isabella 244, Madison 352, Elizabeth 516, Emily 144, Emma 118, Madison 204, Jessica 206, Alexis 365, Elizabeth 486, Lauren 363, Jessica 23, Elizabeth 10, Abigail 344, Emily 349, Brianna 513, Alyssa 421, Brianna 373, Olivia 451, Jessica 293, Elizabeth 364, Abigail 406, Taylor 158, Taylor 500, Emma 9, Samantha 484, Madison 149, Abigail 291</t>
+          <t>Isabella 244, Alexis 104, Emily 144, Jessica 206, Madison 204, Elizabeth 516, Emma 118, Madison 352, Alexis 365, Jessica 23, Elizabeth 472, Lauren 363, Lauren 367, Elizabeth 486, Jessica 293, Grace 256, Madison 455, Olivia 451, Isabella 329, Elizabeth 364, Elizabeth 10, Brianna 373, Abigail 344, Madison 149, Samantha 484, Ashley 283, Jessica 374, Ashley 220, Alyssa 421, Elizabeth 166</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -455,7 +455,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alexis 104, Elizabeth 472, Lauren 367, Isabella 244, Madison 352, Elizabeth 516, Emily 144, Emma 118, Madison 204, Jessica 206, Alexis 365, Elizabeth 486, Lauren 363, Jessica 23, Elizabeth 10, Abigail 344, Emily 349, Brianna 513, Alyssa 421, Brianna 373, Olivia 451, Jessica 293, Elizabeth 364, Abigail 406, Taylor 158, Taylor 500, Emma 9, Samantha 484, Madison 149, Abigail 291</t>
+          <t>Isabella 244, Alexis 104, Emily 144, Jessica 206, Madison 204, Elizabeth 516, Emma 118, Madison 352, Alexis 365, Jessica 23, Elizabeth 472, Lauren 363, Lauren 367, Elizabeth 486, Jessica 293, Grace 256, Madison 455, Olivia 451, Isabella 329, Elizabeth 364, Elizabeth 10, Brianna 373, Abigail 344, Madison 149, Samantha 484, Ashley 283, Jessica 374, Ashley 220, Alyssa 421, Elizabeth 166</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -468,12 +468,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alyssa 493, Olivia 274, Alyssa 233, Isabella 244, Madison 352, Abigail 212, Taylor 288, Jessica 383, Abigail 71, Alexis 470, Brianna 513, Emma 185, Lauren 494, Alyssa 304, Grace 120, Taylor 215, Brianna 362, Hannah 165, Elizabeth 284, Grace 159, Samantha 398, Madison 243, Alexis 468, Elizabeth 399, Hannah 314, Sarah 501, Madison 162, Grace 263, Ashley 195, Lauren 56</t>
+          <t>Isabella 244, Jessica 383, Taylor 288, Madison 352, Abigail 212, Alyssa 233, Olivia 274, Alyssa 493, Abigail 71, Hannah 314, Hannah 165, Grace 321, Alexis 470, Elizabeth 284, Emma 185, Grace 159, Lauren 494, Madison 162, Sarah 501, Grace 120, Grace 263, Lauren 56, Samantha 398, Ashley 195, Brianna 513, Alexis 468, Madison 243, Alyssa 304, Brianna 362, Taylor 215</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Grace 321, Emily 403, Sarah 442, Emma 208, Taylor 288, Isabella 244, Emma 64, Lauren 248, Alyssa 421, Emma 300</t>
+          <t>Elizabeth 399, Brianna 361, Lauren 459, Emma 208, Hannah 317, Jessica 293, Elizabeth 157, Alexis 443, Alexis 355, Emma 64</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Elizabeth 174, Hannah 218, Abigail 109, Olivia 53, Olivia 234, Grace 515, Ashley 140, Isabella 63, Alexis 171, Emma 58, Olivia 451, Grace 253</t>
+          <t>Elizabeth 174, Hannah 218, Lauren 346, Hannah 467, Abigail 109, Olivia 53, Ashley 140, Olivia 234, Isabella 63, Grace 253, Olivia 451</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Grace 253, Grace 122, Elizabeth 157, Jessica 147, Emma 257, Taylor 176, Grace 463, Samantha 27, Madison 519, Samantha 20</t>
+          <t>Grace 253, Jessica 147, Elizabeth 157, Grace 122, Emma 257, Abigail 105, Madison 519, Samantha 27, Samantha 20</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -511,12 +511,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ashley 123, Alyssa 493, Alyssa 19, Alyssa 4, Emma 216, Kayla 252, Taylor 151, Lauren 60, Abigail 108, Alyssa 508, Emma 98, Emma 238, Kayla 5, Brianna 418, Grace 280, Ashley 326, Elizabeth 473, Samantha 150, Taylor 145, Jessica 70, Brianna 197, Jessica 44, Alexis 343, Emma 350</t>
+          <t>Abigail 108, Emma 216, Alyssa 19, Emma 98, Alyssa 508, Lauren 60, Kayla 252, Emma 238, Taylor 151, Alyssa 493, Alyssa 4, Ashley 123, Emma 350, Kayla 5, Jessica 32, Lauren 249, Jessica 44, Ashley 326, Jessica 70, Emily 135, Madison 415, Taylor 145, Elizabeth 43, Brianna 179</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Hannah 165, Sarah 86, Sarah 315, Madison 415, Jessica 32, Emma 217, Samantha 224, Elizabeth 328, Madison 14, Grace 256</t>
+          <t>Samantha 382, Taylor 110, Brianna 418, Emma 217, Hannah 393, Madison 14, Sarah 86, Lauren 170, Brianna 197, Alexis 343</t>
         </is>
       </c>
     </row>
@@ -528,12 +528,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hannah 218, Isabella 183, Kayla 188, Brianna 492, Alexis 340, Emily 507, Samantha 20, Emily 333, Grace 320, Emily 349, Samantha 18, Taylor 145, Alyssa 128, Sarah 107, Sarah 482, Ashley 412, Alyssa 421, Brianna 373, Sarah 86, Hannah 266, Alexis 112, Elizabeth 227, Olivia 124, Brianna 42</t>
+          <t>Isabella 183, Hannah 218, Kayla 188, Samantha 18, Emily 91, Alexis 112, Kayla 268, Grace 213, Sarah 482, Alyssa 128, Brianna 492, Brianna 373, Alexis 340, Grace 320, Hannah 266, Ashley 412, Taylor 145, Brianna 47, Brianna 42, Alyssa 421, Emily 507, Jessica 303, Emma 76, Emily 349</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Emma 76, Brianna 47, Olivia 376, Kayla 268, Grace 213, Grace 89, Alexis 294, Brianna 251, Emily 91, Jessica 303</t>
+          <t>Madison 196, Hannah 393, Sarah 86, Emily 333, Grace 89, Sarah 107, Brianna 251, Taylor 176, Alexis 294, Olivia 124</t>
         </is>
       </c>
     </row>
@@ -545,12 +545,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Madison 173, Alyssa 19, Lauren 90, Emma 216, Emma 28, Taylor 254, Olivia 137, Isabella 426, Olivia 1, Ashley 348, Sarah 74, Alexis 381, Alyssa 435, Olivia 416, Madison 324, Alexis 365, Alyssa 432, Grace 292, Brianna 418, Elizabeth 473, Alyssa 440, Jessica 230, Jessica 311, Emma 217</t>
+          <t>Isabella 426, Taylor 254, Emma 216, Alyssa 19, Lauren 90, Madison 324, Alyssa 435, Alexis 365, Sarah 74, Alexis 381, Olivia 416, Ashley 348, Olivia 1, Madison 173, Emma 28, Olivia 137, Jessica 311, Isabella 347, Lauren 356, Olivia 167, Grace 321, Grace 431, Grace 351, Madison 455</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Olivia 167, Lauren 356, Grace 111, Ashley 286, Grace 431, Olivia 40, Brianna 47, Alyssa 339, Ashley 246, Sarah 501</t>
+          <t>Kayla 268, Grace 83, Alyssa 432, Samantha 327, Alyssa 440, Jessica 425, Grace 111, Jessica 325, Ashley 246, Ashley 481</t>
         </is>
       </c>
     </row>
@@ -562,12 +562,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ashley 193, Elizabeth 385, Emma 28, Abigail 131, Isabella 244, Alexis 335, Alexis 498, Lauren 452, Lauren 232, Lauren 360, Madison 368, Kayla 188, Isabella 160, Lauren 49</t>
+          <t>Isabella 244, Madison 368, Abigail 131, Jessica 206, Alexis 498, Ashley 193, Lauren 452, Lauren 232, Lauren 360, Ashley 50, Isabella 160, Lauren 49, Elizabeth 385, Samantha 211</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Jessica 206, Samantha 211, Ashley 50, Emma 208, Grace 428, Jessica 219, Kayla 5, Alexis 524, Isabella 3, Emma 77</t>
+          <t>Emma 28, Emma 208, Alexis 335, Kayla 188, Kayla 5, Lauren 236, Abigail 125, Grace 431, Brianna 299, Jessica 44</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ashley 193, Samantha 302, Kayla 139, Alyssa 306, Alexis 498, Sarah 2, Olivia 103, Madison 368, Sarah 210, Kayla 15, Brianna 172, Elizabeth 67, Lauren 310, Sarah 156, Jessica 175, Ashley 441, Madison 417, Olivia 496, Emma 58, Emily 34, Olivia 124</t>
+          <t>Kayla 15, Madison 368, Olivia 103, Alexis 498, Kayla 139, Samantha 302, Ashley 193, Sarah 2, Alyssa 306, Sarah 210, Brianna 172, Elizabeth 67, Isabella 347, Madison 417, Jessica 521, Samantha 462, Emma 58, Abigail 296, Isabella 474, Olivia 496, Olivia 127</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Brianna 361, Alyssa 491, Jessica 521, Abigail 296, Samantha 462, Olivia 127, Emily 479, Grace 267, Isabella 347, Emily 65</t>
+          <t>Brianna 513, Olivia 502, Emily 479, Ashley 441, Grace 267, Sarah 156, Brianna 361, Jessica 175, Lauren 310, Olivia 124</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Alyssa 4, Lauren 85, Elizabeth 422, Kayla 139, Isabella 426, Isabella 241, Sarah 74, Taylor 288, Emily 228, Madison 368, Taylor 192, Emma 238, Madison 324, Kayla 497, Grace 253, Emily 333</t>
+          <t>Madison 368, Isabella 241, Isabella 426, Kayla 139, Taylor 288, Madison 324, Lauren 85, Sarah 74, Elizabeth 422, Emma 238, Emily 228, Taylor 192, Alyssa 4, Emma 350, Grace 253, Lauren 356</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Grace 320, Samantha 18, Olivia 264, Sarah 107, Sarah 312, Grace 22, Jessica 44, Alexis 343, Emma 350, Taylor 215</t>
+          <t>Ashley 140, Lauren 236, Ashley 84, Abigail 231, Olivia 451, Jessica 44, Alexis 112, Alexis 443, Hannah 182, Sarah 312</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ashley 478, Lauren 8, Brianna 88, Jessica 46, Kayla 252, Alyssa 308, Alyssa 508, Ashley 198, Grace 465, Alexis 335, Abigail 212, Madison 24, Hannah 202, Emily 146, Isabella 160, Samantha 211, Samantha 447, Emma 55, Brianna 492, Lauren 207, Ashley 326, Samantha 20, Brianna 388, Samantha 73, Samantha 276, Sarah 57, Olivia 134, Hannah 182, Elizabeth 328, Emma 454, Grace 159, Elizabeth 166, Madison 519, Elizabeth 262, Lauren 372, Taylor 26</t>
+          <t>Jessica 46, Hannah 202, Grace 465, Lauren 8, Alyssa 508, Alyssa 308, Abigail 212, Kayla 252, Ashley 478, Isabella 160, Samantha 211, Madison 24, Alexis 335, Emily 146, Brianna 88, Ashley 198, Olivia 154, Olivia 134, Abigail 231, Samantha 73, Ashley 326, Hannah 182, Isabella 275, Jessica 147, Brianna 492, Madison 519, Sarah 57, Brianna 388, Lauren 207, Lauren 372, Grace 159, Emma 55, Samantha 276, Samantha 447, Taylor 110, Elizabeth 166</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Taylor 110, Isabella 353, Abigail 231, Olivia 154, Olivia 234, Brianna 361, Grace 411, Jessica 147, Isabella 275, Grace 463</t>
+          <t>Taylor 26, Grace 411, Grace 463, Alexis 80, Olivia 234, Isabella 353, Emma 454, Brianna 361, Samantha 20, Elizabeth 262</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Grace 465, Elizabeth 449, Isabella 241, Taylor 115, Taylor 106, Brianna 433, Alexis 365, Grace 285, Ashley 50, Emma 208, Samantha 447, Elizabeth 164, Alexis 371, Sarah 420, Abigail 113, Kayla 410, Isabella 3, Jessica 70, Jessica 175, Abigail 105</t>
+          <t>Taylor 115, Isabella 241, Grace 465, Brianna 433, Alexis 365, Taylor 106, Grace 285, Elizabeth 449, Ashley 50, Emma 208, Olivia 237, Lauren 356, Abigail 113, Samantha 224, Alyssa 491, Jessica 70, Lauren 136, Kayla 410, Kayla 469, Lauren 372</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Olivia 237, Olivia 496, Alyssa 421, Lauren 356, Samantha 224, Madison 184, Lauren 223, Lauren 372, Grace 48, Samantha 483</t>
+          <t>Samantha 483, Elizabeth 43, Elizabeth 164, Sarah 420, Alexis 371, Samantha 447, Alyssa 421, Olivia 496, Grace 48, Lauren 223</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lauren 8, Abigail 408, Samantha 429, Taylor 509, Isabella 354, Hannah 397, Emily 146, Olivia 416, Grace 99, Samantha 211, Olivia 169, Brianna 388, Hannah 467, Samantha 386, Lauren 11, Kayla 409, Hannah 182, Ashley 414, Emily 403, Ashley 458</t>
+          <t>Samantha 429, Grace 99, Abigail 408, Lauren 8, Isabella 354, Olivia 416, Hannah 397, Taylor 509, Samantha 211, Emily 146, Lauren 11, Ashley 510, Kayla 268, Hannah 182, Sarah 114, Kayla 409, Brianna 388, Abigail 514, Samantha 483, Hannah 467</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Brianna 47, Isabella 329, Isabella 353, Ashley 510, Samantha 483, Isabella 260, Kayla 268, Sarah 114, Lauren 101, Madison 196</t>
+          <t>Brianna 47, Madison 196, Samantha 386, Kayla 466, Isabella 353, Olivia 169, Ashley 458, Emily 403, Lauren 101, Ashley 414</t>
         </is>
       </c>
     </row>
@@ -664,12 +664,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lauren 33, Olivia 274, Emma 28, Kayla 252, Alyssa 39, Alexis 171, Hannah 59, Elizabeth 422, Kayla 139, Abigail 131, Sarah 74, Madison 24</t>
+          <t>Hannah 59, Abigail 131, Grace 99, Kayla 139, Lauren 232, Brianna 433, Sarah 74, Taylor 106, Kayla 252, Elizabeth 422, Taylor 121, Alexis 171</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Taylor 106, Lauren 232, Brianna 433, Grace 99, Taylor 121, Olivia 239, Grace 292, Kayla 497, Brianna 438, Alyssa 440</t>
+          <t>Emma 28, Madison 24, Lauren 33, Olivia 274, Alyssa 39, Olivia 167, Jessica 521, Olivia 270, Taylor 523, Alyssa 440</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Elizabeth 174, Isabella 342, Samantha 429, Hannah 218, Kayla 13, Madison 368, Madison 126, Alyssa 359, Elizabeth 67, Alyssa 432, Ashley 389, Samantha 20, Samantha 73, Grace 253, Taylor 130, Taylor 523, Sarah 512, Jessica 44, Sarah 86, Samantha 178, Olivia 451, Jessica 293, Hannah 266, Olivia 167, Elizabeth 157, Lauren 459, Alexis 69, Emma 454, Taylor 110, Ashley 246, Olivia 234, Olivia 21, Grace 247, Brianna 251, Jessica 147, Ashley 392, Brianna 419, Elizabeth 227, Abigail 109, Olivia 53, Taylor 176, Sarah 424, Lauren 236, Grace 515, Emma 257</t>
+          <t>Madison 368, Samantha 429, Alyssa 359, Isabella 342, Elizabeth 174, Kayla 13, Hannah 218, Madison 126, Elizabeth 67, Jessica 293, Grace 253, Olivia 167, Olivia 451, Lauren 459, Jessica 44, Samantha 73, Alyssa 432, Taylor 523, Jessica 147, Brianna 419, Elizabeth 157, Samantha 178, Ashley 246, Hannah 266, Taylor 110, Alexis 69, Olivia 21, Sarah 86, Olivia 234, Emma 454, Grace 247, Brianna 251, Taylor 130, Ashley 392, Samantha 20, Ashley 389, Sarah 512, Alexis 294, Olivia 376, Elizabeth 473, Emma 257, Olivia 264, Elizabeth 227, Abigail 109, Lauren 236</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Alyssa 4, Olivia 376, Lauren 494, Madison 352, Jessica 147, Elizabeth 486, Grace 256, Abigail 71, Olivia 154, Alexis 294</t>
+          <t>Grace 428, Taylor 151, Olivia 38, Olivia 53, Jessica 311, Hannah 165, Sarah 424, Kayla 5, Ashley 458, Jessica 147</t>
         </is>
       </c>
     </row>
@@ -698,12 +698,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Elizabeth 472, Emma 216, Elizabeth 174, Alyssa 366, Samantha 27, Alyssa 132, Emma 142, Grace 99, Isabella 63, Ashley 326, Brianna 388, Brianna 438, Emma 77, Hannah 467, Olivia 237, Alyssa 304, Olivia 496, Grace 122, Samantha 178, Lauren 430, Emma 58, Ashley 140, Emily 439, Madison 519, Grace 431, Jessica 189, Olivia 53, Isabella 375, Alyssa 491, Sarah 424, Lauren 170, Samantha 462, Jessica 147, Kayla 7, Jessica 425, Emma 387, Grace 463, Kayla 272, Madison 464, Lauren 258, Madison 196, Brianna 88, Alexis 335, Taylor 151, Alexis 171</t>
+          <t>Alyssa 132, Grace 99, Emma 216, Emma 142, Isabella 63, Elizabeth 174, Elizabeth 472, Alyssa 366, Samantha 27, Olivia 237, Ashley 140, Isabella 375, Sarah 424, Samantha 462, Grace 431, Ashley 326, Jessica 189, Emma 58, Alyssa 491, Jessica 147, Madison 519, Jessica 425, Brianna 388, Samantha 178, Lauren 430, Emma 387, Hannah 467, Olivia 53, Olivia 496, Emily 439, Emma 77, Lauren 170, Grace 463, Grace 122, Kayla 7, Alyssa 304, Kayla 272, Lauren 346, Brianna 438, Madison 464, Kayla 369, Madison 196, Isabella 342, Abigail 105, Ashley 198</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Hannah 181, Emma 58, Elizabeth 262, Isabella 342, Madison 322, Jessica 383, Emily 97, Sarah 501, Jessica 163, Alexis 104</t>
+          <t>Taylor 130, Sarah 501, Emily 97, Brianna 373, Madison 225, Alyssa 132, Madison 322, Madison 301, Taylor 151, Lauren 258</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Emma 28, Alexis 171, Elizabeth 422, Samantha 27, Lauren 457, Hannah 218, Alexis 335, Abigail 212, Isabella 241, Isabella 183, Taylor 106, Alyssa 435, Brianna 433, Emma 142, Samantha 402, Jessica 219, Olivia 477, Abigail 113, Grace 253, Isabella 295, Alexis 36, Ashley 412, Hannah 16, Lauren 494</t>
+          <t>Samantha 402, Isabella 241, Brianna 433, Alyssa 435, Isabella 183, Emma 142, Abigail 212, Taylor 106, Lauren 457, Elizabeth 422, Hannah 218, Alexis 171, Emma 28, Alexis 335, Samantha 27, Grace 253, Isabella 375, Olivia 477, Alexis 112, Abigail 113, Alexis 36, Grace 111, Lauren 494, Hannah 129</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Taylor 215, Elizabeth 364, Grace 282, Alexis 112, Grace 111, Emma 404, Sarah 277, Elizabeth 116, Hannah 129, Olivia 376</t>
+          <t>Ashley 412, Emma 404, Grace 282, Hannah 16, Isabella 295, Sarah 277, Emily 336, Jessica 219, Elizabeth 116, Taylor 215</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lauren 33, Brianna 153, Elizabeth 476, Olivia 259, Alyssa 233, Abigail 131, Jessica 278, Sarah 74, Samantha 487, Samantha 271, Emily 146, Hannah 194, Samantha 382, Taylor 145, Taylor 130, Brianna 197, Abigail 105, Olivia 237, Alyssa 421, Hannah 287, Hannah 266, Emma 217, Ashley 414, Emma 72</t>
+          <t>Abigail 131, Brianna 153, Samantha 487, Sarah 74, Samantha 271, Jessica 278, Alyssa 233, Olivia 259, Hannah 194, Lauren 33, Emily 146, Elizabeth 476, Olivia 237, Grace 256, Hannah 287, Lauren 249, Grace 83, Kayla 235, Hannah 357, Emma 72, Samantha 484, Grace 159, Emily 135, Hannah 266</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Samantha 484, Elizabeth 79, Grace 159, Kayla 235, Grace 256, Emily 439, Sarah 277, Brianna 42, Alexis 468, Lauren 249</t>
+          <t>Taylor 145, Samantha 382, Brianna 42, Alyssa 421, Emma 217, Olivia 40, Elizabeth 79, Emily 439, Brianna 197, Hannah 16</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Samantha 302, Kayla 252, Ashley 198, Alexis 316, Jessica 191, Emily 37, Alexis 381, Lauren 360, Kayla 15, Jessica 506, Lauren 49, Emma 142, Jessica 383, Samantha 211, Elizabeth 67, Emma 55, Grace 292, Lauren 358, Ashley 389, Brianna 418, Alexis 524, Samantha 20, Emily 390, Olivia 270, Alexis 36</t>
+          <t>Kayla 15, Jessica 191, Jessica 383, Alexis 316, Samantha 302, Lauren 360, Emma 142, Alexis 381, Emily 37, Kayla 252, Lauren 49, Samantha 211, Elizabeth 67, Ashley 198, Jessica 506, Olivia 237, Jessica 521, Sarah 442, Olivia 270, Alexis 524, Emily 390, Emily 97, Jessica 70, Alexis 36, Jessica 163</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Jessica 70, Grace 30, Abigail 105, Alexis 45, Olivia 237, Brianna 362, Samantha 276, Elizabeth 307, Sarah 442, Hannah 266</t>
+          <t>Grace 30, Elizabeth 157, Lauren 430, Emma 55, Emily 135, Samantha 276, Lauren 358, Abigail 296, Hannah 266, Elizabeth 43</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Isabella 342, Jessica 191, Isabella 426, Elizabeth 436, Emily 37, Alexis 381, Samantha 143, Ashley 453, Ashley 50, Isabella 427, Brianna 492, Sarah 420, Emily 507, Alexis 524, Olivia 270, Grace 30, Olivia 237, Abigail 255, Emma 290, Hannah 287, Elizabeth 157, Elizabeth 79</t>
+          <t>Ashley 453, Jessica 191, Isabella 426, Elizabeth 436, Isabella 342, Alexis 381, Emily 37, Isabella 427, Ashley 50, Samantha 143, Olivia 237, Olivia 214, Brianna 190, Olivia 270, Alexis 524, Emma 290, Grace 83, Samantha 327, Brianna 492, Hannah 357, Abigail 255, Grace 30</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Isabella 485, Brianna 456, Olivia 53, Brianna 148, Ashley 246, Hannah 357, Olivia 234, Olivia 214, Grace 511, Brianna 190</t>
+          <t>Elizabeth 157, Brianna 456, Ashley 246, Sarah 420, Isabella 485, Emily 507, Olivia 53, Elizabeth 79, Ashley 195, Olivia 234</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ashley 123, Alyssa 493, Alyssa 233, Olivia 102, Brianna 221, Isabella 241, Olivia 103, Elizabeth 516, Taylor 121, Ashley 50, Emma 208, Alexis 371, Ashley 389, Lauren 207, Samantha 382, Emily 390, Kayla 379, Jessica 230, Jessica 70, Samantha 386, Emma 448, Elizabeth 307, Olivia 451, Olivia 167, Lauren 356, Elizabeth 157, Emma 9, Ashley 286, Madison 184</t>
+          <t>Isabella 241, Brianna 221, Olivia 103, Olivia 102, Elizabeth 516, Alyssa 233, Taylor 121, Ashley 50, Emma 208, Alyssa 493, Ashley 123, Lauren 356, Olivia 167, Elizabeth 307, Grace 321, Grace 351, Olivia 451, Emily 390, Jessica 70, Sarah 114, Elizabeth 157, Lauren 207, Abigail 296, Hannah 129, Grace 263, Alexis 371, Samantha 382, Samantha 386, Jessica 230</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Elizabeth 116, Hannah 129, Abigail 517, Grace 263, Samantha 250, Abigail 296, Grace 351, Madison 225, Sarah 114, Olivia 318</t>
+          <t>Kayla 379, Olivia 318, Elizabeth 116, Emma 448, Madison 184, Ashley 286, Abigail 517, Emma 9, Ashley 389, Madison 225</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Brianna 203, Grace 199, Alexis 62, Alexis 316, Isabella 244, Jessica 437, Elizabeth 436, Emma 401, Taylor 288, Kayla 15, Emma 118, Alexis 370, Jessica 206, Madison 324, Olivia 345, Sarah 518, Alexis 471, Brianna 418, Emma 300, Olivia 477, Grace 320, Emma 77, Alexis 470, Brianna 179, Brianna 513, Lauren 258, Madison 415, Elizabeth 284, Taylor 158, Hannah 281, Ashley 220, Elizabeth 328, Emma 454, Elizabeth 289, Emily 403, Jessica 189, Elizabeth 262, Olivia 53, Hannah 314, Brianna 47, Isabella 329, Abigail 177, Samantha 483, Olivia 376, Ashley 481, Olivia 214, Samantha 250, Samantha 327, Abigail 341, Abigail 125</t>
+          <t>Isabella 244, Jessica 437, Kayla 15, Olivia 345, Alexis 316, Elizabeth 436, Grace 199, Jessica 206, Brianna 203, Taylor 288, Emma 118, Madison 324, Sarah 518, Alexis 370, Alexis 471, Alexis 62, Emma 401, Emma 300, Hannah 314, Olivia 477, Olivia 214, Abigail 125, Jessica 189, Isabella 329, Samantha 250, Alexis 470, Elizabeth 284, Samantha 327, Grace 320, Elizabeth 289, Hannah 281, Samantha 483, Madison 415, Ashley 481, Brianna 179, Brianna 47, Ashley 220, Brianna 418, Olivia 53, Taylor 158, Emma 77, Brianna 513, Abigail 177, Emma 454, Abigail 341, Emily 403, Lauren 258, Olivia 376, Elizabeth 262, Elizabeth 328</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Sarah 31, Olivia 103, Elizabeth 473, Grace 351, Lauren 249, Emma 305, Jessica 278, Abigail 413, Kayla 409, Sarah 442</t>
+          <t>Alexis 294, Samantha 429, Alyssa 339, Elizabeth 473, Olivia 384, Emma 208, Hannah 314, Kayla 369, Emma 55, Olivia 477</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Emily 445, Alexis 104, Lauren 367, Alyssa 39, Abigail 408, Taylor 254, Elizabeth 391, Samantha 27, Alyssa 306, Elizabeth 436, Isabella 354, Lauren 475, Alexis 378, Samantha 487, Kayla 15, Lauren 207, Emily 507, Brianna 418, Elizabeth 473, Abigail 279, Emily 333, Isabella 295, Ashley 297, Samantha 150, Alyssa 128</t>
+          <t>Kayla 15, Alexis 104, Alexis 378, Elizabeth 436, Abigail 408, Elizabeth 391, Alyssa 306, Taylor 254, Isabella 354, Samantha 487, Lauren 475, Emily 445, Lauren 367, Alyssa 39, Samantha 27, Elizabeth 307, Ashley 84, Jessica 189, Isabella 329, Alyssa 128, Brianna 373, Hannah 281, Lauren 207, Emma 72, Abigail 279</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Brianna 205, Ashley 441, Samantha 276, Brianna 373, Elizabeth 307, Emma 257, Abigail 406, Taylor 158, Emma 72, Hannah 281</t>
+          <t>Madison 155, Samantha 276, Brianna 418, Emily 507, Abigail 406, Taylor 158, Grace 411, Emily 333, Madison 444, Sarah 434</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Taylor 6, Emma 28, Abigail 108, Jessica 423, Lauren 457, Jessica 191, Isabella 183, Kayla 407, Lauren 248, Olivia 345, Abigail 413, Elizabeth 10, Lauren 358, Brianna 492, Alexis 340, Hannah 317, Alexis 36, Ashley 117, Kayla 409, Elizabeth 79, Emily 34, Elizabeth 166, Emma 404, Sarah 277, Taylor 394, Taylor 26, Isabella 260, Isabella 375</t>
+          <t>Olivia 345, Jessica 191, Abigail 413, Abigail 108, Lauren 248, Jessica 423, Isabella 183, Kayla 407, Lauren 457, Taylor 6, Emma 28, Isabella 375, Emily 91, Sarah 424, Grace 83, Brianna 492, Alexis 36, Elizabeth 10, Kayla 409, Alexis 340, Jessica 374, Lauren 358, Abigail 296, Taylor 394, Emma 404, Elizabeth 166, Elizabeth 79, Taylor 26</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Sarah 424, Abigail 296, Emily 91, Lauren 101, Jessica 374, Grace 267, Grace 83, Madison 155, Sarah 210, Alyssa 273</t>
+          <t>Sarah 277, Hannah 317, Grace 267, Ashley 117, Lauren 101, Isabella 260, Emily 34, Alyssa 39, Alexis 470, Sarah 107</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ashley 193, Emily 37, Taylor 115, Alexis 381, Alyssa 359, Grace 100, Madison 204, Ashley 453, Taylor 121, Ashley 50, Olivia 169, Olivia 41, Abigail 279, Samantha 150, Jessica 70, Samantha 386, Jessica 311, Hannah 181, Alyssa 304, Samantha 178, Isabella 485, Samantha 398, Grace 431, Emily 97, Olivia 124, Ashley 84, Madison 155, Elizabeth 116, Lauren 372, Taylor 26, Grace 48, Isabella 375, Brianna 299, Alyssa 491, Sarah 424, Samantha 68, Olivia 127, Grace 267, Hannah 332, Elizabeth 227, Samantha 276, Lauren 337, Grace 22, Abigail 212, Isabella 3, Ashley 392, Hannah 165, Abigail 406, Brianna 201, Lauren 170</t>
+          <t>Ashley 453, Taylor 115, Ashley 193, Alyssa 359, Madison 204, Alexis 381, Emily 37, Taylor 121, Ashley 50, Grace 100, Jessica 311, Isabella 375, Sarah 424, Grace 431, Ashley 84, Brianna 299, Emily 97, Hannah 181, Alyssa 491, Jessica 70, Samantha 178, Samantha 68, Abigail 279, Madison 155, Lauren 372, Isabella 485, Samantha 398, Olivia 41, Taylor 26, Olivia 127, Grace 48, Samantha 386, Alyssa 304, Samantha 150, Elizabeth 116, Olivia 169, Grace 267, Hannah 332, Olivia 124, Isabella 3, Lauren 337, Lauren 346, Samantha 302, Grace 111, Brianna 201, Grace 463, Grace 22, Elizabeth 227, Ashley 392, Samantha 276</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Abigail 408, Jessica 189, Grace 465, Olivia 21, Grace 99, Alyssa 39, Emily 333, Emma 185, Emily 507, Olivia 169</t>
+          <t>Olivia 21, Taylor 115, Hannah 165, Emma 185, Grace 465, Lauren 170, Emily 507, Abigail 406, Elizabeth 67, Taylor 110</t>
         </is>
       </c>
     </row>
@@ -868,12 +868,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Alyssa 493, Emma 216, Lauren 85, Taylor 151, Abigail 408, Lauren 60, Jessica 461, Abigail 108, Samantha 429, Sarah 331, Ashley 240, Alexis 381, Brianna 172, Lauren 96, Alyssa 273, Hannah 194, Elizabeth 67, Samantha 447, Lauren 207, Emily 507, Alexis 524, Olivia 138, Grace 253, Kayla 379, Taylor 94, Lauren 310, Alexis 470, Alyssa 128, Brianna 197, Ashley 412</t>
+          <t>Samantha 429, Abigail 408, Abigail 108, Emma 216, Lauren 85, Alexis 381, Sarah 331, Lauren 60, Brianna 172, Ashley 240, Alyssa 273, Jessica 461, Lauren 96, Taylor 151, Hannah 194, Alyssa 493, Elizabeth 67, Grace 253, Grace 431, Lauren 459, Alexis 524, Alexis 470, Alyssa 128, Brianna 419, Sarah 57, Lauren 207, Emma 387, Kayla 469, Madison 162, Ashley 412</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Sarah 57, Lauren 459, Brianna 180, Grace 431, Alyssa 245, Brianna 47, Alyssa 339, Madison 162, Alexis 294, Emma 387</t>
+          <t>Alyssa 245, Taylor 94, Alyssa 339, Brianna 47, Samantha 447, Emily 507, Brianna 197, Olivia 138, Kayla 379, Brianna 180</t>
         </is>
       </c>
     </row>
@@ -885,12 +885,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lauren 33, Ashley 123, Brianna 153, Elizabeth 385, Olivia 259, Olivia 102, Emma 25, Emma 401, Emily 37, Brianna 201, Hannah 202, Emily 334, Madison 54, Ashley 453, Alyssa 273, Grace 99, Abigail 338, Hannah 194, Emma 238, Samantha 402, Samantha 211, Alexis 471, Kayla 466, Jessica 219, Olivia 138, Brianna 388, Taylor 94, Madison 417, Emma 290, Jessica 446, Sarah 442, Kayla 75, Emma 64, Alexis 355, Samantha 484</t>
+          <t>Ashley 453, Samantha 402, Brianna 153, Madison 54, Hannah 202, Grace 99, Olivia 102, Emily 334, Emily 37, Alyssa 273, Alexis 471, Emma 238, Brianna 201, Olivia 259, Elizabeth 385, Samantha 211, Hannah 194, Abigail 338, Lauren 33, Emma 25, Emma 401, Ashley 123, Madison 417, Sarah 442, Brianna 190, Abigail 231, Emma 290, Grace 213, Alexis 355, Brianna 388, Brianna 456, Samantha 484, Taylor 94, Jessica 446, Emily 439</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Elizabeth 328, Ashley 81, Brianna 456, Emily 439, Abigail 231, Grace 213, Brianna 190, Emily 479, Alexis 80, Sarah 331</t>
+          <t>Alexis 80, Kayla 466, Emily 479, Olivia 138, Kayla 75, Jessica 219, Ashley 81, Emma 64, Elizabeth 328, Lauren 90</t>
         </is>
       </c>
     </row>
@@ -902,12 +902,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Alexis 104, Elizabeth 476, Abigail 108, Alyssa 132, Hannah 397, Lauren 360, Alexis 35, Lauren 49, Kayla 407, Taylor 192, Lauren 248, Kayla 5, Isabella 95, Grace 320, Taylor 130, Alyssa 304, Grace 22, Taylor 215, Brianna 373, Hannah 287, Sarah 86, Lauren 236, Abigail 503, Hannah 266, Emma 9, Emma 72, Madison 149, Ashley 220, Lauren 29, Samantha 483, Elizabeth 43, Sarah 424, Alexis 294, Abigail 296, Abigail 341</t>
+          <t>Alyssa 132, Alexis 104, Abigail 108, Alexis 35, Lauren 248, Lauren 360, Kayla 407, Hannah 397, Taylor 192, Lauren 49, Elizabeth 476, Kayla 5, Lauren 236, Hannah 287, Sarah 424, Brianna 373, Grace 320, Madison 149, Emma 72, Samantha 483, Abigail 296, Isabella 95, Hannah 266, Elizabeth 43, Ashley 220, Sarah 86, Abigail 503, Lauren 29, Alyssa 304, Abigail 341, Taylor 215, Taylor 130, Alexis 294, Emma 9, Grace 22</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Isabella 187, Emma 238, Samantha 271, Sarah 210, Hannah 397, Abigail 125, Jessica 278, Alexis 468, Lauren 457, Grace 120</t>
+          <t>Isabella 95, Kayla 272, Lauren 309, Emma 55, Madison 196, Emma 499, Grace 120, Brianna 221, Hannah 397, Emily 97</t>
         </is>
       </c>
     </row>
@@ -919,12 +919,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Grace 199, Brianna 153, Elizabeth 385, Alyssa 4, Alyssa 233, Taylor 151, Abigail 408, Samantha 27, Jessica 191, Elizabeth 436, Jessica 278, Elizabeth 449, Olivia 103, Isabella 183, Sarah 210, Alyssa 359, Madison 204, Emma 142, Alexis 370, Alyssa 273</t>
+          <t>Jessica 191, Brianna 153, Olivia 103, Elizabeth 436, Abigail 408, Grace 199, Jessica 206, Alyssa 359, Madison 204, Sarah 210, Isabella 183, Emma 142, Jessica 278, Alyssa 233, Alyssa 273, Taylor 121, Alexis 370, Elizabeth 449, Taylor 151, Elizabeth 385</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Jessica 206, Taylor 121, Elizabeth 67, Kayla 466, Samantha 150, Olivia 502, Kayla 369, Sarah 482, Lauren 494, Grace 120</t>
+          <t>Alyssa 4, Samantha 27, Elizabeth 67, Ashley 140, Olivia 214, Elizabeth 307, Abigail 125, Olivia 451, Sarah 482, Alyssa 380</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ashley 198, Ashley 78, Alexis 335, Taylor 509, Hannah 323, Ashley 240, Brianna 221, Emily 229, Emma 98, Hannah 397, Lauren 360, Sarah 210, Jessica 206, Isabella 63, Ashley 168, Olivia 239, Jessica 265, Abigail 450, Kayla 379, Emily 349, Olivia 264, Jessica 230, Sarah 482, Hannah 129, Abigail 517, Olivia 40, Samantha 480, Jessica 163, Kayla 268, Olivia 214, Brianna 92</t>
+          <t>Brianna 221, Jessica 206, Lauren 360, Emily 229, Emma 98, Sarah 210, Isabella 63, Ashley 240, Hannah 323, Ashley 78, Hannah 397, Taylor 509, Alexis 335, Ashley 198, Olivia 214, Kayla 268, Sarah 482, Samantha 327, Jessica 163, Ashley 168, Hannah 129, Olivia 239, Brianna 92, Olivia 40, Abigail 450, Emily 349, Brianna 200, Jessica 230, Samantha 480, Kayla 379, Abigail 517</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Samantha 327, Brianna 200, Abigail 82, Lauren 337, Isabella 241, Jessica 446, Samantha 271, Sarah 518, Elizabeth 364, Madison 162</t>
+          <t>Jessica 265, Olivia 264, Isabella 395, Kayla 139, Lauren 337, Sarah 420, Sarah 518, Abigail 82, Abigail 517, Isabella 63</t>
         </is>
       </c>
     </row>
@@ -953,12 +953,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lauren 33, Brianna 153, Sarah 331, Jessica 423, Sarah 2, Lauren 475, Alexis 378, Madison 204, Hannah 194, Samantha 402, Abigail 490, Emma 55, Abigail 344, Alyssa 440, Ashley 441, Grace 120, Isabella 187, Alexis 355, Ashley 414, Lauren 459, Emma 404, Elizabeth 262, Lauren 337, Hannah 314, Ashley 246, Alexis 261, Alyssa 133, Elizabeth 141, Alexis 80, Abigail 82, Lauren 232</t>
+          <t>Samantha 402, Brianna 153, Alexis 378, Sarah 2, Madison 204, Jessica 423, Abigail 490, Lauren 475, Sarah 331, Hannah 194, Lauren 33, Hannah 314, Lauren 459, Elizabeth 141, Alyssa 440, Alexis 355, Abigail 344, Isabella 187, Emma 55, Ashley 246, Grace 120, Emma 404, Alexis 80, Ashley 441, Lauren 337, Alexis 261, Alyssa 133, Ashley 414, Elizabeth 262, Lauren 232, Sarah 107</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Olivia 137, Hannah 467, Elizabeth 43, Abigail 291, Lauren 170, Samantha 402, Madison 352, Sarah 107, Olivia 504, Taylor 192</t>
+          <t>Brianna 513, Abigail 82, Hannah 467, Madison 415, Alyssa 245, Madison 352, Alyssa 421, Emily 144, Lauren 170, Kayla 407</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sarah 315, Emily 405, Samantha 488</t>
+          <t>Hannah 314, Emily 405, Emily 135, Jessica 425, Samantha 488</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Brianna 203, Elizabeth 422, Lauren 457, Isabella 244, Sarah 74, Taylor 106, Olivia 504, Brianna 172, Lauren 96, Grace 396, Lauren 52, Olivia 416, Alexis 365, Jessica 23, Emily 505, Kayla 5, Elizabeth 473, Madison 301, Lauren 494, Sarah 512, Abigail 255, Lauren 236, Jessica 32, Olivia 134, Grace 282, Samantha 484, Emily 405, Samantha 398, Abigail 109, Sarah 277</t>
+          <t>Isabella 244, Grace 396, Olivia 504, Brianna 203, Alexis 365, Jessica 23, Sarah 74, Lauren 52, Taylor 106, Lauren 457, Brianna 172, Elizabeth 422, Olivia 416, Lauren 96, Kayla 5, Olivia 134, Lauren 236, Olivia 214, Jessica 32, Ashley 510, Samantha 327, Abigail 255, Samantha 484, Kayla 469, Lauren 494, Emily 405, Samantha 398, Madison 301, Grace 282, Emily 505</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Ashley 510, Brianna 361, Olivia 214, Samantha 327, Kayla 469, Grace 280, Jessica 44, Elizabeth 79, Ashley 286, Abigail 108</t>
+          <t>Abigail 109, Sarah 277, Brianna 361, Elizabeth 473, Sarah 512, Emily 505, Lauren 346, Brianna 299, Isabella 295, Samantha 462</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Alyssa 19, Brianna 88, Olivia 102, Taylor 151, Alyssa 39, Alexis 171, Abigail 108, Alyssa 366, Hannah 59, Elizabeth 391, Lauren 457, Olivia 103, Madison 368, Lauren 49, Emma 142, Emma 238, Alexis 365, Isabella 63, Isabella 427, Grace 428, Sarah 420, Kayla 51, Elizabeth 473, Isabella 474, Emily 390, Emma 305, Olivia 270, Olivia 502, Kayla 369, Emma 185, Sarah 512, Emma 350, Taylor 215, Elizabeth 307, Kayla 75, Lauren 430, Abigail 291, Alexis 443, Brianna 180, Ashley 510, Ashley 246, Olivia 186, Alexis 294, Madison 225, Jessica 425, Ashley 195, Alexis 80, Madison 322, Jessica 44, Sarah 312</t>
+          <t>Hannah 59, Madison 368, Olivia 103, Elizabeth 391, Abigail 108, Olivia 102, Alyssa 19, Alexis 365, Emma 142, Isabella 63, Lauren 457, Isabella 427, Emma 238, Alyssa 366, Alexis 171, Taylor 151, Lauren 49, Alyssa 39, Brianna 88, Emma 350, Elizabeth 307, Ashley 510, Olivia 270, Alexis 443, Emily 390, Jessica 425, Emma 185, Grace 428, Lauren 430, Ashley 246, Emma 305, Sarah 420, Isabella 474, Ashley 195, Kayla 369, Alexis 80, Olivia 502, Kayla 75, Abigail 291, Brianna 180, Olivia 186, Taylor 215, Alexis 294, Elizabeth 473, Madison 322, Madison 225, Kayla 51, Sarah 512, Samantha 298, Abigail 450</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Grace 30, Grace 285, Madison 149, Elizabeth 116, Brianna 438, Alyssa 366, Brianna 418, Hannah 194, Samantha 298, Brianna 388</t>
+          <t>Alexis 498, Grace 285, Sarah 156, Alexis 355, Emma 9, Alexis 381, Elizabeth 116, Lauren 236, Taylor 215, Madison 149</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Madison 173, Lauren 12, Elizabeth 472, Elizabeth 385, Alyssa 308, Samantha 429, Alyssa 508, Hannah 218, Isabella 183, Alyssa 435, Lauren 452, Madison 126, Isabella 160, Grace 396, Samantha 143, Abigail 338, Emily 87, Elizabeth 67, Alyssa 432, Alexis 340, Jessica 230, Hannah 467, Jessica 175, Sarah 107, Madison 301, Abigail 82, Lauren 11, Abigail 255, Alexis 343, Kayla 409, Sarah 315, Jessica 293, Grace 282, Olivia 167, Emma 9, Ashley 286, Lauren 459, Emily 405, Elizabeth 166, Madison 243, Ashley 458, Taylor 394, Isabella 353, Alyssa 339, Samantha 480, Jessica 163, Ashley 283, Emma 387, Kayla 272, Sarah 2</t>
+          <t>Grace 396, Samantha 429, Lauren 452, Alyssa 435, Alyssa 508, Isabella 183, Alyssa 308, Elizabeth 472, Emily 87, Lauren 12, Isabella 160, Hannah 218, Samantha 143, Madison 173, Elizabeth 385, Abigail 338, Madison 126, Elizabeth 67, Jessica 293, Olivia 167, Lauren 11, Lauren 459, Alyssa 432, Abigail 82, Abigail 255, Kayla 409, Alexis 340, Jessica 163, Emma 387, Ashley 283, Taylor 394, Emily 405, Alyssa 339, Hannah 467, Elizabeth 166, Madison 301, Grace 282, Alexis 343, Madison 243, Jessica 230, Samantha 480, Isabella 353, Sarah 107, Ashley 458, Jessica 175, Ashley 286, Kayla 272, Emma 9, Sarah 315, Brianna 361</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Madison 301, Olivia 53, Sarah 210, Madison 368, Jessica 265, Alyssa 273, Madison 464, Hannah 393, Taylor 176, Taylor 288</t>
+          <t>Brianna 362, Madison 464, Abigail 82, Emma 387, Lauren 309, Lauren 489, Ashley 198, Elizabeth 422, Alyssa 132, Jessica 325</t>
         </is>
       </c>
     </row>
@@ -1043,12 +1043,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Madison 173, Abigail 131, Alexis 316, Emma 401, Emily 229, Taylor 288, Emily 334, Alexis 370, Alyssa 273, Emma 55, Ashley 297, Brianna 205, Sarah 512, Emma 448, Samantha 178, Madison 464</t>
+          <t>Abigail 131, Alexis 316, Taylor 288, Emily 229, Emily 334, Alyssa 273, Alexis 370, Madison 173, Emma 401, Olivia 154, Jessica 189, Alyssa 380, Isabella 161, Samantha 178, Emma 387, Lauren 372</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Alexis 69, Emma 454, Elizabeth 166, Brianna 180, Jessica 189, Brianna 42, Lauren 372, Taylor 26, Olivia 154, Grace 89</t>
+          <t>Emma 55, Hannah 119, Madison 464, Grace 263, Brianna 42, Brianna 92, Alexis 69, Elizabeth 166, Taylor 26, Grace 463</t>
         </is>
       </c>
     </row>
@@ -1060,12 +1060,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Emily 445, Elizabeth 476, Elizabeth 385, Lauren 90, Lauren 60, Taylor 254, Olivia 137, Elizabeth 436, Lauren 452, Emily 228, Emily 144, Emily 146, Isabella 160, Sarah 377, Emily 87, Emma 238, Samantha 211, Samantha 298, Emma 305, Brianna 205, Jessica 311, Sarah 312, Taylor 215, Hannah 165, Emma 217</t>
+          <t>Sarah 377, Emily 144, Elizabeth 436, Lauren 452, Taylor 254, Lauren 90, Lauren 60, Emily 445, Emily 87, Emma 238, Isabella 160, Emily 228, Elizabeth 385, Samantha 211, Emily 146, Elizabeth 476, Olivia 137, Jessica 311, Grace 515, Hannah 165, Jessica 521, Sarah 312, Emma 305, Emma 217, Elizabeth 79</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Elizabeth 79, Jessica 521, Emily 152, Grace 515, Sarah 434, Brianna 419, Lauren 56, Madison 149, Isabella 427, Emily 135</t>
+          <t>Sarah 434, Samantha 298, Emily 152, Taylor 215, Brianna 205, Grace 280, Emily 91, Brianna 362, Grace 247, Abigail 131</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ashley 193, Alyssa 308, Samantha 429, Brianna 61, Madison 126, Emily 334, Alexis 35, Lauren 49, Alexis 471, Alyssa 432, Jessica 219, Sarah 156, Taylor 130, Hannah 16, Emma 290, Elizabeth 364, Taylor 158, Alexis 69, Isabella 485, Madison 243, Madison 155, Taylor 394, Alexis 468, Alyssa 245, Taylor 110, Abigail 177, Samantha 483</t>
+          <t>Samantha 429, Brianna 61, Alexis 35, Ashley 193, Emily 334, Alyssa 308, Alexis 471, Lauren 49, Madison 126, Isabella 347, Emma 290, Isabella 275, Alyssa 432, Elizabeth 364, Abigail 514, Madison 155, Samantha 483, Ashley 283, Taylor 394, Alyssa 245, Isabella 485, Taylor 110, Alexis 69, Olivia 21, Taylor 158, Olivia 234, Hannah 16</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Olivia 234, Olivia 21, Ashley 283, Isabella 275, Ashley 392, Abigail 514, Isabella 347, Isabella 187, Samantha 276, Emma 118</t>
+          <t>Alexis 468, Madison 243, Abigail 177, Jessica 219, Sarah 156, Taylor 130, Ashley 392, Alexis 294, Olivia 376, Emily 65</t>
         </is>
       </c>
     </row>
@@ -1094,12 +1094,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Emma 499, Taylor 6, Alyssa 233, Sarah 400, Ashley 78, Brianna 201, Lauren 452, Brianna 61, Kayla 188, Ashley 460, Grace 100, Jessica 66, Lauren 248, Abigail 490, Emily 330, Abigail 71, Kayla 51, Isabella 474</t>
+          <t>Jessica 66, Brianna 61, Lauren 248, Lauren 452, Emma 499, Abigail 490, Sarah 400, Taylor 6, Alyssa 233, Emily 330, Ashley 78, Brianna 201, Grace 100, Kayla 188, Ashley 460, Abigail 71, Hannah 165, Sarah 424</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Olivia 41, Brianna 388, Abigail 113, Isabella 95, Emma 305, Samantha 386, Brianna 205, Hannah 165, Abigail 503, Elizabeth 157</t>
+          <t>Alexis 443, Abigail 113, Brianna 388, Hannah 281, Elizabeth 157, Isabella 95, Hannah 129, Emma 305, Taylor 110, Alexis 69</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Emma 499, Taylor 6, Alyssa 233, Sarah 400, Ashley 78, Brianna 201, Lauren 452, Brianna 61, Kayla 188, Ashley 460, Grace 100, Jessica 66, Lauren 248, Abigail 490, Emily 330, Abigail 71, Kayla 51, Isabella 474</t>
+          <t>Jessica 66, Brianna 61, Lauren 248, Lauren 452, Emma 499, Abigail 490, Sarah 400, Taylor 6, Alyssa 233, Emily 330, Ashley 78, Brianna 201, Grace 100, Kayla 188, Ashley 460, Abigail 71, Hannah 165, Sarah 424</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Emma 499, Taylor 6, Alyssa 233, Sarah 400, Ashley 78, Brianna 201, Lauren 452, Brianna 61, Kayla 188, Ashley 460, Grace 100, Jessica 66, Lauren 248, Abigail 490, Emily 330, Abigail 71, Kayla 51, Isabella 474</t>
+          <t>Jessica 66, Brianna 61, Lauren 248, Lauren 452, Emma 499, Abigail 490, Sarah 400, Taylor 6, Alyssa 233, Emily 330, Ashley 78, Brianna 201, Grace 100, Kayla 188, Ashley 460, Abigail 71, Hannah 165, Sarah 424</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -1137,12 +1137,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Alyssa 19, Elizabeth 472, Lauren 90, Alexis 62, Alexis 171, Alyssa 308, Sarah 331, Alexis 316, Sarah 400, Elizabeth 516, Kayla 188, Samantha 143, Grace 100, Olivia 416, Emily 330, Olivia 169, Olivia 41, Emily 390, Emma 77, Sarah 156, Samantha 386, Kayla 369, Sarah 107, Abigail 82, Abigail 255, Emma 350, Kayla 495, Madison 415, Grace 282, Madison 149, Abigail 291, Emily 403, Kayla 235, Madison 519</t>
+          <t>Alexis 316, Alyssa 19, Elizabeth 516, Lauren 90, Alyssa 308, Sarah 331, Sarah 400, Elizabeth 472, Olivia 416, Emily 330, Alexis 171, Samantha 143, Alexis 62, Grace 100, Kayla 188, Emma 350, Grace 431, Emily 390, Sarah 114, Kayla 235, Hannah 357, Madison 519, Isabella 161, Abigail 82, Abigail 255, Madison 149, Emma 387, Madison 415, Alyssa 245, Kayla 495, Olivia 38, Olivia 41, Kayla 369, Emma 77</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Grace 431, Alyssa 245, Olivia 38, Hannah 357, Lauren 170, Sarah 114, Emma 387, Hannah 332, Kayla 272, Isabella 161</t>
+          <t>Lauren 170, Grace 282, Samantha 386, Abigail 291, Sarah 107, Olivia 169, Sarah 156, Emily 403, Kayla 272, Hannah 332</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Brianna 203, Elizabeth 476, Samantha 302, Hannah 59, Ashley 348, Alexis 381, Brianna 61, Olivia 504, Samantha 271, Jessica 506, Emma 142, Isabella 395, Elizabeth 486, Lauren 363, Jessica 23, Alexis 524, Emma 305, Olivia 502, Lauren 346, Ashley 412, Sarah 57, Emma 217, Emma 9</t>
+          <t>Hannah 59, Olivia 504, Isabella 395, Brianna 61, Samantha 302, Brianna 203, Jessica 23, Emma 142, Samantha 271, Alexis 381, Lauren 363, Ashley 348, Elizabeth 486, Elizabeth 476, Jessica 506, Isabella 347, Jessica 521, Abigail 125, Lauren 249, Alexis 524, Elizabeth 141, Sarah 57, Elizabeth 289</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Elizabeth 289, Olivia 53, Lauren 249, Grace 511, Jessica 521, Elizabeth 313, Elizabeth 141, Abigail 125, Isabella 347, Madison 322</t>
+          <t>Ashley 412, Elizabeth 313, Emma 305, Emma 217, Olivia 53, Olivia 502, Grace 511, Madison 322, Emma 9, Lauren 346</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lauren 12, Lauren 85, Alyssa 366, Elizabeth 422, Alexis 498, Sarah 31, Sarah 2, Sarah 74, Madison 24, Lauren 452, Lauren 232, Emma 118, Madison 319, Taylor 226, Taylor 192, Ashley 326, Olivia 477, Lauren 310, Jessica 311, Sarah 312</t>
+          <t>Sarah 31, Alexis 498, Sarah 2, Lauren 452, Lauren 232, Emma 118, Lauren 85, Sarah 74, Elizabeth 422, Alyssa 366, Lauren 12, Taylor 192, Madison 24, Taylor 226, Madison 319, Olivia 154, Jessica 311, Ashley 140, Olivia 477, Hannah 287</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Hannah 16, Grace 22, Alexis 343, Hannah 287, Jessica 32, Ashley 140, Emily 97, Olivia 124, Elizabeth 262, Lauren 337</t>
+          <t>Jessica 32, Ashley 510, Emily 65, Brianna 299, Ashley 326, Emily 97, Samantha 250, Alyssa 380, Sarah 312, Jessica 325</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Emma 499, Grace 199, Brianna 88, Kayla 139, Jessica 437, Olivia 103, Alyssa 435, Taylor 222, Isabella 160, Brianna 172, Emma 300, Isabella 474, Samantha 382, Hannah 467, Alexis 45, Lauren 11, Lauren 258, Sarah 315, Abigail 503, Alexis 112</t>
+          <t>Jessica 437, Olivia 103, Grace 199, Kayla 139, Emma 499, Alyssa 435, Taylor 222, Brianna 172, Isabella 160, Brianna 88, Grace 515, Emma 300, Lauren 11, Grace 256, Madison 455, Alexis 112, Emma 58, Ashley 481, Hannah 119, Hannah 467</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Ashley 220, Emma 58, Grace 256, Brianna 180, Lauren 93, Ashley 481, Madison 455, Alexis 294, Alexis 261, Grace 515</t>
+          <t>Samantha 382, Ashley 220, Isabella 474, Grace 463, Lauren 93, Abigail 503, Brianna 180, Alexis 261, Lauren 258, Alexis 294</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1205,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Alyssa 19, Lauren 8, Elizabeth 385, Jessica 46, Alyssa 308, Samantha 27, Emma 401, Abigail 212, Isabella 183, Emma 98, Kayla 13, Emma 142, Sarah 518, Olivia 169, Samantha 20, Emily 390</t>
+          <t>Jessica 46, Lauren 8, Alyssa 19, Emma 98, Isabella 183, Emma 142, Alyssa 308, Abigail 212, Kayla 13, Sarah 518, Elizabeth 385, Emma 401, Samantha 27, Olivia 154, Emily 390, Emily 97</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Hannah 317, Isabella 3, Alexis 36, Grace 30, Ashley 441, Madison 301, Alyssa 304, Madison 415, Emily 97, Olivia 124</t>
+          <t>Samantha 250, Sarah 114, Alexis 36, Grace 30, Madison 415, Taylor 394, Taylor 26, Madison 301, Kayla 7, Alyssa 304</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Madison 173, Isabella 342, Emma 25, Abigail 269, Jessica 278, Alexis 498, Taylor 509, Emily 37, Lauren 360, Grace 396, Taylor 192, Abigail 338, Ashley 168, Lauren 358, Sarah 420, Abigail 279</t>
+          <t>Grace 396, Alexis 498, Abigail 269, Lauren 360, Isabella 342, Jessica 278, Emily 37, Taylor 192, Taylor 509, Madison 173, Abigail 338, Emma 25, Sarah 442, Samantha 462, Brianna 299, Alyssa 380</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Abigail 450, Emma 77, Taylor 130, Sarah 107, Olivia 496, Sarah 86, Kayla 495, Sarah 442, Ashley 286, Madison 14</t>
+          <t>Brianna 456, Abigail 279, Ashley 168, Lauren 358, Kayla 495, Sarah 420, Brianna 92, Samantha 398, Olivia 496, Abigail 450</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lauren 90, Brianna 88, Samantha 302, Lauren 457, Brianna 221, Emily 228, Alyssa 359, Lauren 52, Lauren 49, Emma 238, Madison 324, Olivia 345, Alyssa 432, Emma 55, Alexis 371, Grace 428, Jessica 219, Grace 280, Taylor 145, Jessica 230, Lauren 346, Alexis 45, Brianna 362, Emma 217, Alexis 355, Emma 72, Kayla 235, Brianna 42, Alexis 468, Hannah 357, Grace 213, Olivia 214, Madison 225, Olivia 127, Grace 515, Grace 321</t>
+          <t>Olivia 345, Brianna 221, Samantha 302, Alyssa 359, Lauren 90, Madison 324, Lauren 52, Lauren 457, Emma 238, Emily 228, Lauren 49, Brianna 88, Grace 515, Olivia 214, Grace 321, Grace 213, Alyssa 432, Kayla 235, Hannah 357, Alexis 355, Grace 428, Emma 72, Emma 55, Taylor 145, Alexis 371, Brianna 42, Emma 217, Olivia 127, Alexis 468, Jessica 230, Brianna 362, Jessica 219, Grace 280, Lauren 346, Alexis 45, Madison 225</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Samantha 382, Madison 301, Sarah 312, Emma 77, Emma 305, Emily 146, Kayla 409, Ashley 246, Elizabeth 307, Abigail 177</t>
+          <t>Alexis 370, Alexis 343, Abigail 131, Samantha 250, Emma 55, Grace 267, Elizabeth 157, Madison 319, Alexis 35, Alexis 316</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hannah 218, Isabella 241, Sarah 2, Olivia 103, Hannah 397, Madison 368, Madison 126, Emily 334, Alexis 35, Samantha 143, Madison 54, Olivia 416, Jessica 383, Elizabeth 164, Brianna 492, Emily 333, Grace 320, Samantha 298, Sarah 156, Jessica 70, Emma 185, Olivia 237, Grace 22, Jessica 520, Emma 257, Lauren 356, Isabella 485, Elizabeth 289, Emily 403, Lauren 29, Lauren 249, Emma 76</t>
+          <t>Madison 368, Jessica 383, Madison 54, Isabella 241, Olivia 103, Alexis 35, Sarah 2, Emily 334, Olivia 416, Hannah 218, Hannah 397, Samantha 143, Madison 126, Olivia 237, Lauren 356, Isabella 375, Emily 65, Lauren 249, Kayla 268, Jessica 520, Grace 83, Jessica 70, Brianna 492, Grace 320, Elizabeth 289, Emma 185, Abigail 514, Abigail 296, Ashley 481, Hannah 119, Sarah 501, Elizabeth 164</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Olivia 40, Sarah 501, Ashley 481, Isabella 375, Kayla 268, Grace 411, Abigail 296, Lauren 101, Grace 83, Kayla 272</t>
+          <t>Isabella 485, Olivia 40, Emma 76, Grace 411, Emily 333, Lauren 29, Samantha 298, Emma 257, Sarah 156, Emily 403</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Brianna 203, Grace 199, Lauren 309, Olivia 102, Alyssa 366, Grace 465, Olivia 1, Alexis 378, Hannah 202, Sarah 377, Isabella 395, Grace 285, Emma 300, Olivia 384, Kayla 410, Ashley 117, Brianna 179, Kayla 369, Jessica 311, Sarah 482</t>
+          <t>Sarah 377, Hannah 202, Alexis 378, Isabella 395, Grace 199, Grace 465, Olivia 102, Brianna 203, Grace 285, Alyssa 366, Olivia 1, Lauren 309, Jessica 311, Emma 300, Hannah 287, Elizabeth 307, Isabella 275, Sarah 482, Olivia 384, Elizabeth 141</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Abigail 82, Grace 120, Isabella 187, Hannah 287, Lauren 258, Elizabeth 307, Kayla 75, Elizabeth 227, Emma 404, Elizabeth 399</t>
+          <t>Jessica 147, Abigail 82, Kayla 410, Isabella 187, Elizabeth 313, Grace 120, Grace 263, Brianna 179, Emma 404, Jessica 303</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Brianna 203, Grace 199, Lauren 309, Olivia 102, Alyssa 366, Grace 465, Olivia 1, Alexis 378, Hannah 202, Sarah 377, Isabella 395, Grace 285, Emma 300, Olivia 384, Kayla 410, Ashley 117, Brianna 179, Kayla 369, Jessica 311, Sarah 482</t>
+          <t>Sarah 377, Hannah 202, Alexis 378, Isabella 395, Grace 199, Grace 465, Olivia 102, Brianna 203, Grace 285, Alyssa 366, Olivia 1, Lauren 309, Jessica 311, Emma 300, Hannah 287, Elizabeth 307, Isabella 275, Sarah 482, Olivia 384, Elizabeth 141</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Brianna 203, Grace 199, Lauren 309, Olivia 102, Alyssa 366, Grace 465, Olivia 1, Alexis 378, Hannah 202, Sarah 377, Isabella 395, Grace 285, Emma 300, Olivia 384, Kayla 410, Ashley 117, Brianna 179, Kayla 369, Jessica 311, Sarah 482</t>
+          <t>Sarah 377, Hannah 202, Alexis 378, Isabella 395, Grace 199, Grace 465, Olivia 102, Brianna 203, Grace 285, Alyssa 366, Olivia 1, Lauren 309, Jessica 311, Emma 300, Hannah 287, Elizabeth 307, Isabella 275, Sarah 482, Olivia 384, Elizabeth 141</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ashley 478, Hannah 522, Elizabeth 174, Alexis 62, Taylor 254, Alyssa 132, Jessica 437, Hannah 323, Sarah 31, Olivia 504, Samantha 271, Madison 319, Emily 87, Isabella 63, Alexis 471, Emma 208, Kayla 466, Emily 505, Jessica 265, Samantha 382, Samantha 18, Olivia 502, Abigail 105, Lauren 236, Samantha 224</t>
+          <t>Alyssa 132, Jessica 437, Hannah 522, Olivia 504, Sarah 31, Taylor 254, Isabella 63, Samantha 271, Elizabeth 174, Ashley 478, Emily 87, Hannah 323, Alexis 471, Alexis 62, Emma 208, Madison 319, Samantha 18, Lauren 236, Ashley 84, Abigail 231, Samantha 224, Alyssa 491, Samantha 68, Lauren 430, Madison 155</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Lauren 430, Lauren 223, Ashley 84, Madison 155, Lauren 337, Abigail 177, Isabella 353, Abigail 231, Grace 48, Grace 511</t>
+          <t>Samantha 382, Olivia 21, Grace 48, Emily 505, Olivia 502, Kayla 466, Abigail 177, Isabella 353, Lauren 223, Lauren 337</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ashley 478, Hannah 522, Elizabeth 174, Alexis 62, Taylor 254, Alyssa 132, Jessica 437, Hannah 323, Sarah 31, Olivia 504, Samantha 271, Madison 319, Emily 87, Isabella 63, Alexis 471, Emma 208, Kayla 466, Emily 505, Jessica 265, Samantha 382, Samantha 18, Olivia 502, Abigail 105, Lauren 236, Samantha 224</t>
+          <t>Alyssa 132, Jessica 437, Hannah 522, Olivia 504, Sarah 31, Taylor 254, Isabella 63, Samantha 271, Elizabeth 174, Ashley 478, Emily 87, Hannah 323, Alexis 471, Alexis 62, Emma 208, Madison 319, Samantha 18, Lauren 236, Ashley 84, Abigail 231, Samantha 224, Alyssa 491, Samantha 68, Lauren 430, Madison 155</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ashley 478, Hannah 522, Elizabeth 174, Alexis 62, Taylor 254, Alyssa 132, Jessica 437, Hannah 323, Sarah 31, Olivia 504, Samantha 271, Madison 319, Emily 87, Isabella 63, Alexis 471, Emma 208, Kayla 466, Emily 505, Jessica 265, Samantha 382, Samantha 18, Olivia 502, Abigail 105, Lauren 236, Samantha 224</t>
+          <t>Alyssa 132, Jessica 437, Hannah 522, Olivia 504, Sarah 31, Taylor 254, Isabella 63, Samantha 271, Elizabeth 174, Ashley 478, Emily 87, Hannah 323, Alexis 471, Alexis 62, Emma 208, Madison 319, Samantha 18, Lauren 236, Ashley 84, Abigail 231, Samantha 224, Alyssa 491, Samantha 68, Lauren 430, Madison 155</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -1377,12 +1377,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ashley 193, Ashley 123, Alyssa 4, Alyssa 508, Elizabeth 391, Ashley 198, Jessica 191, Alexis 335, Isabella 354, Lauren 475, Samantha 487, Kayla 15, Emily 146, Jessica 506, Alexis 370, Abigail 413, Ashley 389, Ashley 326</t>
+          <t>Kayla 15, Jessica 191, Abigail 413, Elizabeth 391, Ashley 193, Isabella 354, Alyssa 508, Samantha 487, Lauren 475, Alexis 370, Alexis 335, Emily 146, Alyssa 4, Ashley 123, Ashley 198, Jessica 506, Emma 350, Olivia 134</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Elizabeth 473, Samantha 73, Ashley 297, Jessica 175, Sarah 312, Sarah 512, Emma 290, Emma 350, Grace 122, Emma 448</t>
+          <t>Ashley 140, Brianna 190, Samantha 73, Ashley 326, Jessica 189, Emma 290, Emma 58, Sarah 312, Isabella 161, Samantha 178</t>
         </is>
       </c>
     </row>
@@ -1394,12 +1394,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ashley 193, Elizabeth 472, Elizabeth 422, Kayla 139, Sarah 331, Abigail 131, Kayla 188, Ashley 460, Olivia 345, Emily 330, Jessica 23, Olivia 239, Alexis 371, Kayla 410, Alyssa 128, Jessica 175, Samantha 386, Madison 301, Olivia 496, Abigail 255, Jessica 44, Hannah 165, Samantha 178, Madison 415, Elizabeth 284, Jessica 293, Taylor 158, Lauren 430, Lauren 459, Lauren 223, Jessica 189</t>
+          <t>Olivia 345, Abigail 131, Kayla 139, Ashley 193, Jessica 23, Sarah 331, Elizabeth 472, Elizabeth 422, Emily 330, Kayla 188, Ashley 460, Jessica 293, Hannah 165, Brianna 190, Lauren 459, Jessica 44, Jessica 189, Alyssa 128, Elizabeth 284, Isabella 161, Lauren 136, Abigail 255, Kayla 410, Samantha 178, Lauren 430, Kayla 469, Madison 155, Madison 415, Olivia 239, Alexis 371, Olivia 38</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Madison 155, Olivia 38, Isabella 260, Olivia 376, Lauren 136, Alexis 261, Madison 444, Brianna 190, Alyssa 133, Kayla 469</t>
+          <t>Olivia 496, Taylor 158, Madison 301, Samantha 386, Madison 444, Lauren 223, Jessica 175, Alexis 261, Madison 322, Alyssa 133</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Emily 445, Samantha 302, Jessica 423, Lauren 457, Ashley 78, Ashley 240, Taylor 115, Taylor 106, Emily 229, Taylor 288, Olivia 504, Emma 118, Sarah 377, Ashley 453, Abigail 338, Emily 87, Grace 285, Emma 208, Elizabeth 164, Emily 505, Emily 507, Emma 300, Emily 390, Lauren 310, Samantha 18, Jessica 70, Sarah 312, Hannah 16, Kayla 495, Lauren 258</t>
+          <t>Ashley 453, Sarah 377, Taylor 115, Olivia 504, Samantha 302, Taylor 288, Jessica 423, Emma 118, Emily 229, Taylor 106, Lauren 457, Ashley 240, Emily 445, Emily 87, Grace 285, Ashley 78, Abigail 338, Emma 208, Samantha 18, Emma 300, Samantha 462, Ashley 84, Emma 58, Emily 390, Jessica 70, Sarah 312, Hannah 281, Taylor 394, Madison 464, Elizabeth 164</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Abigail 406, Taylor 500, Hannah 281, Madison 464, Emma 58, Ashley 81, Ashley 84, Elizabeth 116, Taylor 394, Olivia 53</t>
+          <t>Kayla 495, Emily 507, Olivia 53, Abigail 406, Lauren 93, Emily 505, Hannah 16, Isabella 242, Taylor 500, Lauren 489</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Emily 445, Taylor 106, Emma 208, Emily 507, Kayla 495, Lauren 310</t>
+          <t>Taylor 106, Emily 445, Emma 208, Emma 58</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Alyssa 39, Emma 401, Brianna 433, Madison 368, Samantha 271, Jessica 506, Madison 319, Samantha 143, Jessica 383, Sarah 518, Lauren 363, Abigail 71, Grace 280, Olivia 384, Isabella 295, Alexis 470, Lauren 346, Brianna 179</t>
+          <t>Madison 368, Jessica 383, Brianna 433, Samantha 271, Sarah 518, Lauren 363, Samantha 143, Alyssa 39, Emma 401, Jessica 506, Madison 319, Abigail 71, Jessica 520, Olivia 384, Samantha 250, Alexis 470, Brianna 419, Emma 185</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Grace 30, Brianna 205, Ashley 441, Sarah 107, Ashley 412, Emma 185, Jessica 446, Jessica 520, Samantha 488, Taylor 17</t>
+          <t>Grace 30, Ashley 412, Elizabeth 313, Samantha 488, Brianna 179, Jessica 446, Jessica 303, Ashley 195, Kayla 7, Sarah 434</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Alyssa 39, Emma 401, Brianna 433, Madison 368, Samantha 271, Jessica 506, Madison 319, Samantha 143, Jessica 383, Sarah 518, Lauren 363, Abigail 71, Grace 280, Olivia 384, Isabella 295, Alexis 470, Lauren 346, Brianna 179</t>
+          <t>Madison 368, Jessica 383, Brianna 433, Samantha 271, Sarah 518, Lauren 363, Samantha 143, Alyssa 39, Emma 401, Jessica 506, Madison 319, Abigail 71, Jessica 520, Olivia 384, Samantha 250, Alexis 470, Brianna 419, Emma 185</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Lauren 33, Ashley 123, Lauren 12, Alyssa 493, Lauren 367, Sarah 400, Isabella 244, Taylor 509, Isabella 354, Lauren 475, Emma 98, Lauren 96, Ashley 50, Lauren 358, Alexis 340, Alexis 524, Isabella 474, Samantha 382, Abigail 279, Abigail 450, Kayla 379, Olivia 270, Hannah 467, Madison 417, Brianna 362, Kayla 409</t>
+          <t>Isabella 244, Isabella 354, Emma 98, Lauren 475, Sarah 400, Ashley 50, Lauren 12, Lauren 367, Lauren 96, Taylor 509, Lauren 33, Alyssa 493, Ashley 123, Madison 417, Jessica 32, Ashley 510, Olivia 270, Lauren 249, Alexis 524, Emily 97, Elizabeth 364, Hannah 357, Kayla 409, Alexis 340, Abigail 279, Jessica 374</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Elizabeth 364, Emma 257, Jessica 32, Ashley 414, Brianna 180, Emily 439, Emily 97, Lauren 337, Lauren 249, Abigail 517</t>
+          <t>Lauren 358, Hannah 119, Hannah 467, Samantha 382, Isabella 474, Abigail 450, Emily 439, Kayla 379, Brianna 180, Brianna 362</t>
         </is>
       </c>
     </row>
@@ -1488,12 +1488,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hannah 522, Alexis 62, Lauren 60, Samantha 429, Abigail 269, Alyssa 306, Hannah 323, Sarah 2, Brianna 201, Samantha 487, Brianna 61, Madison 126, Lauren 52, Isabella 395, Hannah 194, Abigail 490, Isabella 427, Elizabeth 10</t>
+          <t>Hannah 522, Samantha 429, Isabella 395, Brianna 61, Sarah 2, Alyssa 306, Abigail 269, Abigail 490, Samantha 487, Lauren 52, Lauren 60, Hannah 323, Isabella 427, Brianna 201, Alexis 62, Hannah 194, Madison 126, Olivia 477</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Olivia 41, Olivia 477, Abigail 113, Brianna 438, Isabella 3, Alexis 36, Sarah 512, Sarah 442, Grace 282, Madison 14</t>
+          <t>Sarah 442, Elizabeth 141, Abigail 113, Alyssa 491, Sarah 114, Kayla 235, Alexis 36, Elizabeth 10, Samantha 68, Abigail 514</t>
         </is>
       </c>
     </row>
@@ -1505,12 +1505,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Emma 499, Olivia 274, Lauren 309, Jessica 461, Elizabeth 391, Jessica 437, Alexis 498, Sarah 31, Madison 352, Brianna 221, Isabella 241, Elizabeth 516, Alexis 378, Emily 144, Kayla 13, Emily 334</t>
+          <t>Jessica 437, Abigail 413, Isabella 241, Brianna 221, Emily 144, Alexis 378, Sarah 31, Elizabeth 391, Alexis 498, Elizabeth 516, Emma 499, Madison 352, Emily 334, Kayla 13, Brianna 172, Alexis 471</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Brianna 172, Abigail 413, Alexis 471, Emily 349, Emma 77, Ashley 117, Brianna 197, Brianna 513, Taylor 523, Isabella 187</t>
+          <t>Jessica 461, Olivia 274, Lauren 309, Grace 515, Taylor 523, Elizabeth 289, Elizabeth 157, Isabella 187, Madison 162, Emily 349</t>
         </is>
       </c>
     </row>
@@ -1522,12 +1522,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Emily 445, Brianna 153, Alyssa 308, Lauren 475, Jessica 506, Isabella 160, Alexis 35, Lauren 96, Lauren 49, Taylor 226, Abigail 413, Alexis 371, Kayla 497, Samantha 20, Olivia 138, Emma 185, Hannah 181, Grace 22, Jessica 520, Elizabeth 307, Olivia 134, Alexis 355, Lauren 430, Lauren 459</t>
+          <t>Abigail 413, Brianna 153, Alexis 35, Alyssa 308, Lauren 475, Emily 445, Lauren 96, Isabella 160, Lauren 49, Taylor 226, Jessica 506, Olivia 134, Hannah 314, Grace 431, Lauren 459, Jessica 520, Hannah 181, Kayla 235, Jessica 425, Alexis 355, Emma 185, Jessica 325, Ashley 481, Sarah 501</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Elizabeth 227, Kayla 235, Grace 431, Madison 243, Lauren 93, Hannah 314, Abigail 231, Samantha 480, Sarah 501, Jessica 325</t>
+          <t>Alexis 371, Lauren 93, Madison 243, Samantha 480, Olivia 138, Abigail 341, Emma 9, Kayla 497, Samantha 20, Elizabeth 227</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Elizabeth 391, Jessica 423, Olivia 137, Samantha 487, Madison 126, Taylor 192, Abigail 338, Jessica 383, Taylor 121, Ashley 389, Grace 320, Taylor 94, Emma 77, Jessica 230, Abigail 82, Samantha 488, Kayla 495, Lauren 258, Emma 64, Emma 72, Grace 159, Ashley 81, Jessica 163, Brianna 299, Alexis 261, Emily 91, Ashley 283, Ashley 392, Lauren 56, Kayla 272, Emily 65, Lauren 337, Isabella 375, Hannah 194, Grace 89, Sarah 277</t>
+          <t>Jessica 383, Elizabeth 391, Jessica 423, Samantha 487, Taylor 121, Taylor 192, Abigail 338, Madison 126, Olivia 137, Emily 91, Emily 65, Brianna 299, Abigail 82, Grace 320, Jessica 163, Emma 72, Grace 159, Samantha 488, Taylor 94, Kayla 495, Lauren 56, Kayla 369, Emma 77, Emily 505, Jessica 230, Ashley 81, Emma 64, Alexis 261, Ashley 117, Ashley 392, Lauren 258, Kayla 272, Jessica 265, Ashley 389, Lauren 337, Emma 55</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Lauren 52, Grace 463, Madison 444, Ashley 297, Olivia 237, Taylor 110, Alyssa 306, Ashley 481, Ashley 198, Brianna 61</t>
+          <t>Madison 196, Lauren 358, Samantha 211, Madison 319, Grace 89, Ashley 198, Ashley 297, Lauren 11, Sarah 277, Grace 463</t>
         </is>
       </c>
     </row>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Lauren 12, Emma 25, Madison 24, Taylor 222, Isabella 95, Kayla 379, Madison 415, Jessica 32, Elizabeth 227, Elizabeth 289, Emma 404, Jessica 189, Elizabeth 116, Olivia 53, Lauren 93, Taylor 110, Isabella 329, Alyssa 491, Olivia 21, Madison 444, Jessica 374, Elizabeth 313, Isabella 275, Madison 196, Abigail 125, Isabella 161, Kayla 235, Abigail 109, Lauren 249, Hannah 393, Lauren 372, Samantha 250, Brianna 456, Sarah 424, Abigail 517, Jessica 325</t>
+          <t>Taylor 222, Lauren 12, Madison 24, Emma 25, Elizabeth 289, Isabella 95, Elizabeth 313, Alexis 371, Emma 404, Taylor 110, Emily 507, Olivia 53, Madison 196, Lauren 93, Brianna 197, Olivia 502, Madison 444, Kayla 379, Emma 257, Elizabeth 116, Lauren 223, Emma 9, Grace 280, Elizabeth 227, Alexis 343, Ashley 441, Abigail 517, Emily 349, Ashley 198, Sarah 277, Abigail 109, Samantha 382, Kayla 51, Abigail 406, Olivia 318, Alyssa 440</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Lauren 236, Elizabeth 391, Emily 390, Samantha 429, Alyssa 493, Lauren 494, Jessica 163, Grace 83, Alexis 498, Sarah 277</t>
+          <t>Lauren 457, Emily 390, Brianna 456, Alyssa 493, Elizabeth 364, Ashley 81, Hannah 393, Olivia 239, Grace 253, Taylor 394</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Lauren 90, Abigail 269, Jessica 278, Alyssa 359, Kayla 407, Olivia 239, Lauren 358, Brianna 438, Abigail 450, Hannah 317, Isabella 3, Alyssa 128, Sarah 107, Alyssa 304, Samantha 276, Grace 122, Sarah 57, Sarah 442, Lauren 223, Ashley 140, Lauren 29, Taylor 394, Alyssa 245, Olivia 40, Olivia 38, Madison 162, Grace 213, Lauren 136, Brianna 251, Madison 225</t>
+          <t>Alyssa 359, Abigail 269, Lauren 90, Kayla 407, Jessica 278, Grace 515, Ashley 140, Sarah 442, Abigail 125, Grace 213, Alyssa 128, Brianna 419, Lauren 136, Kayla 410, Sarah 57, Kayla 469, Samantha 276, Madison 162, Lauren 358, Taylor 394, Alyssa 245, Olivia 239, Olivia 38, Olivia 40, Abigail 450, Alexis 80, Brianna 200, Grace 122, Isabella 242, Lauren 29</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Abigail 125, Grace 515, Kayla 469, Brianna 200, Brianna 419, Alexis 80, Isabella 242, Olivia 53, Alexis 471, Sarah 210</t>
+          <t>Alyssa 304, Hannah 317, Lauren 223, Sarah 107, Brianna 251, Isabella 3, Madison 225, Brianna 438, Abigail 105, Alexis 470</t>
         </is>
       </c>
     </row>
@@ -1590,12 +1590,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lauren 12, Brianna 153, Elizabeth 476, Jessica 46, Kayla 252, Taylor 254, Elizabeth 391, Samantha 27, Lauren 457, Alexis 316, Isabella 426, Sarah 400, Jessica 437, Sarah 31, Brianna 221, Lauren 475, Alexis 378, Kayla 15, Jessica 506, Isabella 395, Abigail 338, Abigail 413, Elizabeth 10, Emma 55, Ashley 168, Lauren 207, Emily 507, Emma 300, Isabella 474, Abigail 279</t>
+          <t>Jessica 437, Kayla 15, Jessica 46, Abigail 413, Brianna 153, Alexis 316, Brianna 221, Isabella 426, Alexis 378, Isabella 395, Sarah 31, Elizabeth 391, Taylor 254, Lauren 475, Sarah 400, Lauren 457, Kayla 252, Lauren 12, Abigail 338, Elizabeth 476, Samantha 27, Jessica 506, Emma 300, Lauren 11, Emily 91, Emily 65, Grace 321, Abigail 231, Hannah 182, Emily 390</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Emily 390, Lauren 310, Brianna 179, Sarah 107, Lauren 11, Brianna 362, Sarah 315, Sarah 57, Kayla 75, Hannah 266</t>
+          <t>Hannah 357, Elizabeth 10, Madison 519, Sarah 57, Lauren 207, Abigail 279, Ashley 168, Emma 55, Hannah 266, Elizabeth 313</t>
         </is>
       </c>
     </row>
@@ -1607,12 +1607,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Lauren 33, Brianna 88, Olivia 259, Alyssa 39, Jessica 461, Hannah 59, Ashley 240, Brianna 221, Ashley 348, Lauren 232, Lauren 52, Alyssa 432, Ashley 168, Emily 390, Emma 305, Alexis 470, Lauren 346, Taylor 130, Madison 301, Kayla 75, Abigail 503, Ashley 220, Samantha 398, Emily 97, Ashley 84, Madison 155</t>
+          <t>Hannah 59, Brianna 221, Lauren 232, Lauren 52, Ashley 240, Jessica 461, Ashley 348, Olivia 259, Lauren 33, Alyssa 39, Brianna 88, Alyssa 432, Emily 390, Emily 97, Alexis 470, Ashley 168, Emma 305, Jessica 303, Samantha 398, Emma 76, Taylor 158, Grace 411, Madison 301, Abigail 503, Kayla 75, Taylor 130</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Elizabeth 262, Emma 76, Grace 411, Jessica 303, Elizabeth 141, Elizabeth 227, Madison 155, Grace 320, Alyssa 304, Isabella 241</t>
+          <t>Lauren 346, Elizabeth 262, Hannah 182, Alyssa 39, Grace 320, Kayla 13, Grace 247, Samantha 488, Kayla 369, Hannah 317</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1624,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Elizabeth 476, Olivia 274, Lauren 85, Sarah 331, Elizabeth 449, Sarah 74, Kayla 13, Grace 396, Sarah 518, Grace 428, Olivia 41, Samantha 73, Emily 333, Samantha 298, Alexis 45, Grace 120, Isabella 187, Brianna 362, Elizabeth 284, Emma 257, Olivia 167, Lauren 356, Hannah 281, Madison 184</t>
+          <t>Grace 396, Lauren 85, Sarah 74, Sarah 331, Kayla 13, Sarah 518, Elizabeth 449, Olivia 274, Elizabeth 476, Lauren 356, Olivia 167, Samantha 73, Samantha 250, Jessica 147, Elizabeth 284, Madison 519, Hannah 281, Grace 428, Isabella 187, Grace 120, Olivia 21, Olivia 41, Emily 439, Grace 48</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Abigail 109, Emily 439, Madison 519, Alexis 468, Elizabeth 399, Abigail 517, Grace 48, Lauren 489, Taylor 17, Olivia 21</t>
+          <t>Emily 333, Alexis 468, Sarah 434, Abigail 109, Taylor 500, Brianna 362, Samantha 298, Emma 257, Lauren 489, Madison 184</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Lauren 12, Grace 199, Lauren 85, Abigail 408, Emma 25, Abigail 108, Alyssa 508, Isabella 426, Jessica 437, Elizabeth 449, Taylor 222, Hannah 202, Kayla 15, Emma 118, Taylor 226, Grace 100, Isabella 395, Lauren 248, Elizabeth 486, Elizabeth 10</t>
+          <t>Jessica 437, Kayla 15, Hannah 202, Isabella 426, Isabella 395, Abigail 408, Grace 199, Abigail 108, Lauren 248, Emma 118, Alyssa 508, Lauren 85, Taylor 222, Elizabeth 449, Lauren 12, Elizabeth 486, Taylor 226, Grace 100, Emma 25, Jessica 293</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Olivia 239, Lauren 310, Lauren 11, Jessica 44, Alexis 343, Brianna 362, Samantha 276, Kayla 495, Jessica 293, Alexis 443</t>
+          <t>Lauren 11, Madison 455, Brianna 299, Jessica 44, Alexis 443, Elizabeth 10, Samantha 68, Jessica 325, Samantha 276, Hannah 119</t>
         </is>
       </c>
     </row>
@@ -1658,12 +1658,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Madison 173, Ashley 478, Kayla 252, Hannah 59, Sarah 400, Taylor 509, Isabella 354, Taylor 288, Emma 98, Ashley 453, Alyssa 273, Samantha 447, Emma 300, Olivia 477, Olivia 138, Abigail 113, Isabella 95, Grace 253, Olivia 270, Olivia 502, Grace 30, Brianna 513</t>
+          <t>Ashley 453, Hannah 59, Taylor 288, Isabella 354, Emma 98, Sarah 400, Kayla 252, Ashley 478, Alyssa 273, Taylor 509, Madison 173, Grace 253, Emma 300, Olivia 477, Abigail 125, Brianna 190, Olivia 270, Isabella 329, Abigail 113, Hannah 181, Kayla 235, Lauren 136</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Hannah 181, Jessica 446, Kayla 75, Emma 257, Abigail 406, Madison 464, Elizabeth 328, Elizabeth 289, Emily 34, Ashley 81</t>
+          <t>Elizabeth 289, Jessica 163, Grace 30, Lauren 372, Madison 162, Jessica 374, Isabella 95, Madison 464, Jessica 446, Samantha 447</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Lauren 309, Hannah 323, Ashley 348, Taylor 115, Madison 24, Emily 229, Kayla 13, Sarah 210, Jessica 66, Jessica 206, Grace 285, Olivia 169, Abigail 279, Samantha 73, Hannah 317, Taylor 94, Alexis 36, Taylor 523, Kayla 409, Hannah 287, Samantha 488, Sarah 57, Elizabeth 284, Emma 72, Abigail 291, Grace 159, Emily 403, Brianna 180, Ashley 458, Lauren 249, Isabella 353, Abigail 231, Isabella 260, Grace 511, Olivia 127</t>
+          <t>Taylor 115, Jessica 66, Jessica 206, Emily 229, Sarah 210, Kayla 13, Hannah 323, Grace 285, Ashley 348, Madison 24, Lauren 309, Hannah 287, Lauren 249, Abigail 231, Samantha 73, Grace 83, Taylor 523, Elizabeth 284, Alexis 36, Isabella 161, Kayla 409, Sarah 57, Emma 72, Abigail 279, Grace 159, Samantha 488, Taylor 94, Lauren 56, Olivia 127, Brianna 200, Isabella 353, Abigail 291, Brianna 180, Hannah 317, Olivia 169</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Lauren 56, Grace 83, Brianna 200, Isabella 161, Madison 322, Kayla 466, Grace 320, Hannah 522, Alyssa 304, Emma 238</t>
+          <t>Ashley 458, Emily 403, Grace 511, Madison 322, Isabella 260, Alyssa 39, Grace 320, Isabella 160, Isabella 426, Samantha 250</t>
         </is>
       </c>
     </row>
@@ -1705,12 +1705,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ashley 123, Emma 28, Lauren 60, Samantha 429, Elizabeth 391, Jessica 423, Lauren 457, Jessica 278, Taylor 115, Hannah 397, Kayla 13, Sarah 210, Alyssa 359, Lauren 96, Grace 396, Alexis 370, Alyssa 273, Grace 99, Elizabeth 164, Olivia 477, Abigail 279, Samantha 73, Alyssa 440, Ashley 297, Alexis 470, Abigail 82, Hannah 181, Lauren 11, Sarah 86, Elizabeth 284, Emma 217, Lauren 459, Elizabeth 79, Emily 403, Elizabeth 166, Lauren 372</t>
+          <t>Grace 396, Taylor 115, Samantha 429, Grace 99, Elizabeth 391, Alyssa 359, Jessica 423, Sarah 210, Lauren 60, Lauren 457, Kayla 13, Jessica 278, Alyssa 273, Alexis 370, Lauren 96, Hannah 397, Emma 28, Ashley 123, Grace 515, Lauren 11, Hannah 314, Olivia 477, Samantha 462, Lauren 459, Brianna 299, Samantha 73, Hannah 181, Alexis 470, Elizabeth 284, Alyssa 380, Alyssa 440, Abigail 82, Abigail 279, Lauren 372, Sarah 501, Alyssa 245</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Hannah 314, Alyssa 245, Abigail 177, Isabella 353, Grace 48, Samantha 480, Sarah 501, Olivia 234, Brianna 361, Brianna 299</t>
+          <t>Elizabeth 164, Emma 217, Elizabeth 166, Elizabeth 79, Sarah 86, Grace 48, Olivia 234, Kayla 7, Samantha 480, Sarah 434</t>
         </is>
       </c>
     </row>
@@ -1722,12 +1722,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Elizabeth 476, Lauren 8, Lauren 90, Abigail 408, Emma 401, Brianna 221, Alyssa 435, Samantha 487, Lauren 232, Emily 334, Hannah 194, Samantha 447, Olivia 239, Abigail 113, Brianna 438</t>
+          <t>Brianna 221, Abigail 408, Lauren 8, Lauren 232, Lauren 90, Alyssa 435, Samantha 487, Emily 334, Hannah 194, Elizabeth 476, Emma 401, Olivia 214, Grace 321, Brianna 190, Jessica 520</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Isabella 295, Kayla 410, Sarah 156, Taylor 523, Sarah 512, Jessica 520, Samantha 488, Taylor 158, Elizabeth 328, Emma 454</t>
+          <t>Abigail 113, Samantha 250, Taylor 523, Sarah 114, Brianna 419, Lauren 136, Kayla 410, Emily 405, Samantha 488, Olivia 239</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Emily 445, Brianna 153, Abigail 269, Olivia 137, Abigail 212, Sarah 2, Brianna 433, Isabella 160, Samantha 143, Abigail 338, Samantha 402, Jessica 219, Olivia 41, Hannah 317, Taylor 94, Lauren 310, Alyssa 128, Taylor 130, Madison 301, Ashley 412, Jessica 446, Grace 122, Kayla 75, Madison 14</t>
+          <t>Samantha 402, Brianna 153, Sarah 2, Abigail 269, Brianna 433, Abigail 212, Emily 445, Isabella 160, Samantha 143, Abigail 338, Olivia 137, Alyssa 128, Madison 519, Emma 387, Ashley 246, Ashley 412, Taylor 94, Alyssa 339, Jessica 446, Brianna 42, Olivia 41, Emily 439, Madison 14, Madison 301</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Emily 34, Abigail 109, Emily 439, Madison 519, Elizabeth 262, Brianna 42, Abigail 517, Alyssa 339, Ashley 246, Isabella 260</t>
+          <t>Brianna 513, Grace 122, Abigail 109, Kayla 75, Jessica 219, Hannah 317, Brianna 251, Taylor 130, Lauren 310, Abigail 517</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Alyssa 493, Hannah 218, Olivia 103, Emily 146, Taylor 226, Ashley 50, Olivia 169, Ashley 168, Kayla 5, Alexis 340, Elizabeth 473, Emma 305, Samantha 150, Hannah 467, Samantha 386, Lauren 346, Emma 185, Abigail 255, Emma 290, Hannah 287, Emma 448, Kayla 495, Grace 282, Ashley 414, Ashley 458, Hannah 129, Hannah 357, Olivia 186, Samantha 327, Lauren 101, Emily 152, Ashley 392, Kayla 469, Hannah 119, Emily 65, Sarah 518, Kayla 409, Madison 417, Olivia 138, Hannah 266, Taylor 176, Emily 135, Emma 216, Sarah 114, Brianna 205, Brianna 172, Brianna 92, Alyssa 245, Grace 159, Isabella 347, Brianna 299, Elizabeth 262, Olivia 264, Emily 336, Emily 91, Samantha 480, Emma 72, Brianna 419, Emily 479, Kayla 272, Jessica 520, Grace 463, Alexis 294, Lauren 489, Sarah 420, Brianna 47, Madison 225, Brianna 197, Olivia 234, Emily 405, Elizabeth 385, Hannah 332, Grace 511, Abigail 514, Samantha 462, Grace 431, Samantha 398, Taylor 151, Madison 455, Olivia 376</t>
+          <t>Olivia 103, Ashley 50, Hannah 218, Taylor 226, Emily 146, Alyssa 493, Kayla 5, Emily 65, Emma 290, Samantha 327, Hannah 357, Abigail 255, Alexis 340, Emma 185, Kayla 469, Ashley 168, Hannah 129, Hannah 119, Emma 305, Kayla 495, Hannah 467, Isabella 474, Emily 349, Grace 282, Samantha 386, Taylor 500, Samantha 150, Abigail 291, Olivia 186, Olivia 169, Emma 448, Ashley 458, Emily 152, Ashley 117, Ashley 392, Lauren 101, Elizabeth 473, Ashley 414, Lauren 346, Alexis 294, Sarah 420, Sarah 518, Kayla 272, Hannah 317, Grace 159, Lauren 489, Sarah 114, Samantha 480, Olivia 264, Madison 225, Kayla 410, Grace 463, Brianna 92, Emma 216, Emma 72, Elizabeth 262, Lauren 310, Taylor 176, Lauren 207, Kayla 409, Brianna 492, Elizabeth 164, Brianna 419, Emily 135, Emily 336, Isabella 161, Brianna 205, Emily 479, Jessica 265, Madison 417, Hannah 266, Kayla 497, Brianna 47, Olivia 138, Sarah 86, Brianna 172, Abigail 108, Grace 122, Lauren 337, Jessica 230</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Grace 22, Kayla 13, Ashley 84, Olivia 239, Sarah 482, Isabella 426, Olivia 154, Lauren 337, Hannah 119, Jessica 230</t>
+          <t>Grace 431, Sarah 210, Lauren 90, Brianna 513, Isabella 375, Ashley 84, Elizabeth 476, Grace 282, Alyssa 491, Emma 217</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Hannah 218, Taylor 226, Olivia 169, Samantha 150, Samantha 386, Ashley 414, Hannah 119, Ashley 392, Emma 185, Alexis 294, Brianna 47, Lauren 346, Sarah 420, Kayla 272, Hannah 266, Olivia 138, Emily 152, Ashley 458, Brianna 197, Emily 135, Elizabeth 262, Ashley 50, Hannah 467</t>
+          <t>Hannah 218, Taylor 226, Samantha 386, Samantha 150, Olivia 169, Alexis 294, Ashley 414, Lauren 346, Ashley 392, Emma 185, Abigail 291, Brianna 47, Hannah 119, Emily 152, Sarah 420, Kayla 272, Hannah 266, Hannah 467, Emily 349, Emily 135, Elizabeth 262, Ashley 458, Olivia 138</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Madison 173, Lauren 33, Brianna 88, Olivia 274, Jessica 46, Hannah 59, Alyssa 308, Alyssa 306, Alexis 498, Isabella 183, Taylor 106, Emily 229, Lauren 52, Kayla 407, Olivia 345, Abigail 413, Taylor 121, Alyssa 432, Grace 428, Brianna 492, Lauren 207, Ashley 326, Abigail 450, Isabella 3, Emma 77</t>
+          <t>Hannah 59, Olivia 345, Jessica 46, Abigail 413, Alexis 498, Alyssa 306, Emily 229, Isabella 183, Lauren 52, Kayla 407, Alyssa 308, Taylor 106, Taylor 121, Madison 173, Lauren 33, Olivia 274, Brianna 88, Isabella 347, Olivia 167, Emily 91, Ashley 510, Grace 351, Lauren 249, Ashley 326, Grace 213</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Taylor 145, Jessica 175, Kayla 369, Ashley 441, Hannah 16, Olivia 496, Grace 120, Kayla 409, Hannah 165, Samantha 178</t>
+          <t>Alyssa 432, Emma 58, Elizabeth 141, Jessica 147, Brianna 492, Kayla 409, Jessica 425, Grace 111, Lauren 207, Brianna 456</t>
         </is>
       </c>
     </row>
@@ -1803,12 +1803,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Emily 229, Ashley 460, Emily 330, Jessica 23, Samantha 73, Hannah 317, Alexis 36, Jessica 70, Taylor 523, Abigail 255, Grace 511, Alexis 371, Samantha 178, Jessica 175, Hannah 165, Emma 257, Lauren 309, Jessica 189, Brianna 492, Samantha 488, Emily 334, Elizabeth 284, Emma 76, Madison 126, Samantha 143, Isabella 353, Lauren 356, Emily 403, Kayla 409, Kayla 13</t>
+          <t>Emily 229, Jessica 23, Emily 330, Ashley 460, Isabella 375, Brianna 190, Kayla 268, Samantha 73, Taylor 523, Jessica 70, Alexis 36, Abigail 255, Sarah 501, Hannah 317, Samantha 488, Lauren 309, Madison 126, Jessica 189, Brianna 200, Samantha 178, Brianna 492, Isabella 161, Alexis 371, Elizabeth 284, Samantha 143, Kayla 409, Alyssa 128, Lauren 136, Lauren 356, Isabella 353</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Jessica 461, Samantha 487, Grace 411, Grace 396, Grace 428, Taylor 145, Lauren 452, Olivia 345, Olivia 124, Olivia 186</t>
+          <t>Kayla 75, Elizabeth 385, Kayla 13, Elizabeth 307</t>
         </is>
       </c>
     </row>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Hannah 522, Grace 199, Lauren 90, Taylor 6, Elizabeth 174, Isabella 342, Jessica 461, Elizabeth 436, Jessica 278, Hannah 323, Isabella 241, Taylor 288, Taylor 222, Brianna 201, Samantha 487, Hannah 397, Alyssa 359, Alexis 35, Madison 54, Alexis 370, Abigail 490, Elizabeth 67, Ashley 389, Alexis 340, Kayla 497, Olivia 41, Olivia 384, Ashley 297, Olivia 270, Taylor 145</t>
+          <t>Hannah 522, Madison 54, Isabella 241, Elizabeth 436, Grace 199, Alexis 35, Alyssa 359, Taylor 288, Lauren 90, Abigail 490, Samantha 487, Taylor 222, Isabella 342, Elizabeth 174, Jessica 278, Taylor 6, Alexis 370, Hannah 323, Jessica 461, Hannah 397, Brianna 201, Elizabeth 67, Olivia 154, Ashley 140, Grace 256, Hannah 165, Olivia 214, Ashley 510, Sarah 424, Olivia 270</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Alexis 470, Brianna 197, Madison 301, Hannah 181, Taylor 215, Hannah 165, Taylor 158, Grace 111, Madison 149, Lauren 459</t>
+          <t>Lauren 249, Lauren 459, Grace 213, Olivia 384, Hannah 181, Alexis 470, Jessica 147, Isabella 161, Alexis 340, Grace 111</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Alexis 104, Alyssa 19, Lauren 8, Brianna 88, Alyssa 39, Lauren 60, Alexis 171, Alyssa 308, Samantha 429, Kayla 139, Abigail 269, Jessica 191, Sarah 2, Ashley 348, Sarah 74, Olivia 103, Madison 24, Emma 98</t>
+          <t>Jessica 191, Alexis 104, Samantha 429, Hannah 202, Olivia 103, Kayla 139, Sarah 2, Lauren 8, Abigail 269, Alyssa 19, Emma 98, Sarah 210, Sarah 74, Emily 334, Kayla 407, Alyssa 308, Lauren 60, Taylor 121</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Hannah 202, Madison 126, Emily 334, Sarah 210, Kayla 407, Taylor 192, Grace 285, Taylor 121, Elizabeth 486, Alexis 471</t>
+          <t>Grace 285, Alexis 471, Ashley 348, Taylor 192, Alexis 171, Madison 24, Elizabeth 486, Madison 126, Alyssa 39, Brianna 88</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1854,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ashley 123, Emma 499, Alyssa 493, Alyssa 366, Alyssa 132, Ashley 78, Taylor 509, Olivia 1, Taylor 115, Alyssa 435, Emily 228, Samantha 271, Emma 118, Grace 100, Olivia 416, Grace 99</t>
+          <t>Alyssa 132, Olivia 345, Taylor 115, Samantha 402, Jessica 383, Grace 99, Emma 118, Emma 499, Alyssa 435, Samantha 271, Emily 87, Olivia 416, Alyssa 366, Ashley 78, Emily 228, Olivia 1</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Jessica 383, Emily 87, Olivia 345, Samantha 402, Elizabeth 164, Emily 505, Alexis 371, Brianna 492, Grace 280, Olivia 477</t>
+          <t>Taylor 509, Grace 100, Alyssa 493, Ashley 123, Jessica 311, Grace 515, Olivia 477, Hannah 287, Alexis 112, Grace 83</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ashley 478, Alyssa 493, Hannah 522, Lauren 8, Taylor 6, Emma 216, Elizabeth 174, Elizabeth 422, Sarah 31, Brianna 221, Isabella 241, Madison 24, Olivia 504, Lauren 52, Kayla 407, Taylor 226, Sarah 377, Grace 285, Abigail 413, Abigail 490</t>
+          <t>Sarah 377, Hannah 522, Abigail 413, Olivia 504, Isabella 241, Brianna 221, Sarah 31, Lauren 8, Emma 216, Abigail 490, Lauren 52, Kayla 407, Elizabeth 174, Elizabeth 422, Lauren 363, Taylor 6, Ashley 478, Grace 285, Emily 330, Madison 24</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Emily 330, Lauren 363, Kayla 466, Ashley 168, Alexis 524, Samantha 20, Hannah 317, Taylor 94, Ashley 297, Samantha 18</t>
+          <t>Taylor 226, Alyssa 493, Samantha 18, Ashley 140, Emily 91, Grace 321, Samantha 462, Abigail 231, Alexis 524, Jessica 520</t>
         </is>
       </c>
     </row>
@@ -1888,12 +1888,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Hannah 522, Lauren 309, Taylor 151, Abigail 131, Isabella 426, Olivia 1, Ashley 460, Emily 146, Alexis 35, Lauren 49, Sarah 377, Emily 87, Taylor 121, Sarah 518, Grace 428, Kayla 51</t>
+          <t>Sarah 377, Hannah 522, Abigail 131, Isabella 426, Alexis 35, Sarah 518, Emily 87, Taylor 121, Olivia 1, Taylor 151, Lauren 49, Emily 146, Lauren 309, Ashley 460, Samantha 18, Samantha 462</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Brianna 438, Abigail 344, Alyssa 440, Samantha 18, Taylor 145, Brianna 179, Grace 30, Madison 301, Hannah 181, Grace 122</t>
+          <t>Hannah 181, Alyssa 440, Grace 111, Abigail 344, Grace 30, Grace 428, Lauren 430, Taylor 145, Alyssa 339, Brianna 179</t>
         </is>
       </c>
     </row>
@@ -1905,12 +1905,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Alexis 104, Emma 499, Lauren 90, Lauren 309, Kayla 252, Isabella 342, Abigail 408, Sarah 331, Jessica 191, Alyssa 132, Alyssa 306, Alexis 498, Taylor 509, Ashley 240, Emily 229, Emily 144, Hannah 397, Brianna 433, Lauren 96, Grace 99</t>
+          <t>Alyssa 132, Jessica 191, Alexis 104, Grace 99, Emily 144, Abigail 408, Alexis 498, Alyssa 306, Brianna 433, Emily 229, Lauren 90, Emma 499, Jessica 23, Isabella 342, Sarah 331, Kayla 252, Ashley 240, Lauren 96, Hannah 397, Taylor 509</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Samantha 211, Elizabeth 486, Jessica 23, Olivia 239, Grace 292, Ashley 389, Abigail 71, Brianna 388, Abigail 344, Kayla 379</t>
+          <t>Samantha 211, Elizabeth 486, Lauren 309, Abigail 71, Jessica 32, Sarah 442, Grace 351, Lauren 136, Brianna 373, Grace 111</t>
         </is>
       </c>
     </row>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -376,16 +376,8 @@
           <t>Programmeerimine keeles Python 1 hommikul</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Jessica 46, Emily 144, Lauren 8, Abigail 269, Madison 204, Madison 324, Abigail 490, Lauren 60, Jessica 278, Kayla 252, Alexis 370, Isabella 427, Lauren 96, Olivia 137, Alyssa 4, Kayla 5, Olivia 270, Alexis 443, Isabella 275, Jessica 425, Grace 320, Isabella 187, Emily 135, Isabella 95, Madison 464, Emily 405, Samantha 488</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Brianna 47, Isabella 485, Emma 76, Madison 14, Brianna 197, Emily 505, Abigail 109, Olivia 318, Olivia 186, Brianna 148</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -393,16 +385,8 @@
           <t>Programmeerimine keeles Python 1 õhtul</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ashley 453, Isabella 426, Alyssa 306, Jessica 423, Emily 229, Alyssa 435, Sarah 210, Taylor 222, Elizabeth 449, Ashley 50, Lauren 12, Olivia 259, Elizabeth 476, Lauren 11, Hannah 314, Emily 91, Madison 417, Jessica 32, Abigail 125, Grace 351, Jessica 44, Samantha 327, Madison 519, Abigail 255, Lauren 494, Olivia 53, Emily 439</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Olivia 234, Samantha 150, Madison 184, Taylor 215, Taylor 176, Sarah 315, Olivia 264, Emily 405, Olivia 376, Abigail 338</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -410,11 +394,7 @@
           <t>Programmeerimine keeles Python 2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Jessica 46, Lauren 8, Jessica 278, Madison 417, Emily 135, Alyssa 4</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -425,14 +405,10 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Isabella 244, Alexis 104, Emily 144, Jessica 206, Madison 204, Elizabeth 516, Emma 118, Madison 352, Alexis 365, Jessica 23, Elizabeth 472, Lauren 363, Lauren 367, Elizabeth 486, Jessica 293, Grace 256, Madison 455, Olivia 451, Isabella 329, Elizabeth 364, Elizabeth 10, Brianna 373, Abigail 344, Madison 149, Samantha 484, Ashley 283, Jessica 374, Ashley 220, Alyssa 421, Elizabeth 166</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Abigail 406, Taylor 158, Ashley 195, Emily 349, Brianna 513, Brianna 200, Taylor 500, Abigail 291, Ashley 458, Alexis 261</t>
-        </is>
-      </c>
+          <t>Sarah 0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -442,7 +418,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Isabella 244, Alexis 104, Emily 144, Jessica 206, Madison 204, Elizabeth 516, Emma 118, Madison 352, Alexis 365, Jessica 23, Elizabeth 472, Lauren 363, Lauren 367, Elizabeth 486, Jessica 293, Grace 256, Madison 455, Olivia 451, Isabella 329, Elizabeth 364, Elizabeth 10, Brianna 373, Abigail 344, Madison 149, Samantha 484, Ashley 283, Jessica 374, Ashley 220, Alyssa 421, Elizabeth 166</t>
+          <t>Sarah 0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -455,7 +431,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Isabella 244, Alexis 104, Emily 144, Jessica 206, Madison 204, Elizabeth 516, Emma 118, Madison 352, Alexis 365, Jessica 23, Elizabeth 472, Lauren 363, Lauren 367, Elizabeth 486, Jessica 293, Grace 256, Madison 455, Olivia 451, Isabella 329, Elizabeth 364, Elizabeth 10, Brianna 373, Abigail 344, Madison 149, Samantha 484, Ashley 283, Jessica 374, Ashley 220, Alyssa 421, Elizabeth 166</t>
+          <t>Sarah 0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -466,16 +442,8 @@
           <t>Planimeetria alused</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Isabella 244, Jessica 383, Taylor 288, Madison 352, Abigail 212, Alyssa 233, Olivia 274, Alyssa 493, Abigail 71, Hannah 314, Hannah 165, Grace 321, Alexis 470, Elizabeth 284, Emma 185, Grace 159, Lauren 494, Madison 162, Sarah 501, Grace 120, Grace 263, Lauren 56, Samantha 398, Ashley 195, Brianna 513, Alexis 468, Madison 243, Alyssa 304, Brianna 362, Taylor 215</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Elizabeth 399, Brianna 361, Lauren 459, Emma 208, Hannah 317, Jessica 293, Elizabeth 157, Alexis 443, Alexis 355, Emma 64</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -483,11 +451,7 @@
           <t>3D-modelleerimine 3. periood</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Elizabeth 174, Hannah 218, Lauren 346, Hannah 467, Abigail 109, Olivia 53, Ashley 140, Olivia 234, Isabella 63, Grace 253, Olivia 451</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -496,11 +460,7 @@
           <t>3D-modelleerimine 5. periood</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Grace 253, Jessica 147, Elizabeth 157, Grace 122, Emma 257, Abigail 105, Madison 519, Samantha 27, Samantha 20</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -511,14 +471,10 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Abigail 108, Emma 216, Alyssa 19, Emma 98, Alyssa 508, Lauren 60, Kayla 252, Emma 238, Taylor 151, Alyssa 493, Alyssa 4, Ashley 123, Emma 350, Kayla 5, Jessica 32, Lauren 249, Jessica 44, Ashley 326, Jessica 70, Emily 135, Madison 415, Taylor 145, Elizabeth 43, Brianna 179</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Samantha 382, Taylor 110, Brianna 418, Emma 217, Hannah 393, Madison 14, Sarah 86, Lauren 170, Brianna 197, Alexis 343</t>
-        </is>
-      </c>
+          <t>Lauren 4</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -528,14 +484,10 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Isabella 183, Hannah 218, Kayla 188, Samantha 18, Emily 91, Alexis 112, Kayla 268, Grace 213, Sarah 482, Alyssa 128, Brianna 492, Brianna 373, Alexis 340, Grace 320, Hannah 266, Ashley 412, Taylor 145, Brianna 47, Brianna 42, Alyssa 421, Emily 507, Jessica 303, Emma 76, Emily 349</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Madison 196, Hannah 393, Sarah 86, Emily 333, Grace 89, Sarah 107, Brianna 251, Taylor 176, Alexis 294, Olivia 124</t>
-        </is>
-      </c>
+          <t>Jessica 2</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -545,14 +497,10 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Isabella 426, Taylor 254, Emma 216, Alyssa 19, Lauren 90, Madison 324, Alyssa 435, Alexis 365, Sarah 74, Alexis 381, Olivia 416, Ashley 348, Olivia 1, Madison 173, Emma 28, Olivia 137, Jessica 311, Isabella 347, Lauren 356, Olivia 167, Grace 321, Grace 431, Grace 351, Madison 455</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Kayla 268, Grace 83, Alyssa 432, Samantha 327, Alyssa 440, Jessica 425, Grace 111, Jessica 325, Ashley 246, Ashley 481</t>
-        </is>
-      </c>
+          <t>Hannah 3</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -562,14 +510,10 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Isabella 244, Madison 368, Abigail 131, Jessica 206, Alexis 498, Ashley 193, Lauren 452, Lauren 232, Lauren 360, Ashley 50, Isabella 160, Lauren 49, Elizabeth 385, Samantha 211</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Emma 28, Emma 208, Alexis 335, Kayla 188, Kayla 5, Lauren 236, Abigail 125, Grace 431, Brianna 299, Jessica 44</t>
-        </is>
-      </c>
+          <t>Brianna 1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -577,16 +521,8 @@
           <t>Veebidisain</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Kayla 15, Madison 368, Olivia 103, Alexis 498, Kayla 139, Samantha 302, Ashley 193, Sarah 2, Alyssa 306, Sarah 210, Brianna 172, Elizabeth 67, Isabella 347, Madison 417, Jessica 521, Samantha 462, Emma 58, Abigail 296, Isabella 474, Olivia 496, Olivia 127</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Brianna 513, Olivia 502, Emily 479, Ashley 441, Grace 267, Sarah 156, Brianna 361, Jessica 175, Lauren 310, Olivia 124</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -594,16 +530,8 @@
           <t>Arvutivõrkude alused</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Madison 368, Isabella 241, Isabella 426, Kayla 139, Taylor 288, Madison 324, Lauren 85, Sarah 74, Elizabeth 422, Emma 238, Emily 228, Taylor 192, Alyssa 4, Emma 350, Grace 253, Lauren 356</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Ashley 140, Lauren 236, Ashley 84, Abigail 231, Olivia 451, Jessica 44, Alexis 112, Alexis 443, Hannah 182, Sarah 312</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -613,14 +541,10 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jessica 46, Hannah 202, Grace 465, Lauren 8, Alyssa 508, Alyssa 308, Abigail 212, Kayla 252, Ashley 478, Isabella 160, Samantha 211, Madison 24, Alexis 335, Emily 146, Brianna 88, Ashley 198, Olivia 154, Olivia 134, Abigail 231, Samantha 73, Ashley 326, Hannah 182, Isabella 275, Jessica 147, Brianna 492, Madison 519, Sarah 57, Brianna 388, Lauren 207, Lauren 372, Grace 159, Emma 55, Samantha 276, Samantha 447, Taylor 110, Elizabeth 166</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Taylor 26, Grace 411, Grace 463, Alexis 80, Olivia 234, Isabella 353, Emma 454, Brianna 361, Samantha 20, Elizabeth 262</t>
-        </is>
-      </c>
+          <t>Jessica 2</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -630,14 +554,10 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Taylor 115, Isabella 241, Grace 465, Brianna 433, Alexis 365, Taylor 106, Grace 285, Elizabeth 449, Ashley 50, Emma 208, Olivia 237, Lauren 356, Abigail 113, Samantha 224, Alyssa 491, Jessica 70, Lauren 136, Kayla 410, Kayla 469, Lauren 372</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Samantha 483, Elizabeth 43, Elizabeth 164, Sarah 420, Alexis 371, Samantha 447, Alyssa 421, Olivia 496, Grace 48, Lauren 223</t>
-        </is>
-      </c>
+          <t>Sarah 0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -647,14 +567,10 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Samantha 429, Grace 99, Abigail 408, Lauren 8, Isabella 354, Olivia 416, Hannah 397, Taylor 509, Samantha 211, Emily 146, Lauren 11, Ashley 510, Kayla 268, Hannah 182, Sarah 114, Kayla 409, Brianna 388, Abigail 514, Samantha 483, Hannah 467</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Brianna 47, Madison 196, Samantha 386, Kayla 466, Isabella 353, Olivia 169, Ashley 458, Emily 403, Lauren 101, Ashley 414</t>
-        </is>
-      </c>
+          <t>Jessica 2, Brianna 1</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -664,14 +580,10 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hannah 59, Abigail 131, Grace 99, Kayla 139, Lauren 232, Brianna 433, Sarah 74, Taylor 106, Kayla 252, Elizabeth 422, Taylor 121, Alexis 171</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Emma 28, Madison 24, Lauren 33, Olivia 274, Alyssa 39, Olivia 167, Jessica 521, Olivia 270, Taylor 523, Alyssa 440</t>
-        </is>
-      </c>
+          <t>Lauren 4</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -681,14 +593,10 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Madison 368, Samantha 429, Alyssa 359, Isabella 342, Elizabeth 174, Kayla 13, Hannah 218, Madison 126, Elizabeth 67, Jessica 293, Grace 253, Olivia 167, Olivia 451, Lauren 459, Jessica 44, Samantha 73, Alyssa 432, Taylor 523, Jessica 147, Brianna 419, Elizabeth 157, Samantha 178, Ashley 246, Hannah 266, Taylor 110, Alexis 69, Olivia 21, Sarah 86, Olivia 234, Emma 454, Grace 247, Brianna 251, Taylor 130, Ashley 392, Samantha 20, Ashley 389, Sarah 512, Alexis 294, Olivia 376, Elizabeth 473, Emma 257, Olivia 264, Elizabeth 227, Abigail 109, Lauren 236</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Grace 428, Taylor 151, Olivia 38, Olivia 53, Jessica 311, Hannah 165, Sarah 424, Kayla 5, Ashley 458, Jessica 147</t>
-        </is>
-      </c>
+          <t>Brianna 1</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -698,14 +606,10 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Alyssa 132, Grace 99, Emma 216, Emma 142, Isabella 63, Elizabeth 174, Elizabeth 472, Alyssa 366, Samantha 27, Olivia 237, Ashley 140, Isabella 375, Sarah 424, Samantha 462, Grace 431, Ashley 326, Jessica 189, Emma 58, Alyssa 491, Jessica 147, Madison 519, Jessica 425, Brianna 388, Samantha 178, Lauren 430, Emma 387, Hannah 467, Olivia 53, Olivia 496, Emily 439, Emma 77, Lauren 170, Grace 463, Grace 122, Kayla 7, Alyssa 304, Kayla 272, Lauren 346, Brianna 438, Madison 464, Kayla 369, Madison 196, Isabella 342, Abigail 105, Ashley 198</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Taylor 130, Sarah 501, Emily 97, Brianna 373, Madison 225, Alyssa 132, Madison 322, Madison 301, Taylor 151, Lauren 258</t>
-        </is>
-      </c>
+          <t>Emma 5</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -713,16 +617,8 @@
           <t>Ettevõtlusõpe 3. periood</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Samantha 402, Isabella 241, Brianna 433, Alyssa 435, Isabella 183, Emma 142, Abigail 212, Taylor 106, Lauren 457, Elizabeth 422, Hannah 218, Alexis 171, Emma 28, Alexis 335, Samantha 27, Grace 253, Isabella 375, Olivia 477, Alexis 112, Abigail 113, Alexis 36, Grace 111, Lauren 494, Hannah 129</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Ashley 412, Emma 404, Grace 282, Hannah 16, Isabella 295, Sarah 277, Emily 336, Jessica 219, Elizabeth 116, Taylor 215</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -732,14 +628,10 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Abigail 131, Brianna 153, Samantha 487, Sarah 74, Samantha 271, Jessica 278, Alyssa 233, Olivia 259, Hannah 194, Lauren 33, Emily 146, Elizabeth 476, Olivia 237, Grace 256, Hannah 287, Lauren 249, Grace 83, Kayla 235, Hannah 357, Emma 72, Samantha 484, Grace 159, Emily 135, Hannah 266</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Taylor 145, Samantha 382, Brianna 42, Alyssa 421, Emma 217, Olivia 40, Elizabeth 79, Emily 439, Brianna 197, Hannah 16</t>
-        </is>
-      </c>
+          <t>Brianna 1, Emma 5</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -749,14 +641,10 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kayla 15, Jessica 191, Jessica 383, Alexis 316, Samantha 302, Lauren 360, Emma 142, Alexis 381, Emily 37, Kayla 252, Lauren 49, Samantha 211, Elizabeth 67, Ashley 198, Jessica 506, Olivia 237, Jessica 521, Sarah 442, Olivia 270, Alexis 524, Emily 390, Emily 97, Jessica 70, Alexis 36, Jessica 163</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Grace 30, Elizabeth 157, Lauren 430, Emma 55, Emily 135, Samantha 276, Lauren 358, Abigail 296, Hannah 266, Elizabeth 43</t>
-        </is>
-      </c>
+          <t>Jessica 2, Hannah 3</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -764,16 +652,8 @@
           <t>Sissejuhatus ehitusinseneeriasse</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Ashley 453, Jessica 191, Isabella 426, Elizabeth 436, Isabella 342, Alexis 381, Emily 37, Isabella 427, Ashley 50, Samantha 143, Olivia 237, Olivia 214, Brianna 190, Olivia 270, Alexis 524, Emma 290, Grace 83, Samantha 327, Brianna 492, Hannah 357, Abigail 255, Grace 30</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Elizabeth 157, Brianna 456, Ashley 246, Sarah 420, Isabella 485, Emily 507, Olivia 53, Elizabeth 79, Ashley 195, Olivia 234</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -783,14 +663,10 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Isabella 241, Brianna 221, Olivia 103, Olivia 102, Elizabeth 516, Alyssa 233, Taylor 121, Ashley 50, Emma 208, Alyssa 493, Ashley 123, Lauren 356, Olivia 167, Elizabeth 307, Grace 321, Grace 351, Olivia 451, Emily 390, Jessica 70, Sarah 114, Elizabeth 157, Lauren 207, Abigail 296, Hannah 129, Grace 263, Alexis 371, Samantha 382, Samantha 386, Jessica 230</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Kayla 379, Olivia 318, Elizabeth 116, Emma 448, Madison 184, Ashley 286, Abigail 517, Emma 9, Ashley 389, Madison 225</t>
-        </is>
-      </c>
+          <t>Sarah 0, Lauren 4</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -798,16 +674,8 @@
           <t>Liiklusfüüsika</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Isabella 244, Jessica 437, Kayla 15, Olivia 345, Alexis 316, Elizabeth 436, Grace 199, Jessica 206, Brianna 203, Taylor 288, Emma 118, Madison 324, Sarah 518, Alexis 370, Alexis 471, Alexis 62, Emma 401, Emma 300, Hannah 314, Olivia 477, Olivia 214, Abigail 125, Jessica 189, Isabella 329, Samantha 250, Alexis 470, Elizabeth 284, Samantha 327, Grace 320, Elizabeth 289, Hannah 281, Samantha 483, Madison 415, Ashley 481, Brianna 179, Brianna 47, Ashley 220, Brianna 418, Olivia 53, Taylor 158, Emma 77, Brianna 513, Abigail 177, Emma 454, Abigail 341, Emily 403, Lauren 258, Olivia 376, Elizabeth 262, Elizabeth 328</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Alexis 294, Samantha 429, Alyssa 339, Elizabeth 473, Olivia 384, Emma 208, Hannah 314, Kayla 369, Emma 55, Olivia 477</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -817,14 +685,10 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kayla 15, Alexis 104, Alexis 378, Elizabeth 436, Abigail 408, Elizabeth 391, Alyssa 306, Taylor 254, Isabella 354, Samantha 487, Lauren 475, Emily 445, Lauren 367, Alyssa 39, Samantha 27, Elizabeth 307, Ashley 84, Jessica 189, Isabella 329, Alyssa 128, Brianna 373, Hannah 281, Lauren 207, Emma 72, Abigail 279</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Madison 155, Samantha 276, Brianna 418, Emily 507, Abigail 406, Taylor 158, Grace 411, Emily 333, Madison 444, Sarah 434</t>
-        </is>
-      </c>
+          <t>Emma 5, Hannah 3</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -834,14 +698,10 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Olivia 345, Jessica 191, Abigail 413, Abigail 108, Lauren 248, Jessica 423, Isabella 183, Kayla 407, Lauren 457, Taylor 6, Emma 28, Isabella 375, Emily 91, Sarah 424, Grace 83, Brianna 492, Alexis 36, Elizabeth 10, Kayla 409, Alexis 340, Jessica 374, Lauren 358, Abigail 296, Taylor 394, Emma 404, Elizabeth 166, Elizabeth 79, Taylor 26</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Sarah 277, Hannah 317, Grace 267, Ashley 117, Lauren 101, Isabella 260, Emily 34, Alyssa 39, Alexis 470, Sarah 107</t>
-        </is>
-      </c>
+          <t>Jessica 2</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -849,16 +709,8 @@
           <t>Globaalne keskkond</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Ashley 453, Taylor 115, Ashley 193, Alyssa 359, Madison 204, Alexis 381, Emily 37, Taylor 121, Ashley 50, Grace 100, Jessica 311, Isabella 375, Sarah 424, Grace 431, Ashley 84, Brianna 299, Emily 97, Hannah 181, Alyssa 491, Jessica 70, Samantha 178, Samantha 68, Abigail 279, Madison 155, Lauren 372, Isabella 485, Samantha 398, Olivia 41, Taylor 26, Olivia 127, Grace 48, Samantha 386, Alyssa 304, Samantha 150, Elizabeth 116, Olivia 169, Grace 267, Hannah 332, Olivia 124, Isabella 3, Lauren 337, Lauren 346, Samantha 302, Grace 111, Brianna 201, Grace 463, Grace 22, Elizabeth 227, Ashley 392, Samantha 276</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Olivia 21, Taylor 115, Hannah 165, Emma 185, Grace 465, Lauren 170, Emily 507, Abigail 406, Elizabeth 67, Taylor 110</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -866,16 +718,8 @@
           <t>Astronoomia</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Samantha 429, Abigail 408, Abigail 108, Emma 216, Lauren 85, Alexis 381, Sarah 331, Lauren 60, Brianna 172, Ashley 240, Alyssa 273, Jessica 461, Lauren 96, Taylor 151, Hannah 194, Alyssa 493, Elizabeth 67, Grace 253, Grace 431, Lauren 459, Alexis 524, Alexis 470, Alyssa 128, Brianna 419, Sarah 57, Lauren 207, Emma 387, Kayla 469, Madison 162, Ashley 412</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Alyssa 245, Taylor 94, Alyssa 339, Brianna 47, Samantha 447, Emily 507, Brianna 197, Olivia 138, Kayla 379, Brianna 180</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -883,16 +727,8 @@
           <t>Astrofüüsika 2. periood</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Ashley 453, Samantha 402, Brianna 153, Madison 54, Hannah 202, Grace 99, Olivia 102, Emily 334, Emily 37, Alyssa 273, Alexis 471, Emma 238, Brianna 201, Olivia 259, Elizabeth 385, Samantha 211, Hannah 194, Abigail 338, Lauren 33, Emma 25, Emma 401, Ashley 123, Madison 417, Sarah 442, Brianna 190, Abigail 231, Emma 290, Grace 213, Alexis 355, Brianna 388, Brianna 456, Samantha 484, Taylor 94, Jessica 446, Emily 439</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Alexis 80, Kayla 466, Emily 479, Olivia 138, Kayla 75, Jessica 219, Ashley 81, Emma 64, Elizabeth 328, Lauren 90</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -900,16 +736,8 @@
           <t>Astrofüüsika 3. periood</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Alyssa 132, Alexis 104, Abigail 108, Alexis 35, Lauren 248, Lauren 360, Kayla 407, Hannah 397, Taylor 192, Lauren 49, Elizabeth 476, Kayla 5, Lauren 236, Hannah 287, Sarah 424, Brianna 373, Grace 320, Madison 149, Emma 72, Samantha 483, Abigail 296, Isabella 95, Hannah 266, Elizabeth 43, Ashley 220, Sarah 86, Abigail 503, Lauren 29, Alyssa 304, Abigail 341, Taylor 215, Taylor 130, Alexis 294, Emma 9, Grace 22</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Isabella 95, Kayla 272, Lauren 309, Emma 55, Madison 196, Emma 499, Grace 120, Brianna 221, Hannah 397, Emily 97</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -919,14 +747,10 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jessica 191, Brianna 153, Olivia 103, Elizabeth 436, Abigail 408, Grace 199, Jessica 206, Alyssa 359, Madison 204, Sarah 210, Isabella 183, Emma 142, Jessica 278, Alyssa 233, Alyssa 273, Taylor 121, Alexis 370, Elizabeth 449, Taylor 151, Elizabeth 385</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Alyssa 4, Samantha 27, Elizabeth 67, Ashley 140, Olivia 214, Elizabeth 307, Abigail 125, Olivia 451, Sarah 482, Alyssa 380</t>
-        </is>
-      </c>
+          <t>Brianna 1</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -934,16 +758,8 @@
           <t>Loogika 2. periood</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Brianna 221, Jessica 206, Lauren 360, Emily 229, Emma 98, Sarah 210, Isabella 63, Ashley 240, Hannah 323, Ashley 78, Hannah 397, Taylor 509, Alexis 335, Ashley 198, Olivia 214, Kayla 268, Sarah 482, Samantha 327, Jessica 163, Ashley 168, Hannah 129, Olivia 239, Brianna 92, Olivia 40, Abigail 450, Emily 349, Brianna 200, Jessica 230, Samantha 480, Kayla 379, Abigail 517</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Jessica 265, Olivia 264, Isabella 395, Kayla 139, Lauren 337, Sarah 420, Sarah 518, Abigail 82, Abigail 517, Isabella 63</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -953,14 +769,10 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Samantha 402, Brianna 153, Alexis 378, Sarah 2, Madison 204, Jessica 423, Abigail 490, Lauren 475, Sarah 331, Hannah 194, Lauren 33, Hannah 314, Lauren 459, Elizabeth 141, Alyssa 440, Alexis 355, Abigail 344, Isabella 187, Emma 55, Ashley 246, Grace 120, Emma 404, Alexis 80, Ashley 441, Lauren 337, Alexis 261, Alyssa 133, Ashley 414, Elizabeth 262, Lauren 232, Sarah 107</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Brianna 513, Abigail 82, Hannah 467, Madison 415, Alyssa 245, Madison 352, Alyssa 421, Emily 144, Lauren 170, Kayla 407</t>
-        </is>
-      </c>
+          <t>Brianna 1</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -968,11 +780,7 @@
           <t>Programmeerimine keeles Java 1</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Hannah 314, Emily 405, Emily 135, Jessica 425, Samantha 488</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -992,14 +800,10 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Isabella 244, Grace 396, Olivia 504, Brianna 203, Alexis 365, Jessica 23, Sarah 74, Lauren 52, Taylor 106, Lauren 457, Brianna 172, Elizabeth 422, Olivia 416, Lauren 96, Kayla 5, Olivia 134, Lauren 236, Olivia 214, Jessica 32, Ashley 510, Samantha 327, Abigail 255, Samantha 484, Kayla 469, Lauren 494, Emily 405, Samantha 398, Madison 301, Grace 282, Emily 505</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Abigail 109, Sarah 277, Brianna 361, Elizabeth 473, Sarah 512, Emily 505, Lauren 346, Brianna 299, Isabella 295, Samantha 462</t>
-        </is>
-      </c>
+          <t>Hannah 3</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1009,14 +813,10 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hannah 59, Madison 368, Olivia 103, Elizabeth 391, Abigail 108, Olivia 102, Alyssa 19, Alexis 365, Emma 142, Isabella 63, Lauren 457, Isabella 427, Emma 238, Alyssa 366, Alexis 171, Taylor 151, Lauren 49, Alyssa 39, Brianna 88, Emma 350, Elizabeth 307, Ashley 510, Olivia 270, Alexis 443, Emily 390, Jessica 425, Emma 185, Grace 428, Lauren 430, Ashley 246, Emma 305, Sarah 420, Isabella 474, Ashley 195, Kayla 369, Alexis 80, Olivia 502, Kayla 75, Abigail 291, Brianna 180, Olivia 186, Taylor 215, Alexis 294, Elizabeth 473, Madison 322, Madison 225, Kayla 51, Sarah 512, Samantha 298, Abigail 450</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Alexis 498, Grace 285, Sarah 156, Alexis 355, Emma 9, Alexis 381, Elizabeth 116, Lauren 236, Taylor 215, Madison 149</t>
-        </is>
-      </c>
+          <t>Sarah 0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1026,14 +826,10 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Grace 396, Samantha 429, Lauren 452, Alyssa 435, Alyssa 508, Isabella 183, Alyssa 308, Elizabeth 472, Emily 87, Lauren 12, Isabella 160, Hannah 218, Samantha 143, Madison 173, Elizabeth 385, Abigail 338, Madison 126, Elizabeth 67, Jessica 293, Olivia 167, Lauren 11, Lauren 459, Alyssa 432, Abigail 82, Abigail 255, Kayla 409, Alexis 340, Jessica 163, Emma 387, Ashley 283, Taylor 394, Emily 405, Alyssa 339, Hannah 467, Elizabeth 166, Madison 301, Grace 282, Alexis 343, Madison 243, Jessica 230, Samantha 480, Isabella 353, Sarah 107, Ashley 458, Jessica 175, Ashley 286, Kayla 272, Emma 9, Sarah 315, Brianna 361</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Brianna 362, Madison 464, Abigail 82, Emma 387, Lauren 309, Lauren 489, Ashley 198, Elizabeth 422, Alyssa 132, Jessica 325</t>
-        </is>
-      </c>
+          <t>Lauren 4</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1041,16 +837,8 @@
           <t>Arvutite riistvara ja lisaseadmed</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Abigail 131, Alexis 316, Taylor 288, Emily 229, Emily 334, Alyssa 273, Alexis 370, Madison 173, Emma 401, Olivia 154, Jessica 189, Alyssa 380, Isabella 161, Samantha 178, Emma 387, Lauren 372</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Emma 55, Hannah 119, Madison 464, Grace 263, Brianna 42, Brianna 92, Alexis 69, Elizabeth 166, Taylor 26, Grace 463</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1058,16 +846,8 @@
           <t>Loodusteadused, tehnoloogia ja ühiskond</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Sarah 377, Emily 144, Elizabeth 436, Lauren 452, Taylor 254, Lauren 90, Lauren 60, Emily 445, Emily 87, Emma 238, Isabella 160, Emily 228, Elizabeth 385, Samantha 211, Emily 146, Elizabeth 476, Olivia 137, Jessica 311, Grace 515, Hannah 165, Jessica 521, Sarah 312, Emma 305, Emma 217, Elizabeth 79</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Sarah 434, Samantha 298, Emily 152, Taylor 215, Brianna 205, Grace 280, Emily 91, Brianna 362, Grace 247, Abigail 131</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1075,16 +855,8 @@
           <t>Kasutame füüsikat!</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Samantha 429, Brianna 61, Alexis 35, Ashley 193, Emily 334, Alyssa 308, Alexis 471, Lauren 49, Madison 126, Isabella 347, Emma 290, Isabella 275, Alyssa 432, Elizabeth 364, Abigail 514, Madison 155, Samantha 483, Ashley 283, Taylor 394, Alyssa 245, Isabella 485, Taylor 110, Alexis 69, Olivia 21, Taylor 158, Olivia 234, Hannah 16</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Alexis 468, Madison 243, Abigail 177, Jessica 219, Sarah 156, Taylor 130, Ashley 392, Alexis 294, Olivia 376, Emily 65</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1092,16 +864,8 @@
           <t>Hiina keel 1</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Jessica 66, Brianna 61, Lauren 248, Lauren 452, Emma 499, Abigail 490, Sarah 400, Taylor 6, Alyssa 233, Emily 330, Ashley 78, Brianna 201, Grace 100, Kayla 188, Ashley 460, Abigail 71, Hannah 165, Sarah 424</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Alexis 443, Abigail 113, Brianna 388, Hannah 281, Elizabeth 157, Isabella 95, Hannah 129, Emma 305, Taylor 110, Alexis 69</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1109,11 +873,7 @@
           <t>Hiina keel 2</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Jessica 66, Brianna 61, Lauren 248, Lauren 452, Emma 499, Abigail 490, Sarah 400, Taylor 6, Alyssa 233, Emily 330, Ashley 78, Brianna 201, Grace 100, Kayla 188, Ashley 460, Abigail 71, Hannah 165, Sarah 424</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1122,11 +882,7 @@
           <t>Hiina keel 3</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Jessica 66, Brianna 61, Lauren 248, Lauren 452, Emma 499, Abigail 490, Sarah 400, Taylor 6, Alyssa 233, Emily 330, Ashley 78, Brianna 201, Grace 100, Kayla 188, Ashley 460, Abigail 71, Hannah 165, Sarah 424</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1135,16 +891,8 @@
           <t>Kirjandus ja film</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Alexis 316, Alyssa 19, Elizabeth 516, Lauren 90, Alyssa 308, Sarah 331, Sarah 400, Elizabeth 472, Olivia 416, Emily 330, Alexis 171, Samantha 143, Alexis 62, Grace 100, Kayla 188, Emma 350, Grace 431, Emily 390, Sarah 114, Kayla 235, Hannah 357, Madison 519, Isabella 161, Abigail 82, Abigail 255, Madison 149, Emma 387, Madison 415, Alyssa 245, Kayla 495, Olivia 38, Olivia 41, Kayla 369, Emma 77</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Lauren 170, Grace 282, Samantha 386, Abigail 291, Sarah 107, Olivia 169, Sarah 156, Emily 403, Kayla 272, Hannah 332</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1152,16 +900,8 @@
           <t>Loominguline joonestamine 1</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Hannah 59, Olivia 504, Isabella 395, Brianna 61, Samantha 302, Brianna 203, Jessica 23, Emma 142, Samantha 271, Alexis 381, Lauren 363, Ashley 348, Elizabeth 486, Elizabeth 476, Jessica 506, Isabella 347, Jessica 521, Abigail 125, Lauren 249, Alexis 524, Elizabeth 141, Sarah 57, Elizabeth 289</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Ashley 412, Elizabeth 313, Emma 305, Emma 217, Olivia 53, Olivia 502, Grace 511, Madison 322, Emma 9, Lauren 346</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1169,16 +909,8 @@
           <t>Orgaaniline arhitektuur</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Sarah 31, Alexis 498, Sarah 2, Lauren 452, Lauren 232, Emma 118, Lauren 85, Sarah 74, Elizabeth 422, Alyssa 366, Lauren 12, Taylor 192, Madison 24, Taylor 226, Madison 319, Olivia 154, Jessica 311, Ashley 140, Olivia 477, Hannah 287</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Jessica 32, Ashley 510, Emily 65, Brianna 299, Ashley 326, Emily 97, Samantha 250, Alyssa 380, Sarah 312, Jessica 325</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1186,16 +918,8 @@
           <t>Värvus ja kompositsioon</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Jessica 437, Olivia 103, Grace 199, Kayla 139, Emma 499, Alyssa 435, Taylor 222, Brianna 172, Isabella 160, Brianna 88, Grace 515, Emma 300, Lauren 11, Grace 256, Madison 455, Alexis 112, Emma 58, Ashley 481, Hannah 119, Hannah 467</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Samantha 382, Ashley 220, Isabella 474, Grace 463, Lauren 93, Abigail 503, Brianna 180, Alexis 261, Lauren 258, Alexis 294</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1205,14 +929,10 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Jessica 46, Lauren 8, Alyssa 19, Emma 98, Isabella 183, Emma 142, Alyssa 308, Abigail 212, Kayla 13, Sarah 518, Elizabeth 385, Emma 401, Samantha 27, Olivia 154, Emily 390, Emily 97</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Samantha 250, Sarah 114, Alexis 36, Grace 30, Madison 415, Taylor 394, Taylor 26, Madison 301, Kayla 7, Alyssa 304</t>
-        </is>
-      </c>
+          <t>Emma 5</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1231,14 +951,10 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Grace 396, Alexis 498, Abigail 269, Lauren 360, Isabella 342, Jessica 278, Emily 37, Taylor 192, Taylor 509, Madison 173, Abigail 338, Emma 25, Sarah 442, Samantha 462, Brianna 299, Alyssa 380</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Brianna 456, Abigail 279, Ashley 168, Lauren 358, Kayla 495, Sarah 420, Brianna 92, Samantha 398, Olivia 496, Abigail 450</t>
-        </is>
-      </c>
+          <t>Brianna 1, Hannah 3</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1255,16 +971,8 @@
           <t>Lähis-Ida 20. sajandi teisest poolest tänapäevani</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Olivia 345, Brianna 221, Samantha 302, Alyssa 359, Lauren 90, Madison 324, Lauren 52, Lauren 457, Emma 238, Emily 228, Lauren 49, Brianna 88, Grace 515, Olivia 214, Grace 321, Grace 213, Alyssa 432, Kayla 235, Hannah 357, Alexis 355, Grace 428, Emma 72, Emma 55, Taylor 145, Alexis 371, Brianna 42, Emma 217, Olivia 127, Alexis 468, Jessica 230, Brianna 362, Jessica 219, Grace 280, Lauren 346, Alexis 45, Madison 225</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Alexis 370, Alexis 343, Abigail 131, Samantha 250, Emma 55, Grace 267, Elizabeth 157, Madison 319, Alexis 35, Alexis 316</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1272,16 +980,8 @@
           <t>Meediakursus</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Madison 368, Jessica 383, Madison 54, Isabella 241, Olivia 103, Alexis 35, Sarah 2, Emily 334, Olivia 416, Hannah 218, Hannah 397, Samantha 143, Madison 126, Olivia 237, Lauren 356, Isabella 375, Emily 65, Lauren 249, Kayla 268, Jessica 520, Grace 83, Jessica 70, Brianna 492, Grace 320, Elizabeth 289, Emma 185, Abigail 514, Abigail 296, Ashley 481, Hannah 119, Sarah 501, Elizabeth 164</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Isabella 485, Olivia 40, Emma 76, Grace 411, Emily 333, Lauren 29, Samantha 298, Emma 257, Sarah 156, Emily 403</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1289,16 +989,8 @@
           <t>Prantsuse keel 1</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Sarah 377, Hannah 202, Alexis 378, Isabella 395, Grace 199, Grace 465, Olivia 102, Brianna 203, Grace 285, Alyssa 366, Olivia 1, Lauren 309, Jessica 311, Emma 300, Hannah 287, Elizabeth 307, Isabella 275, Sarah 482, Olivia 384, Elizabeth 141</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Jessica 147, Abigail 82, Kayla 410, Isabella 187, Elizabeth 313, Grace 120, Grace 263, Brianna 179, Emma 404, Jessica 303</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1306,11 +998,7 @@
           <t>Prantsuse keel 2</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Sarah 377, Hannah 202, Alexis 378, Isabella 395, Grace 199, Grace 465, Olivia 102, Brianna 203, Grace 285, Alyssa 366, Olivia 1, Lauren 309, Jessica 311, Emma 300, Hannah 287, Elizabeth 307, Isabella 275, Sarah 482, Olivia 384, Elizabeth 141</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -1319,11 +1007,7 @@
           <t>Prantsuse keel 3</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Sarah 377, Hannah 202, Alexis 378, Isabella 395, Grace 199, Grace 465, Olivia 102, Brianna 203, Grace 285, Alyssa 366, Olivia 1, Lauren 309, Jessica 311, Emma 300, Hannah 287, Elizabeth 307, Isabella 275, Sarah 482, Olivia 384, Elizabeth 141</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1332,16 +1016,8 @@
           <t>Soome keel 1</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Alyssa 132, Jessica 437, Hannah 522, Olivia 504, Sarah 31, Taylor 254, Isabella 63, Samantha 271, Elizabeth 174, Ashley 478, Emily 87, Hannah 323, Alexis 471, Alexis 62, Emma 208, Madison 319, Samantha 18, Lauren 236, Ashley 84, Abigail 231, Samantha 224, Alyssa 491, Samantha 68, Lauren 430, Madison 155</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Samantha 382, Olivia 21, Grace 48, Emily 505, Olivia 502, Kayla 466, Abigail 177, Isabella 353, Lauren 223, Lauren 337</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1349,11 +1025,7 @@
           <t>Soome keel 2</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Alyssa 132, Jessica 437, Hannah 522, Olivia 504, Sarah 31, Taylor 254, Isabella 63, Samantha 271, Elizabeth 174, Ashley 478, Emily 87, Hannah 323, Alexis 471, Alexis 62, Emma 208, Madison 319, Samantha 18, Lauren 236, Ashley 84, Abigail 231, Samantha 224, Alyssa 491, Samantha 68, Lauren 430, Madison 155</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -1362,11 +1034,7 @@
           <t>Soome keel 3</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Alyssa 132, Jessica 437, Hannah 522, Olivia 504, Sarah 31, Taylor 254, Isabella 63, Samantha 271, Elizabeth 174, Ashley 478, Emily 87, Hannah 323, Alexis 471, Alexis 62, Emma 208, Madison 319, Samantha 18, Lauren 236, Ashley 84, Abigail 231, Samantha 224, Alyssa 491, Samantha 68, Lauren 430, Madison 155</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -1377,14 +1045,10 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Kayla 15, Jessica 191, Abigail 413, Elizabeth 391, Ashley 193, Isabella 354, Alyssa 508, Samantha 487, Lauren 475, Alexis 370, Alexis 335, Emily 146, Alyssa 4, Ashley 123, Ashley 198, Jessica 506, Emma 350, Olivia 134</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Ashley 140, Brianna 190, Samantha 73, Ashley 326, Jessica 189, Emma 290, Emma 58, Sarah 312, Isabella 161, Samantha 178</t>
-        </is>
-      </c>
+          <t>Jessica 2</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1394,14 +1058,10 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Olivia 345, Abigail 131, Kayla 139, Ashley 193, Jessica 23, Sarah 331, Elizabeth 472, Elizabeth 422, Emily 330, Kayla 188, Ashley 460, Jessica 293, Hannah 165, Brianna 190, Lauren 459, Jessica 44, Jessica 189, Alyssa 128, Elizabeth 284, Isabella 161, Lauren 136, Abigail 255, Kayla 410, Samantha 178, Lauren 430, Kayla 469, Madison 155, Madison 415, Olivia 239, Alexis 371, Olivia 38</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Olivia 496, Taylor 158, Madison 301, Samantha 386, Madison 444, Lauren 223, Jessica 175, Alexis 261, Madison 322, Alyssa 133</t>
-        </is>
-      </c>
+          <t>Lauren 4</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1411,14 +1071,10 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ashley 453, Sarah 377, Taylor 115, Olivia 504, Samantha 302, Taylor 288, Jessica 423, Emma 118, Emily 229, Taylor 106, Lauren 457, Ashley 240, Emily 445, Emily 87, Grace 285, Ashley 78, Abigail 338, Emma 208, Samantha 18, Emma 300, Samantha 462, Ashley 84, Emma 58, Emily 390, Jessica 70, Sarah 312, Hannah 281, Taylor 394, Madison 464, Elizabeth 164</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Kayla 495, Emily 507, Olivia 53, Abigail 406, Lauren 93, Emily 505, Hannah 16, Isabella 242, Taylor 500, Lauren 489</t>
-        </is>
-      </c>
+          <t>Sarah 0</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1426,11 +1082,7 @@
           <t>Filosoofia 2</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Taylor 106, Emily 445, Emma 208, Emma 58</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -1439,16 +1091,8 @@
           <t>Ladina keel 1</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Madison 368, Jessica 383, Brianna 433, Samantha 271, Sarah 518, Lauren 363, Samantha 143, Alyssa 39, Emma 401, Jessica 506, Madison 319, Abigail 71, Jessica 520, Olivia 384, Samantha 250, Alexis 470, Brianna 419, Emma 185</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Grace 30, Ashley 412, Elizabeth 313, Samantha 488, Brianna 179, Jessica 446, Jessica 303, Ashley 195, Kayla 7, Sarah 434</t>
-        </is>
-      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1456,11 +1100,7 @@
           <t>Ladina keel 2</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Madison 368, Jessica 383, Brianna 433, Samantha 271, Sarah 518, Lauren 363, Samantha 143, Alyssa 39, Emma 401, Jessica 506, Madison 319, Abigail 71, Jessica 520, Olivia 384, Samantha 250, Alexis 470, Brianna 419, Emma 185</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -1469,16 +1109,8 @@
           <t>Loovkirjutamine</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Isabella 244, Isabella 354, Emma 98, Lauren 475, Sarah 400, Ashley 50, Lauren 12, Lauren 367, Lauren 96, Taylor 509, Lauren 33, Alyssa 493, Ashley 123, Madison 417, Jessica 32, Ashley 510, Olivia 270, Lauren 249, Alexis 524, Emily 97, Elizabeth 364, Hannah 357, Kayla 409, Alexis 340, Abigail 279, Jessica 374</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Lauren 358, Hannah 119, Hannah 467, Samantha 382, Isabella 474, Abigail 450, Emily 439, Kayla 379, Brianna 180, Brianna 362</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1488,14 +1120,10 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hannah 522, Samantha 429, Isabella 395, Brianna 61, Sarah 2, Alyssa 306, Abigail 269, Abigail 490, Samantha 487, Lauren 52, Lauren 60, Hannah 323, Isabella 427, Brianna 201, Alexis 62, Hannah 194, Madison 126, Olivia 477</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Sarah 442, Elizabeth 141, Abigail 113, Alyssa 491, Sarah 114, Kayla 235, Alexis 36, Elizabeth 10, Samantha 68, Abigail 514</t>
-        </is>
-      </c>
+          <t>Emma 5</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1503,16 +1131,8 @@
           <t>Natuurist joonistamine</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Jessica 437, Abigail 413, Isabella 241, Brianna 221, Emily 144, Alexis 378, Sarah 31, Elizabeth 391, Alexis 498, Elizabeth 516, Emma 499, Madison 352, Emily 334, Kayla 13, Brianna 172, Alexis 471</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Jessica 461, Olivia 274, Lauren 309, Grace 515, Taylor 523, Elizabeth 289, Elizabeth 157, Isabella 187, Madison 162, Emily 349</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1520,16 +1140,8 @@
           <t>Fotograafia 1</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Abigail 413, Brianna 153, Alexis 35, Alyssa 308, Lauren 475, Emily 445, Lauren 96, Isabella 160, Lauren 49, Taylor 226, Jessica 506, Olivia 134, Hannah 314, Grace 431, Lauren 459, Jessica 520, Hannah 181, Kayla 235, Jessica 425, Alexis 355, Emma 185, Jessica 325, Ashley 481, Sarah 501</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Alexis 371, Lauren 93, Madison 243, Samantha 480, Olivia 138, Abigail 341, Emma 9, Kayla 497, Samantha 20, Elizabeth 227</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1539,14 +1151,10 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Jessica 383, Elizabeth 391, Jessica 423, Samantha 487, Taylor 121, Taylor 192, Abigail 338, Madison 126, Olivia 137, Emily 91, Emily 65, Brianna 299, Abigail 82, Grace 320, Jessica 163, Emma 72, Grace 159, Samantha 488, Taylor 94, Kayla 495, Lauren 56, Kayla 369, Emma 77, Emily 505, Jessica 230, Ashley 81, Emma 64, Alexis 261, Ashley 117, Ashley 392, Lauren 258, Kayla 272, Jessica 265, Ashley 389, Lauren 337, Emma 55</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Madison 196, Lauren 358, Samantha 211, Madison 319, Grace 89, Ashley 198, Ashley 297, Lauren 11, Sarah 277, Grace 463</t>
-        </is>
-      </c>
+          <t>Emma 5</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1554,16 +1162,8 @@
           <t>Inimene ja ühiskond 4. periood</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Taylor 222, Lauren 12, Madison 24, Emma 25, Elizabeth 289, Isabella 95, Elizabeth 313, Alexis 371, Emma 404, Taylor 110, Emily 507, Olivia 53, Madison 196, Lauren 93, Brianna 197, Olivia 502, Madison 444, Kayla 379, Emma 257, Elizabeth 116, Lauren 223, Emma 9, Grace 280, Elizabeth 227, Alexis 343, Ashley 441, Abigail 517, Emily 349, Ashley 198, Sarah 277, Abigail 109, Samantha 382, Kayla 51, Abigail 406, Olivia 318, Alyssa 440</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Lauren 457, Emily 390, Brianna 456, Alyssa 493, Elizabeth 364, Ashley 81, Hannah 393, Olivia 239, Grace 253, Taylor 394</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1571,16 +1171,8 @@
           <t>Teadusajalugu 3. periood</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Alyssa 359, Abigail 269, Lauren 90, Kayla 407, Jessica 278, Grace 515, Ashley 140, Sarah 442, Abigail 125, Grace 213, Alyssa 128, Brianna 419, Lauren 136, Kayla 410, Sarah 57, Kayla 469, Samantha 276, Madison 162, Lauren 358, Taylor 394, Alyssa 245, Olivia 239, Olivia 38, Olivia 40, Abigail 450, Alexis 80, Brianna 200, Grace 122, Isabella 242, Lauren 29</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Alyssa 304, Hannah 317, Lauren 223, Sarah 107, Brianna 251, Isabella 3, Madison 225, Brianna 438, Abigail 105, Alexis 470</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1588,16 +1180,8 @@
           <t>Teadusajalugu 5. periood</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Jessica 437, Kayla 15, Jessica 46, Abigail 413, Brianna 153, Alexis 316, Brianna 221, Isabella 426, Alexis 378, Isabella 395, Sarah 31, Elizabeth 391, Taylor 254, Lauren 475, Sarah 400, Lauren 457, Kayla 252, Lauren 12, Abigail 338, Elizabeth 476, Samantha 27, Jessica 506, Emma 300, Lauren 11, Emily 91, Emily 65, Grace 321, Abigail 231, Hannah 182, Emily 390</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Hannah 357, Elizabeth 10, Madison 519, Sarah 57, Lauren 207, Abigail 279, Ashley 168, Emma 55, Hannah 266, Elizabeth 313</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1607,14 +1191,10 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Hannah 59, Brianna 221, Lauren 232, Lauren 52, Ashley 240, Jessica 461, Ashley 348, Olivia 259, Lauren 33, Alyssa 39, Brianna 88, Alyssa 432, Emily 390, Emily 97, Alexis 470, Ashley 168, Emma 305, Jessica 303, Samantha 398, Emma 76, Taylor 158, Grace 411, Madison 301, Abigail 503, Kayla 75, Taylor 130</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Lauren 346, Elizabeth 262, Hannah 182, Alyssa 39, Grace 320, Kayla 13, Grace 247, Samantha 488, Kayla 369, Hannah 317</t>
-        </is>
-      </c>
+          <t>Hannah 3</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1622,16 +1202,8 @@
           <t>Vaimne tervis ja selle hoidmine</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Grace 396, Lauren 85, Sarah 74, Sarah 331, Kayla 13, Sarah 518, Elizabeth 449, Olivia 274, Elizabeth 476, Lauren 356, Olivia 167, Samantha 73, Samantha 250, Jessica 147, Elizabeth 284, Madison 519, Hannah 281, Grace 428, Isabella 187, Grace 120, Olivia 21, Olivia 41, Emily 439, Grace 48</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Emily 333, Alexis 468, Sarah 434, Abigail 109, Taylor 500, Brianna 362, Samantha 298, Emma 257, Lauren 489, Madison 184</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1639,16 +1211,8 @@
           <t>Klassikaline skulptuur</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Jessica 437, Kayla 15, Hannah 202, Isabella 426, Isabella 395, Abigail 408, Grace 199, Abigail 108, Lauren 248, Emma 118, Alyssa 508, Lauren 85, Taylor 222, Elizabeth 449, Lauren 12, Elizabeth 486, Taylor 226, Grace 100, Emma 25, Jessica 293</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Lauren 11, Madison 455, Brianna 299, Jessica 44, Alexis 443, Elizabeth 10, Samantha 68, Jessica 325, Samantha 276, Hannah 119</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1656,16 +1220,8 @@
           <t>Kujutav geomeetria</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Ashley 453, Hannah 59, Taylor 288, Isabella 354, Emma 98, Sarah 400, Kayla 252, Ashley 478, Alyssa 273, Taylor 509, Madison 173, Grace 253, Emma 300, Olivia 477, Abigail 125, Brianna 190, Olivia 270, Isabella 329, Abigail 113, Hannah 181, Kayla 235, Lauren 136</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Elizabeth 289, Jessica 163, Grace 30, Lauren 372, Madison 162, Jessica 374, Isabella 95, Madison 464, Jessica 446, Samantha 447</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1673,11 +1229,7 @@
           <t>Loominguline joonistamine 2</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Samantha 302, Alexis 381</t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -1686,16 +1238,8 @@
           <t>Praktiline kommunikatsioon</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Taylor 115, Jessica 66, Jessica 206, Emily 229, Sarah 210, Kayla 13, Hannah 323, Grace 285, Ashley 348, Madison 24, Lauren 309, Hannah 287, Lauren 249, Abigail 231, Samantha 73, Grace 83, Taylor 523, Elizabeth 284, Alexis 36, Isabella 161, Kayla 409, Sarah 57, Emma 72, Abigail 279, Grace 159, Samantha 488, Taylor 94, Lauren 56, Olivia 127, Brianna 200, Isabella 353, Abigail 291, Brianna 180, Hannah 317, Olivia 169</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Ashley 458, Emily 403, Grace 511, Madison 322, Isabella 260, Alyssa 39, Grace 320, Isabella 160, Isabella 426, Samantha 250</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1705,14 +1249,10 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Grace 396, Taylor 115, Samantha 429, Grace 99, Elizabeth 391, Alyssa 359, Jessica 423, Sarah 210, Lauren 60, Lauren 457, Kayla 13, Jessica 278, Alyssa 273, Alexis 370, Lauren 96, Hannah 397, Emma 28, Ashley 123, Grace 515, Lauren 11, Hannah 314, Olivia 477, Samantha 462, Lauren 459, Brianna 299, Samantha 73, Hannah 181, Alexis 470, Elizabeth 284, Alyssa 380, Alyssa 440, Abigail 82, Abigail 279, Lauren 372, Sarah 501, Alyssa 245</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Elizabeth 164, Emma 217, Elizabeth 166, Elizabeth 79, Sarah 86, Grace 48, Olivia 234, Kayla 7, Samantha 480, Sarah 434</t>
-        </is>
-      </c>
+          <t>Lauren 4</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1720,16 +1260,8 @@
           <t>Meditsiinikursus</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Brianna 221, Abigail 408, Lauren 8, Lauren 232, Lauren 90, Alyssa 435, Samantha 487, Emily 334, Hannah 194, Elizabeth 476, Emma 401, Olivia 214, Grace 321, Brianna 190, Jessica 520</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Abigail 113, Samantha 250, Taylor 523, Sarah 114, Brianna 419, Lauren 136, Kayla 410, Emily 405, Samantha 488, Olivia 239</t>
-        </is>
-      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1737,16 +1269,8 @@
           <t>Psühholoogia alused</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Samantha 402, Brianna 153, Sarah 2, Abigail 269, Brianna 433, Abigail 212, Emily 445, Isabella 160, Samantha 143, Abigail 338, Olivia 137, Alyssa 128, Madison 519, Emma 387, Ashley 246, Ashley 412, Taylor 94, Alyssa 339, Jessica 446, Brianna 42, Olivia 41, Emily 439, Madison 14, Madison 301</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Brianna 513, Grace 122, Abigail 109, Kayla 75, Jessica 219, Hannah 317, Brianna 251, Taylor 130, Lauren 310, Abigail 517</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1754,16 +1278,8 @@
           <t>Riigikaitse 1</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Olivia 103, Ashley 50, Hannah 218, Taylor 226, Emily 146, Alyssa 493, Kayla 5, Emily 65, Emma 290, Samantha 327, Hannah 357, Abigail 255, Alexis 340, Emma 185, Kayla 469, Ashley 168, Hannah 129, Hannah 119, Emma 305, Kayla 495, Hannah 467, Isabella 474, Emily 349, Grace 282, Samantha 386, Taylor 500, Samantha 150, Abigail 291, Olivia 186, Olivia 169, Emma 448, Ashley 458, Emily 152, Ashley 117, Ashley 392, Lauren 101, Elizabeth 473, Ashley 414, Lauren 346, Alexis 294, Sarah 420, Sarah 518, Kayla 272, Hannah 317, Grace 159, Lauren 489, Sarah 114, Samantha 480, Olivia 264, Madison 225, Kayla 410, Grace 463, Brianna 92, Emma 216, Emma 72, Elizabeth 262, Lauren 310, Taylor 176, Lauren 207, Kayla 409, Brianna 492, Elizabeth 164, Brianna 419, Emily 135, Emily 336, Isabella 161, Brianna 205, Emily 479, Jessica 265, Madison 417, Hannah 266, Kayla 497, Brianna 47, Olivia 138, Sarah 86, Brianna 172, Abigail 108, Grace 122, Lauren 337, Jessica 230</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Grace 431, Sarah 210, Lauren 90, Brianna 513, Isabella 375, Ashley 84, Elizabeth 476, Grace 282, Alyssa 491, Emma 217</t>
-        </is>
-      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1771,11 +1287,7 @@
           <t>Riigikaitse 2</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Hannah 218, Taylor 226, Samantha 386, Samantha 150, Olivia 169, Alexis 294, Ashley 414, Lauren 346, Ashley 392, Emma 185, Abigail 291, Brianna 47, Hannah 119, Emily 152, Sarah 420, Kayla 272, Hannah 266, Hannah 467, Emily 349, Emily 135, Elizabeth 262, Ashley 458, Olivia 138</t>
-        </is>
-      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -1786,14 +1298,10 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Hannah 59, Olivia 345, Jessica 46, Abigail 413, Alexis 498, Alyssa 306, Emily 229, Isabella 183, Lauren 52, Kayla 407, Alyssa 308, Taylor 106, Taylor 121, Madison 173, Lauren 33, Olivia 274, Brianna 88, Isabella 347, Olivia 167, Emily 91, Ashley 510, Grace 351, Lauren 249, Ashley 326, Grace 213</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Alyssa 432, Emma 58, Elizabeth 141, Jessica 147, Brianna 492, Kayla 409, Jessica 425, Grace 111, Lauren 207, Brianna 456</t>
-        </is>
-      </c>
+          <t>Brianna 1, Emma 5</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1801,16 +1309,8 @@
           <t>Ajakirjanduse praktika</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Emily 229, Jessica 23, Emily 330, Ashley 460, Isabella 375, Brianna 190, Kayla 268, Samantha 73, Taylor 523, Jessica 70, Alexis 36, Abigail 255, Sarah 501, Hannah 317, Samantha 488, Lauren 309, Madison 126, Jessica 189, Brianna 200, Samantha 178, Brianna 492, Isabella 161, Alexis 371, Elizabeth 284, Samantha 143, Kayla 409, Alyssa 128, Lauren 136, Lauren 356, Isabella 353</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>Kayla 75, Elizabeth 385, Kayla 13, Elizabeth 307</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1820,14 +1320,10 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Hannah 522, Madison 54, Isabella 241, Elizabeth 436, Grace 199, Alexis 35, Alyssa 359, Taylor 288, Lauren 90, Abigail 490, Samantha 487, Taylor 222, Isabella 342, Elizabeth 174, Jessica 278, Taylor 6, Alexis 370, Hannah 323, Jessica 461, Hannah 397, Brianna 201, Elizabeth 67, Olivia 154, Ashley 140, Grace 256, Hannah 165, Olivia 214, Ashley 510, Sarah 424, Olivia 270</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Lauren 249, Lauren 459, Grace 213, Olivia 384, Hannah 181, Alexis 470, Jessica 147, Isabella 161, Alexis 340, Grace 111</t>
-        </is>
-      </c>
+          <t>Emma 5</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1837,14 +1333,10 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jessica 191, Alexis 104, Samantha 429, Hannah 202, Olivia 103, Kayla 139, Sarah 2, Lauren 8, Abigail 269, Alyssa 19, Emma 98, Sarah 210, Sarah 74, Emily 334, Kayla 407, Alyssa 308, Lauren 60, Taylor 121</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Grace 285, Alexis 471, Ashley 348, Taylor 192, Alexis 171, Madison 24, Elizabeth 486, Madison 126, Alyssa 39, Brianna 88</t>
-        </is>
-      </c>
+          <t>Jessica 2, Lauren 4</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1854,14 +1346,10 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Alyssa 132, Olivia 345, Taylor 115, Samantha 402, Jessica 383, Grace 99, Emma 118, Emma 499, Alyssa 435, Samantha 271, Emily 87, Olivia 416, Alyssa 366, Ashley 78, Emily 228, Olivia 1</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Taylor 509, Grace 100, Alyssa 493, Ashley 123, Jessica 311, Grace 515, Olivia 477, Hannah 287, Alexis 112, Grace 83</t>
-        </is>
-      </c>
+          <t>Sarah 0, Hannah 3</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1869,16 +1357,8 @@
           <t>Raamatukunst</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Sarah 377, Hannah 522, Abigail 413, Olivia 504, Isabella 241, Brianna 221, Sarah 31, Lauren 8, Emma 216, Abigail 490, Lauren 52, Kayla 407, Elizabeth 174, Elizabeth 422, Lauren 363, Taylor 6, Ashley 478, Grace 285, Emily 330, Madison 24</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>Taylor 226, Alyssa 493, Samantha 18, Ashley 140, Emily 91, Grace 321, Samantha 462, Abigail 231, Alexis 524, Jessica 520</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1888,14 +1368,10 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sarah 377, Hannah 522, Abigail 131, Isabella 426, Alexis 35, Sarah 518, Emily 87, Taylor 121, Olivia 1, Taylor 151, Lauren 49, Emily 146, Lauren 309, Ashley 460, Samantha 18, Samantha 462</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Hannah 181, Alyssa 440, Grace 111, Abigail 344, Grace 30, Grace 428, Lauren 430, Taylor 145, Alyssa 339, Brianna 179</t>
-        </is>
-      </c>
+          <t>Lauren 4</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1905,14 +1381,10 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Alyssa 132, Jessica 191, Alexis 104, Grace 99, Emily 144, Abigail 408, Alexis 498, Alyssa 306, Brianna 433, Emily 229, Lauren 90, Emma 499, Jessica 23, Isabella 342, Sarah 331, Kayla 252, Ashley 240, Lauren 96, Hannah 397, Taylor 509</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Samantha 211, Elizabeth 486, Lauren 309, Abigail 71, Jessica 32, Sarah 442, Grace 351, Lauren 136, Brianna 373, Grace 111</t>
-        </is>
-      </c>
+          <t>Hannah 3, Jessica 2</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jessica 2, Brianna 1</t>
+          <t>Brianna 1, Jessica 2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -628,7 +628,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Brianna 1, Emma 5</t>
+          <t>Emma 5, Brianna 1</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -567,7 +635,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brianna 1, Jessica 2</t>
+          <t>Jessica 2, Brianna 1</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -951,7 +1019,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Brianna 1, Hannah 3</t>
+          <t>Hannah 3, Brianna 1</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -1381,7 +1449,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Hannah 3, Jessica 2</t>
+          <t>Jessica 2, Hannah 3</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jessica 2, Brianna 1</t>
+          <t>Brianna 1, Jessica 2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hannah 3, Brianna 1</t>
+          <t>Brianna 1, Hannah 3</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -1449,10 +1449,132 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jessica 2, Hannah 3</t>
+          <t>Hannah 3, Jessica 2</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PRAKTIKUMID:</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Geograafia</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Kirjandus</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Inglise keel</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ökoloogia</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Koorilaul</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Brianna 1, Hannah 3, Lauren 4, Emma 5</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Rahvatants</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Jessica 2, Emma 5, Lauren 4, Hannah 3</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Akvaristika</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Lauren 4, Emma 5</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Näitering</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Emma 5</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Mehhatroonika ja robootika</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Digitehnoloogiaga sõbraks</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Keskkonnaseire ja digilahendused</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/õpetajateFail.xlsx
+++ b/õpetajateFail.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,8 +444,16 @@
           <t>Programmeerimine keeles Python 1 hommikul</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Emma 164, Emma 392, Hannah 387, Alyssa 336, Kayla 308, Emily 362, Abigail 298, Olivia 480, Olivia 4, Isabella 77, Sarah 413, Sarah 42, Samantha 512, Sarah 370, Isabella 220, Ashley 448, Grace 60, Jessica 481, Emma 424, Alyssa 449, Kayla 146, Olivia 385, Lauren 375, Grace 434, Isabella 161, Kayla 328, Kayla 475</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Emma 6, Emily 440, Alyssa 353, Hannah 387, Lauren 37, Olivia 56, Lauren 109, Abigail 322, Lauren 183, Madison 31</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,8 +461,16 @@
           <t>Programmeerimine keeles Python 1 õhtul</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Isabella 371, Ashley 184, Hannah 211, Abigail 514, Sarah 508, Abigail 81, Abigail 273, Olivia 34, Ashley 228, Isabella 107, Isabella 493, Madison 80, Jessica 525, Jessica 382, Hannah 365, Brianna 113, Ashley 352, Elizabeth 219, Jessica 222, Abigail 343, Alyssa 265, Taylor 79, Ashley 519, Emma 241, Alyssa 198, Alyssa 378, Olivia 122</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Jessica 119, Madison 188, Olivia 237, Taylor 473, Isabella 145, Jessica 187, Alexis 487, Taylor 155, Samantha 12, Abigail 47</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -462,7 +478,11 @@
           <t>Programmeerimine keeles Python 2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Emily 362, Ashley 448, Grace 60, Olivia 122, Kayla 475, Emma 424, Alyssa 198, Isabella 371, Kayla 146</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -473,10 +493,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sarah 0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
+          <t>Brianna 376, Grace 234, Taylor 217, Hannah 351, Alyssa 415, Emma 70, Emma 410, Samantha 447, Lauren 294, Taylor 516, Olivia 4, Grace 147, Jessica 338, Hannah 463, Madison 277, Taylor 123, Lauren 441, Isabella 484, Lauren 518, Sarah 62, Samantha 11, Alexis 229, Brianna 39, Grace 57, Alexis 194, Hannah 98, Hannah 426, Madison 287, Hannah 128, Olivia 83</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Jessica 186, Olivia 408, Ashley 264, Grace 60, Alexis 377, Alexis 96, Alexis 129, Isabella 112, Ashley 2, Madison 464</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -486,7 +510,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sarah 0</t>
+          <t>Brianna 376, Grace 234, Taylor 217, Hannah 351, Alyssa 415, Emma 70, Emma 410, Samantha 447, Lauren 294, Taylor 516, Olivia 4, Grace 147, Jessica 338, Hannah 463, Madison 277, Taylor 123, Lauren 441, Isabella 484, Lauren 518, Sarah 62, Samantha 11, Alexis 229, Brianna 39, Grace 57, Alexis 194, Hannah 98, Hannah 426, Madison 287, Hannah 128, Olivia 83</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -499,7 +523,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sarah 0</t>
+          <t>Brianna 376, Grace 234, Taylor 217, Hannah 351, Alyssa 415, Emma 70, Emma 410, Samantha 447, Lauren 294, Taylor 516, Olivia 4, Grace 147, Jessica 338, Hannah 463, Madison 277, Taylor 123, Lauren 441, Isabella 484, Lauren 518, Sarah 62, Samantha 11, Alexis 229, Brianna 39, Grace 57, Alexis 194, Hannah 98, Hannah 426, Madison 287, Hannah 128, Olivia 83</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -510,8 +534,16 @@
           <t>Planimeetria alused</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Madison 472, Alexis 8, Sarah 95, Isabella 471, Emma 325, Emma 70, Emily 23, Madison 380, Olivia 38, Isabella 107, Sarah 55, Jessica 382, Taylor 123, Taylor 121, Ashley 442, Emily 477, Grace 305, Emma 24, Jessica 84, Hannah 98, Samantha 106, Olivia 432, Ashley 264, Samantha 313, Alexis 377, Hannah 297, Brianna 49, Madison 330, Sarah 125, Hannah 275</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Ashley 85, Taylor 221, Kayla 176, Alyssa 198, Emma 490, Olivia 75, Abigail 174, Elizabeth 359, Isabella 29, Samantha 20</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -519,7 +551,11 @@
           <t>3D-modelleerimine 3. periood</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Olivia 34, Kayla 304, Lauren 192, Olivia 56, Ashley 2, Abigail 343, Lauren 252, Olivia 432, Hannah 427</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -528,7 +564,11 @@
           <t>3D-modelleerimine 5. periood</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Emily 23, Taylor 16, Grace 214, Olivia 34, Alexis 223, Brianna 204, Elizabeth 389, Elizabeth 350, Alyssa 300, Abigail 174, Isabella 77, Lauren 261, Kayla 304, Sarah 272, Emma 6</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -539,10 +579,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+          <t>Isabella 505, Lauren 201, Samantha 282, Emily 362, Sarah 139, Abigail 298, Elizabeth 101, Emma 388, Taylor 121, Hannah 110, Isabella 17, Sarah 272, Alexis 383, Samantha 512, Madison 31, Lauren 93, Brianna 511, Ashley 519, Emily 159, Samantha 133, Hannah 275, Brianna 523, Grace 5, Emma 36</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Ashley 513, Alyssa 198, Lauren 252, Emma 423, Lauren 192, Ashley 384, Kayla 301, Brianna 189, Isabella 474, Grace 238</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -552,10 +596,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jessica 2</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+          <t>Brianna 344, Samantha 12, Alyssa 336, Abigail 81, Sarah 139, Isabella 107, Ashley 239, Madison 277, Kayla 172, Emily 465, Madison 469, Grace 407, Kayla 58, Lauren 347, Isabella 509, Madison 31, Jessica 186, Lauren 206, Alexis 99, Alexis 377, Abigail 52, Madison 285, Lauren 114, Elizabeth 149</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Olivia 19, Grace 197, Lauren 28, Olivia 224, Alyssa 41, Alexis 491, Kayla 176, Alyssa 198, Madison 316, Grace 216</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -565,10 +613,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hannah 3</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+          <t>Isabella 371, Alyssa 177, Taylor 236, Samantha 299, Olivia 102, Madison 46, Samantha 418, Ashley 179, Grace 270, Isabella 460, Taylor 16, Olivia 86, Sarah 320, Taylor 516, Ashley 228, Lauren 356, Hannah 110, Lauren 280, Brianna 39, Lauren 153, Abigail 47, Hannah 44, Olivia 83, Elizabeth 14</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Alexis 99, Alexis 96, Sarah 125, Olivia 317, Lauren 117, Grace 363, Grace 18, Abigail 118, Ashley 63, Kayla 103</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -578,10 +630,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brianna 1</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
+          <t>Isabella 371, Hannah 211, Taylor 373, Olivia 386, Samantha 282, Emma 340, Taylor 48, Jessica 431, Samantha 335, Emily 23, Taylor 124, Grace 270, Kayla 295, Taylor 516</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Ashley 228, Abigail 269, Samantha 30, Sarah 151, Madison 277, Lauren 417, Ashley 442, Hannah 110, Hannah 483, Emma 24</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -589,8 +645,16 @@
           <t>Veebidisain</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Emma 392, Lauren 37, Ashley 354, Emma 340, Abigail 273, Grace 270, Kayla 32, Sarah 55, Lauren 454, Hannah 245, Isabella 143, Samantha 115, Hannah 400, Sarah 370, Elizabeth 185, Taylor 155, Abigail 496, Kayla 215, Sarah 195, Brianna 10, Alexis 104</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Olivia 224, Isabella 33, Grace 132, Kayla 71, Lauren 470, Taylor 473, Lauren 494, Emily 440, Grace 421, Emma 366</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -598,8 +662,16 @@
           <t>Arvutivõrkude alused</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Madison 472, Ashley 184, Isabella 505, Ashley 354, Madison 46, Samantha 418, Olivia 86, Samantha 404, Isabella 145, Jessica 314, Ashley 255, Kayla 172, Jessica 345, Elizabeth 257, Sarah 369, Samantha 163</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lauren 347, Alyssa 300, Sarah 323, Sarah 196, Kayla 103, Lauren 93, Alexis 129, Abigail 478, Samantha 133, Emma 271</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -609,10 +681,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jessica 2</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
+          <t>Elizabeth 381, Brianna 376, Lauren 261, Abigail 360, Lauren 7, Samantha 447, Lauren 183, Jessica 382, Hannah 463, Elizabeth 68, Isabella 484, Emily 477, Hannah 245, Alyssa 230, Kayla 58, Lauren 347, Abigail 322, Elizabeth 162, Jessica 222, Abigail 127, Samantha 106, Sarah 196, Elizabeth 302, Taylor 79, Emily 262, Madison 330, Taylor 390, Grace 5, Emma 506, Taylor 221, Emma 425, Madison 316, Kayla 146, Taylor 522, Samantha 20, Alexis 430</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Alexis 334, Jessica 283, Grace 278, Abigail 174, Alexis 349, Olivia 4, Hannah 138, Hannah 211, Elizabeth 381, Samantha 12</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -622,10 +698,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sarah 0</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Hannah 74, Ashley 184, Grace 232, Abigail 514, Samantha 503, Elizabeth 381, Alyssa 177, Alexis 489, Brianna 54, Grace 476, Hannah 498, Samantha 59, Ashley 179, Emma 26, Brianna 492, Lauren 356, Jessica 357, Madison 277, Lauren 518, Sarah 272</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Isabella 143, Emma 366, Isabella 439, Alexis 194, Ashley 495, Grace 407, Elizabeth 350, Abigail 47, Madison 31, Isabella 397</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -635,10 +715,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brianna 1, Jessica 2</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Sarah 508, Hannah 387, Abigail 360, Isabella 419, Olivia 303, Taylor 124, Alyssa 136, Alexis 259, Jessica 382, Grace 450, Ashley 352, Elizabeth 219, Elizabeth 389, Grace 15, Lauren 206, Taylor 396, Ashley 448, Ashley 264, Brianna 27, Grace 60</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Kayla 25, Taylor 79, Alexis 129, Hannah 297, Abigail 399, Ashley 2, Lauren 114, Olivia 171, Alyssa 41, Olivia 72</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -648,10 +732,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Hannah 74, Isabella 401, Samantha 418, Alyssa 253, Alexis 487, Abigail 298, Alexis 259, Lauren 183, Emily 281, Madison 256, Samantha 218, Alyssa 230</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Emma 88, Elizabeth 350, Taylor 292, Hannah 44, Elizabeth 185, Elizabeth 14, Jessica 420, Kayla 215, Kayla 103, Hannah 260</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -661,10 +749,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Brianna 1</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Jessica 154, Samantha 299, Brianna 249, Hannah 233, Emma 410, Hannah 427, Alyssa 136, Alexis 487, Olivia 34, Hannah 9, Taylor 516, Kayla 304, Sarah 151, Jessica 525, Elizabeth 68, Isabella 484, Elizabeth 100, Alexis 229, Kayla 58, Abigail 66, Jessica 222, Olivia 148, Alyssa 300, Emma 266, Grace 197, Grace 406, Lauren 192, Grace 231, Sarah 130, Madison 21, Elizabeth 517, Olivia 56, Jessica 169, Hannah 260, Madison 291, Abigail 47, Lauren 206, Hannah 400, Elizabeth 152, Isabella 29, Kayla 40, Taylor 221, Lauren 252, Kayla 295, Lauren 117</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Madison 472, Sarah 151, Olivia 34, Hannah 182, Sarah 64, Lauren 494, Madison 287, Lauren 153, Emma 443, Hannah 463</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -674,10 +766,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Emma 5</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Lauren 261, Olivia 102, Emily 23, Taylor 16, Alexis 487, Grace 214, Olivia 34, Kayla 304, Emily 341, Alexis 223, Samantha 404, Taylor 123, Lauren 454, Hannah 110, Isabella 77, Emily 477, Brianna 204, Sarah 272, Madison 306, Kayla 67, Elizabeth 389, Kayla 157, Elizabeth 350, Kayla 436, Abigail 47, Ashley 167, Abigail 343, Olivia 432, Samantha 133, Ashley 2, Alyssa 240, Lauren 252, Abigail 174, Samantha 20, Lauren 192, Grace 231, Brianna 346, Alyssa 515, Samantha 342, Hannah 251, Isabella 460, Elizabeth 152, Lauren 375, Sarah 130, Emma 6</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Sarah 413, Samantha 418, Emma 410, Lauren 7, Olivia 181, Madison 316, Isabella 1, Alexis 223, Ashley 179, Madison 80</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -685,8 +781,16 @@
           <t>Ettevõtlusõpe 3. periood</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Madison 472, Grace 232, Alyssa 177, Sarah 242, Samantha 299, Brianna 54, Abigail 81, Jessica 431, Brianna 398, Alexis 235, Ashley 134, Ashley 13, Jessica 357, Jessica 525, Samantha 218, Brianna 113, Ashley 290, Kayla 337, Ashley 255, Jessica 345, Sarah 42, Sarah 64, Lauren 140, Lauren 347</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Sarah 207, Olivia 83, Alyssa 300, Sarah 196, Emma 443, Samantha 156, Jessica 428, Samantha 170, Jessica 481, Lauren 307</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -696,10 +800,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Emma 5, Brianna 1</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Abigail 514, Kayla 92, Emily 205, Elizabeth 333, Elizabeth 73, Taylor 124, Alyssa 502, Alyssa 136, Emily 362, Hannah 9, Madison 256, Abigail 269, Hannah 138, Jessica 382, Taylor 123, Lauren 441, Isabella 484, Madison 467, Alyssa 230, Olivia 408, Elizabeth 14, Brianna 511, Ashley 519, Jessica 481</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Hannah 297, Madison 464, Hannah 327, Alexis 104, Emma 241, Alyssa 41, Olivia 91, Sarah 135, Jessica 499, Ashley 227</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -709,10 +817,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jessica 2, Hannah 3</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Isabella 371, Hannah 211, Alexis 8, Samantha 299, Lauren 261, Isabella 419, Sarah 95, Alyssa 253, Alyssa 502, Alexis 235, Elizabeth 101, Olivia 296, Sarah 151, Hannah 110, Hannah 365, Sarah 413, Sarah 466, Olivia 416, Emma 332, Alexis 383, Jessica 84, Kayla 67, Samantha 115, Ashley 495, Emma 88</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Kayla 58, Abigail 66, Jessica 405, Olivia 408, Ashley 264, Jessica 420, Olivia 181, Grace 60, Alexis 377, Alyssa 265</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -720,8 +832,16 @@
           <t>Sissejuhatus ehitusinseneeriasse</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Alyssa 131, Emily 429, Taylor 48, Ashley 361, Olivia 34, Alexis 468, Emily 281, Madison 256, Isabella 107, Elizabeth 111, Emily 477, Hannah 365, Brianna 520, Olivia 416, Emma 200, Grace 407, Abigail 343, Olivia 432, Jessica 420, Olivia 181, Alexis 99, Alexis 435</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Emma 271, Olivia 19, Alexis 491, Hannah 182, Alyssa 412, Olivia 75, Ashley 105, Alexis 430, Isabella 161, Emma 311</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -731,10 +851,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sarah 0, Lauren 4</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Jessica 154, Isabella 471, Alyssa 502, Kayla 32, Sarah 116, Taylor 516, Olivia 4, Lauren 356, Elizabeth 111, Lauren 417, Ashley 442, Isabella 484, Samantha 11, Lauren 280, Ashley 246, Grace 57, Hannah 479, Samantha 115, Ashley 495, Ashley 374, Sarah 370, Ashley 264, Kayla 524, Alexis 129, Abigail 399, Sarah 195, Madison 291, Grace 5, Sarah 135</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Alyssa 412, Kayla 199, Hannah 284, Isabella 161, Jessica 521, Jessica 283, Lauren 470, Abigail 69, Alyssa 353, Kayla 146</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -742,8 +866,16 @@
           <t>Liiklusfüüsika</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Alyssa 131, Taylor 217, Brianna 249, Sarah 247, Grace 476, Abigail 76, Emma 410, Ashley 179, Olivia 86, Kayla 32, Kayla 295, Sarah 244, Lauren 356, Samantha 404, Madison 393, Jessica 314, Samantha 218, Ashley 210, Alyssa 458, Sarah 62, Kayla 172, Sarah 466, Isabella 143, Madison 469, Kayla 157, Samantha 313, Taylor 173, Sarah 125, Elizabeth 459, Sarah 195, Lauren 433, Brianna 507, Emma 423, Hannah 284, Grace 368, Hannah 250, Alexis 334, Olivia 237, Brianna 289, Taylor 310, Brianna 497, Brianna 178, Madison 21, Emma 24, Olivia 56, Abigail 212, Taylor 396, Olivia 4, Abigail 52, Alexis 435</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Samantha 30, Elizabeth 111, Lauren 454, Sarah 466, Sarah 320, Lauren 375, Taylor 516, Jessica 345, Elizabeth 100, Madison 330</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -753,10 +885,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Emma 5, Hannah 3</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Taylor 373, Lauren 201, Sarah 247, Emma 486, Ashley 354, Abigail 137, Olivia 102, Lauren 7, Madison 46, Lauren 372, Sarah 139, Grace 214, Alexis 259, Samantha 30, Lauren 417, Lauren 280, Elizabeth 389, Sarah 64, Lauren 140, Samantha 115, Grace 15, Samantha 163, Samantha 409, Elizabeth 185, Taylor 79</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Samantha 133, Elizabeth 152, Sarah 150, Hannah 61, Ashley 227, Sarah 293, Kayla 199, Grace 243, Ashley 461, Jessica 119</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -766,10 +902,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jessica 2</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>Hannah 211, Isabella 505, Taylor 236, Hannah 351, Abigail 273, Samantha 418, Alyssa 253, Grace 270, Alyssa 502, Sarah 320, Alexis 78, Sarah 244, Madison 256, Hannah 138, Jessica 338, Hannah 463, Alexis 51, Hannah 365, Brianna 113, Ashley 290, Elizabeth 219, Alexis 383, Hannah 128, Sarah 207, Olivia 83, Taylor 155, Sarah 196, Kayla 215</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Brianna 511, Isabella 112, Ashley 65, Lauren 258, Elizabeth 149, Emma 271, Lauren 433, Lauren 252, Hannah 43, Emma 311</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -777,8 +917,16 @@
           <t>Globaalne keskkond</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Alyssa 177, Taylor 236, Samantha 268, Samantha 282, Olivia 303, Isabella 1, Alexis 166, Emma 325, Sarah 139, Ashley 361, Ashley 228, Ashley 239, Grace 147, Samantha 30, Emma 388, Olivia 202, Madison 277, Elizabeth 111, Ashley 442, Ashley 352, Sarah 42, Elizabeth 318, Olivia 158, Hannah 98, Hannah 479, Sarah 64, Ashley 374, Taylor 292, Samantha 342, Abigail 322, Jessica 222, Hannah 44, Jessica 186, Elizabeth 185, Ashley 264, Taylor 79, Taylor 501, Emma 271, Sarah 22, Grace 197, Olivia 224, Hannah 61, Sarah 293, Hannah 251, Isabella 161, Lauren 117, Kayla 309, Alyssa 515, Lauren 192, Hannah 483</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Ashley 495, Lauren 183, Hannah 427, Lauren 93, Samantha 276, Emma 311, Abigail 47, Emily 452, Grace 238, Alyssa 358</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -786,8 +934,16 @@
           <t>Astronoomia</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Emma 164, Hannah 510, Brianna 249, Alyssa 336, Emma 486, Hannah 233, Jessica 431, Alexis 349, Samantha 59, Sarah 320, Alexis 78, Sarah 139, Kayla 295, Alexis 223, Sarah 151, Lauren 454, Ashley 255, Lauren 280, Brianna 520, Emma 24, Isabella 143, Ashley 246, Jessica 84, Elizabeth 389, Sarah 369, Kayla 436, Brianna 27, Alexis 99, Brianna 10, Grace 5</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Olivia 364, Ashley 227, Abigail 457, Hannah 43, Elizabeth 359, Abigail 286, Emily 452, Taylor 310, Brianna 497, Abigail 160</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -795,8 +951,16 @@
           <t>Astrofüüsika 2. periood</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Lauren 226, Isabella 401, Emily 205, Emma 340, Alexis 166, Jessica 431, Taylor 124, Isabella 460, Olivia 86, Kayla 32, Emily 281, Madison 393, Jessica 314, Ashley 210, Isabella 17, Madison 467, Olivia 158, Kayla 67, Madison 469, Kayla 157, Elizabeth 162, Samantha 87, Ashley 190, Sarah 323, Abigail 496, Abigail 399, Sarah 195, Brianna 523, Taylor 501, Taylor 390, Brianna 10, Emma 241, Madison 213, Olivia 91, Olivia 364</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Kayla 40, Hannah 182, Grace 175, Emma 423, Jessica 521, Jessica 283, Hannah 193, Kayla 309, Ashley 495, Emma 506</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -804,8 +968,16 @@
           <t>Astrofüüsika 3. periood</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Alyssa 131, Brianna 249, Madison 380, Olivia 480, Jessica 338, Jessica 525, Taylor 121, Grace 450, Isabella 77, Samantha 276, Sarah 369, Kayla 436, Hannah 128, Ashley 167, Ashley 448, Brianna 27, Alexis 394, Samantha 133, Abigail 457, Isabella 141, Sarah 437, Samantha 355, Emily 90, Alyssa 353, Hannah 387, Emma 200, Ashley 495, Samantha 170, Ashley 227, Hannah 260, Grace 231, Kayla 71, Alyssa 191, Sarah 207, Ashley 255</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Emily 45, Kayla 215, Lauren 347, Ashley 105, Samantha 414, Emily 108, Grace 243, Emma 241, Hannah 351, Samantha 335</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -815,10 +987,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Brianna 1</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Samantha 503, Alexis 489, Sarah 508, Emma 486, Abigail 81, Ashley 354, Taylor 48, Isabella 471, Sarah 139, Grace 214, Lauren 294, Isabella 493, Emma 388, Hannah 138, Samantha 218, Alexis 51, Lauren 518, Elizabeth 100, Brianna 520, Ashley 482</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Grace 57, Sarah 370, Jessica 186, Abigail 496, Kayla 215, Hannah 260, Lauren 93, Alexis 129, Emily 159, Ashley 65</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -826,8 +1002,16 @@
           <t>Loogika 2. periood</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Brianna 165, Kayla 92, Madison 451, Isabella 419, Abigail 81, Alexis 349, Alexis 235, Lauren 183, Elizabeth 101, Samantha 218, Brianna 204, Samantha 276, Samantha 342, Kayla 436, Hannah 426, Madison 287, Olivia 408, Jessica 428, Ashley 519, Lauren 28, Alyssa 41, Emma 425, Emma 312, Olivia 72, Grace 216, Hannah 284, Olivia 317, Taylor 522, Abigail 286, Alexis 395, Ashley 63</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Sarah 437, Grace 421, Abigail 174, Emma 366, Jessica 187, Samantha 170, Madison 225, Emily 429, Sarah 62, Ashley 519</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -837,10 +1021,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Brianna 1</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Ashley 184, Emma 164, Lauren 201, Alexis 8, Isabella 401, Emma 486, Samantha 418, Samantha 447, Olivia 38, Emily 281, Jessica 338, Ashley 210, Lauren 441, Ashley 290, Hannah 98, Sarah 369, Sarah 485, Sarah 323, Elizabeth 185, Brianna 27, Brianna 523, Alexis 104, Emma 241, Olivia 91, Alyssa 378, Grace 406, Grace 434, Olivia 82, Sarah 339, Alexis 334, Ashley 384</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Alexis 279, Alexis 324, Brianna 89, Taylor 473, Brianna 126, Hannah 387, Emma 506, Lauren 109, Alexis 229, Abigail 52</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -848,7 +1036,11 @@
           <t>Programmeerimine keeles Java 1</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Olivia 385, Lauren 375, Alyssa 449, Grace 434</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -857,7 +1049,11 @@
           <t>Programmeerimine keeles Java 2</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Olivia 385</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -868,10 +1064,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hannah 3</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>Abigail 514, Elizabeth 381, Brianna 376, Samantha 268, Grace 234, Lauren 37, Taylor 217, Hannah 233, Emma 325, Alyssa 50, Samantha 59, Grace 270, Alexis 235, Madison 380, Olivia 480, Madison 256, Isabella 493, Samantha 218, Hannah 365, Alyssa 458, Jessica 187, Alexis 383, Sarah 64, Hannah 426, Abigail 322, Madison 444, Samantha 106, Kayla 25, Alyssa 265, Brianna 511</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Alexis 394, Olivia 171, Emma 271, Sarah 22, Elizabeth 438, Grace 278, Emma 36, Olivia 364, Kayla 146, Emma 312</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -881,10 +1081,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sarah 0</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Brianna 165, Abigail 137, Lauren 7, Samantha 335, Alexis 349, Alyssa 50, Lauren 372, Hannah 427, Isabella 460, Alexis 487, Abigail 298, Olivia 296, Ashley 13, Madison 80, Jessica 338, Taylor 121, Emily 477, Brianna 113, Brianna 520, Kayla 446, Ashley 482, Ashley 495, Madison 444, Madison 287, Hannah 128, Olivia 148, Sarah 485, Lauren 206, Olivia 432, Emma 443, Olivia 181, Alyssa 265, Alexis 129, Abigail 478, Emma 266, Madison 285, Olivia 171, Grace 5, Alexis 491, Elizabeth 152, Ashley 513, Taylor 221, Sarah 150, Kayla 199, Hannah 120, Elizabeth 359, Jessica 379, Isabella 141, Sarah 339, Ashley 384</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Alexis 144, Grace 238, Abigail 174, Jessica 187, Hannah 275, Brianna 54, Elizabeth 302, Isabella 107, Hannah 211, Alyssa 240</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -894,10 +1098,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Isabella 315, Alexis 8, Emily 429, Madison 451, Samantha 12, Hannah 233, Hannah 498, Taylor 48, Brianna 398, Alexis 259, Taylor 516, Ashley 134, Grace 450, Elizabeth 100, Alexis 229, Hannah 245, Olivia 416, Hannah 400, Ashley 190, Jessica 405, Isabella 397, Abigail 343, Jessica 428, Kayla 103, Lauren 93, Alexis 94, Brianna 208, Hannah 275, Elizabeth 149, Abigail 422, Alyssa 198, Kayla 40, Kayla 146, Jessica 53, Jessica 119, Madison 411, Grace 504, Brianna 189, Alexis 279, Elizabeth 517, Brianna 89, Samantha 355, Ashley 63, Madison 464, Elizabeth 381, Lauren 267, Taylor 473, Grace 231, Brianna 27, Sarah 130</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Alyssa 502, Kayla 215, Abigail 69, Brianna 208, Taylor 236, Emily 108, Isabella 493, Grace 147, Ashley 448, Alexis 324</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -905,8 +1113,16 @@
           <t>Arvutite riistvara ja lisaseadmed</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Jessica 154, Abigail 248, Abigail 209, Isabella 315, Samantha 268, Alyssa 336, Grace 476, Emily 23, Ashley 179, Olivia 86, Lauren 183, Isabella 145, Elizabeth 68, Brianna 204, Kayla 172, Sarah 466</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Grace 305, Grace 57, Emma 366, Kayla 67, Alyssa 230, Sarah 369, Madison 225, Samantha 409, Samantha 106, Elizabeth 302</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -914,8 +1130,16 @@
           <t>Loodusteadused, tehnoloogia ja ühiskond</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Olivia 386, Abigail 248, Sarah 242, Isabella 315, Brianna 165, Alexis 489, Sarah 508, Hannah 387, Grace 476, Emma 340, Abigail 273, Emma 410, Ashley 348, Lauren 183, Ashley 228, Elizabeth 68, Jessica 345, Samantha 276, Brianna 329, Olivia 158, Alyssa 230, Isabella 439, Kayla 321, Hannah 400, Grace 15</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Elizabeth 326, Abigail 127, Hannah 297, Brianna 49, Madison 330, Madison 213, Sarah 150, Alyssa 191, Lauren 375, Taylor 522</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -923,8 +1147,16 @@
           <t>Kasutame füüsikat!</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Taylor 236, Abigail 209, Hannah 498, Sarah 320, Alexis 259, Abigail 269, Samantha 30, Jessica 525, Jessica 382, Alexis 51, Lauren 518, Elizabeth 100, Olivia 416, Emma 332, Alexis 142, Jessica 84, Lauren 153, Elizabeth 403, Samantha 87, Hannah 44, Olivia 83, Taylor 402, Taylor 396, Samantha 170, Alexis 96, Sarah 125, Alexis 435</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Abigail 422, Taylor 221, Emma 425, Kayla 40, Ashley 227, Abigail 457, Madison 411, Isabella 474, Hannah 462, Emily 108</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -932,8 +1164,16 @@
           <t>Hiina keel 1</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Sarah 247, Alexis 166, Lauren 7, Isabella 471, Alyssa 50, Emma 26, Brianna 492, Samantha 30, Hannah 138, Madison 393, Alexis 51, Elizabeth 100, Abigail 212, Emily 465, Elizabeth 318, Jessica 187, Brianna 329, Olivia 158</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Sarah 64, Ashley 495, Isabella 220, Isabella 397, Abigail 399, Madison 285, Taylor 501, Abigail 422, Alexis 104, Olivia 224</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -941,7 +1181,11 @@
           <t>Hiina keel 2</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Sarah 247, Alexis 166, Lauren 7, Isabella 471, Alyssa 50, Emma 26, Brianna 492, Samantha 30, Hannah 138, Madison 393, Alexis 51, Elizabeth 100, Abigail 212, Emily 465, Elizabeth 318, Jessica 187, Brianna 329, Olivia 158</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -950,7 +1194,11 @@
           <t>Hiina keel 3</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Sarah 247, Alexis 166, Lauren 7, Isabella 471, Alyssa 50, Emma 26, Brianna 492, Samantha 30, Hannah 138, Madison 393, Alexis 51, Elizabeth 100, Abigail 212, Emily 465, Elizabeth 318, Jessica 187, Brianna 329, Olivia 158</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -959,8 +1207,16 @@
           <t>Kirjandus ja film</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Olivia 386, Brianna 376, Isabella 315, Emily 429, Taylor 217, Isabella 1, Sarah 288, Samantha 335, Alyssa 358, Hannah 245, Alexis 142, Lauren 153, Ashley 374, Lauren 347, Madison 444, Sarah 485, Abigail 127, Brianna 27, Olivia 181, Elizabeth 459, Madison 464, Emma 506, Emma 36, Sarah 135, Samantha 414, Ashley 97, Brianna 126, Sarah 293, Taylor 391, Kayla 321, Alexis 324, Isabella 141, Emily 159, Samantha 268</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Abigail 127, Jessica 338, Kayla 25, Brianna 398, Lauren 258, Samantha 59, Samantha 218, Isabella 419, Elizabeth 219, Hannah 120</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -968,8 +1224,16 @@
           <t>Loominguline joonestamine 1</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Samantha 282, Hannah 510, Abigail 76, Madison 254, Taylor 16, Alexis 468, Madison 80, Alexis 223, Samantha 404, Olivia 202, Olivia 416, Emma 200, Emma 88, Elizabeth 326, Hannah 44, Jessica 405, Jessica 420, Samantha 156, Alexis 99, Samantha 170, Alexis 96, Madison 285, Alexis 435</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Alyssa 240, Isabella 33, Grace 278, Elizabeth 168, Brianna 507, Grace 368, Isabella 141, Ashley 384, Brianna 189, Taylor 473</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -977,8 +1241,16 @@
           <t>Orgaaniline arhitektuur</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Isabella 371, Grace 234, Brianna 398, Lauren 294, Olivia 296, Ashley 13, Isabella 493, Emma 388, Hannah 110, Sarah 62, Kayla 446, Brianna 39, Emma 332, Jessica 187, Alyssa 230, Olivia 319, Sarah 369, Elizabeth 403, Isabella 509, Taylor 396</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lauren 93, Elizabeth 445, Abigail 478, Ashley 513, Emma 456, Hannah 120, Lauren 331, Ashley 105, Lauren 109, Emily 452</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -986,8 +1258,16 @@
           <t>Värvus ja kompositsioon</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Sarah 242, Olivia 303, Emma 453, Elizabeth 73, Ashley 361, Emily 341, Ashley 228, Isabella 488, Elizabeth 500, Lauren 441, Grace 450, Alyssa 458, Kayla 337, Ashley 255, Hannah 483, Brianna 520, Jessica 345, Hannah 479, Taylor 292, Elizabeth 302</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Taylor 173, Alyssa 265, Kayla 524, Alexis 129, Emily 159, Olivia 171, Madison 291, Grace 5, Grace 132, Madison 316</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -997,10 +1277,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Emma 5</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Sarah 242, Hannah 387, Madison 46, Brianna 398, Madison 254, Alyssa 502, Kayla 32, Sarah 116, Grace 214, Elizabeth 101, Jessica 357, Olivia 416, Ashley 482, Samantha 512, Hannah 479, Isabella 509</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Abigail 322, Lauren 206, Samantha 156, Abigail 478, Sarah 125, Emma 271, Madison 291, Lauren 28, Olivia 91, Isabella 29</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1019,10 +1303,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Brianna 1, Hannah 3</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>Grace 232, Isabella 505, Alyssa 177, Abigail 248, Abigail 360, Isabella 419, Abigail 137, Ashley 179, Taylor 16, Emily 362, Alexis 235, Alexis 468, Samantha 404, Emma 388, Isabella 145, Jessica 314</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Elizabeth 111, Taylor 121, Elizabeth 68, Grace 450, Emily 477, Alyssa 458, Isabella 17, Jessica 345, Grace 305, Kayla 446</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1039,8 +1327,16 @@
           <t>Lähis-Ida 20. sajandi teisest poolest tänapäevani</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Jessica 154, Olivia 386, Alyssa 131, Alexis 8, Samantha 299, Olivia 303, Ashley 354, Sarah 55, Sarah 413, Madison 467, Kayla 321, Samantha 115, Hannah 400, Kayla 58, Elizabeth 326, Elizabeth 162, Madison 31, Emma 443, Olivia 181, Elizabeth 302, Taylor 173, Kayla 25, Alexis 94, Elizabeth 445, Hannah 297, Elizabeth 149, Alexis 435, Alyssa 449, Taylor 390, Hannah 327, Kayla 176, Ashley 105, Alexis 430, Isabella 141, Ashley 384, Kayla 328</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Alexis 144, Isabella 367, Grace 278, Sarah 437, Emma 24, Jessica 35, Alexis 229, Abigail 322, Hannah 211, Samantha 276</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1048,8 +1344,16 @@
           <t>Meediakursus</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Samantha 268, Brianna 165, Emma 392, Grace 476, Emma 340, Elizabeth 73, Kayla 308, Alyssa 136, Ashley 348, Kayla 304, Olivia 296, Ashley 239, Emma 332, Emma 200, Alexis 383, Lauren 140, Grace 15, Sarah 370, Elizabeth 403, Samantha 87, Ashley 190, Sarah 485, Samantha 409, Samantha 170, Brianna 511, Lauren 307, Emily 262, Samantha 133, Lauren 114, Brianna 523, Isabella 33, Alexis 491</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Emma 425, Alyssa 412, Kayla 146, Elizabeth 168, Hannah 251, Olivia 72, Grace 216, Grace 368, Hannah 250, Lauren 117</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1057,8 +1361,16 @@
           <t>Prantsuse keel 1</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Taylor 373, Taylor 236, Emily 205, Madison 451, Isabella 1, Olivia 102, Emma 453, Isabella 460, Sarah 244, Olivia 480, Abigail 269, Ashley 210, Isabella 488, Lauren 417, Samantha 276, Alexis 142, Lauren 153, Ashley 374, Samantha 342, Abigail 47</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Sarah 207, Abigail 66, Sarah 196, Lauren 93, Emily 159, Madison 330, Lauren 258, Alyssa 240, Grace 197, Madison 316</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1066,7 +1378,11 @@
           <t>Prantsuse keel 2</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Taylor 373, Taylor 236, Emily 205, Madison 451, Isabella 1, Olivia 102, Emma 453, Isabella 460, Sarah 244, Olivia 480, Abigail 269, Ashley 210, Isabella 488, Lauren 417, Samantha 276, Alexis 142, Lauren 153, Ashley 374, Samantha 342, Abigail 47</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -1075,7 +1391,11 @@
           <t>Prantsuse keel 3</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Taylor 373, Taylor 236, Emily 205, Madison 451, Isabella 1, Olivia 102, Emma 453, Isabella 460, Sarah 244, Olivia 480, Abigail 269, Ashley 210, Isabella 488, Lauren 417, Samantha 276, Alexis 142, Lauren 153, Ashley 374, Samantha 342, Abigail 47</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1084,8 +1404,16 @@
           <t>Soome keel 1</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Samantha 503, Elizabeth 381, Sarah 288, Elizabeth 333, Alyssa 358, Hannah 9, Olivia 38, Lauren 356, Hannah 483, Madison 306, Madison 469, Kayla 157, Madison 444, Jessica 405, Taylor 402, Sarah 323, Kayla 524, Brianna 208, Ashley 65, Alyssa 41, Grace 278, Ashley 513, Lauren 252, Ashley 461, Sarah 339</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Kayla 301, Emma 6, Alexis 395, Emily 440, Alyssa 198, Jessica 382, Hannah 275, Elizabeth 302, Lauren 267, Hannah 284</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1093,7 +1421,11 @@
           <t>Soome keel 2</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Samantha 503, Elizabeth 381, Sarah 288, Elizabeth 333, Alyssa 358, Hannah 9, Olivia 38, Lauren 356, Hannah 483, Madison 306, Madison 469, Kayla 157, Madison 444, Jessica 405, Taylor 402, Sarah 323, Kayla 524, Brianna 208, Ashley 65, Alyssa 41, Grace 278, Ashley 513, Lauren 252, Ashley 461, Sarah 339</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -1102,7 +1434,11 @@
           <t>Soome keel 3</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Samantha 503, Elizabeth 381, Sarah 288, Elizabeth 333, Alyssa 358, Hannah 9, Olivia 38, Lauren 356, Hannah 483, Madison 306, Madison 469, Kayla 157, Madison 444, Jessica 405, Taylor 402, Sarah 323, Kayla 524, Brianna 208, Ashley 65, Alyssa 41, Grace 278, Ashley 513, Lauren 252, Ashley 461, Sarah 339</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -1113,10 +1449,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jessica 2</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>Lauren 201, Abigail 209, Isabella 315, Kayla 92, Brianna 54, Sarah 95, Abigail 76, Samantha 335, Lauren 372, Grace 270, Olivia 86, Madison 380, Ashley 361, Ashley 134, Hannah 110, Hannah 245, Emma 366, Kayla 67</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Alyssa 300, Taylor 396, Abigail 127, Taylor 155, Abigail 496, Jessica 428, Samantha 313, Alexis 394, Olivia 19, Emma 424</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1126,10 +1466,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>Emma 164, Brianna 165, Hannah 510, Sarah 95, Abigail 137, Abigail 76, Abigail 273, Sarah 288, Abigail 298, Abigail 269, Sarah 151, Isabella 145, Lauren 454, Ashley 290, Kayla 337, Abigail 212, Jessica 345, Madison 306, Emma 366, Kayla 67, Alexis 194, Samantha 163, Madison 444, Sarah 323, Samantha 409, Kayla 103, Samantha 313, Lauren 114, Brianna 523, Emma 271, Isabella 33</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Ashley 85, Kayla 199, Jessica 53, Alyssa 191, Emma 423, Emily 452, Lauren 470, Brianna 346, Lauren 267, Taylor 473</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1139,10 +1483,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sarah 0</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
+          <t>Brianna 344, Hannah 211, Taylor 373, Isabella 315, Samantha 268, Isabella 419, Alyssa 50, Kayla 308, Kayla 295, Alexis 487, Alexis 468, Olivia 38, Ashley 13, Ashley 210, Elizabeth 111, Hannah 365, Alyssa 458, Ashley 352, Sarah 466, Olivia 416, Elizabeth 318, Jessica 187, Taylor 292, Taylor 396, Samantha 156, Jessica 428, Olivia 181, Alexis 377, Abigail 52, Kayla 524</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Hannah 275, Abigail 422, Hannah 327, Alexis 491, Grace 278, Kayla 176, Jessica 499, Emma 312, Ashley 227, Lauren 331</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1150,7 +1498,11 @@
           <t>Filosoofia 2</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Kayla 524, Taylor 373</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -1159,8 +1511,16 @@
           <t>Ladina keel 1</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Madison 472, Emma 392, Kayla 92, Hannah 351, Isabella 1, Brianna 398, Alyssa 415, Madison 254, Alyssa 358, Emma 26, Ashley 361, Elizabeth 101, Madison 80, Brianna 113, Emma 203, Elizabeth 219, Emma 24, Olivia 319</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Samantha 115, Ashley 495, Abigail 66, Jessica 405, Jessica 481, Lauren 307, Abigail 478, Taylor 501, Madison 464, Grace 197</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1168,7 +1528,11 @@
           <t>Ladina keel 2</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Madison 472, Emma 392, Kayla 92, Hannah 351, Isabella 1, Brianna 398, Alyssa 415, Madison 254, Alyssa 358, Emma 26, Ashley 361, Elizabeth 101, Madison 80, Brianna 113, Emma 203, Elizabeth 219, Emma 24, Olivia 319</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -1177,8 +1541,16 @@
           <t>Loovkirjutamine</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Abigail 514, Abigail 248, Emily 429, Lauren 37, Sarah 247, Alyssa 336, Olivia 303, Alyssa 253, Alexis 349, Lauren 372, Alyssa 136, Kayla 32, Alexis 78, Sarah 244, Olivia 4, Madison 256, Alexis 223, Madison 393, Sarah 62, Hannah 483, Kayla 446, Sarah 42, Emma 332, Madison 469, Isabella 439, Hannah 98</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Lauren 140, Elizabeth 326, Sarah 207, Taylor 402, Abigail 343, Olivia 408, Alexis 94, Brianna 208, Abigail 399, Ashley 513</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1188,10 +1560,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Emma 5</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>Isabella 401, Samantha 12, Alexis 166, Jessica 431, Samantha 59, Emily 23, Alexis 259, Hannah 9, Sarah 55, Taylor 123, Lauren 441, Isabella 17, Kayla 172, Kayla 321, Grace 15, Hannah 426, Alyssa 300, Ashley 264</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Grace 60, Samantha 170, Brianna 511, Lauren 258, Alexis 435, Sarah 135, Sarah 150, Kayla 71, Emma 490, Jessica 119</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1199,8 +1575,16 @@
           <t>Natuurist joonistamine</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Sarah 242, Brianna 54, Hannah 233, Hannah 498, Samantha 335, Emma 325, Alyssa 502, Isabella 107, Ashley 239, Samantha 404, Jessica 314, Brianna 204, Alexis 229, Madison 467, Alexis 142, Jessica 84</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Sarah 64, Grace 407, Elizabeth 350, Isabella 220, Olivia 148, Lauren 206, Taylor 155, Jessica 420, Isabella 112, Elizabeth 459</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1208,8 +1592,16 @@
           <t>Fotograafia 1</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Isabella 371, Hannah 510, Abigail 76, Emma 325, Alexis 349, Elizabeth 73, Samantha 59, Lauren 372, Hannah 427, Sarah 116, Isabella 493, Emma 24, Emma 332, Isabella 439, Ashley 495, Elizabeth 350, Kayla 58, Isabella 509, Jessica 186, Olivia 408, Kayla 103, Alyssa 265, Alexis 96, Elizabeth 445</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Abigail 478, Lauren 28, Olivia 91, Elizabeth 168, Abigail 457, Samantha 414, Madison 411, Alexis 144, Grace 504, Grace 421</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1219,10 +1611,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Emma 5</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>Brianna 344, Hannah 74, Lauren 226, Brianna 165, Kayla 92, Lauren 261, Sarah 95, Abigail 137, Samantha 335, Sarah 320, Jessica 314, Samantha 163, Kayla 436, Elizabeth 403, Abigail 322, Jessica 222, Olivia 148, Sarah 485, Madison 291, Elizabeth 152, Emma 425, Olivia 364, Sarah 135, Olivia 385, Emma 456, Hannah 120, Emma 490, Grace 406, Lauren 375, Alexis 279, Alexis 324, Madison 21, Jessica 35, Sarah 22, Grace 132, Jessica 379</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Lauren 375, Ashley 255, Alexis 51, Grace 232, Taylor 516, Grace 363, Samantha 414, Hannah 44, Taylor 173, Sarah 413</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1230,8 +1626,16 @@
           <t>Inimene ja ühiskond 4. periood</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Emma 366, Alyssa 230, Jessica 428, Samantha 170, Ashley 85, Madison 213, Isabella 29, Ashley 105, Alexis 144, Sarah 437, Grace 504, Abigail 180, Alexis 395, Hannah 193, Ashley 63, Lauren 267, Hannah 284, Abigail 274, Abigail 69, Olivia 122, Olivia 224, Isabella 367, Olivia 72, Grace 216, Lauren 192, Abigail 399, Elizabeth 302, Emma 455, Samantha 12, Kayla 475, Alyssa 191, Brianna 126, Olivia 317, Ashley 246, Abigail 457, Taylor 473</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Lauren 140, Elizabeth 500, Elizabeth 101, Grace 175, Emma 453, Taylor 217, Olivia 237, Emily 23, Alexis 435, Olivia 480</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1239,8 +1643,16 @@
           <t>Teadusajalugu 3. periood</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Olivia 386, Isabella 401, Emma 486, Alyssa 253, Madison 254, Taylor 16, Alexis 487, Madison 380, Emily 341, Ashley 228, Samantha 404, Elizabeth 500, Ashley 442, Isabella 77, Elizabeth 326, Hannah 44, Ashley 190, Isabella 397, Abigail 127, Taylor 173, Alexis 94, Emma 266, Elizabeth 149, Emma 241, Madison 316, Emma 312, Ashley 227, Hannah 251, Grace 175, Lauren 433</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Grace 243, Olivia 122, Jessica 379, Samantha 20, Brianna 178, Grace 231, Grace 18, Alexis 395, Lauren 267, Kayla 103</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1248,8 +1660,16 @@
           <t>Teadusajalugu 5. periood</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Grace 232, Alyssa 131, Taylor 236, Grace 234, Hannah 510, Hannah 351, Isabella 419, Samantha 59, Alyssa 358, Kayla 308, Alyssa 136, Emily 362, Ashley 348, Alexis 259, Olivia 296, Alexis 223, Hannah 463, Isabella 145, Samantha 218, Kayla 446, Samantha 276, Brianna 39, Emma 200, Alexis 383, Alexis 194, Olivia 319, Hannah 400, Ashley 495, Emma 88, Samantha 342</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Isabella 509, Jessica 222, Sarah 485, Olivia 408, Taylor 155, Alexis 129, Alexis 394, Lauren 307, Samantha 133, Hannah 327</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1259,10 +1679,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Hannah 3</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
+          <t>Emma 164, Hannah 233, Hannah 498, Ashley 348, Alexis 78, Kayla 295, Olivia 296, Ashley 239, Ashley 482, Kayla 321, Hannah 479, Olivia 319, Ashley 167, Samantha 313, Brianna 49, Grace 197, Emma 506, Taylor 221, Kayla 40, Kayla 146, Hannah 43, Elizabeth 359, Jessica 119, Madison 188, Isabella 141, Lauren 117</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Grace 363, Kayla 328, Olivia 237, Kayla 475, Isabella 145, Abigail 174, Hannah 483, Ashley 495, Ashley 264, Alyssa 131</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1270,8 +1694,16 @@
           <t>Vaimne tervis ja selle hoidmine</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Abigail 514, Brianna 249, Samantha 418, Grace 214, Kayla 304, Madison 80, Alexis 223, Olivia 202, Alyssa 458, Emma 203, Madison 467, Emma 88, Abigail 66, Elizabeth 162, Elizabeth 14, Alexis 377, Hannah 260, Abigail 52, Alexis 394, Sarah 125, Elizabeth 459, Madison 464, Alyssa 449, Taylor 390</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Kayla 176, Sarah 293, Alyssa 191, Ashley 461, Isabella 29, Isabella 367, Hannah 462, Brianna 126, Grace 278, Emma 200</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1279,8 +1711,16 @@
           <t>Klassikaline skulptuur</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Hannah 211, Samantha 299, Samantha 282, Abigail 360, Sarah 247, Olivia 303, Jessica 431, Taylor 124, Alexis 78, Kayla 295, Abigail 298, Grace 147, Ashley 255, Hannah 483, Brianna 39, Emma 200, Emma 366, Samantha 512, Emma 88, Abigail 66</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Olivia 148, Hannah 260, Jessica 481, Madison 464, Hannah 61, Olivia 72, Brianna 507, Ashley 97, Kayla 475, Brianna 189</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1288,8 +1728,16 @@
           <t>Kujutav geomeetria</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Grace 232, Alyssa 177, Sarah 95, Abigail 137, Abigail 76, Alexis 166, Emma 453, Madison 46, Lauren 372, Hannah 427, Ashley 134, Madison 393, Isabella 145, Jessica 314, Taylor 121, Elizabeth 500, Alexis 229, Hannah 245, Samantha 163, Isabella 220, Jessica 222, Madison 225</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Sarah 196, Emma 443, Samantha 156, Kayla 103, Elizabeth 459, Lauren 258, Alyssa 449, Taylor 390, Elizabeth 152, Sarah 293</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1297,7 +1745,11 @@
           <t>Loominguline joonistamine 2</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Olivia 202, Samantha 156</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -1306,8 +1758,16 @@
           <t>Praktiline kommunikatsioon</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Alyssa 131, Hannah 510, Taylor 48, Lauren 7, Sarah 288, Lauren 294, Hannah 9, Sarah 55, Grace 450, Kayla 337, Abigail 212, Isabella 17, Brianna 520, Sarah 413, Madison 467, Sarah 42, Isabella 143, Elizabeth 257, Isabella 397, Alyssa 300, Samantha 409, Abigail 496, Kayla 215, Taylor 79, Lauren 93, Isabella 112, Emily 262, Hannah 275, Grace 243, Hannah 120, Olivia 75, Jessica 379, Hannah 250, Grace 504, Olivia 263</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Emma 6, Taylor 391, Lauren 267, Jessica 187, Brianna 54, Taylor 155, Lauren 258, Elizabeth 101, Madison 291, Emma 311</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1317,10 +1777,14 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
+          <t>Jessica 154, Emma 164, Olivia 303, Emma 340, Madison 254, Ashley 179, Kayla 308, Sarah 320, Alyssa 136, Ashley 348, Madison 380, Alexis 259, Ashley 134, Isabella 107, Jessica 525, Elizabeth 111, Ashley 442, Lauren 454, Grace 450, Ashley 290, Emma 24, Ashley 246, Olivia 319, Hannah 400, Grace 407, Elizabeth 350, Isabella 509, Olivia 148, Ashley 167, Abigail 343, Samantha 409, Taylor 396, Elizabeth 14, Taylor 155, Emma 443, Elizabeth 302</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Taylor 79, Brianna 49, Lauren 114, Madison 464, Grace 5, Emma 506, Emma 36, Hannah 182, Emma 312, Olivia 385</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1328,8 +1792,16 @@
           <t>Meditsiinikursus</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Alyssa 131, Sarah 508, Brianna 54, Samantha 12, Taylor 48, Abigail 273, Jessica 431, Taylor 16, Emily 362, Alexis 78, Alexis 487, Grace 214, Kayla 304, Emily 341, Olivia 202</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Hannah 463, Isabella 488, Lauren 280, Elizabeth 219, Brianna 520, Emily 465, Samantha 276, Sarah 272, Jessica 187, Samantha 512</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1337,8 +1809,16 @@
           <t>Psühholoogia alused</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Abigail 514, Alyssa 177, Brianna 165, Alexis 489, Hannah 387, Brianna 249, Brianna 398, Lauren 183, Isabella 493, Taylor 121, Grace 305, Sarah 42, Sarah 64, Taylor 292, Elizabeth 403, Isabella 220, Jessica 222, Sarah 485, Elizabeth 185, Samantha 106, Taylor 173, Kayla 25, Lauren 307, Isabella 112</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Alexis 435, Alyssa 240, Grace 197, Kayla 176, Kayla 40, Madison 316, Abigail 457, Grace 216, Olivia 75, Samantha 414</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1346,8 +1826,16 @@
           <t>Riigikaitse 1</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Isabella 315, Emma 392, Hannah 510, Alyssa 336, Grace 476, Abigail 137, Emma 325, Alexis 349, Sarah 139, Abigail 298, Alexis 468, Emily 281, Jessica 382, Samantha 218, Brianna 204, Hannah 245, Elizabeth 389, Kayla 321, Elizabeth 326, Sarah 207, Abigail 127, Olivia 432, Samantha 156, Brianna 511, Hannah 297, Emily 262, Madison 285, Olivia 19, Madison 291, Alexis 491, Kayla 146, Ashley 227, Alyssa 378, Hannah 43, Lauren 375, Jessica 35, Isabella 161, Madison 411, Lauren 117, Jessica 283, Brianna 346, Taylor 391, Lauren 3, Lauren 494, Emily 108, Emily 440, Abigail 174, Emma 425, Emma 312, Emma 490, Taylor 522, Samantha 414, Jessica 53, Sarah 196, Elizabeth 459, Lauren 280, Abigail 286, Ashley 384, Abigail 457, Alexis 223, Grace 434, Kayla 295, Olivia 386, Kayla 309, Alyssa 265, Madison 21, Hannah 182, Isabella 141, Alexis 324, Ashley 190, Sarah 272, Taylor 501, Hannah 327, Isabella 397, Lauren 114, Taylor 310, Hannah 251, Madison 31, Lauren 470, Hannah 74</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Alyssa 449, Emma 203, Samantha 418, Alyssa 131, Brianna 346, Samantha 503, Isabella 29, Jessica 499, Alyssa 300, Hannah 483</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1355,7 +1843,11 @@
           <t>Riigikaitse 2</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Isabella 315, Hannah 245, Isabella 161, Samantha 414, Elizabeth 389, Sarah 207, Sarah 196, Brianna 204, Taylor 391</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -1366,10 +1858,14 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Brianna 1, Emma 5</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
+          <t>Brianna 344, Lauren 201, Abigail 209, Samantha 268, Samantha 282, Hannah 233, Hannah 498, Lauren 372, Emily 23, Taylor 124, Hannah 427, Madison 256, Jessica 357, Madison 80, Elizabeth 500, Isabella 77, Emily 477, Brianna 113, Alyssa 458, Emma 203, Kayla 446, Isabella 143, Emma 200, Isabella 439, Sarah 370</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Kayla 436, Madison 225, Isabella 397, Taylor 402, Ashley 448, Abigail 496, Samantha 313, Elizabeth 445, Alexis 394, Ashley 2</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1377,7 +1873,11 @@
           <t>Ajakirjanduse praktika</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Brianna 165, Grace 450, Abigail 212, Sarah 413, Madison 467, Ashley 190, Samantha 409, Isabella 112, Alexis 491, Taylor 79, Sarah 323, Lauren 140, Grace 15, Emma 332, Abigail 496, Emily 262, Olivia 75, Samantha 163, Samantha 133</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -1388,10 +1888,14 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Emma 5</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
+          <t>Abigail 514, Brianna 376, Abigail 209, Samantha 299, Emily 205, Sarah 508, Hannah 387, Samantha 12, Grace 476, Alyssa 253, Emma 70, Alyssa 502, Sarah 116, Abigail 298, Brianna 492, Emily 341, Emma 388, Jessica 382, Isabella 488, Alexis 51, Lauren 518, Isabella 77, Kayla 172, Sarah 466, Olivia 416, Emma 366, Madison 469, Isabella 439, Hannah 98, Kayla 157</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Grace 407, Ashley 374, Isabella 220, Sarah 207, Abigail 66, Madison 31, Jessica 405, Ashley 167, Elizabeth 185, Abigail 496</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1401,10 +1905,14 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jessica 2, Lauren 4</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
+          <t>Hannah 74, Madison 472, Lauren 226, Isabella 1, Olivia 102, Madison 46, Isabella 471, Alyssa 415, Emma 325, Hannah 427, Sarah 320, Sarah 139, Grace 214, Madison 380, Lauren 294, Lauren 183, Ashley 134, Kayla 304</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Emily 281, Ashley 239, Grace 147, Hannah 138, Olivia 202, Lauren 454, Lauren 441, Isabella 484, Brianna 113, Ashley 290</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1414,10 +1922,14 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sarah 0, Hannah 3</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
+          <t>Brianna 344, Isabella 505, Sarah 242, Alexis 8, Emma 392, Kayla 92, Alyssa 336, Olivia 303, Emma 486, Abigail 137, Abigail 76, Alexis 166, Abigail 273, Emma 453, Alexis 349, Elizabeth 73</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Madison 254, Emma 410, Kayla 32, Alexis 78, Olivia 480, Hannah 9, Elizabeth 101, Olivia 38, Sarah 55, Isabella 493</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1425,8 +1937,16 @@
           <t>Raamatukunst</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Grace 232, Abigail 209, Emma 392, Isabella 419, Abigail 273, Emma 453, Samantha 418, Alyssa 253, Jessica 431, Alyssa 415, Kayla 308, Alexis 78, Madison 380, Lauren 294, Olivia 480, Alexis 468, Olivia 38, Brianna 492, Emily 341, Elizabeth 500</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Hannah 110, Emma 203, Samantha 11, Lauren 280, Emma 24, Emma 200, Jessica 187, Samantha 512, Brianna 329, Grace 407</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1436,10 +1956,14 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Lauren 4</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
+          <t>Brianna 344, Alyssa 131, Lauren 261, Abigail 360, Samantha 12, Taylor 48, Alyssa 50, Sarah 116, Ashley 239, Grace 147, Ashley 352, Abigail 212, Kayla 172, Sarah 466, Ashley 482, Elizabeth 318</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Brianna 329, Hannah 400, Elizabeth 257, Abigail 322, Madison 225, Ashley 167, Ashley 2, Sarah 22, Abigail 422, Olivia 224</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1449,10 +1973,14 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Hannah 3, Jessica 2</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr"/>
+          <t>Brianna 344, Lauren 226, Emma 164, Lauren 201, Hannah 351, Abigail 81, Sarah 288, Samantha 59, Elizabeth 68, Lauren 417, Lauren 518, Hannah 365, Kayla 337, Jessica 345, Brianna 39, Emma 332, Alexis 194, Lauren 153, Kayla 58, Elizabeth 162</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Madison 31, Alexis 377, Kayla 524, Isabella 112, Brianna 523, Brianna 10, Madison 213, Grace 132, Jessica 35, Kayla 301</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1464,7 +1992,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Geograafia</t>
+          <t>Bioloogia 2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -1473,7 +2001,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kirjandus</t>
+          <t>Geograafia</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -1482,7 +2010,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Inglise keel</t>
+          <t>Kirjandus</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -1491,7 +2019,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ökoloogia</t>
+          <t>Inglise keel</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -1500,25 +2028,21 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Koorilaul</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Brianna 1, Hannah 3, Lauren 4, Emma 5</t>
-        </is>
-      </c>
+          <t>Ökoloogia</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Rahvatants</t>
+          <t>Koorilaul</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Jessica 2, Emma 5, Lauren 4, Hannah 3</t>
+          <t>Alyssa 502, Grace 18, Isabella 397, Jessica 357, Brianna 39, Lauren 331, Olivia 263, Abigail 298, Emma 325, Elizabeth 302, Elizabeth 403, Hannah 260, Grace 214, Emily 90, Alexis 259, Abigail 52, Lauren 28, Alyssa 240, Emily 429, Taylor 236, Hannah 74, Ashley 63, Elizabeth 318, Taylor 124, Brianna 520, Grace 407, Kayla 103, Ashley 134, Kayla 309, Jessica 35, Elizabeth 219, Emma 392</t>
         </is>
       </c>
       <c r="O104" t="inlineStr"/>
@@ -1526,12 +2050,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Akvaristika</t>
+          <t>Rahvatants</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Lauren 4, Emma 5</t>
+          <t>Ashley 264, Olivia 385, Kayla 58, Elizabeth 326, Alexis 142, Madison 472, Brianna 204, Taylor 292, Ashley 482, Taylor 155, Abigail 81, Isabella 141, Brianna 329, Madison 467, Alexis 104, Sarah 62, Samantha 106, Olivia 122, Emily 90, Samantha 335, Elizabeth 445, Sarah 95, Hannah 351, Emma 325, Lauren 294, Brianna 10, Hannah 233</t>
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
@@ -1539,12 +2063,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Näitering</t>
+          <t>Akvaristika</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Emma 5</t>
+          <t>Emma 410, Samantha 447, Ashley 348, Olivia 385, Hannah 462, Isabella 315, Kayla 67, Alexis 144, Emma 366, Alyssa 358, Olivia 224, Abigail 514, Madison 444, Alyssa 515, Jessica 428, Sarah 130, Lauren 375, Emma 443, Kayla 309, Alyssa 449, Olivia 181, Abigail 160</t>
         </is>
       </c>
       <c r="O106" t="inlineStr"/>
@@ -1552,29 +2076,54 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Mehhatroonika ja robootika</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+          <t>Näitering</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Emma 24, Alyssa 502, Brianna 39, Brianna 10, Emma 203, Ashley 65, Alyssa 240, Olivia 202, Abigail 248, Lauren 433, Taylor 123, Samantha 30, Abigail 118, Brianna 126, Isabella 220, Kayla 103, Lauren 93, Emma 26, Ashley 184, Samantha 335, Emma 332</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Digitehnoloogiaga sõbraks</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>Mehhatroonika ja robootika</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Emma 366, Jessica 187, Olivia 122, Hannah 463, Sarah 42, Sarah 207, Abigail 160, Taylor 124, Olivia 91, Jessica 521, Sarah 323, Emily 108, Elizabeth 302, Jessica 420, Alyssa 300, Kayla 92, Alyssa 358, Alyssa 136, Kayla 176, Grace 363, Jessica 357, Taylor 292, Alyssa 449, Abigail 322, Emma 26, Elizabeth 445, Emily 159, Olivia 263, Ashley 134, Olivia 224, Olivia 181, Kayla 301</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>Digitehnoloogiaga sõbraks</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Hannah 400, Grace 406, Olivia 19, Lauren 258, Elizabeth 403, Emma 388, Emily 159, Olivia 91, Madison 213, Ashley 227, Sarah 288, Ashley 134, Sarah 195, Elizabeth 302, Hannah 387, Isabella 315, Sarah 62, Taylor 390, Alyssa 449, Emma 332</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t>Keskkonnaseire ja digilahendused</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Abigail 76, Isabella 471, Sarah 369, Alexis 94, Emily 205, Samantha 512, Madison 188, Grace 504, Grace 476, Abigail 514, Emma 340, Madison 380, Brianna 204, Samantha 12, Kayla 309, Madison 330, Hannah 245, Lauren 375, Isabella 315, Alyssa 230, Emma 26, Kayla 301, Elizabeth 219, Olivia 181</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
